--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Waste Calculator</t>
-  </si>
-  <si>
-    <t>CCHGs</t>
   </si>
   <si>
     <t>PRM Oppourtunity Prospective Scores</t>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>Existing Collborative Discount</t>
+  </si>
+  <si>
+    <t>Medical Conditions</t>
   </si>
 </sst>
 </file>
@@ -1011,55 +1011,55 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="3" width="18" style="68" customWidth="1"/>
-    <col min="4" max="8" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="18.7265625" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="74">
         <v>43009</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="75">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="71"/>
       <c r="C3" s="76"/>
       <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="72" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="72" t="s">
         <v>7</v>
       </c>
@@ -1086,22 +1086,22 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="L5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="72" t="s">
         <v>5</v>
       </c>
@@ -1113,129 +1113,129 @@
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="72" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="72" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="72" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>4</v>
@@ -1245,37 +1245,37 @@
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
@@ -1304,45 +1304,45 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1388,12 +1388,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1465,9 +1465,9 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D37, Calcs!D50)</f>
@@ -1501,7 +1501,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1537,9 +1537,9 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D39, Calcs!D52)</f>
@@ -1572,7 +1572,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
@@ -1642,9 +1642,9 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D42, Calcs!D55)</f>
@@ -1677,9 +1677,9 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="20">
         <f>SUM(Calcs!D43, Calcs!D56)</f>
@@ -1712,9 +1712,9 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C16" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D44, Calcs!D57)</f>
@@ -1747,9 +1747,9 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D45, Calcs!D58)</f>
@@ -1782,14 +1782,14 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <f>SUM(Calcs!D61, Calcs!D67)</f>
@@ -1822,9 +1822,9 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D62, Calcs!D68)</f>
@@ -1857,9 +1857,9 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <f>SUM(Calcs!D63, Calcs!D69)</f>
@@ -1892,9 +1892,9 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D64, Calcs!D70)</f>
@@ -1927,14 +1927,14 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>61</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(Calcs!D85:D86)</f>
@@ -1967,9 +1967,9 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
         <f>Calcs!D90</f>
@@ -2002,9 +2002,9 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1">
         <f>Calcs!D92</f>
@@ -2037,9 +2037,9 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D28)</f>
@@ -2069,7 +2069,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -2083,9 +2083,9 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2103,15 +2103,15 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C33" s="66">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="7">
         <f>(D30/12*Inputs!$C$2+D4)*$C$33</f>
@@ -2141,7 +2141,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -2156,18 +2156,18 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C39" s="7">
         <f>SUM(Outputs_Timeline!R:R)</f>
         <v>59925</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C40" s="53">
         <f>SUM(D35:H35)</f>
         <v>59925</v>
@@ -2175,17 +2175,17 @@
       <c r="D40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2203,65 +2203,65 @@
   <dimension ref="B1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" customWidth="1"/>
+    <col min="10" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F1" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2291,9 +2291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="26"/>
@@ -2331,9 +2331,9 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2342,7 +2342,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
@@ -2406,9 +2406,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D11:H11)</f>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>11</v>
       </c>
@@ -2470,9 +2470,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D13:H13)</f>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
@@ -2563,23 +2563,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D15" s="18">
         <f>SUM(Calcs!D16:H16)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0.1</v>
+      <c r="F15" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="78">
+        <v>0.4</v>
       </c>
       <c r="H15" s="37">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="3"/>
@@ -2594,9 +2594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D17:H17)</f>
@@ -2625,9 +2625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D18:H18)</f>
@@ -2656,9 +2656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="20">
         <f>SUM(Calcs!D19:H19)</f>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2695,9 +2695,9 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="G20" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="10">
         <v>0.1</v>
@@ -2706,7 +2706,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2714,9 +2714,9 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2725,7 +2725,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C23" s="15" t="s">
         <v>2</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C24" s="28" t="s">
         <v>3</v>
       </c>
@@ -2793,9 +2793,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C25" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D24:H24)</f>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2861,9 +2861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D26:H26)</f>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
         <v>13</v>
       </c>
@@ -2960,9 +2960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C30" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D30" s="18">
         <f>SUM(Calcs!D29:H29)</f>
@@ -2970,15 +2970,15 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="8"/>
-        <v>8.8888888888888906E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="37">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" si="9"/>
-        <v>0.71111111111111125</v>
+        <v>0</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="10"/>
@@ -2993,9 +2993,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C31" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="20">
         <f>SUM(Calcs!D30:H30)</f>
@@ -3026,9 +3026,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C32" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D31:H31)</f>
@@ -3059,9 +3059,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C33" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="29">
         <f>SUM(Calcs!D32:H32)</f>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3100,9 +3100,9 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3111,9 +3111,9 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C36" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="18">
         <f>SUM(Calcs!D73:H73)</f>
@@ -3142,9 +3142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C37" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="18">
         <f>SUM(Calcs!D74:H74)</f>
@@ -3173,9 +3173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C38" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D75:H75)</f>
@@ -3204,9 +3204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C39" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D76:H76)</f>
@@ -3235,14 +3235,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -3251,9 +3251,9 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C42" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="29">
         <f>SUM(Calcs!D79:H79)</f>
@@ -3284,9 +3284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C43" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="18">
         <f>SUM(Calcs!D80:H80)</f>
@@ -3317,9 +3317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C44" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="20">
         <f>SUM(Calcs!D81:H81)</f>
@@ -3350,9 +3350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C45" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="20">
         <f>SUM(Calcs!D82:H82)</f>
@@ -3383,22 +3383,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
@@ -3429,9 +3429,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
@@ -3462,9 +3462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1">
         <f>SUM(Outputs_External!D28:H28)</f>
@@ -3495,14 +3495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
@@ -3521,9 +3521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C53" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="23">
         <f>SUM(J52:L52)</f>
@@ -3533,14 +3533,14 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1">
         <f>SUM(Outputs_Timeline!R:R)</f>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="J56" s="54">
         <f>IFERROR(J55/$D$55, 0)</f>
@@ -3574,14 +3574,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
@@ -3594,10 +3594,10 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="23">
         <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="23">
         <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" s="27"/>
       <c r="C62" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="23">
         <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" s="27"/>
       <c r="C63" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="23">
         <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
@@ -3752,102 +3752,102 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="62" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" style="65"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.7109375" style="65"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.54296875" style="62" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="65"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="65" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.7265625" style="65"/>
+    <col min="17" max="17" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
       <c r="F1" s="67">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
       <c r="M1" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N1" s="63"/>
       <c r="O1" s="63"/>
       <c r="P1" s="63"/>
       <c r="R1" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
       <c r="U1" s="63"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="J2" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>90</v>
-      </c>
       <c r="M2" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="64" t="s">
+      <c r="O2" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="64" t="s">
-        <v>90</v>
-      </c>
       <c r="R2" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="64" t="s">
+      <c r="T2" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="62">
         <v>42917</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="T3" s="65"/>
       <c r="U3" s="65"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="62">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="62">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="62">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="62">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="62">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="62">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="62">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="62">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="62">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="62">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="62">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="62">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="62">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="62">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="62">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="62">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="62">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="62">
         <f t="shared" si="0"/>
         <v>43466</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="62">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="62">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="62">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="62">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="62">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="62">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="62">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="62">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="62">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="62">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="62">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="62">
         <f t="shared" si="0"/>
         <v>43831</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="62">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="62">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B36" s="62">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B37" s="62">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="62">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B39" s="62">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B40" s="62">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B41" s="62">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B42" s="62">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B43" s="62">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B44" s="62">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B45" s="62">
         <f t="shared" si="0"/>
         <v>44197</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B46" s="62">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B47" s="62">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B48" s="62">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B49" s="62">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B50" s="62">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B51" s="62">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B52" s="62">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B53" s="62">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B54" s="62">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B55" s="62">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B56" s="62">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B57" s="62">
         <f t="shared" si="0"/>
         <v>44562</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B58" s="62">
         <f t="shared" si="0"/>
         <v>44593</v>
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B59" s="62">
         <f t="shared" si="0"/>
         <v>44621</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B60" s="62">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B61" s="62">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B62" s="62">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B63" s="62">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B64" s="62">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B65" s="62">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B66" s="62">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B67" s="62">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B68" s="62">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B69" s="62">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B70" s="62">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B71" s="62">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B72" s="62">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B73" s="62">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B74" s="62">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B75" s="62">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B76" s="62">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B77" s="62">
         <f t="shared" si="6"/>
         <v>45170</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B78" s="62">
         <f t="shared" si="6"/>
         <v>45200</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B79" s="62">
         <f t="shared" si="6"/>
         <v>45231</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B80" s="62">
         <f t="shared" si="6"/>
         <v>45261</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B81" s="62">
         <f t="shared" si="6"/>
         <v>45292</v>
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B82" s="62">
         <f t="shared" si="6"/>
         <v>45323</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B83" s="62">
         <f t="shared" si="6"/>
         <v>45352</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B84" s="62">
         <f t="shared" si="6"/>
         <v>45383</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B85" s="62">
         <f t="shared" si="6"/>
         <v>45413</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B86" s="62">
         <f t="shared" si="6"/>
         <v>45444</v>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B87" s="62">
         <f t="shared" si="6"/>
         <v>45474</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B88" s="62">
         <f t="shared" si="6"/>
         <v>45505</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B89" s="62">
         <f t="shared" si="6"/>
         <v>45536</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B90" s="62">
         <f t="shared" si="6"/>
         <v>45566</v>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B91" s="62">
         <f t="shared" si="6"/>
         <v>45597</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B92" s="62">
         <f t="shared" si="6"/>
         <v>45627</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B93" s="62">
         <f t="shared" si="6"/>
         <v>45658</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B94" s="62">
         <f t="shared" si="6"/>
         <v>45689</v>
@@ -9905,59 +9905,59 @@
   <dimension ref="B2:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -9982,16 +9982,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5">
         <f>IF(Inputs!D4="N",MAX(Inputs!D7-25000,0),0)</f>
@@ -10014,19 +10014,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -10076,9 +10076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
@@ -10126,9 +10126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
@@ -10201,9 +10201,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C16" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
@@ -10226,9 +10226,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C16, 0)</f>
@@ -10251,9 +10251,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$20="Y"), Prices!$C17, 0)</f>
@@ -10276,9 +10276,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$20="Y"), Prices!$C18, 0)</f>
@@ -10301,12 +10301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C23" s="28" t="s">
         <v>3</v>
       </c>
@@ -10351,9 +10351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C24" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
@@ -10401,9 +10401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C26" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>13</v>
       </c>
@@ -10476,9 +10476,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D29" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -10501,9 +10501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C30" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -10526,9 +10526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C31" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -10551,9 +10551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C32" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="29">
         <v>0</v>
@@ -10571,19 +10571,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C36" s="15" t="s">
         <v>3</v>
       </c>
@@ -10633,9 +10633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C37" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="18">
         <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
@@ -10658,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C38" s="17" t="s">
         <v>11</v>
       </c>
@@ -10683,9 +10683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C39" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="18">
         <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C40" s="17" t="s">
         <v>12</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C41" s="17" t="s">
         <v>13</v>
       </c>
@@ -10758,9 +10758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C42" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D42" s="18">
         <f>IF(AND(Inputs!D14="Y",Inputs!D$19="N"),Prices!$C15,0)</f>
@@ -10783,9 +10783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="20">
         <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C16,0)</f>
@@ -10808,9 +10808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C44" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="20">
         <f>IF(AND(Inputs!D16="Y",Inputs!D$20="N"),Prices!$C17,0)</f>
@@ -10833,9 +10833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C45" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="20">
         <f>IF(AND(Inputs!D17="Y",Inputs!D$20="N"),Prices!$C18,0)</f>
@@ -10858,12 +10858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C49" s="28" t="s">
         <v>3</v>
       </c>
@@ -10908,9 +10908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C50" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C51" s="17" t="s">
         <v>11</v>
       </c>
@@ -10958,9 +10958,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C52" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C53" s="17" t="s">
         <v>12</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C54" s="17" t="s">
         <v>13</v>
       </c>
@@ -11033,9 +11033,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C55" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D55" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -11058,9 +11058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C56" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -11083,9 +11083,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C57" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -11108,9 +11108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C58" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="29">
         <v>0</v>
@@ -11128,14 +11128,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C61" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="18">
         <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
@@ -11178,9 +11178,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C62" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="18">
         <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
@@ -11223,9 +11223,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C63" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="20">
         <f>IF(Inputs!D20="Y", Prices!$C22, 0)</f>
@@ -11268,9 +11268,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C64" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="20">
         <f>IF(Inputs!D21="Y", Prices!$C23, 0)</f>
@@ -11313,14 +11313,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C67" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="29">
         <v>0</v>
@@ -11358,9 +11358,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C68" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="18">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D19 = "Y", D$6*Prices!$D21, 0)))</f>
@@ -11383,9 +11383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C69" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D20 = "Y", D$6*Prices!$D22, 0)))</f>
@@ -11408,9 +11408,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C70" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D21 = "Y", D$6*Prices!$D23, 0)))</f>
@@ -11433,21 +11433,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C73" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="18">
         <f>D61</f>
@@ -11470,9 +11470,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" s="18">
         <f>IF(D62=0,0,D62-SUM(D11:D16))</f>
@@ -11495,9 +11495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C75" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="20">
         <f>IF(D63=0,0,D63-SUM(D17:D19))</f>
@@ -11520,9 +11520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C76" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="20">
         <f t="shared" ref="D76:H76" si="12">D64</f>
@@ -11545,14 +11545,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C79" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="29">
         <v>0</v>
@@ -11590,9 +11590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C80" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" s="18">
         <f>IF(D68=0,0,D68-SUM(D24:D29))</f>
@@ -11615,9 +11615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C81" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" s="20">
         <f>IF(D69=0,0,D69-SUM(D30:D31))</f>
@@ -11640,9 +11640,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C82" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="20">
         <f t="shared" ref="D82:H82" si="19">D70</f>
@@ -11665,14 +11665,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(2, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(2, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -11695,9 +11695,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -11720,9 +11720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D88" s="7">
         <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
@@ -11745,12 +11745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" s="1">
         <f>IF(D100=1, 0, IF(D100=2, $E$103, IF(D100=3, $E$104, IF(D100=4, $E$105, IF(D100=5, $E$106, "")))))</f>
@@ -11773,16 +11773,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="2">
         <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*D94*-1</f>
@@ -11805,9 +11805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D94" s="7">
         <f>SUM(D88, D90)</f>
@@ -11830,10 +11830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27"/>
       <c r="C97" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D97" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D88,$D$88:$H$88),5)</f>
@@ -11856,7 +11856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="27"/>
       <c r="D98" s="21">
         <v>0.1</v>
@@ -11874,7 +11874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="27"/>
       <c r="D99" s="21">
         <f>SUM(D97:D98)</f>
@@ -11897,7 +11897,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="27"/>
       <c r="D100" s="21">
         <f>_xlfn.RANK.EQ(D99, $D$99:$H$99, 5)</f>
@@ -11920,56 +11920,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="27"/>
     </row>
-    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="27"/>
       <c r="C102" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="27"/>
       <c r="D103" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E103" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$100:$H$100, 0))*Prices!$I$10*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="27"/>
       <c r="D104" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E104" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(3, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="27"/>
       <c r="D105" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E105" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(4, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="27"/>
       <c r="D106" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E106" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(5, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F110" s="2"/>
     </row>
   </sheetData>
@@ -11982,33 +11982,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.1796875" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -12018,12 +12016,12 @@
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -12033,26 +12031,26 @@
       </c>
       <c r="E4" s="1"/>
       <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
       </c>
       <c r="I5" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="43">
         <v>15000</v>
@@ -12064,15 +12062,15 @@
         <v>0.27</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="43">
         <v>6750</v>
@@ -12084,30 +12082,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
       <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="45">
         <v>1000</v>
@@ -12116,13 +12114,13 @@
         <v>0.04</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
@@ -12133,15 +12131,15 @@
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="45">
         <v>2000</v>
@@ -12150,7 +12148,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -12162,7 +12160,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -12173,15 +12171,15 @@
         <v>0.05</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="59">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C15" s="45">
         <v>4000</v>
@@ -12190,15 +12188,15 @@
         <v>0.05</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="55">
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="46">
         <v>10000</v>
@@ -12209,9 +12207,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="46">
         <v>5000</v>
@@ -12220,15 +12218,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="3">
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="46">
         <v>5000</v>
@@ -12237,19 +12235,19 @@
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" s="55">
         <v>44197</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C19" s="44"/>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="45">
         <v>8500</v>
@@ -12258,9 +12256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="45">
         <v>33000</v>
@@ -12269,9 +12267,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="46">
         <v>35000</v>
@@ -12280,9 +12278,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="46">
         <v>28000</v>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,6 @@
     <sheet name="Calcs" sheetId="1" r:id="rId5"/>
     <sheet name="Prices" sheetId="3" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ACOInsight1">Inputs!$D$18:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$56</definedName>
@@ -763,38 +760,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Inputs"/>
-      <sheetName val="Outputs_External"/>
-      <sheetName val="Outputs_Internal"/>
-      <sheetName val="Outputs_Timeline"/>
-      <sheetName val="Calcs"/>
-      <sheetName val="Prices"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="51">
-          <cell r="M51">
-            <v>0</v>
-          </cell>
-          <cell r="N51">
-            <v>480</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1064,7 +1029,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,10 +2221,10 @@
   <dimension ref="B1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,19 +2307,19 @@
       </c>
       <c r="I4" s="52"/>
       <c r="K4" s="12">
-        <f>F4*$D4</f>
+        <f t="shared" ref="K4:N5" si="0">F4*$D4</f>
         <v>0</v>
       </c>
       <c r="L4" s="12">
-        <f>G4*$D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="12">
-        <f>H4*$D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="12">
-        <f>I4*$D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2379,19 +2344,19 @@
       </c>
       <c r="I5" s="52"/>
       <c r="K5" s="12">
-        <f>F5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="12">
-        <f>G5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="12">
-        <f>H5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="12">
-        <f>I5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2432,7 +2397,7 @@
         <v>0.6</v>
       </c>
       <c r="H8" s="35">
-        <f t="shared" ref="H8:H18" si="0">1-SUM(F8:G8)</f>
+        <f t="shared" ref="H8:H18" si="1">1-SUM(F8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="35">
@@ -2447,11 +2412,11 @@
         <v>9000</v>
       </c>
       <c r="M8" s="16">
-        <f t="shared" ref="M8:N18" si="1">H8*$D8</f>
+        <f t="shared" ref="M8:N18" si="2">H8*$D8</f>
         <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2471,26 +2436,26 @@
         <v>0.8</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="35">
         <v>0</v>
       </c>
       <c r="K9" s="16">
-        <f t="shared" ref="K9:K18" si="2">F9*$D9</f>
+        <f t="shared" ref="K9:K18" si="3">F9*$D9</f>
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" ref="L9:L17" si="3">G9*$D9</f>
+        <f t="shared" ref="L9:L17" si="4">G9*$D9</f>
         <v>0</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2510,26 +2475,26 @@
         <v>0.9</v>
       </c>
       <c r="H10" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="37">
         <v>0</v>
       </c>
       <c r="K10" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N10" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2555,19 +2520,19 @@
         <v>0.1</v>
       </c>
       <c r="K11" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2586,26 +2551,26 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="37">
         <v>0</v>
       </c>
       <c r="K12" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N12" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2624,26 +2589,26 @@
         <v>0.9</v>
       </c>
       <c r="H13" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="37">
         <v>0</v>
       </c>
       <c r="K13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N13" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2668,19 +2633,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N14" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2699,26 +2664,26 @@
         <v>0.4</v>
       </c>
       <c r="H15" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="37">
         <v>0</v>
       </c>
       <c r="K15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N15" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2737,26 +2702,26 @@
         <v>0.9</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="38">
         <v>0</v>
       </c>
       <c r="K16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2775,26 +2740,26 @@
         <v>0.9</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="38">
         <v>0</v>
       </c>
       <c r="K17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2813,14 +2778,14 @@
         <v>0.9</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="38">
         <v>0</v>
       </c>
       <c r="K18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="20">
@@ -2828,11 +2793,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2896,7 +2861,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G23" s="35">
-        <f t="shared" ref="G23:G33" si="4">MIN(1,G8+$H$20)</f>
+        <f t="shared" ref="G23:G33" si="5">MIN(1,G8+$H$20)</f>
         <v>0.7</v>
       </c>
       <c r="H23" s="35">
@@ -2912,15 +2877,15 @@
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" ref="L23:L33" si="5">G23*$D23</f>
+        <f t="shared" ref="L23:L33" si="6">G23*$D23</f>
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" ref="M23:N33" si="6">H23*$D23</f>
+        <f t="shared" ref="M23:N33" si="7">H23*$D23</f>
         <v>0</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2934,35 +2899,35 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="36">
-        <f t="shared" ref="F24:F33" si="7">(1-G24)*F9/SUM(F9,H9)</f>
+        <f t="shared" ref="F24:F33" si="8">(1-G24)*F9/SUM(F9,H9)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H24" s="36">
-        <f t="shared" ref="H24:H33" si="8">IF(H9=0, 0,(1-G24)*H9/SUM(F9,H9))</f>
+        <f t="shared" ref="H24:H33" si="9">IF(H9=0, 0,(1-G24)*H9/SUM(F9,H9))</f>
         <v>0</v>
       </c>
       <c r="I24" s="36">
-        <f t="shared" ref="I24:I33" si="9">IF(I9=0, 0,(1-G24)*I9/SUM(F9,I9))</f>
+        <f t="shared" ref="I24:I33" si="10">IF(I9=0, 0,(1-G24)*I9/SUM(F9,I9))</f>
         <v>0</v>
       </c>
       <c r="K24" s="29">
-        <f t="shared" ref="K24:K33" si="10">F24*$D24</f>
+        <f t="shared" ref="K24:K33" si="11">F24*$D24</f>
         <v>0</v>
       </c>
       <c r="L24" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N24" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2976,35 +2941,35 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G25" s="37">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="N25" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3018,35 +2983,35 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="37">
+        <f t="shared" si="8"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H26" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="10"/>
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="18">
         <f t="shared" si="7"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="G26" s="37">
-        <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H26" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="37">
-        <f t="shared" si="9"/>
-        <v>8.1818181818181804E-2</v>
-      </c>
-      <c r="K26" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="18">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3059,35 +3024,35 @@
         <v>0</v>
       </c>
       <c r="F27" s="37">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="37">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
         <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="G27" s="37">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="18">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3100,35 +3065,35 @@
         <v>0</v>
       </c>
       <c r="F28" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G28" s="37">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H28" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="N28" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3141,35 +3106,35 @@
         <v>0</v>
       </c>
       <c r="F29" s="37">
+        <f t="shared" si="8"/>
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="G29" s="37">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="37">
+        <f t="shared" si="9"/>
+        <v>0.71111111111111125</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
         <f t="shared" si="7"/>
-        <v>8.8888888888888906E-2</v>
-      </c>
-      <c r="G29" s="37">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="37">
-        <f t="shared" si="8"/>
-        <v>0.71111111111111125</v>
-      </c>
-      <c r="I29" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3182,35 +3147,35 @@
         <v>0</v>
       </c>
       <c r="F30" s="37">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
         <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="37">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="18">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3223,35 +3188,35 @@
         <v>0</v>
       </c>
       <c r="F31" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G31" s="38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="38">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="N31" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3264,35 +3229,35 @@
         <v>0</v>
       </c>
       <c r="F32" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G32" s="38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H32" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="38">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="N32" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3305,35 +3270,35 @@
         <v>0</v>
       </c>
       <c r="F33" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G33" s="36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="N33" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3382,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="K36" s="18">
-        <f>F36*$D36</f>
+        <f t="shared" ref="K36:N39" si="12">F36*$D36</f>
         <v>7650</v>
       </c>
       <c r="L36" s="18">
-        <f>G36*$D36</f>
+        <f t="shared" si="12"/>
         <v>850</v>
       </c>
       <c r="M36" s="18">
-        <f>H36*$D36</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N36" s="18">
-        <f>I36*$D36</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3420,19 +3385,19 @@
         <v>0</v>
       </c>
       <c r="K37" s="18">
-        <f>F37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L37" s="18">
-        <f>G37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M37" s="18">
-        <f>H37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N37" s="18">
-        <f>I37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3451,26 +3416,26 @@
         <v>0.9</v>
       </c>
       <c r="H38" s="38">
-        <f t="shared" ref="H38:H39" si="11">1-SUM(F38:G38)</f>
+        <f t="shared" ref="H38:H39" si="13">1-SUM(F38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="38">
         <v>0</v>
       </c>
       <c r="K38" s="20">
-        <f>F38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L38" s="20">
-        <f>G38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M38" s="20">
-        <f>H38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N38" s="20">
-        <f>I38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3489,26 +3454,26 @@
         <v>0.9</v>
       </c>
       <c r="H39" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I39" s="38">
         <v>0</v>
       </c>
       <c r="K39" s="20">
-        <f>F39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L39" s="20">
-        <f>G39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M39" s="20">
-        <f>H39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N39" s="20">
-        <f>I39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3559,15 +3524,15 @@
         <v>0</v>
       </c>
       <c r="L42" s="29">
-        <f t="shared" ref="L42:L45" si="12">G42*$D42</f>
+        <f t="shared" ref="L42:L45" si="14">G42*$D42</f>
         <v>0</v>
       </c>
       <c r="M42" s="29">
-        <f t="shared" ref="M42:N45" si="13">H42*$D42</f>
+        <f t="shared" ref="M42:N45" si="15">H42*$D42</f>
         <v>0</v>
       </c>
       <c r="N42" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3584,7 +3549,7 @@
         <v>0.8</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" ref="G43:G45" si="14">MIN(1,G37+$H$20)</f>
+        <f t="shared" ref="G43:G45" si="16">MIN(1,G37+$H$20)</f>
         <v>0.2</v>
       </c>
       <c r="H43" s="30">
@@ -3599,15 +3564,15 @@
         <v>0</v>
       </c>
       <c r="L43" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M43" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N43" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3624,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H44" s="31">
@@ -3635,19 +3600,19 @@
         <v>0</v>
       </c>
       <c r="K44" s="20">
-        <f t="shared" ref="K44:K45" si="15">F44*$D44</f>
+        <f t="shared" ref="K44:K45" si="17">F44*$D44</f>
         <v>0</v>
       </c>
       <c r="L44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M44" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N44" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3664,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H45" s="31">
@@ -3675,19 +3640,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="N45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3896,7 +3861,7 @@
       </c>
       <c r="N55" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>1440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
@@ -3915,7 +3880,7 @@
       </c>
       <c r="N56" s="54">
         <f>IFERROR(N55/$D$55, 0)</f>
-        <v>2.4030037546933666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -3967,19 +3932,19 @@
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="25">
-        <f>F60*$D60</f>
+        <f t="shared" ref="K60:N63" si="18">F60*$D60</f>
         <v>7650</v>
       </c>
       <c r="L60" s="25">
-        <f>G60*$D60</f>
+        <f t="shared" si="18"/>
         <v>850</v>
       </c>
       <c r="M60" s="25">
-        <f>H60*$D60</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N60" s="25">
-        <f>I60*$D60</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="24">
-        <f t="shared" ref="G61" si="16">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
+        <f t="shared" ref="G61" si="19">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="24">
@@ -4011,19 +3976,19 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="25">
-        <f>F61*$D61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L61" s="25">
-        <f>G61*$D61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M61" s="25">
-        <f>H61*$D61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N61" s="25">
-        <f>I61*$D61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4055,19 +4020,19 @@
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="25">
-        <f>F62*$D62</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L62" s="25">
-        <f>G62*$D62</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M62" s="25">
-        <f>H62*$D62</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N62" s="25">
-        <f>I62*$D62</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4099,19 +4064,19 @@
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="25">
-        <f>F63*$D63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L63" s="25">
-        <f>G63*$D63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M63" s="25">
-        <f>H63*$D63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N63" s="25">
-        <f>I63*$D63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4129,7 +4094,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5:W94"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,11 +4246,11 @@
         <v>0</v>
       </c>
       <c r="P3" s="65">
-        <f>$F3*[1]Outputs_Internal!M$51/12</f>
+        <f>$F3*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q3" s="65">
-        <f>$F3*[1]Outputs_Internal!N$51/12</f>
+        <f>$F3*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S3" s="65"/>
@@ -4340,11 +4305,11 @@
         <v>0</v>
       </c>
       <c r="P4" s="65">
-        <f>$F4*[1]Outputs_Internal!M$51/12</f>
+        <f>$F4*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q4" s="65">
-        <f>$F4*[1]Outputs_Internal!N$51/12</f>
+        <f>$F4*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
     </row>
@@ -4394,11 +4359,11 @@
         <v>0</v>
       </c>
       <c r="P5" s="65">
-        <f>$F5*[1]Outputs_Internal!M$51/12</f>
+        <f>$F5*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q5" s="65">
-        <f>$F5*[1]Outputs_Internal!N$51/12</f>
+        <f>$F5*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S5" s="65">
@@ -4406,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="65">
-        <f t="shared" ref="T5:V5" si="1">IF(MOD(MONTH($B5),3)=0,SUM(I3:I5,N3:N5),0)</f>
+        <f t="shared" ref="T5:U5" si="1">IF(MOD(MONTH($B5),3)=0,SUM(I3:I5,N3:N5),0)</f>
         <v>0</v>
       </c>
       <c r="U5" s="65">
@@ -4468,12 +4433,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P6" s="65">
-        <f>$F6*[1]Outputs_Internal!M$51/12</f>
+        <f>$F6*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q6" s="65">
-        <f>$F6*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F6*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S6" s="65">
         <f t="shared" ref="S6:S69" si="2">IF(MOD(MONTH($B6),3)=0,SUM(H4:H6,M4:M6),0)</f>
@@ -4542,12 +4507,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P7" s="65">
-        <f>$F7*[1]Outputs_Internal!M$51/12</f>
+        <f>$F7*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q7" s="65">
-        <f>$F7*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F7*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S7" s="65">
         <f t="shared" si="2"/>
@@ -4616,12 +4581,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P8" s="65">
-        <f>$F8*[1]Outputs_Internal!M$51/12</f>
+        <f>$F8*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q8" s="65">
-        <f>$F8*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F8*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S8" s="65">
         <f t="shared" si="2"/>
@@ -4641,7 +4606,7 @@
       </c>
       <c r="W8" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -4690,12 +4655,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P9" s="65">
-        <f>$F9*[1]Outputs_Internal!M$51/12</f>
+        <f>$F9*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q9" s="65">
-        <f>$F9*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F9*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S9" s="65">
         <f t="shared" si="2"/>
@@ -4764,12 +4729,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P10" s="65">
-        <f>$F10*[1]Outputs_Internal!M$51/12</f>
+        <f>$F10*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q10" s="65">
-        <f>$F10*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F10*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S10" s="65">
         <f t="shared" si="2"/>
@@ -4838,12 +4803,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P11" s="65">
-        <f>$F11*[1]Outputs_Internal!M$51/12</f>
+        <f>$F11*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q11" s="65">
-        <f>$F11*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F11*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S11" s="65">
         <f t="shared" si="2"/>
@@ -4863,7 +4828,7 @@
       </c>
       <c r="W11" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -4912,12 +4877,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P12" s="65">
-        <f>$F12*[1]Outputs_Internal!M$51/12</f>
+        <f>$F12*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="65">
-        <f>$F12*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F12*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S12" s="65">
         <f t="shared" si="2"/>
@@ -4986,12 +4951,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P13" s="65">
-        <f>$F13*[1]Outputs_Internal!M$51/12</f>
+        <f>$F13*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q13" s="65">
-        <f>$F13*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F13*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S13" s="65">
         <f t="shared" si="2"/>
@@ -5060,12 +5025,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P14" s="65">
-        <f>$F14*[1]Outputs_Internal!M$51/12</f>
+        <f>$F14*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q14" s="65">
-        <f>$F14*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F14*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S14" s="65">
         <f t="shared" si="2"/>
@@ -5085,7 +5050,7 @@
       </c>
       <c r="W14" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -5134,12 +5099,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P15" s="65">
-        <f>$F15*[1]Outputs_Internal!M$51/12</f>
+        <f>$F15*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q15" s="65">
-        <f>$F15*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F15*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S15" s="65">
         <f t="shared" si="2"/>
@@ -5208,12 +5173,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P16" s="65">
-        <f>$F16*[1]Outputs_Internal!M$51/12</f>
+        <f>$F16*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q16" s="65">
-        <f>$F16*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F16*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S16" s="65">
         <f t="shared" si="2"/>
@@ -5282,12 +5247,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P17" s="65">
-        <f>$F17*[1]Outputs_Internal!M$51/12</f>
+        <f>$F17*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q17" s="65">
-        <f>$F17*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F17*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S17" s="65">
         <f t="shared" si="2"/>
@@ -5307,7 +5272,7 @@
       </c>
       <c r="W17" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -5356,12 +5321,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P18" s="65">
-        <f>$F18*[1]Outputs_Internal!M$51/12</f>
+        <f>$F18*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <f>$F18*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F18*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S18" s="65">
         <f t="shared" si="2"/>
@@ -5430,12 +5395,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P19" s="65">
-        <f>$F19*[1]Outputs_Internal!M$51/12</f>
+        <f>$F19*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q19" s="65">
-        <f>$F19*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F19*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S19" s="65">
         <f t="shared" si="2"/>
@@ -5504,12 +5469,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P20" s="65">
-        <f>$F20*[1]Outputs_Internal!M$51/12</f>
+        <f>$F20*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q20" s="65">
-        <f>$F20*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F20*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S20" s="65">
         <f t="shared" si="2"/>
@@ -5529,7 +5494,7 @@
       </c>
       <c r="W20" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -5578,12 +5543,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P21" s="65">
-        <f>$F21*[1]Outputs_Internal!M$51/12</f>
+        <f>$F21*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q21" s="65">
-        <f>$F21*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F21*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S21" s="65">
         <f t="shared" si="2"/>
@@ -5652,12 +5617,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P22" s="65">
-        <f>$F22*[1]Outputs_Internal!M$51/12</f>
+        <f>$F22*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q22" s="65">
-        <f>$F22*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F22*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S22" s="65">
         <f t="shared" si="2"/>
@@ -5726,12 +5691,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P23" s="65">
-        <f>$F23*[1]Outputs_Internal!M$51/12</f>
+        <f>$F23*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q23" s="65">
-        <f>$F23*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F23*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S23" s="65">
         <f t="shared" si="2"/>
@@ -5751,7 +5716,7 @@
       </c>
       <c r="W23" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -5800,12 +5765,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P24" s="65">
-        <f>$F24*[1]Outputs_Internal!M$51/12</f>
+        <f>$F24*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q24" s="65">
-        <f>$F24*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F24*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S24" s="65">
         <f t="shared" si="2"/>
@@ -5874,12 +5839,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P25" s="65">
-        <f>$F25*[1]Outputs_Internal!M$51/12</f>
+        <f>$F25*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q25" s="65">
-        <f>$F25*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F25*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S25" s="65">
         <f t="shared" si="2"/>
@@ -5948,12 +5913,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P26" s="65">
-        <f>$F26*[1]Outputs_Internal!M$51/12</f>
+        <f>$F26*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q26" s="65">
-        <f>$F26*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F26*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S26" s="65">
         <f t="shared" si="2"/>
@@ -5973,7 +5938,7 @@
       </c>
       <c r="W26" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -6022,12 +5987,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P27" s="65">
-        <f>$F27*[1]Outputs_Internal!M$51/12</f>
+        <f>$F27*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q27" s="65">
-        <f>$F27*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F27*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S27" s="65">
         <f t="shared" si="2"/>
@@ -6096,12 +6061,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P28" s="65">
-        <f>$F28*[1]Outputs_Internal!M$51/12</f>
+        <f>$F28*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <f>$F28*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F28*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S28" s="65">
         <f t="shared" si="2"/>
@@ -6170,12 +6135,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P29" s="65">
-        <f>$F29*[1]Outputs_Internal!M$51/12</f>
+        <f>$F29*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q29" s="65">
-        <f>$F29*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F29*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S29" s="65">
         <f t="shared" si="2"/>
@@ -6195,7 +6160,7 @@
       </c>
       <c r="W29" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -6244,12 +6209,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P30" s="65">
-        <f>$F30*[1]Outputs_Internal!M$51/12</f>
+        <f>$F30*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q30" s="65">
-        <f>$F30*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F30*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S30" s="65">
         <f t="shared" si="2"/>
@@ -6318,12 +6283,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P31" s="65">
-        <f>$F31*[1]Outputs_Internal!M$51/12</f>
+        <f>$F31*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q31" s="65">
-        <f>$F31*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F31*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S31" s="65">
         <f t="shared" si="2"/>
@@ -6392,12 +6357,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P32" s="65">
-        <f>$F32*[1]Outputs_Internal!M$51/12</f>
+        <f>$F32*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q32" s="65">
-        <f>$F32*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F32*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S32" s="65">
         <f t="shared" si="2"/>
@@ -6417,7 +6382,7 @@
       </c>
       <c r="W32" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -6466,12 +6431,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P33" s="65">
-        <f>$F33*[1]Outputs_Internal!M$51/12</f>
+        <f>$F33*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q33" s="65">
-        <f>$F33*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F33*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S33" s="65">
         <f t="shared" si="2"/>
@@ -6540,12 +6505,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P34" s="65">
-        <f>$F34*[1]Outputs_Internal!M$51/12</f>
+        <f>$F34*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q34" s="65">
-        <f>$F34*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F34*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S34" s="65">
         <f t="shared" si="2"/>
@@ -6614,12 +6579,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P35" s="65">
-        <f>$F35*[1]Outputs_Internal!M$51/12</f>
+        <f>$F35*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q35" s="65">
-        <f>$F35*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F35*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S35" s="65">
         <f t="shared" si="2"/>
@@ -6639,7 +6604,7 @@
       </c>
       <c r="W35" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -6688,12 +6653,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P36" s="65">
-        <f>$F36*[1]Outputs_Internal!M$51/12</f>
+        <f>$F36*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q36" s="65">
-        <f>$F36*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F36*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S36" s="65">
         <f t="shared" si="2"/>
@@ -6762,12 +6727,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P37" s="65">
-        <f>$F37*[1]Outputs_Internal!M$51/12</f>
+        <f>$F37*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q37" s="65">
-        <f>$F37*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F37*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S37" s="65">
         <f t="shared" si="2"/>
@@ -6836,12 +6801,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P38" s="65">
-        <f>$F38*[1]Outputs_Internal!M$51/12</f>
+        <f>$F38*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q38" s="65">
-        <f>$F38*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F38*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S38" s="65">
         <f t="shared" si="2"/>
@@ -6861,7 +6826,7 @@
       </c>
       <c r="W38" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -6910,12 +6875,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P39" s="65">
-        <f>$F39*[1]Outputs_Internal!M$51/12</f>
+        <f>$F39*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q39" s="65">
-        <f>$F39*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F39*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S39" s="65">
         <f t="shared" si="2"/>
@@ -6984,12 +6949,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P40" s="65">
-        <f>$F40*[1]Outputs_Internal!M$51/12</f>
+        <f>$F40*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q40" s="65">
-        <f>$F40*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F40*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S40" s="65">
         <f t="shared" si="2"/>
@@ -7058,12 +7023,12 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P41" s="65">
-        <f>$F41*[1]Outputs_Internal!M$51/12</f>
+        <f>$F41*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q41" s="65">
-        <f>$F41*[1]Outputs_Internal!N$51/12</f>
-        <v>40</v>
+        <f>$F41*Outputs_Internal!N$51/12</f>
+        <v>0</v>
       </c>
       <c r="S41" s="65">
         <f t="shared" si="2"/>
@@ -7083,7 +7048,7 @@
       </c>
       <c r="W41" s="65">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -7132,11 +7097,11 @@
         <v>0</v>
       </c>
       <c r="P42" s="65">
-        <f>$F42*[1]Outputs_Internal!M$51/12</f>
+        <f>$F42*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <f>$F42*[1]Outputs_Internal!N$51/12</f>
+        <f>$F42*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S42" s="65">
@@ -7206,11 +7171,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="65">
-        <f>$F43*[1]Outputs_Internal!M$51/12</f>
+        <f>$F43*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q43" s="65">
-        <f>$F43*[1]Outputs_Internal!N$51/12</f>
+        <f>$F43*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S43" s="65">
@@ -7280,11 +7245,11 @@
         <v>0</v>
       </c>
       <c r="P44" s="65">
-        <f>$F44*[1]Outputs_Internal!M$51/12</f>
+        <f>$F44*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q44" s="65">
-        <f>$F44*[1]Outputs_Internal!N$51/12</f>
+        <f>$F44*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S44" s="65">
@@ -7354,11 +7319,11 @@
         <v>0</v>
       </c>
       <c r="P45" s="65">
-        <f>$F45*[1]Outputs_Internal!M$51/12</f>
+        <f>$F45*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q45" s="65">
-        <f>$F45*[1]Outputs_Internal!N$51/12</f>
+        <f>$F45*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S45" s="65">
@@ -7428,11 +7393,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="65">
-        <f>$F46*[1]Outputs_Internal!M$51/12</f>
+        <f>$F46*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q46" s="65">
-        <f>$F46*[1]Outputs_Internal!N$51/12</f>
+        <f>$F46*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S46" s="65">
@@ -7502,11 +7467,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="65">
-        <f>$F47*[1]Outputs_Internal!M$51/12</f>
+        <f>$F47*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q47" s="65">
-        <f>$F47*[1]Outputs_Internal!N$51/12</f>
+        <f>$F47*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S47" s="65">
@@ -7576,11 +7541,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="65">
-        <f>$F48*[1]Outputs_Internal!M$51/12</f>
+        <f>$F48*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q48" s="65">
-        <f>$F48*[1]Outputs_Internal!N$51/12</f>
+        <f>$F48*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S48" s="65">
@@ -7650,11 +7615,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="65">
-        <f>$F49*[1]Outputs_Internal!M$51/12</f>
+        <f>$F49*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q49" s="65">
-        <f>$F49*[1]Outputs_Internal!N$51/12</f>
+        <f>$F49*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S49" s="65">
@@ -7724,11 +7689,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="65">
-        <f>$F50*[1]Outputs_Internal!M$51/12</f>
+        <f>$F50*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q50" s="65">
-        <f>$F50*[1]Outputs_Internal!N$51/12</f>
+        <f>$F50*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S50" s="65">
@@ -7798,11 +7763,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="65">
-        <f>$F51*[1]Outputs_Internal!M$51/12</f>
+        <f>$F51*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q51" s="65">
-        <f>$F51*[1]Outputs_Internal!N$51/12</f>
+        <f>$F51*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S51" s="65">
@@ -7872,11 +7837,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="65">
-        <f>$F52*[1]Outputs_Internal!M$51/12</f>
+        <f>$F52*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q52" s="65">
-        <f>$F52*[1]Outputs_Internal!N$51/12</f>
+        <f>$F52*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S52" s="65">
@@ -7946,11 +7911,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="65">
-        <f>$F53*[1]Outputs_Internal!M$51/12</f>
+        <f>$F53*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q53" s="65">
-        <f>$F53*[1]Outputs_Internal!N$51/12</f>
+        <f>$F53*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S53" s="65">
@@ -8020,11 +7985,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="65">
-        <f>$F54*[1]Outputs_Internal!M$51/12</f>
+        <f>$F54*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q54" s="65">
-        <f>$F54*[1]Outputs_Internal!N$51/12</f>
+        <f>$F54*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S54" s="65">
@@ -8094,11 +8059,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="65">
-        <f>$F55*[1]Outputs_Internal!M$51/12</f>
+        <f>$F55*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q55" s="65">
-        <f>$F55*[1]Outputs_Internal!N$51/12</f>
+        <f>$F55*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S55" s="65">
@@ -8168,11 +8133,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="65">
-        <f>$F56*[1]Outputs_Internal!M$51/12</f>
+        <f>$F56*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q56" s="65">
-        <f>$F56*[1]Outputs_Internal!N$51/12</f>
+        <f>$F56*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S56" s="65">
@@ -8242,11 +8207,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="65">
-        <f>$F57*[1]Outputs_Internal!M$51/12</f>
+        <f>$F57*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q57" s="65">
-        <f>$F57*[1]Outputs_Internal!N$51/12</f>
+        <f>$F57*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S57" s="65">
@@ -8316,11 +8281,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="65">
-        <f>$F58*[1]Outputs_Internal!M$51/12</f>
+        <f>$F58*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q58" s="65">
-        <f>$F58*[1]Outputs_Internal!N$51/12</f>
+        <f>$F58*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S58" s="65">
@@ -8390,11 +8355,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="65">
-        <f>$F59*[1]Outputs_Internal!M$51/12</f>
+        <f>$F59*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q59" s="65">
-        <f>$F59*[1]Outputs_Internal!N$51/12</f>
+        <f>$F59*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S59" s="65">
@@ -8464,11 +8429,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="65">
-        <f>$F60*[1]Outputs_Internal!M$51/12</f>
+        <f>$F60*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q60" s="65">
-        <f>$F60*[1]Outputs_Internal!N$51/12</f>
+        <f>$F60*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S60" s="65">
@@ -8538,11 +8503,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="65">
-        <f>$F61*[1]Outputs_Internal!M$51/12</f>
+        <f>$F61*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q61" s="65">
-        <f>$F61*[1]Outputs_Internal!N$51/12</f>
+        <f>$F61*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S61" s="65">
@@ -8612,11 +8577,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="65">
-        <f>$F62*[1]Outputs_Internal!M$51/12</f>
+        <f>$F62*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q62" s="65">
-        <f>$F62*[1]Outputs_Internal!N$51/12</f>
+        <f>$F62*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S62" s="65">
@@ -8686,11 +8651,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="65">
-        <f>$F63*[1]Outputs_Internal!M$51/12</f>
+        <f>$F63*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q63" s="65">
-        <f>$F63*[1]Outputs_Internal!N$51/12</f>
+        <f>$F63*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S63" s="65">
@@ -8760,11 +8725,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="65">
-        <f>$F64*[1]Outputs_Internal!M$51/12</f>
+        <f>$F64*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q64" s="65">
-        <f>$F64*[1]Outputs_Internal!N$51/12</f>
+        <f>$F64*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S64" s="65">
@@ -8834,11 +8799,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="65">
-        <f>$F65*[1]Outputs_Internal!M$51/12</f>
+        <f>$F65*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q65" s="65">
-        <f>$F65*[1]Outputs_Internal!N$51/12</f>
+        <f>$F65*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S65" s="65">
@@ -8908,11 +8873,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="65">
-        <f>$F66*[1]Outputs_Internal!M$51/12</f>
+        <f>$F66*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <f>$F66*[1]Outputs_Internal!N$51/12</f>
+        <f>$F66*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S66" s="65">
@@ -8982,11 +8947,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="65">
-        <f>$F67*[1]Outputs_Internal!M$51/12</f>
+        <f>$F67*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q67" s="65">
-        <f>$F67*[1]Outputs_Internal!N$51/12</f>
+        <f>$F67*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S67" s="65">
@@ -9056,11 +9021,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="65">
-        <f>$F68*[1]Outputs_Internal!M$51/12</f>
+        <f>$F68*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q68" s="65">
-        <f>$F68*[1]Outputs_Internal!N$51/12</f>
+        <f>$F68*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S68" s="65">
@@ -9130,11 +9095,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="65">
-        <f>$F69*[1]Outputs_Internal!M$51/12</f>
+        <f>$F69*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q69" s="65">
-        <f>$F69*[1]Outputs_Internal!N$51/12</f>
+        <f>$F69*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S69" s="65">
@@ -9204,11 +9169,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="65">
-        <f>$F70*[1]Outputs_Internal!M$51/12</f>
+        <f>$F70*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q70" s="65">
-        <f>$F70*[1]Outputs_Internal!N$51/12</f>
+        <f>$F70*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S70" s="65">
@@ -9278,11 +9243,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="65">
-        <f>$F71*[1]Outputs_Internal!M$51/12</f>
+        <f>$F71*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q71" s="65">
-        <f>$F71*[1]Outputs_Internal!N$51/12</f>
+        <f>$F71*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S71" s="65">
@@ -9352,11 +9317,11 @@
         <v>0</v>
       </c>
       <c r="P72" s="65">
-        <f>$F72*[1]Outputs_Internal!M$51/12</f>
+        <f>$F72*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q72" s="65">
-        <f>$F72*[1]Outputs_Internal!N$51/12</f>
+        <f>$F72*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S72" s="65">
@@ -9426,11 +9391,11 @@
         <v>0</v>
       </c>
       <c r="P73" s="65">
-        <f>$F73*[1]Outputs_Internal!M$51/12</f>
+        <f>$F73*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q73" s="65">
-        <f>$F73*[1]Outputs_Internal!N$51/12</f>
+        <f>$F73*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S73" s="65">
@@ -9500,11 +9465,11 @@
         <v>0</v>
       </c>
       <c r="P74" s="65">
-        <f>$F74*[1]Outputs_Internal!M$51/12</f>
+        <f>$F74*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q74" s="65">
-        <f>$F74*[1]Outputs_Internal!N$51/12</f>
+        <f>$F74*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S74" s="65">
@@ -9574,11 +9539,11 @@
         <v>0</v>
       </c>
       <c r="P75" s="65">
-        <f>$F75*[1]Outputs_Internal!M$51/12</f>
+        <f>$F75*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q75" s="65">
-        <f>$F75*[1]Outputs_Internal!N$51/12</f>
+        <f>$F75*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S75" s="65">
@@ -9648,11 +9613,11 @@
         <v>0</v>
       </c>
       <c r="P76" s="65">
-        <f>$F76*[1]Outputs_Internal!M$51/12</f>
+        <f>$F76*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q76" s="65">
-        <f>$F76*[1]Outputs_Internal!N$51/12</f>
+        <f>$F76*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S76" s="65">
@@ -9722,11 +9687,11 @@
         <v>0</v>
       </c>
       <c r="P77" s="65">
-        <f>$F77*[1]Outputs_Internal!M$51/12</f>
+        <f>$F77*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q77" s="65">
-        <f>$F77*[1]Outputs_Internal!N$51/12</f>
+        <f>$F77*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S77" s="65">
@@ -9796,11 +9761,11 @@
         <v>0</v>
       </c>
       <c r="P78" s="65">
-        <f>$F78*[1]Outputs_Internal!M$51/12</f>
+        <f>$F78*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q78" s="65">
-        <f>$F78*[1]Outputs_Internal!N$51/12</f>
+        <f>$F78*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S78" s="65">
@@ -9870,11 +9835,11 @@
         <v>0</v>
       </c>
       <c r="P79" s="65">
-        <f>$F79*[1]Outputs_Internal!M$51/12</f>
+        <f>$F79*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q79" s="65">
-        <f>$F79*[1]Outputs_Internal!N$51/12</f>
+        <f>$F79*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S79" s="65">
@@ -9944,11 +9909,11 @@
         <v>0</v>
       </c>
       <c r="P80" s="65">
-        <f>$F80*[1]Outputs_Internal!M$51/12</f>
+        <f>$F80*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q80" s="65">
-        <f>$F80*[1]Outputs_Internal!N$51/12</f>
+        <f>$F80*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S80" s="65">
@@ -10018,11 +9983,11 @@
         <v>0</v>
       </c>
       <c r="P81" s="65">
-        <f>$F81*[1]Outputs_Internal!M$51/12</f>
+        <f>$F81*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q81" s="65">
-        <f>$F81*[1]Outputs_Internal!N$51/12</f>
+        <f>$F81*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S81" s="65">
@@ -10092,11 +10057,11 @@
         <v>0</v>
       </c>
       <c r="P82" s="65">
-        <f>$F82*[1]Outputs_Internal!M$51/12</f>
+        <f>$F82*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q82" s="65">
-        <f>$F82*[1]Outputs_Internal!N$51/12</f>
+        <f>$F82*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S82" s="65">
@@ -10166,11 +10131,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="65">
-        <f>$F83*[1]Outputs_Internal!M$51/12</f>
+        <f>$F83*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q83" s="65">
-        <f>$F83*[1]Outputs_Internal!N$51/12</f>
+        <f>$F83*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S83" s="65">
@@ -10240,11 +10205,11 @@
         <v>0</v>
       </c>
       <c r="P84" s="65">
-        <f>$F84*[1]Outputs_Internal!M$51/12</f>
+        <f>$F84*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q84" s="65">
-        <f>$F84*[1]Outputs_Internal!N$51/12</f>
+        <f>$F84*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S84" s="65">
@@ -10314,11 +10279,11 @@
         <v>0</v>
       </c>
       <c r="P85" s="65">
-        <f>$F85*[1]Outputs_Internal!M$51/12</f>
+        <f>$F85*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q85" s="65">
-        <f>$F85*[1]Outputs_Internal!N$51/12</f>
+        <f>$F85*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S85" s="65">
@@ -10388,11 +10353,11 @@
         <v>0</v>
       </c>
       <c r="P86" s="65">
-        <f>$F86*[1]Outputs_Internal!M$51/12</f>
+        <f>$F86*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q86" s="65">
-        <f>$F86*[1]Outputs_Internal!N$51/12</f>
+        <f>$F86*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S86" s="65">
@@ -10462,11 +10427,11 @@
         <v>0</v>
       </c>
       <c r="P87" s="65">
-        <f>$F87*[1]Outputs_Internal!M$51/12</f>
+        <f>$F87*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q87" s="65">
-        <f>$F87*[1]Outputs_Internal!N$51/12</f>
+        <f>$F87*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S87" s="65">
@@ -10536,11 +10501,11 @@
         <v>0</v>
       </c>
       <c r="P88" s="65">
-        <f>$F88*[1]Outputs_Internal!M$51/12</f>
+        <f>$F88*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q88" s="65">
-        <f>$F88*[1]Outputs_Internal!N$51/12</f>
+        <f>$F88*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S88" s="65">
@@ -10610,11 +10575,11 @@
         <v>0</v>
       </c>
       <c r="P89" s="65">
-        <f>$F89*[1]Outputs_Internal!M$51/12</f>
+        <f>$F89*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q89" s="65">
-        <f>$F89*[1]Outputs_Internal!N$51/12</f>
+        <f>$F89*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S89" s="65">
@@ -10684,11 +10649,11 @@
         <v>0</v>
       </c>
       <c r="P90" s="65">
-        <f>$F90*[1]Outputs_Internal!M$51/12</f>
+        <f>$F90*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q90" s="65">
-        <f>$F90*[1]Outputs_Internal!N$51/12</f>
+        <f>$F90*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S90" s="65">
@@ -10758,11 +10723,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="65">
-        <f>$F91*[1]Outputs_Internal!M$51/12</f>
+        <f>$F91*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q91" s="65">
-        <f>$F91*[1]Outputs_Internal!N$51/12</f>
+        <f>$F91*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S91" s="65">
@@ -10832,11 +10797,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="65">
-        <f>$F92*[1]Outputs_Internal!M$51/12</f>
+        <f>$F92*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q92" s="65">
-        <f>$F92*[1]Outputs_Internal!N$51/12</f>
+        <f>$F92*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S92" s="65">
@@ -10906,11 +10871,11 @@
         <v>0</v>
       </c>
       <c r="P93" s="65">
-        <f>$F93*[1]Outputs_Internal!M$51/12</f>
+        <f>$F93*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q93" s="65">
-        <f>$F93*[1]Outputs_Internal!N$51/12</f>
+        <f>$F93*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S93" s="65">
@@ -10980,11 +10945,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="65">
-        <f>$F94*[1]Outputs_Internal!M$51/12</f>
+        <f>$F94*Outputs_Internal!M$51/12</f>
         <v>0</v>
       </c>
       <c r="Q94" s="65">
-        <f>$F94*[1]Outputs_Internal!N$51/12</f>
+        <f>$F94*Outputs_Internal!N$51/12</f>
         <v>0</v>
       </c>
       <c r="S94" s="65">
@@ -11009,7 +10974,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:W1 D3:W4 D2:O2 R2:U2 D95:W1048576 D5:U94">
+  <conditionalFormatting sqref="D1:W1 D3:W3 D2:O2 R2:U2 D95:W1048576 R5:U94 R4:W4 D4:Q94">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2220,11 +2220,11 @@
   </sheetPr>
   <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="37">
-        <f t="shared" si="8"/>
-        <v>0.44999999999999996</v>
+        <f>(1-G26)*F11/SUM(F11,H11, I11)</f>
+        <v>0.36818181818181811</v>
       </c>
       <c r="G26" s="37">
         <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H26" s="37">
-        <f t="shared" si="9"/>
+        <f>IF(H11=0, 0,(1-G26)*H11/SUM(F11,H11))</f>
         <v>0</v>
       </c>
       <c r="I26" s="37">

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -2220,7 +2220,7 @@
   </sheetPr>
   <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4090,11 +4090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,11 +4246,11 @@
         <v>0</v>
       </c>
       <c r="P3" s="65">
-        <f>$F3*Outputs_Internal!M$51/12</f>
+        <f>$F3*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q3" s="65">
-        <f>$F3*Outputs_Internal!N$51/12</f>
+        <f>$F3*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S3" s="65"/>
@@ -4305,11 +4305,11 @@
         <v>0</v>
       </c>
       <c r="P4" s="65">
-        <f>$F4*Outputs_Internal!M$51/12</f>
+        <f>$F4*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q4" s="65">
-        <f>$F4*Outputs_Internal!N$51/12</f>
+        <f>$F4*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
     </row>
@@ -4359,11 +4359,11 @@
         <v>0</v>
       </c>
       <c r="P5" s="65">
-        <f>$F5*Outputs_Internal!M$51/12</f>
+        <f>$F5*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q5" s="65">
-        <f>$F5*Outputs_Internal!N$51/12</f>
+        <f>$F5*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S5" s="65">
@@ -4433,11 +4433,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P6" s="65">
-        <f>$F6*Outputs_Internal!M$51/12</f>
+        <f>$F6*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q6" s="65">
-        <f>$F6*Outputs_Internal!N$51/12</f>
+        <f>$F6*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S6" s="65">
@@ -4507,11 +4507,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P7" s="65">
-        <f>$F7*Outputs_Internal!M$51/12</f>
+        <f>$F7*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q7" s="65">
-        <f>$F7*Outputs_Internal!N$51/12</f>
+        <f>$F7*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S7" s="65">
@@ -4581,11 +4581,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P8" s="65">
-        <f>$F8*Outputs_Internal!M$51/12</f>
+        <f>$F8*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q8" s="65">
-        <f>$F8*Outputs_Internal!N$51/12</f>
+        <f>$F8*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S8" s="65">
@@ -4655,11 +4655,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P9" s="65">
-        <f>$F9*Outputs_Internal!M$51/12</f>
+        <f>$F9*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q9" s="65">
-        <f>$F9*Outputs_Internal!N$51/12</f>
+        <f>$F9*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S9" s="65">
@@ -4729,11 +4729,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P10" s="65">
-        <f>$F10*Outputs_Internal!M$51/12</f>
+        <f>$F10*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q10" s="65">
-        <f>$F10*Outputs_Internal!N$51/12</f>
+        <f>$F10*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S10" s="65">
@@ -4803,11 +4803,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P11" s="65">
-        <f>$F11*Outputs_Internal!M$51/12</f>
+        <f>$F11*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q11" s="65">
-        <f>$F11*Outputs_Internal!N$51/12</f>
+        <f>$F11*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S11" s="65">
@@ -4877,11 +4877,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P12" s="65">
-        <f>$F12*Outputs_Internal!M$51/12</f>
+        <f>$F12*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="65">
-        <f>$F12*Outputs_Internal!N$51/12</f>
+        <f>$F12*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S12" s="65">
@@ -4951,11 +4951,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P13" s="65">
-        <f>$F13*Outputs_Internal!M$51/12</f>
+        <f>$F13*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q13" s="65">
-        <f>$F13*Outputs_Internal!N$51/12</f>
+        <f>$F13*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S13" s="65">
@@ -5025,11 +5025,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P14" s="65">
-        <f>$F14*Outputs_Internal!M$51/12</f>
+        <f>$F14*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q14" s="65">
-        <f>$F14*Outputs_Internal!N$51/12</f>
+        <f>$F14*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S14" s="65">
@@ -5099,11 +5099,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P15" s="65">
-        <f>$F15*Outputs_Internal!M$51/12</f>
+        <f>$F15*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q15" s="65">
-        <f>$F15*Outputs_Internal!N$51/12</f>
+        <f>$F15*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S15" s="65">
@@ -5173,11 +5173,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P16" s="65">
-        <f>$F16*Outputs_Internal!M$51/12</f>
+        <f>$F16*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q16" s="65">
-        <f>$F16*Outputs_Internal!N$51/12</f>
+        <f>$F16*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S16" s="65">
@@ -5247,11 +5247,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P17" s="65">
-        <f>$F17*Outputs_Internal!M$51/12</f>
+        <f>$F17*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q17" s="65">
-        <f>$F17*Outputs_Internal!N$51/12</f>
+        <f>$F17*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S17" s="65">
@@ -5321,11 +5321,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P18" s="65">
-        <f>$F18*Outputs_Internal!M$51/12</f>
+        <f>$F18*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <f>$F18*Outputs_Internal!N$51/12</f>
+        <f>$F18*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S18" s="65">
@@ -5395,11 +5395,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P19" s="65">
-        <f>$F19*Outputs_Internal!M$51/12</f>
+        <f>$F19*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q19" s="65">
-        <f>$F19*Outputs_Internal!N$51/12</f>
+        <f>$F19*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S19" s="65">
@@ -5469,11 +5469,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P20" s="65">
-        <f>$F20*Outputs_Internal!M$51/12</f>
+        <f>$F20*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q20" s="65">
-        <f>$F20*Outputs_Internal!N$51/12</f>
+        <f>$F20*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S20" s="65">
@@ -5543,11 +5543,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P21" s="65">
-        <f>$F21*Outputs_Internal!M$51/12</f>
+        <f>$F21*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q21" s="65">
-        <f>$F21*Outputs_Internal!N$51/12</f>
+        <f>$F21*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S21" s="65">
@@ -5617,11 +5617,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P22" s="65">
-        <f>$F22*Outputs_Internal!M$51/12</f>
+        <f>$F22*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q22" s="65">
-        <f>$F22*Outputs_Internal!N$51/12</f>
+        <f>$F22*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S22" s="65">
@@ -5691,11 +5691,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P23" s="65">
-        <f>$F23*Outputs_Internal!M$51/12</f>
+        <f>$F23*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q23" s="65">
-        <f>$F23*Outputs_Internal!N$51/12</f>
+        <f>$F23*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S23" s="65">
@@ -5765,11 +5765,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P24" s="65">
-        <f>$F24*Outputs_Internal!M$51/12</f>
+        <f>$F24*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q24" s="65">
-        <f>$F24*Outputs_Internal!N$51/12</f>
+        <f>$F24*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S24" s="65">
@@ -5839,11 +5839,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P25" s="65">
-        <f>$F25*Outputs_Internal!M$51/12</f>
+        <f>$F25*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q25" s="65">
-        <f>$F25*Outputs_Internal!N$51/12</f>
+        <f>$F25*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S25" s="65">
@@ -5913,11 +5913,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P26" s="65">
-        <f>$F26*Outputs_Internal!M$51/12</f>
+        <f>$F26*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q26" s="65">
-        <f>$F26*Outputs_Internal!N$51/12</f>
+        <f>$F26*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S26" s="65">
@@ -5987,11 +5987,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P27" s="65">
-        <f>$F27*Outputs_Internal!M$51/12</f>
+        <f>$F27*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q27" s="65">
-        <f>$F27*Outputs_Internal!N$51/12</f>
+        <f>$F27*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S27" s="65">
@@ -6061,11 +6061,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P28" s="65">
-        <f>$F28*Outputs_Internal!M$51/12</f>
+        <f>$F28*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <f>$F28*Outputs_Internal!N$51/12</f>
+        <f>$F28*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S28" s="65">
@@ -6135,11 +6135,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P29" s="65">
-        <f>$F29*Outputs_Internal!M$51/12</f>
+        <f>$F29*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q29" s="65">
-        <f>$F29*Outputs_Internal!N$51/12</f>
+        <f>$F29*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S29" s="65">
@@ -6209,11 +6209,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P30" s="65">
-        <f>$F30*Outputs_Internal!M$51/12</f>
+        <f>$F30*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q30" s="65">
-        <f>$F30*Outputs_Internal!N$51/12</f>
+        <f>$F30*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S30" s="65">
@@ -6283,11 +6283,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P31" s="65">
-        <f>$F31*Outputs_Internal!M$51/12</f>
+        <f>$F31*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q31" s="65">
-        <f>$F31*Outputs_Internal!N$51/12</f>
+        <f>$F31*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S31" s="65">
@@ -6357,11 +6357,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P32" s="65">
-        <f>$F32*Outputs_Internal!M$51/12</f>
+        <f>$F32*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q32" s="65">
-        <f>$F32*Outputs_Internal!N$51/12</f>
+        <f>$F32*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S32" s="65">
@@ -6431,11 +6431,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P33" s="65">
-        <f>$F33*Outputs_Internal!M$51/12</f>
+        <f>$F33*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q33" s="65">
-        <f>$F33*Outputs_Internal!N$51/12</f>
+        <f>$F33*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S33" s="65">
@@ -6505,11 +6505,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P34" s="65">
-        <f>$F34*Outputs_Internal!M$51/12</f>
+        <f>$F34*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q34" s="65">
-        <f>$F34*Outputs_Internal!N$51/12</f>
+        <f>$F34*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S34" s="65">
@@ -6579,11 +6579,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P35" s="65">
-        <f>$F35*Outputs_Internal!M$51/12</f>
+        <f>$F35*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q35" s="65">
-        <f>$F35*Outputs_Internal!N$51/12</f>
+        <f>$F35*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S35" s="65">
@@ -6653,11 +6653,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P36" s="65">
-        <f>$F36*Outputs_Internal!M$51/12</f>
+        <f>$F36*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q36" s="65">
-        <f>$F36*Outputs_Internal!N$51/12</f>
+        <f>$F36*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S36" s="65">
@@ -6727,11 +6727,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P37" s="65">
-        <f>$F37*Outputs_Internal!M$51/12</f>
+        <f>$F37*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q37" s="65">
-        <f>$F37*Outputs_Internal!N$51/12</f>
+        <f>$F37*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S37" s="65">
@@ -6801,11 +6801,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P38" s="65">
-        <f>$F38*Outputs_Internal!M$51/12</f>
+        <f>$F38*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q38" s="65">
-        <f>$F38*Outputs_Internal!N$51/12</f>
+        <f>$F38*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S38" s="65">
@@ -6875,11 +6875,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P39" s="65">
-        <f>$F39*Outputs_Internal!M$51/12</f>
+        <f>$F39*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q39" s="65">
-        <f>$F39*Outputs_Internal!N$51/12</f>
+        <f>$F39*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S39" s="65">
@@ -6949,11 +6949,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P40" s="65">
-        <f>$F40*Outputs_Internal!M$51/12</f>
+        <f>$F40*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q40" s="65">
-        <f>$F40*Outputs_Internal!N$51/12</f>
+        <f>$F40*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S40" s="65">
@@ -7023,11 +7023,11 @@
         <v>697.70833333333337</v>
       </c>
       <c r="P41" s="65">
-        <f>$F41*Outputs_Internal!M$51/12</f>
+        <f>$F41*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q41" s="65">
-        <f>$F41*Outputs_Internal!N$51/12</f>
+        <f>$F41*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S41" s="65">
@@ -7097,11 +7097,11 @@
         <v>0</v>
       </c>
       <c r="P42" s="65">
-        <f>$F42*Outputs_Internal!M$51/12</f>
+        <f>$F42*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <f>$F42*Outputs_Internal!N$51/12</f>
+        <f>$F42*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S42" s="65">
@@ -7171,11 +7171,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="65">
-        <f>$F43*Outputs_Internal!M$51/12</f>
+        <f>$F43*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q43" s="65">
-        <f>$F43*Outputs_Internal!N$51/12</f>
+        <f>$F43*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S43" s="65">
@@ -7245,11 +7245,11 @@
         <v>0</v>
       </c>
       <c r="P44" s="65">
-        <f>$F44*Outputs_Internal!M$51/12</f>
+        <f>$F44*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q44" s="65">
-        <f>$F44*Outputs_Internal!N$51/12</f>
+        <f>$F44*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S44" s="65">
@@ -7319,11 +7319,11 @@
         <v>0</v>
       </c>
       <c r="P45" s="65">
-        <f>$F45*Outputs_Internal!M$51/12</f>
+        <f>$F45*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q45" s="65">
-        <f>$F45*Outputs_Internal!N$51/12</f>
+        <f>$F45*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S45" s="65">
@@ -7393,11 +7393,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="65">
-        <f>$F46*Outputs_Internal!M$51/12</f>
+        <f>$F46*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q46" s="65">
-        <f>$F46*Outputs_Internal!N$51/12</f>
+        <f>$F46*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S46" s="65">
@@ -7467,11 +7467,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="65">
-        <f>$F47*Outputs_Internal!M$51/12</f>
+        <f>$F47*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q47" s="65">
-        <f>$F47*Outputs_Internal!N$51/12</f>
+        <f>$F47*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S47" s="65">
@@ -7541,11 +7541,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="65">
-        <f>$F48*Outputs_Internal!M$51/12</f>
+        <f>$F48*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q48" s="65">
-        <f>$F48*Outputs_Internal!N$51/12</f>
+        <f>$F48*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S48" s="65">
@@ -7615,11 +7615,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="65">
-        <f>$F49*Outputs_Internal!M$51/12</f>
+        <f>$F49*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q49" s="65">
-        <f>$F49*Outputs_Internal!N$51/12</f>
+        <f>$F49*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S49" s="65">
@@ -7689,11 +7689,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="65">
-        <f>$F50*Outputs_Internal!M$51/12</f>
+        <f>$F50*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q50" s="65">
-        <f>$F50*Outputs_Internal!N$51/12</f>
+        <f>$F50*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S50" s="65">
@@ -7763,11 +7763,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="65">
-        <f>$F51*Outputs_Internal!M$51/12</f>
+        <f>$F51*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q51" s="65">
-        <f>$F51*Outputs_Internal!N$51/12</f>
+        <f>$F51*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S51" s="65">
@@ -7837,11 +7837,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="65">
-        <f>$F52*Outputs_Internal!M$51/12</f>
+        <f>$F52*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q52" s="65">
-        <f>$F52*Outputs_Internal!N$51/12</f>
+        <f>$F52*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S52" s="65">
@@ -7911,11 +7911,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="65">
-        <f>$F53*Outputs_Internal!M$51/12</f>
+        <f>$F53*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q53" s="65">
-        <f>$F53*Outputs_Internal!N$51/12</f>
+        <f>$F53*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S53" s="65">
@@ -7985,11 +7985,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="65">
-        <f>$F54*Outputs_Internal!M$51/12</f>
+        <f>$F54*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q54" s="65">
-        <f>$F54*Outputs_Internal!N$51/12</f>
+        <f>$F54*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S54" s="65">
@@ -8059,11 +8059,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="65">
-        <f>$F55*Outputs_Internal!M$51/12</f>
+        <f>$F55*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q55" s="65">
-        <f>$F55*Outputs_Internal!N$51/12</f>
+        <f>$F55*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S55" s="65">
@@ -8133,11 +8133,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="65">
-        <f>$F56*Outputs_Internal!M$51/12</f>
+        <f>$F56*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q56" s="65">
-        <f>$F56*Outputs_Internal!N$51/12</f>
+        <f>$F56*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S56" s="65">
@@ -8207,11 +8207,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="65">
-        <f>$F57*Outputs_Internal!M$51/12</f>
+        <f>$F57*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q57" s="65">
-        <f>$F57*Outputs_Internal!N$51/12</f>
+        <f>$F57*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S57" s="65">
@@ -8281,11 +8281,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="65">
-        <f>$F58*Outputs_Internal!M$51/12</f>
+        <f>$F58*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q58" s="65">
-        <f>$F58*Outputs_Internal!N$51/12</f>
+        <f>$F58*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S58" s="65">
@@ -8355,11 +8355,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="65">
-        <f>$F59*Outputs_Internal!M$51/12</f>
+        <f>$F59*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q59" s="65">
-        <f>$F59*Outputs_Internal!N$51/12</f>
+        <f>$F59*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S59" s="65">
@@ -8429,11 +8429,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="65">
-        <f>$F60*Outputs_Internal!M$51/12</f>
+        <f>$F60*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q60" s="65">
-        <f>$F60*Outputs_Internal!N$51/12</f>
+        <f>$F60*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S60" s="65">
@@ -8503,11 +8503,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="65">
-        <f>$F61*Outputs_Internal!M$51/12</f>
+        <f>$F61*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q61" s="65">
-        <f>$F61*Outputs_Internal!N$51/12</f>
+        <f>$F61*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S61" s="65">
@@ -8577,11 +8577,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="65">
-        <f>$F62*Outputs_Internal!M$51/12</f>
+        <f>$F62*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q62" s="65">
-        <f>$F62*Outputs_Internal!N$51/12</f>
+        <f>$F62*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S62" s="65">
@@ -8651,11 +8651,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="65">
-        <f>$F63*Outputs_Internal!M$51/12</f>
+        <f>$F63*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q63" s="65">
-        <f>$F63*Outputs_Internal!N$51/12</f>
+        <f>$F63*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S63" s="65">
@@ -8725,11 +8725,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="65">
-        <f>$F64*Outputs_Internal!M$51/12</f>
+        <f>$F64*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q64" s="65">
-        <f>$F64*Outputs_Internal!N$51/12</f>
+        <f>$F64*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S64" s="65">
@@ -8799,11 +8799,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="65">
-        <f>$F65*Outputs_Internal!M$51/12</f>
+        <f>$F65*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q65" s="65">
-        <f>$F65*Outputs_Internal!N$51/12</f>
+        <f>$F65*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S65" s="65">
@@ -8873,11 +8873,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="65">
-        <f>$F66*Outputs_Internal!M$51/12</f>
+        <f>$F66*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <f>$F66*Outputs_Internal!N$51/12</f>
+        <f>$F66*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S66" s="65">
@@ -8947,11 +8947,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="65">
-        <f>$F67*Outputs_Internal!M$51/12</f>
+        <f>$F67*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q67" s="65">
-        <f>$F67*Outputs_Internal!N$51/12</f>
+        <f>$F67*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S67" s="65">
@@ -9021,11 +9021,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="65">
-        <f>$F68*Outputs_Internal!M$51/12</f>
+        <f>$F68*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q68" s="65">
-        <f>$F68*Outputs_Internal!N$51/12</f>
+        <f>$F68*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S68" s="65">
@@ -9095,11 +9095,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="65">
-        <f>$F69*Outputs_Internal!M$51/12</f>
+        <f>$F69*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q69" s="65">
-        <f>$F69*Outputs_Internal!N$51/12</f>
+        <f>$F69*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S69" s="65">
@@ -9169,11 +9169,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="65">
-        <f>$F70*Outputs_Internal!M$51/12</f>
+        <f>$F70*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q70" s="65">
-        <f>$F70*Outputs_Internal!N$51/12</f>
+        <f>$F70*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S70" s="65">
@@ -9243,11 +9243,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="65">
-        <f>$F71*Outputs_Internal!M$51/12</f>
+        <f>$F71*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q71" s="65">
-        <f>$F71*Outputs_Internal!N$51/12</f>
+        <f>$F71*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S71" s="65">
@@ -9317,11 +9317,11 @@
         <v>0</v>
       </c>
       <c r="P72" s="65">
-        <f>$F72*Outputs_Internal!M$51/12</f>
+        <f>$F72*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q72" s="65">
-        <f>$F72*Outputs_Internal!N$51/12</f>
+        <f>$F72*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S72" s="65">
@@ -9391,11 +9391,11 @@
         <v>0</v>
       </c>
       <c r="P73" s="65">
-        <f>$F73*Outputs_Internal!M$51/12</f>
+        <f>$F73*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q73" s="65">
-        <f>$F73*Outputs_Internal!N$51/12</f>
+        <f>$F73*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S73" s="65">
@@ -9465,11 +9465,11 @@
         <v>0</v>
       </c>
       <c r="P74" s="65">
-        <f>$F74*Outputs_Internal!M$51/12</f>
+        <f>$F74*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q74" s="65">
-        <f>$F74*Outputs_Internal!N$51/12</f>
+        <f>$F74*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S74" s="65">
@@ -9539,11 +9539,11 @@
         <v>0</v>
       </c>
       <c r="P75" s="65">
-        <f>$F75*Outputs_Internal!M$51/12</f>
+        <f>$F75*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q75" s="65">
-        <f>$F75*Outputs_Internal!N$51/12</f>
+        <f>$F75*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S75" s="65">
@@ -9613,11 +9613,11 @@
         <v>0</v>
       </c>
       <c r="P76" s="65">
-        <f>$F76*Outputs_Internal!M$51/12</f>
+        <f>$F76*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q76" s="65">
-        <f>$F76*Outputs_Internal!N$51/12</f>
+        <f>$F76*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S76" s="65">
@@ -9687,11 +9687,11 @@
         <v>0</v>
       </c>
       <c r="P77" s="65">
-        <f>$F77*Outputs_Internal!M$51/12</f>
+        <f>$F77*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q77" s="65">
-        <f>$F77*Outputs_Internal!N$51/12</f>
+        <f>$F77*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S77" s="65">
@@ -9761,11 +9761,11 @@
         <v>0</v>
       </c>
       <c r="P78" s="65">
-        <f>$F78*Outputs_Internal!M$51/12</f>
+        <f>$F78*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q78" s="65">
-        <f>$F78*Outputs_Internal!N$51/12</f>
+        <f>$F78*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S78" s="65">
@@ -9835,11 +9835,11 @@
         <v>0</v>
       </c>
       <c r="P79" s="65">
-        <f>$F79*Outputs_Internal!M$51/12</f>
+        <f>$F79*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q79" s="65">
-        <f>$F79*Outputs_Internal!N$51/12</f>
+        <f>$F79*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S79" s="65">
@@ -9909,11 +9909,11 @@
         <v>0</v>
       </c>
       <c r="P80" s="65">
-        <f>$F80*Outputs_Internal!M$51/12</f>
+        <f>$F80*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q80" s="65">
-        <f>$F80*Outputs_Internal!N$51/12</f>
+        <f>$F80*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S80" s="65">
@@ -9983,11 +9983,11 @@
         <v>0</v>
       </c>
       <c r="P81" s="65">
-        <f>$F81*Outputs_Internal!M$51/12</f>
+        <f>$F81*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q81" s="65">
-        <f>$F81*Outputs_Internal!N$51/12</f>
+        <f>$F81*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S81" s="65">
@@ -10057,11 +10057,11 @@
         <v>0</v>
       </c>
       <c r="P82" s="65">
-        <f>$F82*Outputs_Internal!M$51/12</f>
+        <f>$F82*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q82" s="65">
-        <f>$F82*Outputs_Internal!N$51/12</f>
+        <f>$F82*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S82" s="65">
@@ -10131,11 +10131,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="65">
-        <f>$F83*Outputs_Internal!M$51/12</f>
+        <f>$F83*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q83" s="65">
-        <f>$F83*Outputs_Internal!N$51/12</f>
+        <f>$F83*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S83" s="65">
@@ -10205,11 +10205,11 @@
         <v>0</v>
       </c>
       <c r="P84" s="65">
-        <f>$F84*Outputs_Internal!M$51/12</f>
+        <f>$F84*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q84" s="65">
-        <f>$F84*Outputs_Internal!N$51/12</f>
+        <f>$F84*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S84" s="65">
@@ -10279,11 +10279,11 @@
         <v>0</v>
       </c>
       <c r="P85" s="65">
-        <f>$F85*Outputs_Internal!M$51/12</f>
+        <f>$F85*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q85" s="65">
-        <f>$F85*Outputs_Internal!N$51/12</f>
+        <f>$F85*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S85" s="65">
@@ -10353,11 +10353,11 @@
         <v>0</v>
       </c>
       <c r="P86" s="65">
-        <f>$F86*Outputs_Internal!M$51/12</f>
+        <f>$F86*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q86" s="65">
-        <f>$F86*Outputs_Internal!N$51/12</f>
+        <f>$F86*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S86" s="65">
@@ -10427,11 +10427,11 @@
         <v>0</v>
       </c>
       <c r="P87" s="65">
-        <f>$F87*Outputs_Internal!M$51/12</f>
+        <f>$F87*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q87" s="65">
-        <f>$F87*Outputs_Internal!N$51/12</f>
+        <f>$F87*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S87" s="65">
@@ -10501,11 +10501,11 @@
         <v>0</v>
       </c>
       <c r="P88" s="65">
-        <f>$F88*Outputs_Internal!M$51/12</f>
+        <f>$F88*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q88" s="65">
-        <f>$F88*Outputs_Internal!N$51/12</f>
+        <f>$F88*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S88" s="65">
@@ -10575,11 +10575,11 @@
         <v>0</v>
       </c>
       <c r="P89" s="65">
-        <f>$F89*Outputs_Internal!M$51/12</f>
+        <f>$F89*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q89" s="65">
-        <f>$F89*Outputs_Internal!N$51/12</f>
+        <f>$F89*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S89" s="65">
@@ -10649,11 +10649,11 @@
         <v>0</v>
       </c>
       <c r="P90" s="65">
-        <f>$F90*Outputs_Internal!M$51/12</f>
+        <f>$F90*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q90" s="65">
-        <f>$F90*Outputs_Internal!N$51/12</f>
+        <f>$F90*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S90" s="65">
@@ -10723,11 +10723,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="65">
-        <f>$F91*Outputs_Internal!M$51/12</f>
+        <f>$F91*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q91" s="65">
-        <f>$F91*Outputs_Internal!N$51/12</f>
+        <f>$F91*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S91" s="65">
@@ -10797,11 +10797,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="65">
-        <f>$F92*Outputs_Internal!M$51/12</f>
+        <f>$F92*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q92" s="65">
-        <f>$F92*Outputs_Internal!N$51/12</f>
+        <f>$F92*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S92" s="65">
@@ -10871,11 +10871,11 @@
         <v>0</v>
       </c>
       <c r="P93" s="65">
-        <f>$F93*Outputs_Internal!M$51/12</f>
+        <f>$F93*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q93" s="65">
-        <f>$F93*Outputs_Internal!N$51/12</f>
+        <f>$F93*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S93" s="65">
@@ -10945,11 +10945,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="65">
-        <f>$F94*Outputs_Internal!M$51/12</f>
+        <f>$F94*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q94" s="65">
-        <f>$F94*Outputs_Internal!N$51/12</f>
+        <f>$F94*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S94" s="65">

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="3"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -4090,11 +4090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11002,11 +11002,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12883,7 +12883,7 @@
         <v>104</v>
       </c>
       <c r="D92" s="2">
-        <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*D94*-1</f>
+        <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*SUM(Prices!C6, Prices!C20)*-1</f>
         <v>-3525</v>
       </c>
       <c r="E92" s="2">

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -11006,7 +11006,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12883,23 +12883,23 @@
         <v>104</v>
       </c>
       <c r="D92" s="2">
-        <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*SUM(Prices!C6, Prices!C20)*-1</f>
+        <f>IF(Inputs!D5="Y", Prices!$I$17, 0)*SUM(Prices!$C$6, Prices!$C$20)*-1</f>
         <v>-3525</v>
       </c>
       <c r="E92" s="2">
-        <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*SUM(SUM(E73:E76), E94, -1*SUM(E85:E86))*-1</f>
+        <f>IF(Inputs!E5="Y", Prices!$I$17, 0)*SUM(Prices!$C$6, Prices!$C$20)*-1</f>
         <v>0</v>
       </c>
       <c r="F92" s="2">
-        <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*SUM(SUM(F73:F76), F94, -1*SUM(F85:F86))*-1</f>
+        <f>IF(Inputs!F5="Y", Prices!$I$17, 0)*SUM(Prices!$C$6, Prices!$C$20)*-1</f>
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*SUM(SUM(G73:G76), G94, -1*SUM(G85:G86))*-1</f>
+        <f>IF(Inputs!G5="Y", Prices!$I$17, 0)*SUM(Prices!$C$6, Prices!$C$20)*-1</f>
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f>IF(Inputs!$D5="Y", Prices!$I$17, 0)*SUM(SUM(H73:H76), H94, -1*SUM(H85:H86))*-1</f>
+        <f>IF(Inputs!H5="Y", Prices!$I$17, 0)*SUM(Prices!$C$6, Prices!$C$20)*-1</f>
         <v>0</v>
       </c>
     </row>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="4"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>CCLF</t>
-  </si>
-  <si>
-    <t>Collaborative Member</t>
   </si>
   <si>
     <t>Non-CMS Files</t>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Other Royalties</t>
+  </si>
+  <si>
+    <t>Collaborative Member Prior to 2017-07-01</t>
   </si>
 </sst>
 </file>
@@ -1025,11 +1025,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="74">
         <v>43009</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="75">
         <v>36</v>
@@ -1062,19 +1062,19 @@
       <c r="B3" s="71"/>
       <c r="C3" s="76"/>
       <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>4</v>
@@ -1104,15 +1104,15 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>4</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
@@ -1289,11 +1289,11 @@
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
@@ -1322,7 +1322,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,19 +1340,19 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D37, Calcs!D50)</f>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D38, Calcs!D51)</f>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D39, Calcs!D52)</f>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D40, Calcs!D53)</f>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D41, Calcs!D54)</f>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D42, Calcs!D55)</f>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="20">
         <f>SUM(Calcs!D43, Calcs!D56)</f>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D44, Calcs!D57)</f>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D45, Calcs!D58)</f>
@@ -1802,12 +1802,12 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
         <f>SUM(Calcs!D61, Calcs!D67)</f>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D62, Calcs!D68)</f>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <f>SUM(Calcs!D63, Calcs!D69)</f>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D64, Calcs!D70)</f>
@@ -1947,12 +1947,12 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(Calcs!D85:D86)</f>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
         <f>Calcs!D90</f>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1">
         <f>Calcs!D92</f>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D28)</f>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="7">
         <f>(D30/12*Inputs!$C$2+D4)*$C$33</f>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
@@ -2221,10 +2221,10 @@
   <dimension ref="B1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26:I26"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2245,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
@@ -2253,32 +2253,32 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="H2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="M2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D11:H11)</f>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D12:H12)</f>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D13:H13)</f>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D14:H14)</f>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D15:H15)</f>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="18">
         <f>SUM(Calcs!D16:H16)</f>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D17:H17)</f>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D18:H18)</f>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="20">
         <f>SUM(Calcs!D19:H19)</f>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G20" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="10">
         <v>0.1</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D24:H24)</f>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="18">
         <f>SUM(Calcs!D25:H25)</f>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D26:H26)</f>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D27:H27)</f>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(Calcs!D28:H28)</f>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="18">
         <f>SUM(Calcs!D29:H29)</f>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="20">
         <f>SUM(Calcs!D30:H30)</f>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D31:H31)</f>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="29">
         <f>SUM(Calcs!D32:H32)</f>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="18">
         <f>SUM(Calcs!D73:H73)</f>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="18">
         <f>SUM(Calcs!D74:H74)</f>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D75:H75)</f>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D76:H76)</f>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C42" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="29">
         <f>SUM(Calcs!D79:H79)</f>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="18">
         <f>SUM(Calcs!D80:H80)</f>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="20">
         <f>SUM(Calcs!D81:H81)</f>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="20">
         <f>SUM(Calcs!D82:H82)</f>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1">
         <f>SUM(Outputs_External!D28:H28)</f>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="23">
         <f>SUM(K52:N52)</f>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
@@ -3907,7 +3907,7 @@
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="23">
         <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
@@ -3951,7 +3951,7 @@
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="23">
         <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
@@ -3995,7 +3995,7 @@
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="27"/>
       <c r="C62" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="23">
         <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
@@ -4039,7 +4039,7 @@
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="27"/>
       <c r="C63" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="23">
         <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
@@ -4123,20 +4123,20 @@
         <v>36</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
       <c r="M1" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="63"/>
       <c r="O1" s="63"/>
       <c r="P1" s="63"/>
       <c r="Q1" s="63"/>
       <c r="S1" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T1" s="63"/>
       <c r="U1" s="63"/>
@@ -4145,60 +4145,60 @@
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="J2" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>89</v>
-      </c>
       <c r="M2" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="64" t="s">
-        <v>88</v>
-      </c>
       <c r="O2" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="64" t="s">
-        <v>107</v>
-      </c>
       <c r="S2" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="64" t="s">
-        <v>88</v>
-      </c>
       <c r="U2" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V2" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="64" t="s">
         <v>106</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -11002,7 +11002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11020,34 +11020,34 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -11089,7 +11089,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5">
         <f>IF(Inputs!D4="N",MAX(Inputs!D7-25000,0),0)</f>
@@ -11121,7 +11121,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -11176,7 +11176,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$19="Y"), Prices!$C11, 0)</f>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
@@ -11251,7 +11251,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
@@ -11276,7 +11276,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$19="Y"), Prices!$C14, 0)</f>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C16, 0)</f>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$20="Y"), Prices!$C17, 0)</f>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$20="Y"), Prices!$C18, 0)</f>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11451,7 +11451,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D11),0))</f>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -11526,7 +11526,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D13),0))</f>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D14),0))</f>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -11626,7 +11626,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -11651,7 +11651,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="29">
         <v>0</v>
@@ -11678,7 +11678,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11733,7 +11733,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="18">
         <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
@@ -11758,7 +11758,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="18">
         <f>IF(AND(Inputs!D10="Y",Inputs!D$19="N"),Prices!$C11,0)</f>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="18">
         <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
@@ -11808,7 +11808,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="18">
         <f>IF(AND(Inputs!D12="Y",Inputs!D$19="N"),Prices!$C13,0)</f>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="18">
         <f>IF(AND(Inputs!D13="Y",Inputs!D$19="N"),Prices!$C14,0)</f>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="18">
         <f>IF(AND(Inputs!D14="Y",Inputs!D$19="N"),Prices!$C15,0)</f>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="20">
         <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C16,0)</f>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="20">
         <f>IF(AND(Inputs!D16="Y",Inputs!D$20="N"),Prices!$C17,0)</f>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="20">
         <f>IF(AND(Inputs!D17="Y",Inputs!D$20="N"),Prices!$C18,0)</f>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -12008,7 +12008,7 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D11),0))</f>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D13),0))</f>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D14),0))</f>
@@ -12133,7 +12133,7 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -12158,7 +12158,7 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C56" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C57" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C58" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="29">
         <v>0</v>
@@ -12228,12 +12228,12 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C61" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="18">
         <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C62" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="18">
         <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
@@ -12323,7 +12323,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C63" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="20">
         <f>IF(Inputs!D20="Y", Prices!$C22, 0)</f>
@@ -12368,7 +12368,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C64" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" s="20">
         <f>IF(Inputs!D21="Y", Prices!$C23, 0)</f>
@@ -12413,12 +12413,12 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="29">
         <v>0</v>
@@ -12458,7 +12458,7 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" s="18">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D19 = "Y", D$6*Prices!$D21, 0)))</f>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D20 = "Y", D$6*Prices!$D22, 0)))</f>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C70" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D21 = "Y", D$6*Prices!$D23, 0)))</f>
@@ -12540,12 +12540,12 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="18">
         <f>D61</f>
@@ -12570,7 +12570,7 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="18">
         <f>IF(D62=0,0,D62-SUM(D11:D16))</f>
@@ -12595,7 +12595,7 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" s="20">
         <f>IF(D63=0,0,D63-SUM(D17:D19))</f>
@@ -12620,7 +12620,7 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" s="20">
         <f t="shared" ref="D76:H76" si="12">D64</f>
@@ -12645,12 +12645,12 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" s="29">
         <v>0</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C80" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" s="18">
         <f>IF(D68=0,0,D68-SUM(D24:D29))</f>
@@ -12715,7 +12715,7 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" s="20">
         <f>IF(D69=0,0,D69-SUM(D30:D31))</f>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" s="20">
         <f t="shared" ref="D82:H82" si="19">D70</f>
@@ -12765,12 +12765,12 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(2, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(2, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" s="7">
         <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
@@ -12848,7 +12848,7 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D90" s="1">
         <f>IF(D100=1, 0, IF(D100=2, $E$103, IF(D100=3, $E$104, IF(D100=4, $E$105, IF(D100=5, $E$106, "")))))</f>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" s="2">
         <f>IF(Inputs!D5="Y", Prices!$I$17, 0)*SUM(Prices!$C$6, Prices!$C$20)*-1</f>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" s="7">
         <f>SUM(D88, D90)</f>
@@ -12931,7 +12931,7 @@
     <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="27"/>
       <c r="C97" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D97" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D88,$D$88:$H$88),5)</f>
@@ -13024,13 +13024,13 @@
     <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="27"/>
       <c r="C102" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="27"/>
       <c r="D103" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E103" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$100:$H$100, 0))*Prices!$I$10*-1</f>
@@ -13040,7 +13040,7 @@
     <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="27"/>
       <c r="D104" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(3, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
@@ -13050,7 +13050,7 @@
     <row r="105" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="27"/>
       <c r="D105" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E105" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(4, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
@@ -13060,7 +13060,7 @@
     <row r="106" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="27"/>
       <c r="D106" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E106" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(5, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
@@ -13099,12 +13099,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -13114,12 +13114,12 @@
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -13137,10 +13137,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3">
         <v>0.3</v>
@@ -13148,7 +13148,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="43">
         <v>15000</v>
@@ -13160,7 +13160,7 @@
         <v>0.27</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3">
         <v>0.45</v>
@@ -13168,7 +13168,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="43">
         <v>6750</v>
@@ -13184,18 +13184,18 @@
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="45">
         <v>1000</v>
@@ -13212,7 +13212,7 @@
         <v>0.04</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="3">
         <v>0.45</v>
@@ -13220,7 +13220,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="45">
         <v>4000</v>
@@ -13229,7 +13229,7 @@
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3">
         <v>0.5</v>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="45">
         <v>2000</v>
@@ -13248,7 +13248,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="45">
         <v>2000</v>
@@ -13260,7 +13260,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="45">
         <v>6000</v>
@@ -13269,7 +13269,7 @@
         <v>0.05</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" s="59">
         <v>1.2500000000000001E-2</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="45">
         <v>4000</v>
@@ -13286,7 +13286,7 @@
         <v>0.05</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="55">
         <v>43466</v>
@@ -13294,7 +13294,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="46">
         <v>10000</v>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="46">
         <v>5000</v>
@@ -13316,7 +13316,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0.15</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="46">
         <v>5000</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="55">
         <v>44197</v>
@@ -13345,7 +13345,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="45">
         <v>8500</v>
@@ -13356,7 +13356,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="45">
         <v>33000</v>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="46">
         <v>35000</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="46">
         <v>28000</v>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11002,11 +11002,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12798,23 +12798,23 @@
         <v>37</v>
       </c>
       <c r="D86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$61:E$64, MATCH(3, L$61:L$64, 0)), INDEX(E$66:E$70, MATCH(3, L$61:L$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(E$61:E$64, MATCH(3, L$61:L$64, 0)), INDEX(E$66:E$70, MATCH(3, L$61:L$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$61:F$64, MATCH(3, M$61:M$64, 0)), INDEX(F$66:F$70, MATCH(3, M$61:M$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(F$61:F$64, MATCH(3, M$61:M$64, 0)), INDEX(F$66:F$70, MATCH(3, M$61:M$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$61:G$64, MATCH(3, N$61:N$64, 0)), INDEX(G$66:G$70, MATCH(3, N$61:N$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(G$61:G$64, MATCH(3, N$61:N$64, 0)), INDEX(G$66:G$70, MATCH(3, N$61:N$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$61:H$64, MATCH(3, O$61:O$64, 0)), INDEX(H$66:H$70, MATCH(3, O$61:O$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(H$61:H$64, MATCH(3, O$61:O$64, 0)), INDEX(H$66:H$70, MATCH(3, O$61:O$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
     </row>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="124">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -437,12 +437,15 @@
   <si>
     <t>Extra Discount for PRCA &amp; PCP Dashboard</t>
   </si>
+  <si>
+    <t>Noise</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -452,8 +455,9 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +553,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -668,7 +680,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -819,6 +831,12 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1115,24 +1133,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" style="67" customWidth="1"/>
-    <col min="4" max="8" width="18.7265625" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="57" t="s">
         <v>76</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
         <v>90</v>
       </c>
@@ -1148,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="69"/>
       <c r="C3" s="73"/>
       <c r="D3" s="13" t="s">
@@ -1167,7 +1185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
         <v>98</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1233,7 @@
       <c r="G6" s="55"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="70" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1247,7 @@
       <c r="G7" s="55"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
         <v>116</v>
       </c>
@@ -1243,7 +1261,7 @@
       <c r="G8" s="55"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1275,7 @@
       <c r="G9" s="55"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="70" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1289,7 @@
       <c r="G10" s="55"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1303,7 @@
       <c r="G11" s="55"/>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1317,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="70" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1331,7 @@
       <c r="G13" s="55"/>
       <c r="H13" s="56"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="70" t="s">
         <v>95</v>
       </c>
@@ -1327,7 +1345,7 @@
       <c r="G14" s="55"/>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="70" t="s">
         <v>11</v>
       </c>
@@ -1341,7 +1359,7 @@
       <c r="G15" s="55"/>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="70" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1373,7 @@
       <c r="G16" s="55"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="70" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1387,7 @@
       <c r="G17" s="55"/>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="70" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1401,7 @@
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="70" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1415,7 @@
       <c r="G19" s="55"/>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
         <v>16</v>
       </c>
@@ -1411,7 +1429,7 @@
       <c r="G20" s="55"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="70" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1443,7 @@
       <c r="G21" s="55"/>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="70" t="s">
         <v>118</v>
       </c>
@@ -1439,7 +1457,7 @@
       <c r="G22" s="55"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="70" t="s">
         <v>117</v>
       </c>
@@ -1481,20 +1499,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>18</v>
       </c>
@@ -1511,12 +1529,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1570,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1562,12 +1580,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1621,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
@@ -1639,7 +1657,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1693,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1728,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1763,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
@@ -1780,7 +1798,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>95</v>
       </c>
@@ -1815,7 +1833,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
@@ -1850,7 +1868,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1903,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>29</v>
       </c>
@@ -1920,12 +1938,12 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1978,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -1995,7 +2013,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2048,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -2065,17 +2083,17 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>118</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D66, Calcs!D75)</f>
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(Calcs!E66, Calcs!E75)</f>
-        <v>22190</v>
+        <v>44380</v>
       </c>
       <c r="F23" s="1">
         <f>SUM(Calcs!F66, Calcs!F75)</f>
@@ -2100,17 +2118,17 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>117</v>
       </c>
       <c r="D24" s="1">
         <f>SUM(Calcs!D67, Calcs!D76)</f>
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(Calcs!E67, Calcs!E76)</f>
-        <v>31150</v>
+        <v>32740</v>
       </c>
       <c r="F24" s="1">
         <f>SUM(Calcs!F67, Calcs!F76)</f>
@@ -2135,7 +2153,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>116</v>
       </c>
@@ -2170,22 +2188,22 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="1">
         <f>SUM(Calcs!D98:D102)</f>
-        <v>-25612.5</v>
+        <v>-33037.5</v>
       </c>
       <c r="E28" s="1">
         <f>SUM(Calcs!E98:E102)</f>
-        <v>-19330.5</v>
+        <v>-28047</v>
       </c>
       <c r="F28" s="1">
         <f>SUM(Calcs!F98:F102)</f>
@@ -2210,13 +2228,13 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="1">
         <f>Calcs!D106</f>
-        <v>-39886.875</v>
+        <v>-43970.625</v>
       </c>
       <c r="E29" s="1">
         <f>Calcs!E106</f>
@@ -2245,7 +2263,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>100</v>
       </c>
@@ -2276,17 +2294,17 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7">
         <f>SUM(D7:D16, D19:D25, D28:D30)</f>
-        <v>48750.625</v>
+        <v>53741.875</v>
       </c>
       <c r="E32" s="7">
         <f>SUM(E7:E16, E19:E25, E28:E29)</f>
-        <v>132959.5</v>
+        <v>148023</v>
       </c>
       <c r="F32" s="7">
         <f>SUM(F7:F16, F19:F25, F28:F29)</f>
@@ -2308,7 +2326,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2322,7 +2340,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>92</v>
       </c>
@@ -2342,23 +2360,23 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" s="65">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="7">
         <f>(D32/12*Inputs!$C$2+D4)*$C$35</f>
-        <v>156251.875</v>
+        <v>171225.625</v>
       </c>
       <c r="E37" s="7">
         <f>(E32/12*Inputs!$C$2+E4)*$C$35</f>
-        <v>431628.5</v>
+        <v>476819</v>
       </c>
       <c r="F37" s="7">
         <f>(F32/12*Inputs!$C$2+F4)*$C$35</f>
@@ -2380,7 +2398,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2395,36 +2413,36 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>587880.375</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+        <v>648044.625</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C42" s="52">
         <f>SUM(D37:H37)</f>
-        <v>587880.375</v>
+        <v>648044.625</v>
       </c>
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2442,30 +2460,30 @@
   <dimension ref="B1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" s="50" t="s">
         <v>75</v>
       </c>
@@ -2473,7 +2491,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
@@ -2503,12 +2521,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>93</v>
       </c>
@@ -2547,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>94</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="26"/>
@@ -2595,7 +2613,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
@@ -2607,7 +2625,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
@@ -2646,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>27</v>
       </c>
@@ -2685,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
@@ -2723,7 +2741,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
@@ -2761,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
@@ -2836,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>95</v>
       </c>
@@ -2874,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
@@ -2912,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>12</v>
       </c>
@@ -2950,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
         <v>29</v>
       </c>
@@ -2988,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2997,7 +3015,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G19" s="48" t="s">
         <v>72</v>
       </c>
@@ -3009,7 +3027,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -3018,7 +3036,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
@@ -3030,7 +3048,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
@@ -3072,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C23" s="17" t="s">
         <v>27</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>28</v>
       </c>
@@ -3197,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>9</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>10</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>95</v>
       </c>
@@ -3320,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="19" t="s">
         <v>11</v>
       </c>
@@ -3361,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
         <v>12</v>
       </c>
@@ -3402,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="28" t="s">
         <v>29</v>
       </c>
@@ -3443,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -3452,7 +3470,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>63</v>
       </c>
@@ -3464,7 +3482,7 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
         <v>14</v>
       </c>
@@ -3502,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="17" t="s">
         <v>15</v>
       </c>
@@ -3540,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C36" s="19" t="s">
         <v>16</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" s="19" t="s">
         <v>17</v>
       </c>
@@ -3616,13 +3634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D84:H84)</f>
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="F38" s="33">
         <v>0.1</v>
@@ -3639,11 +3657,11 @@
       </c>
       <c r="K38" s="20">
         <f t="shared" ref="K38:K39" si="20">F38*$D38</f>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" ref="L38:L39" si="21">G38*$D38</f>
-        <v>25200</v>
+        <v>50400</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" ref="M38:M39" si="22">H38*$D38</f>
@@ -3654,13 +3672,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D85:H85)</f>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="F39" s="33">
         <v>0.1</v>
@@ -3677,11 +3695,11 @@
       </c>
       <c r="K39" s="20">
         <f t="shared" si="20"/>
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" si="21"/>
-        <v>31500</v>
+        <v>36000</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" si="22"/>
@@ -3692,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="82" t="s">
         <v>116</v>
       </c>
@@ -3730,12 +3748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>73</v>
       </c>
@@ -3747,7 +3765,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" s="28" t="s">
         <v>14</v>
       </c>
@@ -3787,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>15</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
         <v>16</v>
       </c>
@@ -3867,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
         <v>17</v>
       </c>
@@ -3907,13 +3925,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="20">
         <f>SUM(Calcs!D93:H93)</f>
-        <v>8190</v>
+        <v>16380</v>
       </c>
       <c r="F47" s="31">
         <f t="shared" ref="F47:F48" si="27">IFERROR((1-G47)*F38/SUM(F38,H38),0)</f>
@@ -3936,7 +3954,7 @@
       </c>
       <c r="L47" s="20">
         <f t="shared" ref="L47:L48" si="31">G47*$D47</f>
-        <v>8190</v>
+        <v>16380</v>
       </c>
       <c r="M47" s="20">
         <f t="shared" ref="M47:M48" si="32">H47*$D47</f>
@@ -3947,13 +3965,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="20">
         <f>SUM(Calcs!D94:H94)</f>
-        <v>13650</v>
+        <v>12740.000000000002</v>
       </c>
       <c r="F48" s="31">
         <f t="shared" si="27"/>
@@ -3976,7 +3994,7 @@
       </c>
       <c r="L48" s="20">
         <f t="shared" si="31"/>
-        <v>13650</v>
+        <v>12740.000000000002</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" si="32"/>
@@ -3987,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" s="82" t="s">
         <v>116</v>
       </c>
@@ -4027,12 +4045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>53</v>
       </c>
@@ -4040,89 +4058,89 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D28:'Outputs_External'!H28)</f>
-        <v>-44943</v>
+        <v>-61084.5</v>
       </c>
       <c r="F52" s="8">
         <f>IFERROR(SUM(K64:K70)/SUM($K$64:$N$70), 0)</f>
-        <v>0.16626897497080773</v>
+        <v>0.15194942044257112</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" ref="G52:I52" si="41">IFERROR(SUM(L64:L70)/SUM($K$64:$N$70), 0)</f>
-        <v>0.8073310656445144</v>
+        <v>0.8261327713382508</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="41"/>
-        <v>2.4369193278164187E-2</v>
+        <v>2.0231822971548998E-2</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="41"/>
-        <v>2.0307661065136822E-3</v>
+        <v>1.6859852476290833E-3</v>
       </c>
       <c r="K52" s="12">
         <f>F52*$D$52</f>
-        <v>-7472.626542113012</v>
+        <v>-9281.754373024236</v>
       </c>
       <c r="L52" s="12">
         <f>G52*$D$52</f>
-        <v>-36283.880083261414</v>
+        <v>-50463.907270811382</v>
       </c>
       <c r="M52" s="12">
         <f>H52*$D$52</f>
-        <v>-1095.2246535005331</v>
+        <v>-1235.8507903055847</v>
       </c>
       <c r="N52" s="12">
         <f>I52*$D$52</f>
-        <v>-91.268721125044422</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+        <v>-102.98756585879875</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>47</v>
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>-39886.875</v>
+        <v>-43970.625</v>
       </c>
       <c r="F53" s="3">
         <f>IFERROR(SUM(K8:K52)/SUM($K8:$N52), 0)</f>
-        <v>0.22856073619176701</v>
+        <v>0.21217628558745383</v>
       </c>
       <c r="G53" s="3">
         <f>IFERROR(SUM(L8:L52)/SUM($K8:$N52), 0)</f>
-        <v>0.75332752662147318</v>
+        <v>0.77211104105507178</v>
       </c>
       <c r="H53" s="3">
         <f>IFERROR(SUM(M8:M52)/SUM($K8:$N52), 0)</f>
-        <v>1.6718526633932168E-2</v>
+        <v>1.4504006176130086E-2</v>
       </c>
       <c r="I53" s="3">
         <f>1-F53-G53-H53</f>
-        <v>1.3932105528276784E-3</v>
+        <v>1.2086671813443077E-3</v>
       </c>
       <c r="K53" s="12">
         <f>F53*$D$53</f>
-        <v>-9116.573514388987</v>
+        <v>-9329.5238874588376</v>
       </c>
       <c r="L53" s="12">
         <f>G53*$D$53</f>
-        <v>-30047.880888409873</v>
+        <v>-33950.205044592163</v>
       </c>
       <c r="M53" s="12">
         <f>H53*$D$53</f>
-        <v>-666.84978203182311</v>
+        <v>-637.75021656829995</v>
       </c>
       <c r="N53" s="12">
         <f>I53*$D$53</f>
-        <v>-55.5708151693185</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+        <v>-53.14585138069755</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>100</v>
       </c>
@@ -4160,103 +4178,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="1">
         <f>SUM(Outputs_External!D32:'Outputs_External'!H32)</f>
-        <v>181710.125</v>
+        <v>201764.875</v>
       </c>
       <c r="K56" s="12">
         <f>SUM(K52:K54, K34:K40, K8:K17,K22:K31,K43:K49)</f>
-        <v>41531.799943498001</v>
+        <v>42809.721739516928</v>
       </c>
       <c r="L56" s="12">
         <f t="shared" ref="L56:N56" si="43">SUM(L52:L54, L34:L40, L8:L17,L22:L31,L43:L49)</f>
-        <v>136887.23902832871</v>
+        <v>155784.88768459647</v>
       </c>
       <c r="M56" s="12">
         <f t="shared" si="43"/>
-        <v>3037.9255644676437</v>
+        <v>2926.3989931261153</v>
       </c>
       <c r="N56" s="12">
         <f t="shared" si="43"/>
-        <v>253.16046370563708</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+        <v>243.86658276050372</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="23">
         <f>SUM(K56:N56)</f>
-        <v>181710.125</v>
+        <v>201764.87500000003</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>587880.375</v>
+        <v>648044.625</v>
       </c>
       <c r="K59" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>132870.39983049399</v>
+        <v>136704.1652185508</v>
       </c>
       <c r="L59" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>445136.71708498622</v>
+        <v>501829.66305378941</v>
       </c>
       <c r="M59" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
-        <v>9113.7766934029332</v>
+        <v>8779.1969793783483</v>
       </c>
       <c r="N59" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>759.48139111691125</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+        <v>731.5997482815111</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="K60" s="53">
         <f>IFERROR(K59/$D$59, 0)</f>
-        <v>0.22601604932039787</v>
+        <v>0.21094869079201267</v>
       </c>
       <c r="L60" s="53">
         <f>IFERROR(L59/$D$59, 0)</f>
-        <v>0.75718927866062247</v>
+        <v>0.77437516444764809</v>
       </c>
       <c r="M60" s="53">
         <f>IFERROR(M59/$D$59, 0)</f>
-        <v>1.5502774171365957E-2</v>
+        <v>1.3547210548005622E-2</v>
       </c>
       <c r="N60" s="53">
         <f>IFERROR(N59/$D$59, 0)</f>
-        <v>1.29189784761383E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+        <v>1.1289342123337743E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="27" t="s">
         <v>69</v>
       </c>
@@ -4272,7 +4290,7 @@
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="27"/>
       <c r="C64" s="21" t="s">
         <v>14</v>
@@ -4316,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="27"/>
       <c r="C65" s="21" t="s">
         <v>15</v>
@@ -4360,7 +4378,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="27"/>
       <c r="C66" s="21" t="s">
         <v>16</v>
@@ -4404,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="27"/>
       <c r="C67" s="21" t="s">
         <v>17</v>
@@ -4448,14 +4466,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="27"/>
       <c r="C68" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D68" s="23">
         <f>SUM(Calcs!D66:H66)+SUM(Calcs!D75:H75)</f>
-        <v>36190</v>
+        <v>72380</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="24">
@@ -4477,11 +4495,11 @@
       <c r="J68" s="21"/>
       <c r="K68" s="25">
         <f t="shared" ref="K68:K69" si="56">F68*$D68</f>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="L68" s="25">
         <f t="shared" ref="L68:L69" si="57">G68*$D68</f>
-        <v>33390</v>
+        <v>66780</v>
       </c>
       <c r="M68" s="25">
         <f t="shared" ref="M68:M69" si="58">H68*$D68</f>
@@ -4492,23 +4510,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="27"/>
       <c r="C69" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D69" s="23">
         <f>SUM(Calcs!D67:H67)+SUM(Calcs!D76:H76)</f>
-        <v>48650</v>
+        <v>52740</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="24">
         <f t="shared" si="52"/>
-        <v>7.1942446043165464E-2</v>
+        <v>7.584376185058779E-2</v>
       </c>
       <c r="G69" s="24">
         <f t="shared" si="53"/>
-        <v>0.92805755395683454</v>
+        <v>0.92415623814941217</v>
       </c>
       <c r="H69" s="24">
         <f t="shared" si="54"/>
@@ -4521,11 +4539,11 @@
       <c r="J69" s="21"/>
       <c r="K69" s="25">
         <f t="shared" si="56"/>
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L69" s="25">
         <f t="shared" si="57"/>
-        <v>45150</v>
+        <v>48740</v>
       </c>
       <c r="M69" s="25">
         <f t="shared" si="58"/>
@@ -4536,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="27"/>
       <c r="C70" s="21" t="s">
         <v>116</v>
@@ -4597,26 +4615,26 @@
       <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.36328125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6328125" style="61" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="64"/>
-    <col min="12" max="12" width="5.36328125" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="64" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" style="64"/>
-    <col min="16" max="16" width="11.81640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6328125" customWidth="1"/>
-    <col min="22" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="61" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375" style="64"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" style="64"/>
+    <col min="16" max="16" width="11.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F1" s="66">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
@@ -4641,7 +4659,7 @@
       <c r="U1" s="62"/>
       <c r="V1" s="62"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
         <v>79</v>
       </c>
@@ -4699,7 +4717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="61">
         <v>42917</v>
       </c>
@@ -4756,7 +4774,7 @@
       <c r="U3" s="64"/>
       <c r="V3" s="64"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="61">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -4810,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="61">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
@@ -4884,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="61">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -4958,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="61">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -5032,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="61">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -5106,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="61">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -5141,23 +5159,23 @@
       </c>
       <c r="M9" s="64">
         <f>$F9*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N9" s="64">
         <f>$F9*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O9" s="64">
         <f>$F9*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P9" s="64">
         <f>$F9*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q9" s="64">
         <f>$F9*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S9" s="64">
         <f t="shared" si="1"/>
@@ -5180,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="61">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -5215,23 +5233,23 @@
       </c>
       <c r="M10" s="64">
         <f>$F10*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N10" s="64">
         <f>$F10*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O10" s="64">
         <f>$F10*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P10" s="64">
         <f>$F10*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q10" s="64">
         <f>$F10*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S10" s="64">
         <f t="shared" si="1"/>
@@ -5254,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="61">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -5289,46 +5307,46 @@
       </c>
       <c r="M11" s="64">
         <f>$F11*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N11" s="64">
         <f>$F11*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O11" s="64">
         <f>$F11*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P11" s="64">
         <f>$F11*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q11" s="64">
         <f>$F11*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S11" s="64">
         <f t="shared" si="1"/>
-        <v>88177.53125</v>
+        <v>93191.218749999985</v>
       </c>
       <c r="T11" s="64">
         <f t="shared" si="2"/>
-        <v>18657.9499858745</v>
+        <v>18977.430434879232</v>
       </c>
       <c r="U11" s="64">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>68696.80975708217</v>
+        <v>73421.221921149117</v>
       </c>
       <c r="V11" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W11" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="61">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -5363,23 +5381,23 @@
       </c>
       <c r="M12" s="64">
         <f>$F12*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N12" s="64">
         <f>$F12*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O12" s="64">
         <f>$F12*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P12" s="64">
         <f>$F12*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q12" s="64">
         <f>$F12*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S12" s="64">
         <f t="shared" si="1"/>
@@ -5402,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="61">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -5437,23 +5455,23 @@
       </c>
       <c r="M13" s="64">
         <f>$F13*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N13" s="64">
         <f>$F13*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O13" s="64">
         <f>$F13*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P13" s="64">
         <f>$F13*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q13" s="64">
         <f>$F13*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S13" s="64">
         <f t="shared" si="1"/>
@@ -5476,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="61">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -5511,46 +5529,46 @@
       </c>
       <c r="M14" s="64">
         <f>$F14*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N14" s="64">
         <f>$F14*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O14" s="64">
         <f>$F14*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P14" s="64">
         <f>$F14*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q14" s="64">
         <f>$F14*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S14" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T14" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U14" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V14" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W14" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="61">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -5585,23 +5603,23 @@
       </c>
       <c r="M15" s="64">
         <f>$F15*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N15" s="64">
         <f>$F15*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O15" s="64">
         <f>$F15*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P15" s="64">
         <f>$F15*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q15" s="64">
         <f>$F15*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S15" s="64">
         <f t="shared" si="1"/>
@@ -5624,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="61">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -5659,23 +5677,23 @@
       </c>
       <c r="M16" s="64">
         <f>$F16*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N16" s="64">
         <f>$F16*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O16" s="64">
         <f>$F16*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P16" s="64">
         <f>$F16*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q16" s="64">
         <f>$F16*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S16" s="64">
         <f t="shared" si="1"/>
@@ -5698,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="61">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -5733,46 +5751,46 @@
       </c>
       <c r="M17" s="64">
         <f>$F17*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N17" s="64">
         <f>$F17*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O17" s="64">
         <f>$F17*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P17" s="64">
         <f>$F17*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q17" s="64">
         <f>$F17*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S17" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T17" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U17" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V17" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W17" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="61">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -5807,23 +5825,23 @@
       </c>
       <c r="M18" s="64">
         <f>$F18*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N18" s="64">
         <f>$F18*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O18" s="64">
         <f>$F18*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P18" s="64">
         <f>$F18*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q18" s="64">
         <f>$F18*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S18" s="64">
         <f t="shared" si="1"/>
@@ -5846,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="61">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -5881,23 +5899,23 @@
       </c>
       <c r="M19" s="64">
         <f>$F19*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N19" s="64">
         <f>$F19*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O19" s="64">
         <f>$F19*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P19" s="64">
         <f>$F19*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q19" s="64">
         <f>$F19*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S19" s="64">
         <f t="shared" si="1"/>
@@ -5920,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="61">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -5955,46 +5973,46 @@
       </c>
       <c r="M20" s="64">
         <f>$F20*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N20" s="64">
         <f>$F20*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O20" s="64">
         <f>$F20*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P20" s="64">
         <f>$F20*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q20" s="64">
         <f>$F20*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S20" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T20" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U20" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V20" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W20" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="61">
         <f t="shared" si="0"/>
         <v>43466</v>
@@ -6029,23 +6047,23 @@
       </c>
       <c r="M21" s="64">
         <f>$F21*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N21" s="64">
         <f>$F21*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O21" s="64">
         <f>$F21*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P21" s="64">
         <f>$F21*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q21" s="64">
         <f>$F21*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S21" s="64">
         <f t="shared" si="1"/>
@@ -6068,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="61">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -6103,23 +6121,23 @@
       </c>
       <c r="M22" s="64">
         <f>$F22*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N22" s="64">
         <f>$F22*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O22" s="64">
         <f>$F22*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P22" s="64">
         <f>$F22*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q22" s="64">
         <f>$F22*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S22" s="64">
         <f t="shared" si="1"/>
@@ -6142,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="61">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -6177,46 +6195,46 @@
       </c>
       <c r="M23" s="64">
         <f>$F23*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N23" s="64">
         <f>$F23*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O23" s="64">
         <f>$F23*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P23" s="64">
         <f>$F23*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q23" s="64">
         <f>$F23*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S23" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T23" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U23" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V23" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W23" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="61">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -6251,23 +6269,23 @@
       </c>
       <c r="M24" s="64">
         <f>$F24*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N24" s="64">
         <f>$F24*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O24" s="64">
         <f>$F24*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P24" s="64">
         <f>$F24*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q24" s="64">
         <f>$F24*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S24" s="64">
         <f t="shared" si="1"/>
@@ -6290,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="61">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -6325,23 +6343,23 @@
       </c>
       <c r="M25" s="64">
         <f>$F25*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N25" s="64">
         <f>$F25*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O25" s="64">
         <f>$F25*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P25" s="64">
         <f>$F25*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q25" s="64">
         <f>$F25*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S25" s="64">
         <f t="shared" si="1"/>
@@ -6364,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="61">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -6399,46 +6417,46 @@
       </c>
       <c r="M26" s="64">
         <f>$F26*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N26" s="64">
         <f>$F26*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O26" s="64">
         <f>$F26*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P26" s="64">
         <f>$F26*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q26" s="64">
         <f>$F26*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S26" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T26" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U26" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V26" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W26" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="61">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -6473,23 +6491,23 @@
       </c>
       <c r="M27" s="64">
         <f>$F27*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N27" s="64">
         <f>$F27*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O27" s="64">
         <f>$F27*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P27" s="64">
         <f>$F27*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q27" s="64">
         <f>$F27*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S27" s="64">
         <f t="shared" si="1"/>
@@ -6512,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="61">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -6547,23 +6565,23 @@
       </c>
       <c r="M28" s="64">
         <f>$F28*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N28" s="64">
         <f>$F28*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O28" s="64">
         <f>$F28*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P28" s="64">
         <f>$F28*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q28" s="64">
         <f>$F28*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S28" s="64">
         <f t="shared" si="1"/>
@@ -6586,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="61">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -6621,46 +6639,46 @@
       </c>
       <c r="M29" s="64">
         <f>$F29*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N29" s="64">
         <f>$F29*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O29" s="64">
         <f>$F29*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P29" s="64">
         <f>$F29*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q29" s="64">
         <f>$F29*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S29" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T29" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U29" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V29" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W29" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="61">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -6695,23 +6713,23 @@
       </c>
       <c r="M30" s="64">
         <f>$F30*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N30" s="64">
         <f>$F30*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O30" s="64">
         <f>$F30*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P30" s="64">
         <f>$F30*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q30" s="64">
         <f>$F30*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S30" s="64">
         <f t="shared" si="1"/>
@@ -6734,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="61">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -6769,23 +6787,23 @@
       </c>
       <c r="M31" s="64">
         <f>$F31*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N31" s="64">
         <f>$F31*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O31" s="64">
         <f>$F31*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P31" s="64">
         <f>$F31*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q31" s="64">
         <f>$F31*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S31" s="64">
         <f t="shared" si="1"/>
@@ -6808,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="61">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -6843,46 +6861,46 @@
       </c>
       <c r="M32" s="64">
         <f>$F32*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N32" s="64">
         <f>$F32*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O32" s="64">
         <f>$F32*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P32" s="64">
         <f>$F32*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q32" s="64">
         <f>$F32*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S32" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T32" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U32" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V32" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W32" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="61">
         <f t="shared" si="0"/>
         <v>43831</v>
@@ -6917,23 +6935,23 @@
       </c>
       <c r="M33" s="64">
         <f>$F33*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N33" s="64">
         <f>$F33*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O33" s="64">
         <f>$F33*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P33" s="64">
         <f>$F33*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q33" s="64">
         <f>$F33*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S33" s="64">
         <f t="shared" si="1"/>
@@ -6956,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="61">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -6991,23 +7009,23 @@
       </c>
       <c r="M34" s="64">
         <f>$F34*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N34" s="64">
         <f>$F34*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O34" s="64">
         <f>$F34*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P34" s="64">
         <f>$F34*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q34" s="64">
         <f>$F34*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S34" s="64">
         <f t="shared" si="1"/>
@@ -7030,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="61">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -7065,46 +7083,46 @@
       </c>
       <c r="M35" s="64">
         <f>$F35*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N35" s="64">
         <f>$F35*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O35" s="64">
         <f>$F35*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P35" s="64">
         <f>$F35*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q35" s="64">
         <f>$F35*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S35" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T35" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U35" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V35" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W35" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="61">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -7139,23 +7157,23 @@
       </c>
       <c r="M36" s="64">
         <f>$F36*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N36" s="64">
         <f>$F36*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O36" s="64">
         <f>$F36*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P36" s="64">
         <f>$F36*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q36" s="64">
         <f>$F36*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S36" s="64">
         <f t="shared" si="1"/>
@@ -7178,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="61">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -7213,23 +7231,23 @@
       </c>
       <c r="M37" s="64">
         <f>$F37*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N37" s="64">
         <f>$F37*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O37" s="64">
         <f>$F37*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P37" s="64">
         <f>$F37*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q37" s="64">
         <f>$F37*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S37" s="64">
         <f t="shared" si="1"/>
@@ -7252,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="61">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -7287,46 +7305,46 @@
       </c>
       <c r="M38" s="64">
         <f>$F38*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N38" s="64">
         <f>$F38*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O38" s="64">
         <f>$F38*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P38" s="64">
         <f>$F38*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q38" s="64">
         <f>$F38*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S38" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T38" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U38" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V38" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W38" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="61">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -7361,23 +7379,23 @@
       </c>
       <c r="M39" s="64">
         <f>$F39*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N39" s="64">
         <f>$F39*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O39" s="64">
         <f>$F39*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P39" s="64">
         <f>$F39*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q39" s="64">
         <f>$F39*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S39" s="64">
         <f t="shared" si="1"/>
@@ -7400,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="61">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -7435,23 +7453,23 @@
       </c>
       <c r="M40" s="64">
         <f>$F40*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N40" s="64">
         <f>$F40*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O40" s="64">
         <f>$F40*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P40" s="64">
         <f>$F40*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q40" s="64">
         <f>$F40*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S40" s="64">
         <f t="shared" si="1"/>
@@ -7474,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="61">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -7509,46 +7527,46 @@
       </c>
       <c r="M41" s="64">
         <f>$F41*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N41" s="64">
         <f>$F41*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O41" s="64">
         <f>$F41*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P41" s="64">
         <f>$F41*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q41" s="64">
         <f>$F41*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S41" s="64">
         <f t="shared" si="1"/>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T41" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U41" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V41" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W41" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="61">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -7583,23 +7601,23 @@
       </c>
       <c r="M42" s="64">
         <f>$F42*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N42" s="64">
         <f>$F42*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O42" s="64">
         <f>$F42*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P42" s="64">
         <f>$F42*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q42" s="64">
         <f>$F42*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S42" s="64">
         <f t="shared" si="1"/>
@@ -7622,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="61">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -7657,23 +7675,23 @@
       </c>
       <c r="M43" s="64">
         <f>$F43*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N43" s="64">
         <f>$F43*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O43" s="64">
         <f>$F43*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P43" s="64">
         <f>$F43*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q43" s="64">
         <f>$F43*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S43" s="64">
         <f t="shared" si="1"/>
@@ -7696,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="61">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -7731,46 +7749,46 @@
       </c>
       <c r="M44" s="64">
         <f>$F44*Outputs_Internal!$D$56/12</f>
-        <v>15142.510416666666</v>
+        <v>16813.739583333332</v>
       </c>
       <c r="N44" s="64">
         <f>$F44*Outputs_Internal!K$56/12</f>
-        <v>3460.9833286248336</v>
+        <v>3567.4768116264108</v>
       </c>
       <c r="O44" s="64">
         <f>$F44*Outputs_Internal!L$56/12</f>
-        <v>11407.269919027392</v>
+        <v>12982.073973716373</v>
       </c>
       <c r="P44" s="64">
         <f>$F44*Outputs_Internal!M$56/12</f>
-        <v>253.16046370563697</v>
+        <v>243.8665827605096</v>
       </c>
       <c r="Q44" s="64">
         <f>$F44*Outputs_Internal!N$56/12</f>
-        <v>21.096705308803092</v>
+        <v>20.322215230041976</v>
       </c>
       <c r="S44" s="64">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>45427.53125</v>
+        <v>50441.21875</v>
       </c>
       <c r="T44" s="64">
         <f t="shared" si="2"/>
-        <v>10382.9499858745</v>
+        <v>10702.430434879232</v>
       </c>
       <c r="U44" s="64">
         <f t="shared" si="3"/>
-        <v>34221.809757082177</v>
+        <v>38946.221921149117</v>
       </c>
       <c r="V44" s="64">
         <f t="shared" si="4"/>
-        <v>759.48139111691091</v>
+        <v>731.59974828152883</v>
       </c>
       <c r="W44" s="64">
         <f t="shared" si="5"/>
-        <v>63.290115926409271</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
+        <v>60.966645690125929</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="61">
         <f t="shared" si="0"/>
         <v>44197</v>
@@ -7844,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="61">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -7918,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="61">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -7992,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="61">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -8066,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="61">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -8140,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="61">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -8214,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="61">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -8288,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="61">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -8362,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="61">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -8436,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="61">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -8510,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="61">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -8584,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56" s="61">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -8658,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="61">
         <f t="shared" si="0"/>
         <v>44562</v>
@@ -8732,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="61">
         <f t="shared" si="0"/>
         <v>44593</v>
@@ -8806,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="61">
         <f t="shared" si="0"/>
         <v>44621</v>
@@ -8880,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="61">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -8954,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" s="61">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -9028,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62" s="61">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -9102,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63" s="61">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -9176,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="61">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -9250,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" s="61">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -9324,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" s="61">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -9398,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" s="61">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9472,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" s="61">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -9546,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" s="61">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
@@ -9620,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="61">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -9694,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="61">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -9768,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="61">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -9842,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="61">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -9916,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74" s="61">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -9990,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B75" s="61">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -10064,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B76" s="61">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -10138,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" s="61">
         <f t="shared" si="6"/>
         <v>45170</v>
@@ -10212,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78" s="61">
         <f t="shared" si="6"/>
         <v>45200</v>
@@ -10286,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="61">
         <f t="shared" si="6"/>
         <v>45231</v>
@@ -10360,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" s="61">
         <f t="shared" si="6"/>
         <v>45261</v>
@@ -10434,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="61">
         <f t="shared" si="6"/>
         <v>45292</v>
@@ -10508,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="61">
         <f t="shared" si="6"/>
         <v>45323</v>
@@ -10582,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="61">
         <f t="shared" si="6"/>
         <v>45352</v>
@@ -10656,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="61">
         <f t="shared" si="6"/>
         <v>45383</v>
@@ -10730,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="61">
         <f t="shared" si="6"/>
         <v>45413</v>
@@ -10804,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="61">
         <f t="shared" si="6"/>
         <v>45444</v>
@@ -10878,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B87" s="61">
         <f t="shared" si="6"/>
         <v>45474</v>
@@ -10952,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B88" s="61">
         <f t="shared" si="6"/>
         <v>45505</v>
@@ -11026,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" s="61">
         <f t="shared" si="6"/>
         <v>45536</v>
@@ -11100,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" s="61">
         <f t="shared" si="6"/>
         <v>45566</v>
@@ -11174,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="61">
         <f t="shared" si="6"/>
         <v>45597</v>
@@ -11248,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" s="61">
         <f t="shared" si="6"/>
         <v>45627</v>
@@ -11322,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="61">
         <f t="shared" si="6"/>
         <v>45658</v>
@@ -11396,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="61">
         <f t="shared" si="6"/>
         <v>45689</v>
@@ -11485,22 +11503,22 @@
   <dimension ref="A2:O126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D98" sqref="D98:H102"/>
+      <selection pane="bottomRight" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>18</v>
       </c>
@@ -11532,12 +11550,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -11562,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11578,7 +11596,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>105</v>
       </c>
@@ -11612,7 +11630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>106</v>
       </c>
@@ -11647,7 +11665,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>107</v>
       </c>
@@ -11682,7 +11700,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>109</v>
       </c>
@@ -11717,7 +11735,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="79" t="s">
         <v>113</v>
       </c>
@@ -11742,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="79" t="s">
         <v>114</v>
       </c>
@@ -11767,19 +11785,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
@@ -11804,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
@@ -11829,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
@@ -11854,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
@@ -11879,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
@@ -11904,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
@@ -11929,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
         <v>95</v>
       </c>
@@ -11954,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="19" t="s">
         <v>11</v>
       </c>
@@ -11979,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="19" t="s">
         <v>12</v>
       </c>
@@ -12004,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="19" t="s">
         <v>29</v>
       </c>
@@ -12029,12 +12047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>2</v>
       </c>
@@ -12059,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>27</v>
       </c>
@@ -12084,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>8</v>
       </c>
@@ -12109,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>28</v>
       </c>
@@ -12134,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>9</v>
       </c>
@@ -12159,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
@@ -12184,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
         <v>95</v>
       </c>
@@ -12209,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C33" s="19" t="s">
         <v>11</v>
       </c>
@@ -12234,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="19" t="s">
         <v>12</v>
       </c>
@@ -12259,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="28" t="s">
         <v>29</v>
       </c>
@@ -12279,19 +12297,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
         <v>2</v>
       </c>
@@ -12316,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
@@ -12341,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>8</v>
       </c>
@@ -12366,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>28</v>
       </c>
@@ -12391,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>9</v>
       </c>
@@ -12416,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
         <v>10</v>
       </c>
@@ -12441,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>95</v>
       </c>
@@ -12466,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
         <v>11</v>
       </c>
@@ -12491,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
         <v>12</v>
       </c>
@@ -12516,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
         <v>29</v>
       </c>
@@ -12541,12 +12559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="15" t="s">
         <v>2</v>
       </c>
@@ -12571,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
         <v>27</v>
       </c>
@@ -12596,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
         <v>8</v>
       </c>
@@ -12621,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
         <v>28</v>
       </c>
@@ -12646,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
         <v>9</v>
       </c>
@@ -12671,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
         <v>10</v>
       </c>
@@ -12696,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>95</v>
       </c>
@@ -12721,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57" s="19" t="s">
         <v>11</v>
       </c>
@@ -12746,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58" s="19" t="s">
         <v>12</v>
       </c>
@@ -12771,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59" s="28" t="s">
         <v>29</v>
       </c>
@@ -12791,12 +12809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C62" s="17" t="s">
         <v>14</v>
       </c>
@@ -12821,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="17" t="s">
         <v>15</v>
       </c>
@@ -12846,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="19" t="s">
         <v>16</v>
       </c>
@@ -12871,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C65" s="19" t="s">
         <v>17</v>
       </c>
@@ -12896,42 +12914,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C66" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D66" s="20">
-        <f>IF(Inputs!D22="Y", Prices!$C24 * IF(Inputs!D21="Y",Prices!$L$20,1), 0)</f>
-        <v>14000</v>
+        <f>IF(Inputs!D22="Y", Prices!$C24 * IF(Inputs!D21="Y",1-Prices!$L$20,1), 0)</f>
+        <v>28000</v>
       </c>
       <c r="E66" s="20">
-        <f>IF(Inputs!E22="Y", Prices!$C24 * IF(Inputs!E21="Y",Prices!$L$20,1), 0)</f>
-        <v>14000</v>
+        <f>IF(Inputs!E22="Y", Prices!$C24 * IF(Inputs!E21="Y",1-Prices!$L$20,1), 0)</f>
+        <v>28000</v>
       </c>
       <c r="F66" s="20">
-        <f>IF(Inputs!F22="Y", Prices!$C24 * IF(Inputs!F21="Y",Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!F22="Y", Prices!$C24 * IF(Inputs!F21="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="20">
-        <f>IF(Inputs!G22="Y", Prices!$C24 * IF(Inputs!G21="Y",Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!G22="Y", Prices!$C24 * IF(Inputs!G21="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="20">
-        <f>IF(Inputs!H22="Y", Prices!$C24 * IF(Inputs!H21="Y",Prices!$L$20,1), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+        <f>IF(Inputs!H22="Y", Prices!$C24 * IF(Inputs!H21="Y",1-Prices!$L$20,1), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D67" s="20">
         <f>IF(Inputs!D23="Y", Prices!$C25, 0)</f>
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="E67" s="20">
         <f>IF(Inputs!E23="Y", Prices!$C25, 0)</f>
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="F67" s="20">
         <f>IF(Inputs!F23="Y", Prices!$C25, 0)</f>
@@ -12946,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="82" t="s">
         <v>115</v>
       </c>
@@ -12971,12 +12989,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J70" s="90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C71" s="28" t="s">
         <v>14</v>
       </c>
@@ -12995,28 +13016,31 @@
       <c r="H71" s="29">
         <v>0</v>
       </c>
+      <c r="J71" s="91">
+        <v>1E-3</v>
+      </c>
       <c r="K71" s="23">
-        <f>D62+D71</f>
-        <v>0</v>
+        <f>D62+D71+$J71</f>
+        <v>1E-3</v>
       </c>
       <c r="L71" s="23">
-        <f t="shared" ref="L71:O71" si="2">E62+E71</f>
-        <v>0</v>
+        <f t="shared" ref="L71:O71" si="2">E62+E71+$J71</f>
+        <v>1E-3</v>
       </c>
       <c r="M71" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N71" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O71" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C72" s="17" t="s">
         <v>15</v>
       </c>
@@ -13040,28 +13064,32 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H19 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
         <v>0</v>
       </c>
+      <c r="J72" s="91">
+        <f>J71+0.0001</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
       <c r="K72" s="23">
-        <f t="shared" ref="K72:O72" si="3">D63+D72</f>
-        <v>33000</v>
+        <f t="shared" ref="K72:O72" si="3">D63+D72+$J72</f>
+        <v>33000.001100000001</v>
       </c>
       <c r="L72" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="M72" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="N72" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="O72" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" s="19" t="s">
         <v>16</v>
       </c>
@@ -13085,28 +13113,32 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H20 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
         <v>0</v>
       </c>
+      <c r="J73" s="91">
+        <f t="shared" ref="J73:J77" si="4">J72+0.0001</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
       <c r="K73" s="23">
-        <f t="shared" ref="K73:O73" si="4">D64+D73</f>
-        <v>0</v>
+        <f t="shared" ref="K73:O73" si="5">D64+D73+$J73</f>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="L73" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="M73" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="N73" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="O73" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" s="19" t="s">
         <v>17</v>
       </c>
@@ -13130,73 +13162,81 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
         <v>0</v>
       </c>
+      <c r="J74" s="91">
+        <f t="shared" si="4"/>
+        <v>1.3000000000000002E-3</v>
+      </c>
       <c r="K74" s="23">
-        <f t="shared" ref="K74:O74" si="5">D65+D74</f>
-        <v>28000</v>
+        <f t="shared" ref="K74:O74" si="6">D65+D74+$J74</f>
+        <v>28000.0013</v>
       </c>
       <c r="L74" s="23">
-        <f t="shared" si="5"/>
-        <v>44380</v>
+        <f t="shared" si="6"/>
+        <v>44380.001300000004</v>
       </c>
       <c r="M74" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.3000000000000002E-3</v>
       </c>
       <c r="N74" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.3000000000000002E-3</v>
       </c>
       <c r="O74" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1.3000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D75" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E24 * IF(Inputs!D21="Y",Prices!$L$20,1), 0)))*D$10</f>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E24 * IF(Inputs!D21="Y",1-Prices!$L$20,1), 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E75" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E24 * IF(Inputs!E21="Y",Prices!$L$20,1), 0)))*E$10</f>
-        <v>8190</v>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E24 * IF(Inputs!E21="Y",1-Prices!$L$20,1), 0)))*E$10</f>
+        <v>16380</v>
       </c>
       <c r="F75" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E24 * IF(Inputs!F21="Y",Prices!$L$20,1), 0)))*F$10</f>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E24 * IF(Inputs!F21="Y",1-Prices!$L$20,1), 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G75" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E24 * IF(Inputs!G21="Y",Prices!$L$20,1), 0)))*G$10</f>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E24 * IF(Inputs!G21="Y",1-Prices!$L$20,1), 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H75" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E24 * IF(Inputs!H21="Y",Prices!$L$20,1), 0)))*H$10</f>
-        <v>0</v>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E24 * IF(Inputs!H21="Y",1-Prices!$L$20,1), 0)))*H$10</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="91">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="K75" s="23">
-        <f t="shared" ref="K75:K76" si="6">D66+D75</f>
-        <v>14000</v>
+        <f t="shared" ref="K75:O75" si="7">D66+D75+$J75</f>
+        <v>28000.001400000001</v>
       </c>
       <c r="L75" s="23">
-        <f t="shared" ref="L75:L76" si="7">E66+E75</f>
-        <v>22190</v>
+        <f t="shared" si="7"/>
+        <v>44380.001400000001</v>
       </c>
       <c r="M75" s="23">
-        <f t="shared" ref="M75:M76" si="8">F66+F75</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="N75" s="23">
-        <f t="shared" ref="N75:N76" si="9">G66+G75</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="O75" s="23">
-        <f t="shared" ref="O75:O76" si="10">H66+H75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="s">
         <v>117</v>
       </c>
@@ -13206,7 +13246,7 @@
       </c>
       <c r="E76" s="20">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E25, 0)))*E$10</f>
-        <v>13650</v>
+        <v>12740.000000000002</v>
       </c>
       <c r="F76" s="20">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E25, 0)))*F$10</f>
@@ -13220,28 +13260,32 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E25, 0)))*H$10</f>
         <v>0</v>
       </c>
+      <c r="J76" s="91">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000002E-3</v>
+      </c>
       <c r="K76" s="23">
-        <f t="shared" si="6"/>
-        <v>17500</v>
+        <f t="shared" ref="K76:O76" si="8">D67+D76+$J76</f>
+        <v>20000.001499999998</v>
       </c>
       <c r="L76" s="23">
-        <f t="shared" si="7"/>
-        <v>31150</v>
+        <f t="shared" si="8"/>
+        <v>32740.001499999998</v>
       </c>
       <c r="M76" s="23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="N76" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="O76" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>1.5000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C77" s="82" t="s">
         <v>115</v>
       </c>
@@ -13265,40 +13309,44 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H8 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
         <v>0</v>
       </c>
+      <c r="J77" s="91">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000003E-3</v>
+      </c>
       <c r="K77" s="23">
-        <f t="shared" ref="K77:O77" si="11">D68+D77</f>
-        <v>6750</v>
+        <f t="shared" ref="K77:O77" si="9">D68+D77+$J77</f>
+        <v>6750.0015999999996</v>
       </c>
       <c r="L77" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="M77" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="N77" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="O77" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>1.6000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C80" s="17" t="s">
         <v>14</v>
       </c>
@@ -13307,43 +13355,43 @@
         <v>0</v>
       </c>
       <c r="E80" s="18">
-        <f t="shared" ref="E80:H80" si="12">E62</f>
+        <f t="shared" ref="E80:H80" si="10">E62</f>
         <v>0</v>
       </c>
       <c r="F80" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G80" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H80" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K80" s="21">
         <f>IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K71,K$71:K$77),5))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L80" s="21">
-        <f t="shared" ref="L80:O80" si="13">IF(COUNTIF(L$71:L$77,"")&gt;2,"",IFERROR(RANK(L71,L$71:L$77),5))</f>
-        <v>4</v>
+        <f t="shared" ref="L80:O80" si="11">IF(COUNTIF(L$71:L$77,"")&gt;2,"",IFERROR(RANK(L71,L$71:L$77),5))</f>
+        <v>7</v>
       </c>
       <c r="M80" s="21">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="N80" s="21">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="O80" s="21">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C81" s="17" t="s">
         <v>15</v>
       </c>
@@ -13368,27 +13416,27 @@
         <v>0</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" ref="K81:O81" si="14">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K72,K$71:K$77),5))</f>
+        <f t="shared" ref="K81:O81" si="12">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K72,K$71:K$77),5))</f>
         <v>1</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="M81" s="21">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="N81" s="21">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="O81" s="21">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C82" s="19" t="s">
         <v>16</v>
       </c>
@@ -13413,27 +13461,27 @@
         <v>0</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" ref="K82:O82" si="15">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K73,K$71:K$77),5))</f>
+        <f t="shared" ref="K82:O82" si="13">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K73,K$71:K$77),5))</f>
         <v>6</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="M82" s="21">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="N82" s="21">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="O82" s="21">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C83" s="19" t="s">
         <v>17</v>
       </c>
@@ -13458,167 +13506,167 @@
         <v>0</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" ref="K83:O83" si="16">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K74,K$71:K$77),5))</f>
+        <f t="shared" ref="K83:O83" si="14">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K74,K$71:K$77),5))</f>
+        <v>3</v>
+      </c>
+      <c r="L83" s="21">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="L83" s="21">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="M83" s="21">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="N83" s="21">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="O83" s="21">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C84" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D84" s="20">
-        <f t="shared" ref="D84:H84" si="17">D66</f>
-        <v>14000</v>
+        <f t="shared" ref="D84:H84" si="15">D66</f>
+        <v>28000</v>
       </c>
       <c r="E84" s="20">
+        <f t="shared" si="15"/>
+        <v>28000</v>
+      </c>
+      <c r="F84" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="21">
+        <f t="shared" ref="K84:O84" si="16">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K75,K$71:K$77),5))</f>
+        <v>2</v>
+      </c>
+      <c r="L84" s="21">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M84" s="21">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="N84" s="21">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="O84" s="21">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C85" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="20">
+        <f t="shared" ref="D85:H85" si="17">D67</f>
+        <v>20000</v>
+      </c>
+      <c r="E85" s="20">
         <f t="shared" si="17"/>
-        <v>14000</v>
-      </c>
-      <c r="F84" s="20">
+        <v>20000</v>
+      </c>
+      <c r="F85" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G84" s="20">
+      <c r="G85" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H85" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K84" s="21">
-        <f t="shared" ref="K84:O84" si="18">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K75,K$71:K$77),5))</f>
+      <c r="K85" s="21">
+        <f t="shared" ref="K85:O85" si="18">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K76,K$71:K$77),5))</f>
         <v>4</v>
       </c>
-      <c r="L84" s="21">
+      <c r="L85" s="21">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="M84" s="21">
+      <c r="M85" s="21">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="N84" s="21">
+        <v>2</v>
+      </c>
+      <c r="N85" s="21">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="O84" s="21">
+        <v>2</v>
+      </c>
+      <c r="O85" s="21">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C85" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="20">
-        <f t="shared" ref="D85:H85" si="19">D67</f>
-        <v>17500</v>
-      </c>
-      <c r="E85" s="20">
-        <f t="shared" si="19"/>
-        <v>17500</v>
-      </c>
-      <c r="F85" s="20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="21">
-        <f t="shared" ref="K85:O85" si="20">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K76,K$71:K$77),5))</f>
-        <v>3</v>
-      </c>
-      <c r="L85" s="21">
-        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="M85" s="21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N85" s="21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O85" s="21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C86" s="82" t="s">
         <v>115</v>
       </c>
       <c r="D86" s="85">
-        <f t="shared" ref="D86:H86" si="21">D68</f>
+        <f t="shared" ref="D86:H86" si="19">D68</f>
         <v>6750</v>
       </c>
       <c r="E86" s="85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F86" s="85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G86" s="85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H86" s="85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" ref="K86:O86" si="22">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K77,K$71:K$77),5))</f>
+        <f t="shared" ref="K86:O86" si="20">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K77,K$71:K$77),5))</f>
         <v>5</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="M86" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N86" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O86" s="21">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C89" s="28" t="s">
         <v>14</v>
       </c>
@@ -13638,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C90" s="17" t="s">
         <v>15</v>
       </c>
@@ -13663,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C91" s="19" t="s">
         <v>16</v>
       </c>
@@ -13688,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C92" s="19" t="s">
         <v>17</v>
       </c>
@@ -13713,87 +13761,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C93" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D93" s="20">
-        <f t="shared" ref="D93:H93" si="23">D75</f>
+        <f t="shared" ref="D93:H93" si="21">D75</f>
         <v>0</v>
       </c>
       <c r="E93" s="20">
-        <f t="shared" si="23"/>
-        <v>8190</v>
+        <f t="shared" si="21"/>
+        <v>16380</v>
       </c>
       <c r="F93" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H93" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C94" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D94" s="20">
-        <f t="shared" ref="D94:H94" si="24">D76</f>
+        <f t="shared" ref="D94:H94" si="22">D76</f>
         <v>0</v>
       </c>
       <c r="E94" s="20">
-        <f t="shared" si="24"/>
-        <v>13650</v>
+        <f t="shared" si="22"/>
+        <v>12740.000000000002</v>
       </c>
       <c r="F94" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G94" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H94" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C95" s="82" t="s">
         <v>115</v>
       </c>
       <c r="D95" s="85">
-        <f t="shared" ref="D95:H95" si="25">D77</f>
+        <f t="shared" ref="D95:H95" si="23">D77</f>
         <v>0</v>
       </c>
       <c r="E95" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F95" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G95" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H95" s="85">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="89">
         <v>2</v>
       </c>
@@ -13806,7 +13854,7 @@
       </c>
       <c r="E98" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A98, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A98, L$80:L$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-9345</v>
+        <v>-13314</v>
       </c>
       <c r="F98" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A98, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A98, M$80:M$86, 0)))*Prices!$L$5*-1, 0)</f>
@@ -13821,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="89">
         <v>3</v>
       </c>
@@ -13830,11 +13878,11 @@
       </c>
       <c r="D99" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A99, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A99, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-7875</v>
+        <v>-12600</v>
       </c>
       <c r="E99" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A99, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A99, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-9985.5</v>
+        <v>-14733</v>
       </c>
       <c r="F99" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A99, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A99, M$80:M$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13849,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="89">
         <v>4</v>
       </c>
@@ -13858,7 +13906,7 @@
       </c>
       <c r="D100" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A100, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A100, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-6300</v>
+        <v>-9000</v>
       </c>
       <c r="E100" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A100, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A100, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13877,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="89">
         <v>5</v>
       </c>
@@ -13905,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="89">
         <v>6</v>
       </c>
@@ -13933,67 +13981,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D68, D71:D77, D98:D102)</f>
-        <v>88637.5</v>
+        <v>97712.5</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" ref="E104:H104" si="26">SUM(E38:E47, E50:E59, E62:E68, E71:E77, E98:E102)</f>
-        <v>132959.5</v>
+        <f t="shared" ref="E104:H104" si="24">SUM(E38:E47, E50:E59, E62:E68, E71:E77, E98:E102)</f>
+        <v>148023</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H104" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D106" s="1">
         <f>IF(D116=1, 0, IF(D116=2, $E$119, IF(D116=3, $E$120, IF(D116=4, $E$121, IF(D116=5, $E$122, "")))))</f>
-        <v>-39886.875</v>
+        <v>-43970.625</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" ref="E106:H106" si="27">IF(E116=1, 0, IF(E116=2, $E$119, IF(E116=3, $E$120, IF(E116=4, $E$121, IF(E116=5, $E$122, "")))))</f>
+        <f t="shared" ref="E106:H106" si="25">IF(E116=1, 0, IF(E116=2, $E$119, IF(E116=3, $E$120, IF(E116=4, $E$121, IF(E116=5, $E$122, "")))))</f>
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>100</v>
       </c>
@@ -14014,17 +14062,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D110" s="7">
         <f>SUM(D104, D106)</f>
-        <v>48750.625</v>
+        <v>53741.875</v>
       </c>
       <c r="E110" s="7">
         <f>SUM(E104, E106)</f>
-        <v>132959.5</v>
+        <v>148023</v>
       </c>
       <c r="F110" s="7">
         <f>SUM(F104, F106)</f>
@@ -14039,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="27"/>
       <c r="C113" s="21" t="s">
         <v>59</v>
@@ -14049,23 +14097,23 @@
         <v>2</v>
       </c>
       <c r="E113" s="21">
-        <f t="shared" ref="E113:H113" si="28">IFERROR(_xlfn.RANK.EQ(E104,$D$104:$H$104),5)</f>
+        <f t="shared" ref="E113:H113" si="26">IFERROR(_xlfn.RANK.EQ(E104,$D$104:$H$104),5)</f>
         <v>1</v>
       </c>
       <c r="F113" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="G113" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="H113" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="27"/>
       <c r="D114" s="21">
         <v>0.1</v>
@@ -14083,72 +14131,72 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="27"/>
       <c r="D115" s="21">
         <f>SUM(D113:D114)</f>
         <v>2.1</v>
       </c>
       <c r="E115" s="21">
-        <f t="shared" ref="E115:H115" si="29">SUM(E113:E114)</f>
+        <f t="shared" ref="E115:H115" si="27">SUM(E113:E114)</f>
         <v>1.2</v>
       </c>
       <c r="F115" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>3.3</v>
       </c>
       <c r="G115" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>3.4</v>
       </c>
       <c r="H115" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="116" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="27"/>
       <c r="D116" s="21">
         <f>_xlfn.RANK.EQ(D115, $D$115:$H$115, 5)</f>
         <v>2</v>
       </c>
       <c r="E116" s="21">
-        <f t="shared" ref="E116:H116" si="30">_xlfn.RANK.EQ(E115, $D$115:$H$115, 5)</f>
+        <f t="shared" ref="E116:H116" si="28">_xlfn.RANK.EQ(E115, $D$115:$H$115, 5)</f>
         <v>1</v>
       </c>
       <c r="F116" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="G116" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="H116" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="27"/>
     </row>
-    <row r="118" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27"/>
       <c r="C118" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="27"/>
       <c r="D119" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(2, $D$116:$H$116, 0))*Prices!$L$10*-1</f>
-        <v>-39886.875</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>-43970.625</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="27"/>
       <c r="D120" s="21" t="s">
         <v>37</v>
@@ -14158,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="27"/>
       <c r="D121" s="21" t="s">
         <v>48</v>
@@ -14168,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="27"/>
       <c r="D122" s="21" t="s">
         <v>49</v>
@@ -14178,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F126" s="2"/>
     </row>
   </sheetData>
@@ -14191,22 +14239,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.36328125" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" customWidth="1"/>
-    <col min="11" max="11" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" customWidth="1"/>
+    <col min="6" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
@@ -14214,7 +14264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -14232,7 +14282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -14261,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E5" s="48" t="s">
         <v>102</v>
       </c>
@@ -14281,7 +14331,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
@@ -14313,14 +14363,14 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="43"/>
       <c r="D8" s="39"/>
       <c r="K8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46" t="s">
         <v>38</v>
       </c>
@@ -14335,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
@@ -14364,7 +14414,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -14393,7 +14443,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
@@ -14416,7 +14466,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
@@ -14440,7 +14490,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
@@ -14469,7 +14519,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>95</v>
       </c>
@@ -14498,7 +14548,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
@@ -14523,7 +14573,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
@@ -14546,7 +14596,7 @@
         <v>1.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -14575,14 +14625,14 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C19" s="43"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>14</v>
       </c>
@@ -14608,10 +14658,10 @@
         <v>122</v>
       </c>
       <c r="L20" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>15</v>
       </c>
@@ -14634,7 +14684,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
@@ -14657,7 +14707,7 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
@@ -14680,7 +14730,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>118</v>
       </c>
@@ -14703,30 +14753,30 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="45">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="E25" s="41">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F25" s="41">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G25" s="41">
         <f t="shared" si="3"/>
-        <v>3.5999999999999997E-2</v>
+        <v>3.3600000000000005E-2</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+        <v>2.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="82" t="s">
         <v>115</v>
       </c>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>This is in addition to the multi-product discount.</t>
         </r>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -545,14 +545,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -601,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -673,6 +673,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -680,7 +711,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -782,9 +813,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -835,6 +863,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1137,38 +1176,38 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18" style="67" customWidth="1"/>
+    <col min="3" max="3" width="18" style="66" customWidth="1"/>
     <col min="4" max="8" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="71">
+      <c r="C1" s="70">
         <v>43101</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="69"/>
-      <c r="C3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
@@ -1186,7 +1225,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -1203,7 +1242,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="69" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="55" t="s">
@@ -1220,7 +1259,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -1234,7 +1273,7 @@
       <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="69" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="55">
@@ -1248,7 +1287,7 @@
       <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="69" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="55" t="s">
@@ -1262,7 +1301,7 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -1276,7 +1315,7 @@
       <c r="H9" s="56"/>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="55" t="s">
@@ -1290,7 +1329,7 @@
       <c r="H10" s="56"/>
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="69" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="55" t="s">
@@ -1304,7 +1343,7 @@
       <c r="H11" s="56"/>
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="55" t="s">
@@ -1318,7 +1357,7 @@
       <c r="H12" s="56"/>
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="69" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="55" t="s">
@@ -1332,7 +1371,7 @@
       <c r="H13" s="56"/>
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="69" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="55" t="s">
@@ -1346,7 +1385,7 @@
       <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="55" t="s">
@@ -1360,7 +1399,7 @@
       <c r="H15" s="56"/>
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="55" t="s">
@@ -1374,7 +1413,7 @@
       <c r="H16" s="56"/>
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -1388,7 +1427,7 @@
       <c r="H17" s="56"/>
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="55" t="s">
@@ -1402,7 +1441,7 @@
       <c r="H18" s="56"/>
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="55" t="s">
@@ -1416,7 +1455,7 @@
       <c r="H19" s="56"/>
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="69" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="55" t="s">
@@ -1430,7 +1469,7 @@
       <c r="H20" s="56"/>
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="69" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -1444,7 +1483,7 @@
       <c r="H21" s="56"/>
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="55" t="s">
@@ -1458,18 +1497,19 @@
       <c r="H22" s="56"/>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2361,7 +2401,7 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="65">
+      <c r="C35" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
@@ -2535,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="74">
+      <c r="F4" s="73">
         <v>0.5</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="73">
         <v>0.5</v>
       </c>
       <c r="H4" s="51">
@@ -2634,10 +2674,10 @@
         <v>45000</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>0.4</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="75">
         <v>0.6</v>
       </c>
       <c r="H8" s="34">
@@ -2712,10 +2752,10 @@
         <v>4000</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="75">
+      <c r="F10" s="74">
         <v>0.45</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="74">
         <v>0.45</v>
       </c>
       <c r="H10" s="36">
@@ -2862,10 +2902,10 @@
         <f>SUM(Calcs!D20:H20)</f>
         <v>4000</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="74">
         <v>0.6</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="74">
         <v>0.4</v>
       </c>
       <c r="H14" s="36">
@@ -3711,39 +3751,39 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="84">
         <f>SUM(Calcs!D86:H86)</f>
         <v>6750</v>
       </c>
-      <c r="F40" s="86">
+      <c r="F40" s="85">
         <v>0.2</v>
       </c>
-      <c r="G40" s="86">
+      <c r="G40" s="85">
         <v>0.8</v>
       </c>
-      <c r="H40" s="87">
+      <c r="H40" s="86">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I40" s="87">
-        <v>0</v>
-      </c>
-      <c r="K40" s="85">
+      <c r="I40" s="86">
+        <v>0</v>
+      </c>
+      <c r="K40" s="84">
         <f t="shared" si="12"/>
         <v>1350</v>
       </c>
-      <c r="L40" s="85">
+      <c r="L40" s="84">
         <f t="shared" si="12"/>
         <v>5400</v>
       </c>
-      <c r="M40" s="85">
+      <c r="M40" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N40" s="85">
+      <c r="N40" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -4006,41 +4046,41 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="85">
+      <c r="D49" s="84">
         <f>SUM(Calcs!D95:H95)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="88">
+      <c r="F49" s="87">
         <f t="shared" ref="F49" si="34">IFERROR((1-G49)*F40/SUM(F40,H40),0)</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="G49" s="88">
+      <c r="G49" s="87">
         <f t="shared" ref="G49" si="35">MIN(1,G40+$H$19)</f>
         <v>0.9</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H49" s="87">
         <f t="shared" ref="H49" si="36">IFERROR((1-G49)*H40/SUM(F40,H40),0)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="88">
-        <v>0</v>
-      </c>
-      <c r="K49" s="85">
+      <c r="I49" s="87">
+        <v>0</v>
+      </c>
+      <c r="K49" s="84">
         <f t="shared" ref="K49" si="37">F49*$D49</f>
         <v>0</v>
       </c>
-      <c r="L49" s="85">
+      <c r="L49" s="84">
         <f t="shared" ref="L49" si="38">G49*$D49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="85">
+      <c r="M49" s="84">
         <f t="shared" ref="M49" si="39">H49*$D49</f>
         <v>0</v>
       </c>
-      <c r="N49" s="85">
+      <c r="N49" s="84">
         <f t="shared" ref="N49" si="40">I49*$D49</f>
         <v>0</v>
       </c>
@@ -4618,6872 +4658,6872 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="61" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" style="64"/>
+    <col min="2" max="2" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="60" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375" style="63"/>
     <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.7109375" style="64"/>
-    <col min="16" max="16" width="11.85546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" style="63"/>
+    <col min="16" max="16" width="11.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="63" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5703125" customWidth="1"/>
     <col min="22" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="F1" s="66">
+      <c r="F1" s="65">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="M1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="S1" s="62" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="S1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="63" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="63" t="s">
+      <c r="T2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="61">
+      <c r="B3" s="60">
         <v>42917</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="64">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="64">
         <f>IF(B3=Inputs!$C$1,D3,1)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="64">
         <f>IF(AND(B3&gt;=Inputs!$C$1,B3&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E3,0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="63">
         <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="63">
         <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="63">
         <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="63">
         <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="63">
         <f>$F3*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="63">
         <f>$F3*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="63">
         <f>$F3*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P3" s="64">
+      <c r="P3" s="63">
         <f>$F3*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="64">
+      <c r="Q3" s="63">
         <f>$F3*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="61">
+      <c r="B4" s="60">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <f>D3*IF(AND(MONTH(B4)=1,YEAR(B4)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="64">
         <f>IF(B4=Inputs!$C$1,D4,E3)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="64">
         <f>IF(AND(B4&gt;=Inputs!$C$1,B4&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E4,0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="63">
         <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="63">
         <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="63">
         <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="63">
         <f>$F4*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="63">
         <f>$F4*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="63">
         <f>$F4*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="63">
         <f>$F4*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="63">
         <f>$F4*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="61">
+      <c r="B5" s="60">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="64">
         <f>D4*IF(AND(MONTH(B5)=1,YEAR(B5)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="64">
         <f>IF(B5=Inputs!$C$1,D5,E4)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="64">
         <f>IF(AND(B5&gt;=Inputs!$C$1,B5&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E5,0)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="63">
         <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="63">
         <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="63">
         <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="63">
         <f>$F5*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="63">
         <f>$F5*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="63">
         <f>$F5*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="63">
         <f>$F5*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="64">
+      <c r="Q5" s="63">
         <f>$F5*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="63">
         <f>IF(MOD(MONTH($B5),3)=0,SUM(H3:H5,M3:M5),0)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="63">
         <f>IF(MOD(MONTH($B5),3)=0,SUM(I3:I5,N3:N5),0)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="63">
         <f>IF(MOD(MONTH($B5),3)=0,SUM(J3:J5,O3:O5),0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="64">
+      <c r="V5" s="63">
         <f>IF(MOD(MONTH($B5),3)=0,SUM(K3:K5,P3:P5),0)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="64">
+      <c r="W5" s="63">
         <f>IF(MOD(MONTH($B5),3)=0,SUM(L3:L5,Q3:Q5),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <f t="shared" si="0"/>
         <v>43009</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="64">
         <f>D5*IF(AND(MONTH(B6)=1,YEAR(B6)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="64">
         <f>IF(B6=Inputs!$C$1,D6,E5)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="64">
         <f>IF(AND(B6&gt;=Inputs!$C$1,B6&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E6,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="63">
         <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="63">
         <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="63">
         <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="63">
         <f>$F6*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="63">
         <f>$F6*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="63">
         <f>$F6*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="63">
         <f>$F6*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="64">
+      <c r="Q6" s="63">
         <f>$F6*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S6" s="64">
+      <c r="S6" s="63">
         <f t="shared" ref="S6:S69" si="1">IF(MOD(MONTH($B6),3)=0,SUM(H4:H6,M4:M6),0)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="63">
         <f t="shared" ref="T6:T69" si="2">IF(MOD(MONTH($B6),3)=0,SUM(I4:I6,N4:N6),0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="64">
+      <c r="U6" s="63">
         <f t="shared" ref="U6:U69" si="3">IF(MOD(MONTH($B6),3)=0,SUM(J4:J6,O4:O6),0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="64">
+      <c r="V6" s="63">
         <f t="shared" ref="V6:V69" si="4">IF(MOD(MONTH($B6),3)=0,SUM(K4:K6,P4:P6),0)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="64">
+      <c r="W6" s="63">
         <f t="shared" ref="W6:W69" si="5">IF(MOD(MONTH($B6),3)=0,SUM(L4:L6,Q4:Q6),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <f t="shared" si="0"/>
         <v>43040</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="64">
         <f>D6*IF(AND(MONTH(B7)=1,YEAR(B7)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="64">
         <f>IF(B7=Inputs!$C$1,D7,E6)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="64">
         <f>IF(AND(B7&gt;=Inputs!$C$1,B7&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E7,0)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="63">
         <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="63">
         <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="63">
         <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="63">
         <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="63">
         <f>$F7*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="63">
         <f>$F7*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="63">
         <f>$F7*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="63">
         <f>$F7*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="63">
         <f>$F7*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S7" s="64">
+      <c r="S7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U7" s="64">
+      <c r="U7" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V7" s="64">
+      <c r="V7" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W7" s="64">
+      <c r="W7" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <f t="shared" si="0"/>
         <v>43070</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <f>D7*IF(AND(MONTH(B8)=1,YEAR(B8)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <f>IF(B8=Inputs!$C$1,D8,E7)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="64">
         <f>IF(AND(B8&gt;=Inputs!$C$1,B8&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E8,0)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="63">
         <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="63">
         <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="63">
         <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="63">
         <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="63">
         <f>$F8*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="63">
         <f>$F8*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O8" s="64">
+      <c r="O8" s="63">
         <f>$F8*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="63">
         <f>$F8*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="63">
         <f>$F8*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S8" s="64">
+      <c r="S8" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="64">
+      <c r="U8" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V8" s="64">
+      <c r="V8" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W8" s="64">
+      <c r="W8" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="61">
+      <c r="B9" s="60">
         <f t="shared" si="0"/>
         <v>43101</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <f>D8*IF(AND(MONTH(B9)=1,YEAR(B9)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="64">
         <f>IF(B9=Inputs!$C$1,D9,E8)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <f>IF(AND(B9&gt;=Inputs!$C$1,B9&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E9,0)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
         <v>42750</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
         <v>8275</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D9</f>
         <v>34475</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="63">
         <f>$F9*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="63">
         <f>$F9*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="63">
         <f>$F9*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P9" s="64">
+      <c r="P9" s="63">
         <f>$F9*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q9" s="64">
+      <c r="Q9" s="63">
         <f>$F9*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S9" s="64">
+      <c r="S9" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="64">
+      <c r="T9" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U9" s="64">
+      <c r="U9" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V9" s="64">
+      <c r="V9" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W9" s="64">
+      <c r="W9" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <f t="shared" si="0"/>
         <v>43132</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <f>D9*IF(AND(MONTH(B10)=1,YEAR(B10)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="64">
         <f>IF(B10=Inputs!$C$1,D10,E9)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <f>IF(AND(B10&gt;=Inputs!$C$1,B10&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E10,0)</f>
         <v>1</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="63">
         <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="63">
         <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="63">
         <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="63">
         <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="63">
         <f>$F10*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="63">
         <f>$F10*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="63">
         <f>$F10*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="63">
         <f>$F10*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="Q10" s="63">
         <f>$F10*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S10" s="64">
+      <c r="S10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T10" s="64">
+      <c r="T10" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10" s="64">
+      <c r="U10" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10" s="64">
+      <c r="W10" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <f t="shared" si="0"/>
         <v>43160</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <f>D10*IF(AND(MONTH(B11)=1,YEAR(B11)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <f>IF(B11=Inputs!$C$1,D11,E10)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <f>IF(AND(B11&gt;=Inputs!$C$1,B11&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E11,0)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="63">
         <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="63">
         <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="63">
         <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="63">
         <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="63">
         <f>$F11*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="63">
         <f>$F11*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O11" s="64">
+      <c r="O11" s="63">
         <f>$F11*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="63">
         <f>$F11*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="63">
         <f>$F11*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S11" s="64">
+      <c r="S11" s="63">
         <f t="shared" si="1"/>
         <v>93191.218749999985</v>
       </c>
-      <c r="T11" s="64">
+      <c r="T11" s="63">
         <f t="shared" si="2"/>
         <v>18977.430434879232</v>
       </c>
-      <c r="U11" s="64">
+      <c r="U11" s="63">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
         <v>73421.221921149117</v>
       </c>
-      <c r="V11" s="64">
+      <c r="V11" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W11" s="64">
+      <c r="W11" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="61">
+      <c r="B12" s="60">
         <f t="shared" si="0"/>
         <v>43191</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="64">
         <f>D11*IF(AND(MONTH(B12)=1,YEAR(B12)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="64">
         <f>IF(B12=Inputs!$C$1,D12,E11)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="64">
         <f>IF(AND(B12&gt;=Inputs!$C$1,B12&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E12,0)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="63">
         <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="63">
         <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="63">
         <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="63">
         <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="63">
         <f>$F12*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="63">
         <f>$F12*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O12" s="64">
+      <c r="O12" s="63">
         <f>$F12*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="63">
         <f>$F12*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q12" s="64">
+      <c r="Q12" s="63">
         <f>$F12*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S12" s="64">
+      <c r="S12" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T12" s="64">
+      <c r="T12" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="64">
+      <c r="U12" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12" s="64">
+      <c r="V12" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12" s="64">
+      <c r="W12" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="61">
+      <c r="B13" s="60">
         <f t="shared" si="0"/>
         <v>43221</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="64">
         <f>D12*IF(AND(MONTH(B13)=1,YEAR(B13)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="64">
         <f>IF(B13=Inputs!$C$1,D13,E12)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="64">
         <f>IF(AND(B13&gt;=Inputs!$C$1,B13&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E13,0)</f>
         <v>1</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="63">
         <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="63">
         <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="63">
         <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="63">
         <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="63">
         <f>$F13*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="63">
         <f>$F13*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O13" s="64">
+      <c r="O13" s="63">
         <f>$F13*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="63">
         <f>$F13*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q13" s="64">
+      <c r="Q13" s="63">
         <f>$F13*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S13" s="64">
+      <c r="S13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="64">
+      <c r="T13" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13" s="64">
+      <c r="U13" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V13" s="64">
+      <c r="V13" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W13" s="64">
+      <c r="W13" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="61">
+      <c r="B14" s="60">
         <f t="shared" si="0"/>
         <v>43252</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="64">
         <f>D13*IF(AND(MONTH(B14)=1,YEAR(B14)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="64">
         <f>IF(B14=Inputs!$C$1,D14,E13)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="64">
         <f>IF(AND(B14&gt;=Inputs!$C$1,B14&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E14,0)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="63">
         <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="63">
         <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="63">
         <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="63">
         <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="63">
         <f>$F14*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="63">
         <f>$F14*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="63">
         <f>$F14*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="63">
         <f>$F14*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q14" s="64">
+      <c r="Q14" s="63">
         <f>$F14*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S14" s="64">
+      <c r="S14" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T14" s="64">
+      <c r="T14" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U14" s="64">
+      <c r="U14" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V14" s="64">
+      <c r="V14" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W14" s="64">
+      <c r="W14" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="61">
+      <c r="B15" s="60">
         <f t="shared" si="0"/>
         <v>43282</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="64">
         <f>D14*IF(AND(MONTH(B15)=1,YEAR(B15)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <f>IF(B15=Inputs!$C$1,D15,E14)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="64">
         <f>IF(AND(B15&gt;=Inputs!$C$1,B15&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E15,0)</f>
         <v>1</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="63">
         <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="63">
         <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="63">
         <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="63">
         <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="63">
         <f>$F15*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="63">
         <f>$F15*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O15" s="64">
+      <c r="O15" s="63">
         <f>$F15*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="63">
         <f>$F15*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q15" s="64">
+      <c r="Q15" s="63">
         <f>$F15*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S15" s="64">
+      <c r="S15" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T15" s="64">
+      <c r="T15" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U15" s="64">
+      <c r="U15" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="64">
+      <c r="V15" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15" s="64">
+      <c r="W15" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <f t="shared" si="0"/>
         <v>43313</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="64">
         <f>D15*IF(AND(MONTH(B16)=1,YEAR(B16)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="64">
         <f>IF(B16=Inputs!$C$1,D16,E15)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="64">
         <f>IF(AND(B16&gt;=Inputs!$C$1,B16&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E16,0)</f>
         <v>1</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="63">
         <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="63">
         <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="63">
         <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="63">
         <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="63">
         <f>$F16*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="63">
         <f>$F16*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="63">
         <f>$F16*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="63">
         <f>$F16*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="63">
         <f>$F16*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S16" s="64">
+      <c r="S16" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T16" s="64">
+      <c r="T16" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="64">
+      <c r="U16" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="64">
+      <c r="V16" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16" s="64">
+      <c r="W16" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="61">
+      <c r="B17" s="60">
         <f t="shared" si="0"/>
         <v>43344</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="64">
         <f>D16*IF(AND(MONTH(B17)=1,YEAR(B17)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="64">
         <f>IF(B17=Inputs!$C$1,D17,E16)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="64">
         <f>IF(AND(B17&gt;=Inputs!$C$1,B17&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E17,0)</f>
         <v>1</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="63">
         <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="63">
         <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="63">
         <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="63">
         <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="64">
+      <c r="M17" s="63">
         <f>$F17*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="63">
         <f>$F17*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O17" s="64">
+      <c r="O17" s="63">
         <f>$F17*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P17" s="64">
+      <c r="P17" s="63">
         <f>$F17*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q17" s="64">
+      <c r="Q17" s="63">
         <f>$F17*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S17" s="64">
+      <c r="S17" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T17" s="64">
+      <c r="T17" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U17" s="64">
+      <c r="U17" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V17" s="64">
+      <c r="V17" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W17" s="64">
+      <c r="W17" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="61">
+      <c r="B18" s="60">
         <f t="shared" si="0"/>
         <v>43374</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="64">
         <f>D17*IF(AND(MONTH(B18)=1,YEAR(B18)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="64">
         <f>IF(B18=Inputs!$C$1,D18,E17)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="64">
         <f>IF(AND(B18&gt;=Inputs!$C$1,B18&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E18,0)</f>
         <v>1</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="63">
         <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="63">
         <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="63">
         <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="63">
         <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D18</f>
         <v>0</v>
       </c>
-      <c r="M18" s="64">
+      <c r="M18" s="63">
         <f>$F18*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="63">
         <f>$F18*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O18" s="64">
+      <c r="O18" s="63">
         <f>$F18*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P18" s="64">
+      <c r="P18" s="63">
         <f>$F18*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q18" s="64">
+      <c r="Q18" s="63">
         <f>$F18*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S18" s="64">
+      <c r="S18" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T18" s="64">
+      <c r="T18" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="64">
+      <c r="U18" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V18" s="64">
+      <c r="V18" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="64">
+      <c r="W18" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="61">
+      <c r="B19" s="60">
         <f t="shared" si="0"/>
         <v>43405</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="64">
         <f>D18*IF(AND(MONTH(B19)=1,YEAR(B19)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="64">
         <f>IF(B19=Inputs!$C$1,D19,E18)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="64">
         <f>IF(AND(B19&gt;=Inputs!$C$1,B19&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E19,0)</f>
         <v>1</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="63">
         <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="63">
         <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="63">
         <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="63">
         <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="64">
+      <c r="M19" s="63">
         <f>$F19*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N19" s="64">
+      <c r="N19" s="63">
         <f>$F19*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O19" s="64">
+      <c r="O19" s="63">
         <f>$F19*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P19" s="64">
+      <c r="P19" s="63">
         <f>$F19*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q19" s="63">
         <f>$F19*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S19" s="64">
+      <c r="S19" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T19" s="64">
+      <c r="T19" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19" s="64">
+      <c r="U19" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="64">
+      <c r="V19" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W19" s="64">
+      <c r="W19" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="61">
+      <c r="B20" s="60">
         <f t="shared" si="0"/>
         <v>43435</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="64">
         <f>D19*IF(AND(MONTH(B20)=1,YEAR(B20)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="64">
         <f>IF(B20=Inputs!$C$1,D20,E19)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="64">
         <f>IF(AND(B20&gt;=Inputs!$C$1,B20&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E20,0)</f>
         <v>1</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="63">
         <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="63">
         <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="64">
+      <c r="J20" s="63">
         <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="63">
         <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="63">
         <f>$F20*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="63">
         <f>$F20*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="63">
         <f>$F20*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P20" s="64">
+      <c r="P20" s="63">
         <f>$F20*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q20" s="64">
+      <c r="Q20" s="63">
         <f>$F20*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S20" s="64">
+      <c r="S20" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T20" s="64">
+      <c r="T20" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U20" s="64">
+      <c r="U20" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V20" s="64">
+      <c r="V20" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W20" s="64">
+      <c r="W20" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="61">
+      <c r="B21" s="60">
         <f t="shared" si="0"/>
         <v>43466</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="64">
         <f>D20*IF(AND(MONTH(B21)=1,YEAR(B21)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <f>IF(B21=Inputs!$C$1,D21,E20)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="64">
         <f>IF(AND(B21&gt;=Inputs!$C$1,B21&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E21,0)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="63">
         <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="63">
         <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="63">
         <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="63">
         <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="64">
+      <c r="M21" s="63">
         <f>$F21*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N21" s="64">
+      <c r="N21" s="63">
         <f>$F21*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O21" s="64">
+      <c r="O21" s="63">
         <f>$F21*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P21" s="64">
+      <c r="P21" s="63">
         <f>$F21*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q21" s="64">
+      <c r="Q21" s="63">
         <f>$F21*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S21" s="64">
+      <c r="S21" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T21" s="64">
+      <c r="T21" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" s="64">
+      <c r="U21" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V21" s="64">
+      <c r="V21" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="64">
+      <c r="W21" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="61">
+      <c r="B22" s="60">
         <f t="shared" si="0"/>
         <v>43497</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <f>D21*IF(AND(MONTH(B22)=1,YEAR(B22)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="64">
         <f>IF(B22=Inputs!$C$1,D22,E21)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <f>IF(AND(B22&gt;=Inputs!$C$1,B22&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E22,0)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="63">
         <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="63">
         <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="63">
         <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="63">
         <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="63">
         <f>$F22*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N22" s="64">
+      <c r="N22" s="63">
         <f>$F22*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="63">
         <f>$F22*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P22" s="64">
+      <c r="P22" s="63">
         <f>$F22*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q22" s="63">
         <f>$F22*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S22" s="64">
+      <c r="S22" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="64">
+      <c r="T22" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="64">
+      <c r="U22" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V22" s="64">
+      <c r="V22" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W22" s="64">
+      <c r="W22" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="61">
+      <c r="B23" s="60">
         <f t="shared" si="0"/>
         <v>43525</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="64">
         <f>D22*IF(AND(MONTH(B23)=1,YEAR(B23)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <f>IF(B23=Inputs!$C$1,D23,E22)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <f>IF(AND(B23&gt;=Inputs!$C$1,B23&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E23,0)</f>
         <v>1</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="63">
         <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="63">
         <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="63">
         <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="63">
         <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="64">
+      <c r="M23" s="63">
         <f>$F23*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N23" s="64">
+      <c r="N23" s="63">
         <f>$F23*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O23" s="64">
+      <c r="O23" s="63">
         <f>$F23*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P23" s="64">
+      <c r="P23" s="63">
         <f>$F23*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q23" s="64">
+      <c r="Q23" s="63">
         <f>$F23*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S23" s="64">
+      <c r="S23" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T23" s="64">
+      <c r="T23" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U23" s="64">
+      <c r="U23" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V23" s="64">
+      <c r="V23" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W23" s="64">
+      <c r="W23" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="61">
+      <c r="B24" s="60">
         <f t="shared" si="0"/>
         <v>43556</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="64">
         <f>D23*IF(AND(MONTH(B24)=1,YEAR(B24)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="64">
         <f>IF(B24=Inputs!$C$1,D24,E23)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="64">
         <f>IF(AND(B24&gt;=Inputs!$C$1,B24&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E24,0)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="63">
         <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="63">
         <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="63">
         <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="63">
         <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="64">
+      <c r="M24" s="63">
         <f>$F24*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="63">
         <f>$F24*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O24" s="64">
+      <c r="O24" s="63">
         <f>$F24*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P24" s="64">
+      <c r="P24" s="63">
         <f>$F24*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q24" s="64">
+      <c r="Q24" s="63">
         <f>$F24*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S24" s="64">
+      <c r="S24" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T24" s="64">
+      <c r="T24" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="64">
+      <c r="U24" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V24" s="64">
+      <c r="V24" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W24" s="64">
+      <c r="W24" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="61">
+      <c r="B25" s="60">
         <f t="shared" si="0"/>
         <v>43586</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="64">
         <f>D24*IF(AND(MONTH(B25)=1,YEAR(B25)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="64">
         <f>IF(B25=Inputs!$C$1,D25,E24)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="64">
         <f>IF(AND(B25&gt;=Inputs!$C$1,B25&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E25,0)</f>
         <v>1</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="63">
         <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="63">
         <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="63">
         <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="63">
         <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D25</f>
         <v>0</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="63">
         <f>$F25*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N25" s="63">
         <f>$F25*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O25" s="64">
+      <c r="O25" s="63">
         <f>$F25*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P25" s="64">
+      <c r="P25" s="63">
         <f>$F25*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q25" s="64">
+      <c r="Q25" s="63">
         <f>$F25*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S25" s="64">
+      <c r="S25" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T25" s="64">
+      <c r="T25" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="64">
+      <c r="U25" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V25" s="64">
+      <c r="V25" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W25" s="64">
+      <c r="W25" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="61">
+      <c r="B26" s="60">
         <f t="shared" si="0"/>
         <v>43617</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="64">
         <f>D25*IF(AND(MONTH(B26)=1,YEAR(B26)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="64">
         <f>IF(B26=Inputs!$C$1,D26,E25)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="64">
         <f>IF(AND(B26&gt;=Inputs!$C$1,B26&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E26,0)</f>
         <v>1</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="63">
         <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="63">
         <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="63">
         <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="63">
         <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="63">
         <f>$F26*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N26" s="64">
+      <c r="N26" s="63">
         <f>$F26*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O26" s="64">
+      <c r="O26" s="63">
         <f>$F26*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P26" s="64">
+      <c r="P26" s="63">
         <f>$F26*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q26" s="64">
+      <c r="Q26" s="63">
         <f>$F26*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S26" s="64">
+      <c r="S26" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T26" s="64">
+      <c r="T26" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U26" s="64">
+      <c r="U26" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V26" s="64">
+      <c r="V26" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W26" s="64">
+      <c r="W26" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="61">
+      <c r="B27" s="60">
         <f t="shared" si="0"/>
         <v>43647</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="64">
         <f>D26*IF(AND(MONTH(B27)=1,YEAR(B27)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="64">
         <f>IF(B27=Inputs!$C$1,D27,E26)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="64">
         <f>IF(AND(B27&gt;=Inputs!$C$1,B27&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E27,0)</f>
         <v>1</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="64">
+      <c r="K27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="63">
         <f>$F27*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N27" s="64">
+      <c r="N27" s="63">
         <f>$F27*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O27" s="64">
+      <c r="O27" s="63">
         <f>$F27*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P27" s="64">
+      <c r="P27" s="63">
         <f>$F27*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q27" s="64">
+      <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S27" s="64">
+      <c r="S27" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T27" s="64">
+      <c r="T27" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="64">
+      <c r="U27" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V27" s="64">
+      <c r="V27" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W27" s="64">
+      <c r="W27" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="61">
+      <c r="B28" s="60">
         <f t="shared" si="0"/>
         <v>43678</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="64">
         <f>D27*IF(AND(MONTH(B28)=1,YEAR(B28)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="64">
         <f>IF(B28=Inputs!$C$1,D28,E27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="64">
         <f>IF(AND(B28&gt;=Inputs!$C$1,B28&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E28,0)</f>
         <v>1</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="63">
         <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="63">
         <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="63">
         <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="63">
         <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="63">
         <f>$F28*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="63">
         <f>$F28*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O28" s="64">
+      <c r="O28" s="63">
         <f>$F28*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P28" s="64">
+      <c r="P28" s="63">
         <f>$F28*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S28" s="64">
+      <c r="S28" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T28" s="64">
+      <c r="T28" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="64">
+      <c r="U28" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V28" s="64">
+      <c r="V28" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W28" s="64">
+      <c r="W28" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="61">
+      <c r="B29" s="60">
         <f t="shared" si="0"/>
         <v>43709</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="64">
         <f>D28*IF(AND(MONTH(B29)=1,YEAR(B29)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="64">
         <f>IF(B29=Inputs!$C$1,D29,E28)</f>
         <v>1</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="64">
         <f>IF(AND(B29&gt;=Inputs!$C$1,B29&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E29,0)</f>
         <v>1</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="63">
         <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="63">
         <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="64">
+      <c r="J29" s="63">
         <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="63">
         <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D29</f>
         <v>0</v>
       </c>
-      <c r="M29" s="64">
+      <c r="M29" s="63">
         <f>$F29*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N29" s="64">
+      <c r="N29" s="63">
         <f>$F29*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O29" s="64">
+      <c r="O29" s="63">
         <f>$F29*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P29" s="64">
+      <c r="P29" s="63">
         <f>$F29*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q29" s="64">
+      <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S29" s="64">
+      <c r="S29" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T29" s="64">
+      <c r="T29" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U29" s="64">
+      <c r="U29" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V29" s="64">
+      <c r="V29" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W29" s="64">
+      <c r="W29" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="61">
+      <c r="B30" s="60">
         <f t="shared" si="0"/>
         <v>43739</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="64">
         <f>D29*IF(AND(MONTH(B30)=1,YEAR(B30)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="64">
         <f>IF(B30=Inputs!$C$1,D30,E29)</f>
         <v>1</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="64">
         <f>IF(AND(B30&gt;=Inputs!$C$1,B30&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E30,0)</f>
         <v>1</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="63">
         <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="63">
         <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="63">
         <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="63">
         <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="63">
         <f>$F30*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="63">
         <f>$F30*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O30" s="64">
+      <c r="O30" s="63">
         <f>$F30*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P30" s="64">
+      <c r="P30" s="63">
         <f>$F30*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q30" s="64">
+      <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S30" s="64">
+      <c r="S30" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T30" s="64">
+      <c r="T30" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30" s="64">
+      <c r="U30" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V30" s="64">
+      <c r="V30" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W30" s="64">
+      <c r="W30" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="61">
+      <c r="B31" s="60">
         <f t="shared" si="0"/>
         <v>43770</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="64">
         <f>D30*IF(AND(MONTH(B31)=1,YEAR(B31)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="64">
         <f>IF(B31=Inputs!$C$1,D31,E30)</f>
         <v>1</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="64">
         <f>IF(AND(B31&gt;=Inputs!$C$1,B31&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E31,0)</f>
         <v>1</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="63">
         <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="63">
         <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="63">
         <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="63">
         <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D31</f>
         <v>0</v>
       </c>
-      <c r="M31" s="64">
+      <c r="M31" s="63">
         <f>$F31*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N31" s="64">
+      <c r="N31" s="63">
         <f>$F31*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O31" s="64">
+      <c r="O31" s="63">
         <f>$F31*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P31" s="64">
+      <c r="P31" s="63">
         <f>$F31*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q31" s="64">
+      <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S31" s="64">
+      <c r="S31" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T31" s="64">
+      <c r="T31" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31" s="64">
+      <c r="U31" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V31" s="64">
+      <c r="V31" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W31" s="64">
+      <c r="W31" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="61">
+      <c r="B32" s="60">
         <f t="shared" si="0"/>
         <v>43800</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="64">
         <f>D31*IF(AND(MONTH(B32)=1,YEAR(B32)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="64">
         <f>IF(B32=Inputs!$C$1,D32,E31)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="64">
         <f>IF(AND(B32&gt;=Inputs!$C$1,B32&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E32,0)</f>
         <v>1</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="63">
         <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="63">
         <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="63">
         <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="63">
         <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D32</f>
         <v>0</v>
       </c>
-      <c r="M32" s="64">
+      <c r="M32" s="63">
         <f>$F32*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N32" s="64">
+      <c r="N32" s="63">
         <f>$F32*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O32" s="64">
+      <c r="O32" s="63">
         <f>$F32*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P32" s="64">
+      <c r="P32" s="63">
         <f>$F32*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q32" s="64">
+      <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S32" s="64">
+      <c r="S32" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T32" s="64">
+      <c r="T32" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U32" s="64">
+      <c r="U32" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V32" s="64">
+      <c r="V32" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W32" s="64">
+      <c r="W32" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="61">
+      <c r="B33" s="60">
         <f t="shared" si="0"/>
         <v>43831</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="64">
         <f>D32*IF(AND(MONTH(B33)=1,YEAR(B33)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="64">
         <f>IF(B33=Inputs!$C$1,D33,E32)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="64">
         <f>IF(AND(B33&gt;=Inputs!$C$1,B33&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E33,0)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="63">
         <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="63">
         <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="63">
         <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="64">
+      <c r="K33" s="63">
         <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D33</f>
         <v>0</v>
       </c>
-      <c r="M33" s="64">
+      <c r="M33" s="63">
         <f>$F33*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N33" s="64">
+      <c r="N33" s="63">
         <f>$F33*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O33" s="64">
+      <c r="O33" s="63">
         <f>$F33*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P33" s="64">
+      <c r="P33" s="63">
         <f>$F33*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q33" s="64">
+      <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S33" s="64">
+      <c r="S33" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T33" s="64">
+      <c r="T33" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U33" s="64">
+      <c r="U33" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V33" s="64">
+      <c r="V33" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W33" s="64">
+      <c r="W33" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="61">
+      <c r="B34" s="60">
         <f t="shared" si="0"/>
         <v>43862</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="64">
         <f>D33*IF(AND(MONTH(B34)=1,YEAR(B34)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="64">
         <f>IF(B34=Inputs!$C$1,D34,E33)</f>
         <v>1</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="64">
         <f>IF(AND(B34&gt;=Inputs!$C$1,B34&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E34,0)</f>
         <v>1</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="63">
         <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="63">
         <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="63">
         <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="64">
+      <c r="K34" s="63">
         <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="64">
+      <c r="M34" s="63">
         <f>$F34*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N34" s="64">
+      <c r="N34" s="63">
         <f>$F34*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O34" s="64">
+      <c r="O34" s="63">
         <f>$F34*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P34" s="64">
+      <c r="P34" s="63">
         <f>$F34*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q34" s="64">
+      <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S34" s="64">
+      <c r="S34" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T34" s="64">
+      <c r="T34" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U34" s="64">
+      <c r="U34" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V34" s="64">
+      <c r="V34" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W34" s="64">
+      <c r="W34" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="61">
+      <c r="B35" s="60">
         <f t="shared" si="0"/>
         <v>43891</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="64">
         <f>D34*IF(AND(MONTH(B35)=1,YEAR(B35)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="64">
         <f>IF(B35=Inputs!$C$1,D35,E34)</f>
         <v>1</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="64">
         <f>IF(AND(B35&gt;=Inputs!$C$1,B35&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E35,0)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="63">
         <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="64">
+      <c r="I35" s="63">
         <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="64">
+      <c r="J35" s="63">
         <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D35</f>
         <v>0</v>
       </c>
-      <c r="K35" s="64">
+      <c r="K35" s="63">
         <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="64">
+      <c r="M35" s="63">
         <f>$F35*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N35" s="64">
+      <c r="N35" s="63">
         <f>$F35*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O35" s="64">
+      <c r="O35" s="63">
         <f>$F35*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P35" s="64">
+      <c r="P35" s="63">
         <f>$F35*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q35" s="64">
+      <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S35" s="64">
+      <c r="S35" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T35" s="64">
+      <c r="T35" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U35" s="64">
+      <c r="U35" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V35" s="64">
+      <c r="V35" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W35" s="64">
+      <c r="W35" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="61">
+      <c r="B36" s="60">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="64">
         <f>D35*IF(AND(MONTH(B36)=1,YEAR(B36)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="64">
         <f>IF(B36=Inputs!$C$1,D36,E35)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="64">
         <f>IF(AND(B36&gt;=Inputs!$C$1,B36&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E36,0)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="64">
+      <c r="H36" s="63">
         <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="64">
+      <c r="I36" s="63">
         <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="64">
+      <c r="J36" s="63">
         <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="64">
+      <c r="K36" s="63">
         <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D36</f>
         <v>0</v>
       </c>
-      <c r="M36" s="64">
+      <c r="M36" s="63">
         <f>$F36*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N36" s="64">
+      <c r="N36" s="63">
         <f>$F36*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O36" s="64">
+      <c r="O36" s="63">
         <f>$F36*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P36" s="64">
+      <c r="P36" s="63">
         <f>$F36*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q36" s="64">
+      <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S36" s="64">
+      <c r="S36" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T36" s="64">
+      <c r="T36" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U36" s="64">
+      <c r="U36" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V36" s="64">
+      <c r="V36" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W36" s="64">
+      <c r="W36" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="61">
+      <c r="B37" s="60">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="64">
         <f>D36*IF(AND(MONTH(B37)=1,YEAR(B37)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="64">
         <f>IF(B37=Inputs!$C$1,D37,E36)</f>
         <v>1</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="64">
         <f>IF(AND(B37&gt;=Inputs!$C$1,B37&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E37,0)</f>
         <v>1</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="63">
         <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D37</f>
         <v>0</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="63">
         <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D37</f>
         <v>0</v>
       </c>
-      <c r="J37" s="64">
+      <c r="J37" s="63">
         <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="64">
+      <c r="K37" s="63">
         <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="64">
+      <c r="M37" s="63">
         <f>$F37*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N37" s="64">
+      <c r="N37" s="63">
         <f>$F37*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O37" s="64">
+      <c r="O37" s="63">
         <f>$F37*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P37" s="64">
+      <c r="P37" s="63">
         <f>$F37*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q37" s="64">
+      <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S37" s="64">
+      <c r="S37" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T37" s="64">
+      <c r="T37" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U37" s="64">
+      <c r="U37" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V37" s="64">
+      <c r="V37" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W37" s="64">
+      <c r="W37" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="61">
+      <c r="B38" s="60">
         <f t="shared" si="0"/>
         <v>43983</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="64">
         <f>D37*IF(AND(MONTH(B38)=1,YEAR(B38)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="64">
         <f>IF(B38=Inputs!$C$1,D38,E37)</f>
         <v>1</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="64">
         <f>IF(AND(B38&gt;=Inputs!$C$1,B38&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E38,0)</f>
         <v>1</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="63">
         <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D38</f>
         <v>0</v>
       </c>
-      <c r="I38" s="64">
+      <c r="I38" s="63">
         <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="64">
+      <c r="J38" s="63">
         <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D38</f>
         <v>0</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="63">
         <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="64">
+      <c r="M38" s="63">
         <f>$F38*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N38" s="64">
+      <c r="N38" s="63">
         <f>$F38*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O38" s="64">
+      <c r="O38" s="63">
         <f>$F38*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P38" s="64">
+      <c r="P38" s="63">
         <f>$F38*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q38" s="64">
+      <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S38" s="64">
+      <c r="S38" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T38" s="64">
+      <c r="T38" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U38" s="64">
+      <c r="U38" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V38" s="64">
+      <c r="V38" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W38" s="64">
+      <c r="W38" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="61">
+      <c r="B39" s="60">
         <f t="shared" si="0"/>
         <v>44013</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="64">
         <f>D38*IF(AND(MONTH(B39)=1,YEAR(B39)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="64">
         <f>IF(B39=Inputs!$C$1,D39,E38)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="64">
         <f>IF(AND(B39&gt;=Inputs!$C$1,B39&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E39,0)</f>
         <v>1</v>
       </c>
-      <c r="H39" s="64">
+      <c r="H39" s="63">
         <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D39</f>
         <v>0</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="63">
         <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D39</f>
         <v>0</v>
       </c>
-      <c r="J39" s="64">
+      <c r="J39" s="63">
         <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="64">
+      <c r="K39" s="63">
         <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="64">
+      <c r="M39" s="63">
         <f>$F39*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N39" s="64">
+      <c r="N39" s="63">
         <f>$F39*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O39" s="64">
+      <c r="O39" s="63">
         <f>$F39*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P39" s="64">
+      <c r="P39" s="63">
         <f>$F39*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q39" s="64">
+      <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S39" s="64">
+      <c r="S39" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T39" s="64">
+      <c r="T39" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U39" s="64">
+      <c r="U39" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V39" s="64">
+      <c r="V39" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W39" s="64">
+      <c r="W39" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="61">
+      <c r="B40" s="60">
         <f t="shared" si="0"/>
         <v>44044</v>
       </c>
-      <c r="D40" s="65">
+      <c r="D40" s="64">
         <f>D39*IF(AND(MONTH(B40)=1,YEAR(B40)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="64">
         <f>IF(B40=Inputs!$C$1,D40,E39)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="65">
+      <c r="F40" s="64">
         <f>IF(AND(B40&gt;=Inputs!$C$1,B40&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E40,0)</f>
         <v>1</v>
       </c>
-      <c r="H40" s="64">
+      <c r="H40" s="63">
         <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D40</f>
         <v>0</v>
       </c>
-      <c r="I40" s="64">
+      <c r="I40" s="63">
         <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D40</f>
         <v>0</v>
       </c>
-      <c r="J40" s="64">
+      <c r="J40" s="63">
         <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D40</f>
         <v>0</v>
       </c>
-      <c r="K40" s="64">
+      <c r="K40" s="63">
         <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="64">
+      <c r="M40" s="63">
         <f>$F40*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N40" s="64">
+      <c r="N40" s="63">
         <f>$F40*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O40" s="63">
         <f>$F40*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P40" s="64">
+      <c r="P40" s="63">
         <f>$F40*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q40" s="64">
+      <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S40" s="64">
+      <c r="S40" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T40" s="64">
+      <c r="T40" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U40" s="64">
+      <c r="U40" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V40" s="64">
+      <c r="V40" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W40" s="64">
+      <c r="W40" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="61">
+      <c r="B41" s="60">
         <f t="shared" si="0"/>
         <v>44075</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="64">
         <f>D40*IF(AND(MONTH(B41)=1,YEAR(B41)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="64">
         <f>IF(B41=Inputs!$C$1,D41,E40)</f>
         <v>1</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="64">
         <f>IF(AND(B41&gt;=Inputs!$C$1,B41&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E41,0)</f>
         <v>1</v>
       </c>
-      <c r="H41" s="64">
+      <c r="H41" s="63">
         <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D41</f>
         <v>0</v>
       </c>
-      <c r="I41" s="64">
+      <c r="I41" s="63">
         <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D41</f>
         <v>0</v>
       </c>
-      <c r="J41" s="64">
+      <c r="J41" s="63">
         <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="64">
+      <c r="K41" s="63">
         <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D41</f>
         <v>0</v>
       </c>
-      <c r="M41" s="64">
+      <c r="M41" s="63">
         <f>$F41*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N41" s="64">
+      <c r="N41" s="63">
         <f>$F41*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O41" s="64">
+      <c r="O41" s="63">
         <f>$F41*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P41" s="64">
+      <c r="P41" s="63">
         <f>$F41*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q41" s="64">
+      <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S41" s="64">
+      <c r="S41" s="63">
         <f t="shared" si="1"/>
         <v>50441.21875</v>
       </c>
-      <c r="T41" s="64">
+      <c r="T41" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U41" s="64">
+      <c r="U41" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V41" s="64">
+      <c r="V41" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W41" s="64">
+      <c r="W41" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="61">
+      <c r="B42" s="60">
         <f t="shared" si="0"/>
         <v>44105</v>
       </c>
-      <c r="D42" s="65">
+      <c r="D42" s="64">
         <f>D41*IF(AND(MONTH(B42)=1,YEAR(B42)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="64">
         <f>IF(B42=Inputs!$C$1,D42,E41)</f>
         <v>1</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="64">
         <f>IF(AND(B42&gt;=Inputs!$C$1,B42&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E42,0)</f>
         <v>1</v>
       </c>
-      <c r="H42" s="64">
+      <c r="H42" s="63">
         <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="63">
         <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J42" s="63">
         <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D42</f>
         <v>0</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K42" s="63">
         <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="64">
+      <c r="M42" s="63">
         <f>$F42*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N42" s="64">
+      <c r="N42" s="63">
         <f>$F42*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O42" s="64">
+      <c r="O42" s="63">
         <f>$F42*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P42" s="64">
+      <c r="P42" s="63">
         <f>$F42*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q42" s="64">
+      <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S42" s="64">
+      <c r="S42" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T42" s="64">
+      <c r="T42" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U42" s="64">
+      <c r="U42" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V42" s="64">
+      <c r="V42" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W42" s="64">
+      <c r="W42" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="61">
+      <c r="B43" s="60">
         <f t="shared" si="0"/>
         <v>44136</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="64">
         <f>D42*IF(AND(MONTH(B43)=1,YEAR(B43)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="64">
         <f>IF(B43=Inputs!$C$1,D43,E42)</f>
         <v>1</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="64">
         <f>IF(AND(B43&gt;=Inputs!$C$1,B43&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E43,0)</f>
         <v>1</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="63">
         <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D43</f>
         <v>0</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I43" s="63">
         <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D43</f>
         <v>0</v>
       </c>
-      <c r="J43" s="64">
+      <c r="J43" s="63">
         <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D43</f>
         <v>0</v>
       </c>
-      <c r="K43" s="64">
+      <c r="K43" s="63">
         <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D43</f>
         <v>0</v>
       </c>
-      <c r="M43" s="64">
+      <c r="M43" s="63">
         <f>$F43*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N43" s="64">
+      <c r="N43" s="63">
         <f>$F43*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O43" s="64">
+      <c r="O43" s="63">
         <f>$F43*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P43" s="64">
+      <c r="P43" s="63">
         <f>$F43*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q43" s="64">
+      <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S43" s="64">
+      <c r="S43" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T43" s="64">
+      <c r="T43" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U43" s="64">
+      <c r="U43" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V43" s="64">
+      <c r="V43" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W43" s="64">
+      <c r="W43" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="61">
+      <c r="B44" s="60">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="D44" s="65">
+      <c r="D44" s="64">
         <f>D43*IF(AND(MONTH(B44)=1,YEAR(B44)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="64">
         <f>IF(B44=Inputs!$C$1,D44,E43)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="65">
+      <c r="F44" s="64">
         <f>IF(AND(B44&gt;=Inputs!$C$1,B44&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E44,0)</f>
         <v>1</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H44" s="63">
         <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D44</f>
         <v>0</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I44" s="63">
         <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="64">
+      <c r="J44" s="63">
         <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D44</f>
         <v>0</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="63">
         <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D44</f>
         <v>0</v>
       </c>
-      <c r="M44" s="64">
+      <c r="M44" s="63">
         <f>$F44*Outputs_Internal!$D$56/12</f>
         <v>16813.739583333332</v>
       </c>
-      <c r="N44" s="64">
+      <c r="N44" s="63">
         <f>$F44*Outputs_Internal!K$56/12</f>
         <v>3567.4768116264108</v>
       </c>
-      <c r="O44" s="64">
+      <c r="O44" s="63">
         <f>$F44*Outputs_Internal!L$56/12</f>
         <v>12982.073973716373</v>
       </c>
-      <c r="P44" s="64">
+      <c r="P44" s="63">
         <f>$F44*Outputs_Internal!M$56/12</f>
         <v>243.8665827605096</v>
       </c>
-      <c r="Q44" s="64">
+      <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!N$56/12</f>
         <v>20.322215230041976</v>
       </c>
-      <c r="S44" s="64">
+      <c r="S44" s="63">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
         <v>50441.21875</v>
       </c>
-      <c r="T44" s="64">
+      <c r="T44" s="63">
         <f t="shared" si="2"/>
         <v>10702.430434879232</v>
       </c>
-      <c r="U44" s="64">
+      <c r="U44" s="63">
         <f t="shared" si="3"/>
         <v>38946.221921149117</v>
       </c>
-      <c r="V44" s="64">
+      <c r="V44" s="63">
         <f t="shared" si="4"/>
         <v>731.59974828152883</v>
       </c>
-      <c r="W44" s="64">
+      <c r="W44" s="63">
         <f t="shared" si="5"/>
         <v>60.966645690125929</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="61">
+      <c r="B45" s="60">
         <f t="shared" si="0"/>
         <v>44197</v>
       </c>
-      <c r="D45" s="65">
+      <c r="D45" s="64">
         <f>D44*IF(AND(MONTH(B45)=1,YEAR(B45)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="64">
         <f>IF(B45=Inputs!$C$1,D45,E44)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="64">
         <f>IF(AND(B45&gt;=Inputs!$C$1,B45&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E45,0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="63">
         <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D45</f>
         <v>0</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="63">
         <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D45</f>
         <v>0</v>
       </c>
-      <c r="J45" s="64">
+      <c r="J45" s="63">
         <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D45</f>
         <v>0</v>
       </c>
-      <c r="K45" s="64">
+      <c r="K45" s="63">
         <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D45</f>
         <v>0</v>
       </c>
-      <c r="M45" s="64">
+      <c r="M45" s="63">
         <f>$F45*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N45" s="64">
+      <c r="N45" s="63">
         <f>$F45*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O45" s="64">
+      <c r="O45" s="63">
         <f>$F45*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P45" s="64">
+      <c r="P45" s="63">
         <f>$F45*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="64">
+      <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S45" s="64">
+      <c r="S45" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T45" s="64">
+      <c r="T45" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U45" s="64">
+      <c r="U45" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V45" s="64">
+      <c r="V45" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W45" s="64">
+      <c r="W45" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="61">
+      <c r="B46" s="60">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
-      <c r="D46" s="65">
+      <c r="D46" s="64">
         <f>D45*IF(AND(MONTH(B46)=1,YEAR(B46)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="64">
         <f>IF(B46=Inputs!$C$1,D46,E45)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="64">
         <f>IF(AND(B46&gt;=Inputs!$C$1,B46&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E46,0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="64">
+      <c r="H46" s="63">
         <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D46</f>
         <v>0</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="63">
         <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D46</f>
         <v>0</v>
       </c>
-      <c r="J46" s="64">
+      <c r="J46" s="63">
         <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D46</f>
         <v>0</v>
       </c>
-      <c r="K46" s="64">
+      <c r="K46" s="63">
         <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D46</f>
         <v>0</v>
       </c>
-      <c r="M46" s="64">
+      <c r="M46" s="63">
         <f>$F46*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N46" s="64">
+      <c r="N46" s="63">
         <f>$F46*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O46" s="64">
+      <c r="O46" s="63">
         <f>$F46*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P46" s="64">
+      <c r="P46" s="63">
         <f>$F46*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="64">
+      <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S46" s="64">
+      <c r="S46" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T46" s="64">
+      <c r="T46" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U46" s="64">
+      <c r="U46" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V46" s="64">
+      <c r="V46" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W46" s="64">
+      <c r="W46" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="61">
+      <c r="B47" s="60">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="D47" s="65">
+      <c r="D47" s="64">
         <f>D46*IF(AND(MONTH(B47)=1,YEAR(B47)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E47" s="64">
         <f>IF(B47=Inputs!$C$1,D47,E46)</f>
         <v>1</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="64">
         <f>IF(AND(B47&gt;=Inputs!$C$1,B47&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E47,0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="64">
+      <c r="H47" s="63">
         <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D47</f>
         <v>0</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="63">
         <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="64">
+      <c r="J47" s="63">
         <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D47</f>
         <v>0</v>
       </c>
-      <c r="K47" s="64">
+      <c r="K47" s="63">
         <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D47</f>
         <v>0</v>
       </c>
-      <c r="M47" s="64">
+      <c r="M47" s="63">
         <f>$F47*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N47" s="64">
+      <c r="N47" s="63">
         <f>$F47*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O47" s="64">
+      <c r="O47" s="63">
         <f>$F47*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P47" s="64">
+      <c r="P47" s="63">
         <f>$F47*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="64">
+      <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S47" s="64">
+      <c r="S47" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47" s="64">
+      <c r="T47" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U47" s="64">
+      <c r="U47" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V47" s="64">
+      <c r="V47" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W47" s="64">
+      <c r="W47" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="61">
+      <c r="B48" s="60">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="D48" s="65">
+      <c r="D48" s="64">
         <f>D47*IF(AND(MONTH(B48)=1,YEAR(B48)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="64">
         <f>IF(B48=Inputs!$C$1,D48,E47)</f>
         <v>1</v>
       </c>
-      <c r="F48" s="65">
+      <c r="F48" s="64">
         <f>IF(AND(B48&gt;=Inputs!$C$1,B48&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E48,0)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="63">
         <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D48</f>
         <v>0</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="63">
         <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D48</f>
         <v>0</v>
       </c>
-      <c r="J48" s="64">
+      <c r="J48" s="63">
         <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D48</f>
         <v>0</v>
       </c>
-      <c r="K48" s="64">
+      <c r="K48" s="63">
         <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D48</f>
         <v>0</v>
       </c>
-      <c r="M48" s="64">
+      <c r="M48" s="63">
         <f>$F48*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N48" s="64">
+      <c r="N48" s="63">
         <f>$F48*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O48" s="64">
+      <c r="O48" s="63">
         <f>$F48*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P48" s="64">
+      <c r="P48" s="63">
         <f>$F48*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="64">
+      <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S48" s="64">
+      <c r="S48" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T48" s="64">
+      <c r="T48" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U48" s="64">
+      <c r="U48" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V48" s="64">
+      <c r="V48" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W48" s="64">
+      <c r="W48" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="61">
+      <c r="B49" s="60">
         <f t="shared" si="0"/>
         <v>44317</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="64">
         <f>D48*IF(AND(MONTH(B49)=1,YEAR(B49)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="64">
         <f>IF(B49=Inputs!$C$1,D49,E48)</f>
         <v>1</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="64">
         <f>IF(AND(B49&gt;=Inputs!$C$1,B49&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E49,0)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="63">
         <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D49</f>
         <v>0</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="63">
         <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D49</f>
         <v>0</v>
       </c>
-      <c r="J49" s="64">
+      <c r="J49" s="63">
         <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="64">
+      <c r="K49" s="63">
         <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="64">
+      <c r="M49" s="63">
         <f>$F49*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N49" s="64">
+      <c r="N49" s="63">
         <f>$F49*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O49" s="64">
+      <c r="O49" s="63">
         <f>$F49*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P49" s="64">
+      <c r="P49" s="63">
         <f>$F49*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="64">
+      <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S49" s="64">
+      <c r="S49" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T49" s="64">
+      <c r="T49" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U49" s="64">
+      <c r="U49" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V49" s="64">
+      <c r="V49" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W49" s="64">
+      <c r="W49" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="61">
+      <c r="B50" s="60">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="D50" s="65">
+      <c r="D50" s="64">
         <f>D49*IF(AND(MONTH(B50)=1,YEAR(B50)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="64">
         <f>IF(B50=Inputs!$C$1,D50,E49)</f>
         <v>1</v>
       </c>
-      <c r="F50" s="65">
+      <c r="F50" s="64">
         <f>IF(AND(B50&gt;=Inputs!$C$1,B50&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E50,0)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="63">
         <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D50</f>
         <v>0</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I50" s="63">
         <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J50" s="63">
         <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D50</f>
         <v>0</v>
       </c>
-      <c r="K50" s="64">
+      <c r="K50" s="63">
         <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D50</f>
         <v>0</v>
       </c>
-      <c r="M50" s="64">
+      <c r="M50" s="63">
         <f>$F50*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N50" s="64">
+      <c r="N50" s="63">
         <f>$F50*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O50" s="64">
+      <c r="O50" s="63">
         <f>$F50*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P50" s="64">
+      <c r="P50" s="63">
         <f>$F50*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="64">
+      <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S50" s="64">
+      <c r="S50" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T50" s="64">
+      <c r="T50" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50" s="64">
+      <c r="U50" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V50" s="64">
+      <c r="V50" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W50" s="64">
+      <c r="W50" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="61">
+      <c r="B51" s="60">
         <f t="shared" si="0"/>
         <v>44378</v>
       </c>
-      <c r="D51" s="65">
+      <c r="D51" s="64">
         <f>D50*IF(AND(MONTH(B51)=1,YEAR(B51)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="64">
         <f>IF(B51=Inputs!$C$1,D51,E50)</f>
         <v>1</v>
       </c>
-      <c r="F51" s="65">
+      <c r="F51" s="64">
         <f>IF(AND(B51&gt;=Inputs!$C$1,B51&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E51,0)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="64">
+      <c r="H51" s="63">
         <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D51</f>
         <v>0</v>
       </c>
-      <c r="I51" s="64">
+      <c r="I51" s="63">
         <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D51</f>
         <v>0</v>
       </c>
-      <c r="J51" s="64">
+      <c r="J51" s="63">
         <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D51</f>
         <v>0</v>
       </c>
-      <c r="K51" s="64">
+      <c r="K51" s="63">
         <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D51</f>
         <v>0</v>
       </c>
-      <c r="M51" s="64">
+      <c r="M51" s="63">
         <f>$F51*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N51" s="64">
+      <c r="N51" s="63">
         <f>$F51*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O51" s="64">
+      <c r="O51" s="63">
         <f>$F51*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P51" s="64">
+      <c r="P51" s="63">
         <f>$F51*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="64">
+      <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S51" s="64">
+      <c r="S51" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T51" s="64">
+      <c r="T51" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U51" s="64">
+      <c r="U51" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V51" s="64">
+      <c r="V51" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W51" s="64">
+      <c r="W51" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="61">
+      <c r="B52" s="60">
         <f t="shared" si="0"/>
         <v>44409</v>
       </c>
-      <c r="D52" s="65">
+      <c r="D52" s="64">
         <f>D51*IF(AND(MONTH(B52)=1,YEAR(B52)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="64">
         <f>IF(B52=Inputs!$C$1,D52,E51)</f>
         <v>1</v>
       </c>
-      <c r="F52" s="65">
+      <c r="F52" s="64">
         <f>IF(AND(B52&gt;=Inputs!$C$1,B52&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E52,0)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="64">
+      <c r="H52" s="63">
         <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D52</f>
         <v>0</v>
       </c>
-      <c r="I52" s="64">
+      <c r="I52" s="63">
         <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D52</f>
         <v>0</v>
       </c>
-      <c r="J52" s="64">
+      <c r="J52" s="63">
         <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D52</f>
         <v>0</v>
       </c>
-      <c r="K52" s="64">
+      <c r="K52" s="63">
         <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D52</f>
         <v>0</v>
       </c>
-      <c r="M52" s="64">
+      <c r="M52" s="63">
         <f>$F52*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N52" s="64">
+      <c r="N52" s="63">
         <f>$F52*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O52" s="64">
+      <c r="O52" s="63">
         <f>$F52*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P52" s="64">
+      <c r="P52" s="63">
         <f>$F52*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="64">
+      <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S52" s="64">
+      <c r="S52" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T52" s="64">
+      <c r="T52" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U52" s="64">
+      <c r="U52" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V52" s="64">
+      <c r="V52" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W52" s="64">
+      <c r="W52" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="61">
+      <c r="B53" s="60">
         <f t="shared" si="0"/>
         <v>44440</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D53" s="64">
         <f>D52*IF(AND(MONTH(B53)=1,YEAR(B53)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="64">
         <f>IF(B53=Inputs!$C$1,D53,E52)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="65">
+      <c r="F53" s="64">
         <f>IF(AND(B53&gt;=Inputs!$C$1,B53&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E53,0)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="64">
+      <c r="H53" s="63">
         <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="64">
+      <c r="I53" s="63">
         <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D53</f>
         <v>0</v>
       </c>
-      <c r="J53" s="64">
+      <c r="J53" s="63">
         <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D53</f>
         <v>0</v>
       </c>
-      <c r="K53" s="64">
+      <c r="K53" s="63">
         <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D53</f>
         <v>0</v>
       </c>
-      <c r="M53" s="64">
+      <c r="M53" s="63">
         <f>$F53*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N53" s="64">
+      <c r="N53" s="63">
         <f>$F53*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O53" s="64">
+      <c r="O53" s="63">
         <f>$F53*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P53" s="64">
+      <c r="P53" s="63">
         <f>$F53*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="64">
+      <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S53" s="64">
+      <c r="S53" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T53" s="64">
+      <c r="T53" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U53" s="64">
+      <c r="U53" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V53" s="64">
+      <c r="V53" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W53" s="64">
+      <c r="W53" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="61">
+      <c r="B54" s="60">
         <f t="shared" si="0"/>
         <v>44470</v>
       </c>
-      <c r="D54" s="65">
+      <c r="D54" s="64">
         <f>D53*IF(AND(MONTH(B54)=1,YEAR(B54)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="64">
         <f>IF(B54=Inputs!$C$1,D54,E53)</f>
         <v>1</v>
       </c>
-      <c r="F54" s="65">
+      <c r="F54" s="64">
         <f>IF(AND(B54&gt;=Inputs!$C$1,B54&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E54,0)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="64">
+      <c r="H54" s="63">
         <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="64">
+      <c r="I54" s="63">
         <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D54</f>
         <v>0</v>
       </c>
-      <c r="J54" s="64">
+      <c r="J54" s="63">
         <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D54</f>
         <v>0</v>
       </c>
-      <c r="K54" s="64">
+      <c r="K54" s="63">
         <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D54</f>
         <v>0</v>
       </c>
-      <c r="M54" s="64">
+      <c r="M54" s="63">
         <f>$F54*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N54" s="64">
+      <c r="N54" s="63">
         <f>$F54*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O54" s="64">
+      <c r="O54" s="63">
         <f>$F54*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P54" s="64">
+      <c r="P54" s="63">
         <f>$F54*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="64">
+      <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S54" s="64">
+      <c r="S54" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T54" s="64">
+      <c r="T54" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U54" s="64">
+      <c r="U54" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V54" s="64">
+      <c r="V54" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W54" s="64">
+      <c r="W54" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="61">
+      <c r="B55" s="60">
         <f t="shared" si="0"/>
         <v>44501</v>
       </c>
-      <c r="D55" s="65">
+      <c r="D55" s="64">
         <f>D54*IF(AND(MONTH(B55)=1,YEAR(B55)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="64">
         <f>IF(B55=Inputs!$C$1,D55,E54)</f>
         <v>1</v>
       </c>
-      <c r="F55" s="65">
+      <c r="F55" s="64">
         <f>IF(AND(B55&gt;=Inputs!$C$1,B55&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E55,0)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="64">
+      <c r="H55" s="63">
         <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D55</f>
         <v>0</v>
       </c>
-      <c r="I55" s="64">
+      <c r="I55" s="63">
         <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D55</f>
         <v>0</v>
       </c>
-      <c r="J55" s="64">
+      <c r="J55" s="63">
         <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D55</f>
         <v>0</v>
       </c>
-      <c r="K55" s="64">
+      <c r="K55" s="63">
         <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D55</f>
         <v>0</v>
       </c>
-      <c r="M55" s="64">
+      <c r="M55" s="63">
         <f>$F55*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N55" s="64">
+      <c r="N55" s="63">
         <f>$F55*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O55" s="64">
+      <c r="O55" s="63">
         <f>$F55*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P55" s="64">
+      <c r="P55" s="63">
         <f>$F55*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="64">
+      <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S55" s="64">
+      <c r="S55" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T55" s="64">
+      <c r="T55" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U55" s="64">
+      <c r="U55" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V55" s="64">
+      <c r="V55" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W55" s="64">
+      <c r="W55" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="61">
+      <c r="B56" s="60">
         <f t="shared" si="0"/>
         <v>44531</v>
       </c>
-      <c r="D56" s="65">
+      <c r="D56" s="64">
         <f>D55*IF(AND(MONTH(B56)=1,YEAR(B56)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="64">
         <f>IF(B56=Inputs!$C$1,D56,E55)</f>
         <v>1</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="64">
         <f>IF(AND(B56&gt;=Inputs!$C$1,B56&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E56,0)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H56" s="63">
         <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D56</f>
         <v>0</v>
       </c>
-      <c r="I56" s="64">
+      <c r="I56" s="63">
         <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="64">
+      <c r="J56" s="63">
         <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D56</f>
         <v>0</v>
       </c>
-      <c r="K56" s="64">
+      <c r="K56" s="63">
         <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D56</f>
         <v>0</v>
       </c>
-      <c r="M56" s="64">
+      <c r="M56" s="63">
         <f>$F56*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N56" s="64">
+      <c r="N56" s="63">
         <f>$F56*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O56" s="64">
+      <c r="O56" s="63">
         <f>$F56*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P56" s="64">
+      <c r="P56" s="63">
         <f>$F56*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="64">
+      <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S56" s="64">
+      <c r="S56" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T56" s="64">
+      <c r="T56" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U56" s="64">
+      <c r="U56" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V56" s="64">
+      <c r="V56" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W56" s="64">
+      <c r="W56" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="61">
+      <c r="B57" s="60">
         <f t="shared" si="0"/>
         <v>44562</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="64">
         <f>D56*IF(AND(MONTH(B57)=1,YEAR(B57)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="64">
         <f>IF(B57=Inputs!$C$1,D57,E56)</f>
         <v>1</v>
       </c>
-      <c r="F57" s="65">
+      <c r="F57" s="64">
         <f>IF(AND(B57&gt;=Inputs!$C$1,B57&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E57,0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="64">
+      <c r="H57" s="63">
         <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D57</f>
         <v>0</v>
       </c>
-      <c r="I57" s="64">
+      <c r="I57" s="63">
         <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D57</f>
         <v>0</v>
       </c>
-      <c r="J57" s="64">
+      <c r="J57" s="63">
         <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D57</f>
         <v>0</v>
       </c>
-      <c r="K57" s="64">
+      <c r="K57" s="63">
         <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D57</f>
         <v>0</v>
       </c>
-      <c r="M57" s="64">
+      <c r="M57" s="63">
         <f>$F57*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N57" s="64">
+      <c r="N57" s="63">
         <f>$F57*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O57" s="64">
+      <c r="O57" s="63">
         <f>$F57*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P57" s="64">
+      <c r="P57" s="63">
         <f>$F57*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="64">
+      <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S57" s="64">
+      <c r="S57" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T57" s="64">
+      <c r="T57" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U57" s="64">
+      <c r="U57" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V57" s="64">
+      <c r="V57" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W57" s="64">
+      <c r="W57" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="61">
+      <c r="B58" s="60">
         <f t="shared" si="0"/>
         <v>44593</v>
       </c>
-      <c r="D58" s="65">
+      <c r="D58" s="64">
         <f>D57*IF(AND(MONTH(B58)=1,YEAR(B58)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="64">
         <f>IF(B58=Inputs!$C$1,D58,E57)</f>
         <v>1</v>
       </c>
-      <c r="F58" s="65">
+      <c r="F58" s="64">
         <f>IF(AND(B58&gt;=Inputs!$C$1,B58&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E58,0)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="64">
+      <c r="H58" s="63">
         <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D58</f>
         <v>0</v>
       </c>
-      <c r="I58" s="64">
+      <c r="I58" s="63">
         <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D58</f>
         <v>0</v>
       </c>
-      <c r="J58" s="64">
+      <c r="J58" s="63">
         <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D58</f>
         <v>0</v>
       </c>
-      <c r="K58" s="64">
+      <c r="K58" s="63">
         <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="64">
+      <c r="M58" s="63">
         <f>$F58*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N58" s="64">
+      <c r="N58" s="63">
         <f>$F58*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O58" s="64">
+      <c r="O58" s="63">
         <f>$F58*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P58" s="64">
+      <c r="P58" s="63">
         <f>$F58*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="64">
+      <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S58" s="64">
+      <c r="S58" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T58" s="64">
+      <c r="T58" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U58" s="64">
+      <c r="U58" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V58" s="64">
+      <c r="V58" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W58" s="64">
+      <c r="W58" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="61">
+      <c r="B59" s="60">
         <f t="shared" si="0"/>
         <v>44621</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="64">
         <f>D58*IF(AND(MONTH(B59)=1,YEAR(B59)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E59" s="65">
+      <c r="E59" s="64">
         <f>IF(B59=Inputs!$C$1,D59,E58)</f>
         <v>1</v>
       </c>
-      <c r="F59" s="65">
+      <c r="F59" s="64">
         <f>IF(AND(B59&gt;=Inputs!$C$1,B59&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E59,0)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="64">
+      <c r="H59" s="63">
         <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D59</f>
         <v>0</v>
       </c>
-      <c r="I59" s="64">
+      <c r="I59" s="63">
         <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D59</f>
         <v>0</v>
       </c>
-      <c r="J59" s="64">
+      <c r="J59" s="63">
         <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D59</f>
         <v>0</v>
       </c>
-      <c r="K59" s="64">
+      <c r="K59" s="63">
         <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D59</f>
         <v>0</v>
       </c>
-      <c r="M59" s="64">
+      <c r="M59" s="63">
         <f>$F59*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N59" s="64">
+      <c r="N59" s="63">
         <f>$F59*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O59" s="64">
+      <c r="O59" s="63">
         <f>$F59*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P59" s="64">
+      <c r="P59" s="63">
         <f>$F59*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="64">
+      <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S59" s="64">
+      <c r="S59" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T59" s="64">
+      <c r="T59" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U59" s="64">
+      <c r="U59" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V59" s="64">
+      <c r="V59" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W59" s="64">
+      <c r="W59" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="61">
+      <c r="B60" s="60">
         <f t="shared" si="0"/>
         <v>44652</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="64">
         <f>D59*IF(AND(MONTH(B60)=1,YEAR(B60)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="64">
         <f>IF(B60=Inputs!$C$1,D60,E59)</f>
         <v>1</v>
       </c>
-      <c r="F60" s="65">
+      <c r="F60" s="64">
         <f>IF(AND(B60&gt;=Inputs!$C$1,B60&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E60,0)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="64">
+      <c r="H60" s="63">
         <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D60</f>
         <v>0</v>
       </c>
-      <c r="I60" s="64">
+      <c r="I60" s="63">
         <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D60</f>
         <v>0</v>
       </c>
-      <c r="J60" s="64">
+      <c r="J60" s="63">
         <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D60</f>
         <v>0</v>
       </c>
-      <c r="K60" s="64">
+      <c r="K60" s="63">
         <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D60</f>
         <v>0</v>
       </c>
-      <c r="M60" s="64">
+      <c r="M60" s="63">
         <f>$F60*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N60" s="64">
+      <c r="N60" s="63">
         <f>$F60*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O60" s="64">
+      <c r="O60" s="63">
         <f>$F60*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P60" s="64">
+      <c r="P60" s="63">
         <f>$F60*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="64">
+      <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S60" s="64">
+      <c r="S60" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T60" s="64">
+      <c r="T60" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U60" s="64">
+      <c r="U60" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V60" s="64">
+      <c r="V60" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W60" s="64">
+      <c r="W60" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="61">
+      <c r="B61" s="60">
         <f t="shared" si="0"/>
         <v>44682</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="64">
         <f>D60*IF(AND(MONTH(B61)=1,YEAR(B61)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E61" s="65">
+      <c r="E61" s="64">
         <f>IF(B61=Inputs!$C$1,D61,E60)</f>
         <v>1</v>
       </c>
-      <c r="F61" s="65">
+      <c r="F61" s="64">
         <f>IF(AND(B61&gt;=Inputs!$C$1,B61&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E61,0)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="64">
+      <c r="H61" s="63">
         <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D61</f>
         <v>0</v>
       </c>
-      <c r="I61" s="64">
+      <c r="I61" s="63">
         <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D61</f>
         <v>0</v>
       </c>
-      <c r="J61" s="64">
+      <c r="J61" s="63">
         <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D61</f>
         <v>0</v>
       </c>
-      <c r="K61" s="64">
+      <c r="K61" s="63">
         <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D61</f>
         <v>0</v>
       </c>
-      <c r="M61" s="64">
+      <c r="M61" s="63">
         <f>$F61*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N61" s="64">
+      <c r="N61" s="63">
         <f>$F61*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O61" s="64">
+      <c r="O61" s="63">
         <f>$F61*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P61" s="64">
+      <c r="P61" s="63">
         <f>$F61*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="64">
+      <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S61" s="64">
+      <c r="S61" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T61" s="64">
+      <c r="T61" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U61" s="64">
+      <c r="U61" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V61" s="64">
+      <c r="V61" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W61" s="64">
+      <c r="W61" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="61">
+      <c r="B62" s="60">
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="64">
         <f>D61*IF(AND(MONTH(B62)=1,YEAR(B62)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E62" s="65">
+      <c r="E62" s="64">
         <f>IF(B62=Inputs!$C$1,D62,E61)</f>
         <v>1</v>
       </c>
-      <c r="F62" s="65">
+      <c r="F62" s="64">
         <f>IF(AND(B62&gt;=Inputs!$C$1,B62&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E62,0)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="64">
+      <c r="H62" s="63">
         <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D62</f>
         <v>0</v>
       </c>
-      <c r="I62" s="64">
+      <c r="I62" s="63">
         <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="64">
+      <c r="J62" s="63">
         <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D62</f>
         <v>0</v>
       </c>
-      <c r="K62" s="64">
+      <c r="K62" s="63">
         <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D62</f>
         <v>0</v>
       </c>
-      <c r="M62" s="64">
+      <c r="M62" s="63">
         <f>$F62*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N62" s="64">
+      <c r="N62" s="63">
         <f>$F62*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O62" s="64">
+      <c r="O62" s="63">
         <f>$F62*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P62" s="64">
+      <c r="P62" s="63">
         <f>$F62*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="64">
+      <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S62" s="64">
+      <c r="S62" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T62" s="64">
+      <c r="T62" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U62" s="64">
+      <c r="U62" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V62" s="64">
+      <c r="V62" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W62" s="64">
+      <c r="W62" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="61">
+      <c r="B63" s="60">
         <f t="shared" si="0"/>
         <v>44743</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="64">
         <f>D62*IF(AND(MONTH(B63)=1,YEAR(B63)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="64">
         <f>IF(B63=Inputs!$C$1,D63,E62)</f>
         <v>1</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="64">
         <f>IF(AND(B63&gt;=Inputs!$C$1,B63&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E63,0)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="64">
+      <c r="H63" s="63">
         <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D63</f>
         <v>0</v>
       </c>
-      <c r="I63" s="64">
+      <c r="I63" s="63">
         <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="64">
+      <c r="J63" s="63">
         <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D63</f>
         <v>0</v>
       </c>
-      <c r="K63" s="64">
+      <c r="K63" s="63">
         <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D63</f>
         <v>0</v>
       </c>
-      <c r="M63" s="64">
+      <c r="M63" s="63">
         <f>$F63*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N63" s="64">
+      <c r="N63" s="63">
         <f>$F63*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O63" s="64">
+      <c r="O63" s="63">
         <f>$F63*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P63" s="64">
+      <c r="P63" s="63">
         <f>$F63*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="64">
+      <c r="Q63" s="63">
         <f>$F63*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S63" s="64">
+      <c r="S63" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T63" s="64">
+      <c r="T63" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U63" s="64">
+      <c r="U63" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V63" s="64">
+      <c r="V63" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W63" s="64">
+      <c r="W63" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="61">
+      <c r="B64" s="60">
         <f t="shared" si="0"/>
         <v>44774</v>
       </c>
-      <c r="D64" s="65">
+      <c r="D64" s="64">
         <f>D63*IF(AND(MONTH(B64)=1,YEAR(B64)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E64" s="65">
+      <c r="E64" s="64">
         <f>IF(B64=Inputs!$C$1,D64,E63)</f>
         <v>1</v>
       </c>
-      <c r="F64" s="65">
+      <c r="F64" s="64">
         <f>IF(AND(B64&gt;=Inputs!$C$1,B64&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E64,0)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="64">
+      <c r="H64" s="63">
         <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D64</f>
         <v>0</v>
       </c>
-      <c r="I64" s="64">
+      <c r="I64" s="63">
         <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D64</f>
         <v>0</v>
       </c>
-      <c r="J64" s="64">
+      <c r="J64" s="63">
         <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D64</f>
         <v>0</v>
       </c>
-      <c r="K64" s="64">
+      <c r="K64" s="63">
         <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D64</f>
         <v>0</v>
       </c>
-      <c r="M64" s="64">
+      <c r="M64" s="63">
         <f>$F64*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N64" s="64">
+      <c r="N64" s="63">
         <f>$F64*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O64" s="64">
+      <c r="O64" s="63">
         <f>$F64*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P64" s="64">
+      <c r="P64" s="63">
         <f>$F64*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="64">
+      <c r="Q64" s="63">
         <f>$F64*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S64" s="64">
+      <c r="S64" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T64" s="64">
+      <c r="T64" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U64" s="64">
+      <c r="U64" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V64" s="64">
+      <c r="V64" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W64" s="64">
+      <c r="W64" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="61">
+      <c r="B65" s="60">
         <f t="shared" si="0"/>
         <v>44805</v>
       </c>
-      <c r="D65" s="65">
+      <c r="D65" s="64">
         <f>D64*IF(AND(MONTH(B65)=1,YEAR(B65)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E65" s="65">
+      <c r="E65" s="64">
         <f>IF(B65=Inputs!$C$1,D65,E64)</f>
         <v>1</v>
       </c>
-      <c r="F65" s="65">
+      <c r="F65" s="64">
         <f>IF(AND(B65&gt;=Inputs!$C$1,B65&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E65,0)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="64">
+      <c r="H65" s="63">
         <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D65</f>
         <v>0</v>
       </c>
-      <c r="I65" s="64">
+      <c r="I65" s="63">
         <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D65</f>
         <v>0</v>
       </c>
-      <c r="J65" s="64">
+      <c r="J65" s="63">
         <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D65</f>
         <v>0</v>
       </c>
-      <c r="K65" s="64">
+      <c r="K65" s="63">
         <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D65</f>
         <v>0</v>
       </c>
-      <c r="M65" s="64">
+      <c r="M65" s="63">
         <f>$F65*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N65" s="64">
+      <c r="N65" s="63">
         <f>$F65*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O65" s="64">
+      <c r="O65" s="63">
         <f>$F65*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P65" s="64">
+      <c r="P65" s="63">
         <f>$F65*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="64">
+      <c r="Q65" s="63">
         <f>$F65*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S65" s="64">
+      <c r="S65" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T65" s="64">
+      <c r="T65" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U65" s="64">
+      <c r="U65" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V65" s="64">
+      <c r="V65" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W65" s="64">
+      <c r="W65" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="61">
+      <c r="B66" s="60">
         <f t="shared" si="0"/>
         <v>44835</v>
       </c>
-      <c r="D66" s="65">
+      <c r="D66" s="64">
         <f>D65*IF(AND(MONTH(B66)=1,YEAR(B66)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E66" s="65">
+      <c r="E66" s="64">
         <f>IF(B66=Inputs!$C$1,D66,E65)</f>
         <v>1</v>
       </c>
-      <c r="F66" s="65">
+      <c r="F66" s="64">
         <f>IF(AND(B66&gt;=Inputs!$C$1,B66&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E66,0)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="64">
+      <c r="H66" s="63">
         <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="64">
+      <c r="I66" s="63">
         <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D66</f>
         <v>0</v>
       </c>
-      <c r="J66" s="64">
+      <c r="J66" s="63">
         <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D66</f>
         <v>0</v>
       </c>
-      <c r="K66" s="64">
+      <c r="K66" s="63">
         <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D66</f>
         <v>0</v>
       </c>
-      <c r="M66" s="64">
+      <c r="M66" s="63">
         <f>$F66*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N66" s="64">
+      <c r="N66" s="63">
         <f>$F66*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O66" s="64">
+      <c r="O66" s="63">
         <f>$F66*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P66" s="64">
+      <c r="P66" s="63">
         <f>$F66*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="64">
+      <c r="Q66" s="63">
         <f>$F66*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S66" s="64">
+      <c r="S66" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T66" s="64">
+      <c r="T66" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U66" s="64">
+      <c r="U66" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V66" s="64">
+      <c r="V66" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W66" s="64">
+      <c r="W66" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="61">
+      <c r="B67" s="60">
         <f t="shared" si="0"/>
         <v>44866</v>
       </c>
-      <c r="D67" s="65">
+      <c r="D67" s="64">
         <f>D66*IF(AND(MONTH(B67)=1,YEAR(B67)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E67" s="65">
+      <c r="E67" s="64">
         <f>IF(B67=Inputs!$C$1,D67,E66)</f>
         <v>1</v>
       </c>
-      <c r="F67" s="65">
+      <c r="F67" s="64">
         <f>IF(AND(B67&gt;=Inputs!$C$1,B67&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E67,0)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="64">
+      <c r="H67" s="63">
         <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D67</f>
         <v>0</v>
       </c>
-      <c r="I67" s="64">
+      <c r="I67" s="63">
         <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D67</f>
         <v>0</v>
       </c>
-      <c r="J67" s="64">
+      <c r="J67" s="63">
         <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D67</f>
         <v>0</v>
       </c>
-      <c r="K67" s="64">
+      <c r="K67" s="63">
         <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D67</f>
         <v>0</v>
       </c>
-      <c r="M67" s="64">
+      <c r="M67" s="63">
         <f>$F67*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N67" s="64">
+      <c r="N67" s="63">
         <f>$F67*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O67" s="64">
+      <c r="O67" s="63">
         <f>$F67*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P67" s="64">
+      <c r="P67" s="63">
         <f>$F67*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="64">
+      <c r="Q67" s="63">
         <f>$F67*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S67" s="64">
+      <c r="S67" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T67" s="64">
+      <c r="T67" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U67" s="64">
+      <c r="U67" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V67" s="64">
+      <c r="V67" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W67" s="64">
+      <c r="W67" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B68" s="61">
+      <c r="B68" s="60">
         <f t="shared" si="0"/>
         <v>44896</v>
       </c>
-      <c r="D68" s="65">
+      <c r="D68" s="64">
         <f>D67*IF(AND(MONTH(B68)=1,YEAR(B68)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
-      <c r="E68" s="65">
+      <c r="E68" s="64">
         <f>IF(B68=Inputs!$C$1,D68,E67)</f>
         <v>1</v>
       </c>
-      <c r="F68" s="65">
+      <c r="F68" s="64">
         <f>IF(AND(B68&gt;=Inputs!$C$1,B68&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E68,0)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="64">
+      <c r="H68" s="63">
         <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D68</f>
         <v>0</v>
       </c>
-      <c r="I68" s="64">
+      <c r="I68" s="63">
         <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="64">
+      <c r="J68" s="63">
         <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D68</f>
         <v>0</v>
       </c>
-      <c r="K68" s="64">
+      <c r="K68" s="63">
         <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D68</f>
         <v>0</v>
       </c>
-      <c r="M68" s="64">
+      <c r="M68" s="63">
         <f>$F68*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N68" s="64">
+      <c r="N68" s="63">
         <f>$F68*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O68" s="64">
+      <c r="O68" s="63">
         <f>$F68*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P68" s="64">
+      <c r="P68" s="63">
         <f>$F68*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="64">
+      <c r="Q68" s="63">
         <f>$F68*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S68" s="64">
+      <c r="S68" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T68" s="64">
+      <c r="T68" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U68" s="64">
+      <c r="U68" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V68" s="64">
+      <c r="V68" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W68" s="64">
+      <c r="W68" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B69" s="61">
+      <c r="B69" s="60">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
       </c>
-      <c r="D69" s="65">
+      <c r="D69" s="64">
         <f>D68*IF(AND(MONTH(B69)=1,YEAR(B69)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E69" s="65">
+      <c r="E69" s="64">
         <f>IF(B69=Inputs!$C$1,D69,E68)</f>
         <v>1</v>
       </c>
-      <c r="F69" s="65">
+      <c r="F69" s="64">
         <f>IF(AND(B69&gt;=Inputs!$C$1,B69&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E69,0)</f>
         <v>0</v>
       </c>
-      <c r="H69" s="64">
+      <c r="H69" s="63">
         <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D69</f>
         <v>0</v>
       </c>
-      <c r="I69" s="64">
+      <c r="I69" s="63">
         <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D69</f>
         <v>0</v>
       </c>
-      <c r="J69" s="64">
+      <c r="J69" s="63">
         <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D69</f>
         <v>0</v>
       </c>
-      <c r="K69" s="64">
+      <c r="K69" s="63">
         <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D69</f>
         <v>0</v>
       </c>
-      <c r="M69" s="64">
+      <c r="M69" s="63">
         <f>$F69*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N69" s="64">
+      <c r="N69" s="63">
         <f>$F69*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O69" s="64">
+      <c r="O69" s="63">
         <f>$F69*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P69" s="64">
+      <c r="P69" s="63">
         <f>$F69*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="64">
+      <c r="Q69" s="63">
         <f>$F69*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S69" s="64">
+      <c r="S69" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T69" s="64">
+      <c r="T69" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U69" s="64">
+      <c r="U69" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V69" s="64">
+      <c r="V69" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W69" s="64">
+      <c r="W69" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B70" s="61">
+      <c r="B70" s="60">
         <f t="shared" si="6"/>
         <v>44958</v>
       </c>
-      <c r="D70" s="65">
+      <c r="D70" s="64">
         <f>D69*IF(AND(MONTH(B70)=1,YEAR(B70)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E70" s="65">
+      <c r="E70" s="64">
         <f>IF(B70=Inputs!$C$1,D70,E69)</f>
         <v>1</v>
       </c>
-      <c r="F70" s="65">
+      <c r="F70" s="64">
         <f>IF(AND(B70&gt;=Inputs!$C$1,B70&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E70,0)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="64">
+      <c r="H70" s="63">
         <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="64">
+      <c r="I70" s="63">
         <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D70</f>
         <v>0</v>
       </c>
-      <c r="J70" s="64">
+      <c r="J70" s="63">
         <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D70</f>
         <v>0</v>
       </c>
-      <c r="K70" s="64">
+      <c r="K70" s="63">
         <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D70</f>
         <v>0</v>
       </c>
-      <c r="M70" s="64">
+      <c r="M70" s="63">
         <f>$F70*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N70" s="64">
+      <c r="N70" s="63">
         <f>$F70*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O70" s="64">
+      <c r="O70" s="63">
         <f>$F70*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P70" s="64">
+      <c r="P70" s="63">
         <f>$F70*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q70" s="64">
+      <c r="Q70" s="63">
         <f>$F70*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S70" s="64">
+      <c r="S70" s="63">
         <f t="shared" ref="S70:S94" si="7">IF(MOD(MONTH($B70),3)=0,SUM(H68:H70,M68:M70),0)</f>
         <v>0</v>
       </c>
-      <c r="T70" s="64">
+      <c r="T70" s="63">
         <f t="shared" ref="T70:T94" si="8">IF(MOD(MONTH($B70),3)=0,SUM(I68:I70,N68:N70),0)</f>
         <v>0</v>
       </c>
-      <c r="U70" s="64">
+      <c r="U70" s="63">
         <f t="shared" ref="U70:U94" si="9">IF(MOD(MONTH($B70),3)=0,SUM(J68:J70,O68:O70),0)</f>
         <v>0</v>
       </c>
-      <c r="V70" s="64">
+      <c r="V70" s="63">
         <f t="shared" ref="V70:V94" si="10">IF(MOD(MONTH($B70),3)=0,SUM(K68:K70,P68:P70),0)</f>
         <v>0</v>
       </c>
-      <c r="W70" s="64">
+      <c r="W70" s="63">
         <f t="shared" ref="W70:W94" si="11">IF(MOD(MONTH($B70),3)=0,SUM(L68:L70,Q68:Q70),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B71" s="61">
+      <c r="B71" s="60">
         <f t="shared" si="6"/>
         <v>44986</v>
       </c>
-      <c r="D71" s="65">
+      <c r="D71" s="64">
         <f>D70*IF(AND(MONTH(B71)=1,YEAR(B71)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E71" s="65">
+      <c r="E71" s="64">
         <f>IF(B71=Inputs!$C$1,D71,E70)</f>
         <v>1</v>
       </c>
-      <c r="F71" s="65">
+      <c r="F71" s="64">
         <f>IF(AND(B71&gt;=Inputs!$C$1,B71&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E71,0)</f>
         <v>0</v>
       </c>
-      <c r="H71" s="64">
+      <c r="H71" s="63">
         <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D71</f>
         <v>0</v>
       </c>
-      <c r="I71" s="64">
+      <c r="I71" s="63">
         <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D71</f>
         <v>0</v>
       </c>
-      <c r="J71" s="64">
+      <c r="J71" s="63">
         <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D71</f>
         <v>0</v>
       </c>
-      <c r="K71" s="64">
+      <c r="K71" s="63">
         <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D71</f>
         <v>0</v>
       </c>
-      <c r="M71" s="64">
+      <c r="M71" s="63">
         <f>$F71*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N71" s="64">
+      <c r="N71" s="63">
         <f>$F71*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O71" s="64">
+      <c r="O71" s="63">
         <f>$F71*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P71" s="64">
+      <c r="P71" s="63">
         <f>$F71*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q71" s="64">
+      <c r="Q71" s="63">
         <f>$F71*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S71" s="64">
+      <c r="S71" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T71" s="64">
+      <c r="T71" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U71" s="64">
+      <c r="U71" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V71" s="64">
+      <c r="V71" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W71" s="64">
+      <c r="W71" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B72" s="61">
+      <c r="B72" s="60">
         <f t="shared" si="6"/>
         <v>45017</v>
       </c>
-      <c r="D72" s="65">
+      <c r="D72" s="64">
         <f>D71*IF(AND(MONTH(B72)=1,YEAR(B72)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E72" s="65">
+      <c r="E72" s="64">
         <f>IF(B72=Inputs!$C$1,D72,E71)</f>
         <v>1</v>
       </c>
-      <c r="F72" s="65">
+      <c r="F72" s="64">
         <f>IF(AND(B72&gt;=Inputs!$C$1,B72&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E72,0)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="64">
+      <c r="H72" s="63">
         <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D72</f>
         <v>0</v>
       </c>
-      <c r="I72" s="64">
+      <c r="I72" s="63">
         <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D72</f>
         <v>0</v>
       </c>
-      <c r="J72" s="64">
+      <c r="J72" s="63">
         <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D72</f>
         <v>0</v>
       </c>
-      <c r="K72" s="64">
+      <c r="K72" s="63">
         <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D72</f>
         <v>0</v>
       </c>
-      <c r="M72" s="64">
+      <c r="M72" s="63">
         <f>$F72*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N72" s="64">
+      <c r="N72" s="63">
         <f>$F72*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O72" s="64">
+      <c r="O72" s="63">
         <f>$F72*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P72" s="64">
+      <c r="P72" s="63">
         <f>$F72*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q72" s="64">
+      <c r="Q72" s="63">
         <f>$F72*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S72" s="64">
+      <c r="S72" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T72" s="64">
+      <c r="T72" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U72" s="64">
+      <c r="U72" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V72" s="64">
+      <c r="V72" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W72" s="64">
+      <c r="W72" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B73" s="61">
+      <c r="B73" s="60">
         <f t="shared" si="6"/>
         <v>45047</v>
       </c>
-      <c r="D73" s="65">
+      <c r="D73" s="64">
         <f>D72*IF(AND(MONTH(B73)=1,YEAR(B73)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E73" s="65">
+      <c r="E73" s="64">
         <f>IF(B73=Inputs!$C$1,D73,E72)</f>
         <v>1</v>
       </c>
-      <c r="F73" s="65">
+      <c r="F73" s="64">
         <f>IF(AND(B73&gt;=Inputs!$C$1,B73&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E73,0)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="64">
+      <c r="H73" s="63">
         <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D73</f>
         <v>0</v>
       </c>
-      <c r="I73" s="64">
+      <c r="I73" s="63">
         <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D73</f>
         <v>0</v>
       </c>
-      <c r="J73" s="64">
+      <c r="J73" s="63">
         <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D73</f>
         <v>0</v>
       </c>
-      <c r="K73" s="64">
+      <c r="K73" s="63">
         <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D73</f>
         <v>0</v>
       </c>
-      <c r="M73" s="64">
+      <c r="M73" s="63">
         <f>$F73*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N73" s="64">
+      <c r="N73" s="63">
         <f>$F73*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O73" s="64">
+      <c r="O73" s="63">
         <f>$F73*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P73" s="64">
+      <c r="P73" s="63">
         <f>$F73*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q73" s="64">
+      <c r="Q73" s="63">
         <f>$F73*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S73" s="64">
+      <c r="S73" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T73" s="64">
+      <c r="T73" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U73" s="64">
+      <c r="U73" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V73" s="64">
+      <c r="V73" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W73" s="64">
+      <c r="W73" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="61">
+      <c r="B74" s="60">
         <f t="shared" si="6"/>
         <v>45078</v>
       </c>
-      <c r="D74" s="65">
+      <c r="D74" s="64">
         <f>D73*IF(AND(MONTH(B74)=1,YEAR(B74)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E74" s="65">
+      <c r="E74" s="64">
         <f>IF(B74=Inputs!$C$1,D74,E73)</f>
         <v>1</v>
       </c>
-      <c r="F74" s="65">
+      <c r="F74" s="64">
         <f>IF(AND(B74&gt;=Inputs!$C$1,B74&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E74,0)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="64">
+      <c r="H74" s="63">
         <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="64">
+      <c r="I74" s="63">
         <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D74</f>
         <v>0</v>
       </c>
-      <c r="J74" s="64">
+      <c r="J74" s="63">
         <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D74</f>
         <v>0</v>
       </c>
-      <c r="K74" s="64">
+      <c r="K74" s="63">
         <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D74</f>
         <v>0</v>
       </c>
-      <c r="M74" s="64">
+      <c r="M74" s="63">
         <f>$F74*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N74" s="64">
+      <c r="N74" s="63">
         <f>$F74*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O74" s="64">
+      <c r="O74" s="63">
         <f>$F74*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P74" s="64">
+      <c r="P74" s="63">
         <f>$F74*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q74" s="64">
+      <c r="Q74" s="63">
         <f>$F74*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S74" s="64">
+      <c r="S74" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T74" s="64">
+      <c r="T74" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U74" s="64">
+      <c r="U74" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V74" s="64">
+      <c r="V74" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W74" s="64">
+      <c r="W74" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="61">
+      <c r="B75" s="60">
         <f t="shared" si="6"/>
         <v>45108</v>
       </c>
-      <c r="D75" s="65">
+      <c r="D75" s="64">
         <f>D74*IF(AND(MONTH(B75)=1,YEAR(B75)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="64">
         <f>IF(B75=Inputs!$C$1,D75,E74)</f>
         <v>1</v>
       </c>
-      <c r="F75" s="65">
+      <c r="F75" s="64">
         <f>IF(AND(B75&gt;=Inputs!$C$1,B75&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E75,0)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="64">
+      <c r="H75" s="63">
         <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="64">
+      <c r="I75" s="63">
         <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D75</f>
         <v>0</v>
       </c>
-      <c r="J75" s="64">
+      <c r="J75" s="63">
         <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D75</f>
         <v>0</v>
       </c>
-      <c r="K75" s="64">
+      <c r="K75" s="63">
         <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D75</f>
         <v>0</v>
       </c>
-      <c r="M75" s="64">
+      <c r="M75" s="63">
         <f>$F75*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N75" s="64">
+      <c r="N75" s="63">
         <f>$F75*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O75" s="64">
+      <c r="O75" s="63">
         <f>$F75*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P75" s="64">
+      <c r="P75" s="63">
         <f>$F75*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q75" s="64">
+      <c r="Q75" s="63">
         <f>$F75*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S75" s="64">
+      <c r="S75" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T75" s="64">
+      <c r="T75" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U75" s="64">
+      <c r="U75" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V75" s="64">
+      <c r="V75" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W75" s="64">
+      <c r="W75" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B76" s="61">
+      <c r="B76" s="60">
         <f t="shared" si="6"/>
         <v>45139</v>
       </c>
-      <c r="D76" s="65">
+      <c r="D76" s="64">
         <f>D75*IF(AND(MONTH(B76)=1,YEAR(B76)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E76" s="65">
+      <c r="E76" s="64">
         <f>IF(B76=Inputs!$C$1,D76,E75)</f>
         <v>1</v>
       </c>
-      <c r="F76" s="65">
+      <c r="F76" s="64">
         <f>IF(AND(B76&gt;=Inputs!$C$1,B76&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E76,0)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="64">
+      <c r="H76" s="63">
         <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="64">
+      <c r="I76" s="63">
         <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D76</f>
         <v>0</v>
       </c>
-      <c r="J76" s="64">
+      <c r="J76" s="63">
         <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D76</f>
         <v>0</v>
       </c>
-      <c r="K76" s="64">
+      <c r="K76" s="63">
         <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D76</f>
         <v>0</v>
       </c>
-      <c r="M76" s="64">
+      <c r="M76" s="63">
         <f>$F76*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N76" s="64">
+      <c r="N76" s="63">
         <f>$F76*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O76" s="64">
+      <c r="O76" s="63">
         <f>$F76*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P76" s="64">
+      <c r="P76" s="63">
         <f>$F76*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q76" s="64">
+      <c r="Q76" s="63">
         <f>$F76*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S76" s="64">
+      <c r="S76" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T76" s="64">
+      <c r="T76" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U76" s="64">
+      <c r="U76" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V76" s="64">
+      <c r="V76" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W76" s="64">
+      <c r="W76" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B77" s="61">
+      <c r="B77" s="60">
         <f t="shared" si="6"/>
         <v>45170</v>
       </c>
-      <c r="D77" s="65">
+      <c r="D77" s="64">
         <f>D76*IF(AND(MONTH(B77)=1,YEAR(B77)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E77" s="65">
+      <c r="E77" s="64">
         <f>IF(B77=Inputs!$C$1,D77,E76)</f>
         <v>1</v>
       </c>
-      <c r="F77" s="65">
+      <c r="F77" s="64">
         <f>IF(AND(B77&gt;=Inputs!$C$1,B77&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E77,0)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="64">
+      <c r="H77" s="63">
         <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="64">
+      <c r="I77" s="63">
         <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D77</f>
         <v>0</v>
       </c>
-      <c r="J77" s="64">
+      <c r="J77" s="63">
         <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D77</f>
         <v>0</v>
       </c>
-      <c r="K77" s="64">
+      <c r="K77" s="63">
         <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D77</f>
         <v>0</v>
       </c>
-      <c r="M77" s="64">
+      <c r="M77" s="63">
         <f>$F77*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N77" s="64">
+      <c r="N77" s="63">
         <f>$F77*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O77" s="64">
+      <c r="O77" s="63">
         <f>$F77*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P77" s="64">
+      <c r="P77" s="63">
         <f>$F77*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="64">
+      <c r="Q77" s="63">
         <f>$F77*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S77" s="64">
+      <c r="S77" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T77" s="64">
+      <c r="T77" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U77" s="64">
+      <c r="U77" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V77" s="64">
+      <c r="V77" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W77" s="64">
+      <c r="W77" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B78" s="61">
+      <c r="B78" s="60">
         <f t="shared" si="6"/>
         <v>45200</v>
       </c>
-      <c r="D78" s="65">
+      <c r="D78" s="64">
         <f>D77*IF(AND(MONTH(B78)=1,YEAR(B78)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E78" s="65">
+      <c r="E78" s="64">
         <f>IF(B78=Inputs!$C$1,D78,E77)</f>
         <v>1</v>
       </c>
-      <c r="F78" s="65">
+      <c r="F78" s="64">
         <f>IF(AND(B78&gt;=Inputs!$C$1,B78&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E78,0)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="64">
+      <c r="H78" s="63">
         <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="64">
+      <c r="I78" s="63">
         <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D78</f>
         <v>0</v>
       </c>
-      <c r="J78" s="64">
+      <c r="J78" s="63">
         <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D78</f>
         <v>0</v>
       </c>
-      <c r="K78" s="64">
+      <c r="K78" s="63">
         <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D78</f>
         <v>0</v>
       </c>
-      <c r="M78" s="64">
+      <c r="M78" s="63">
         <f>$F78*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N78" s="64">
+      <c r="N78" s="63">
         <f>$F78*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O78" s="64">
+      <c r="O78" s="63">
         <f>$F78*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P78" s="64">
+      <c r="P78" s="63">
         <f>$F78*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q78" s="64">
+      <c r="Q78" s="63">
         <f>$F78*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S78" s="64">
+      <c r="S78" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T78" s="64">
+      <c r="T78" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U78" s="64">
+      <c r="U78" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V78" s="64">
+      <c r="V78" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W78" s="64">
+      <c r="W78" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B79" s="61">
+      <c r="B79" s="60">
         <f t="shared" si="6"/>
         <v>45231</v>
       </c>
-      <c r="D79" s="65">
+      <c r="D79" s="64">
         <f>D78*IF(AND(MONTH(B79)=1,YEAR(B79)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E79" s="65">
+      <c r="E79" s="64">
         <f>IF(B79=Inputs!$C$1,D79,E78)</f>
         <v>1</v>
       </c>
-      <c r="F79" s="65">
+      <c r="F79" s="64">
         <f>IF(AND(B79&gt;=Inputs!$C$1,B79&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E79,0)</f>
         <v>0</v>
       </c>
-      <c r="H79" s="64">
+      <c r="H79" s="63">
         <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D79</f>
         <v>0</v>
       </c>
-      <c r="I79" s="64">
+      <c r="I79" s="63">
         <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D79</f>
         <v>0</v>
       </c>
-      <c r="J79" s="64">
+      <c r="J79" s="63">
         <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D79</f>
         <v>0</v>
       </c>
-      <c r="K79" s="64">
+      <c r="K79" s="63">
         <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D79</f>
         <v>0</v>
       </c>
-      <c r="M79" s="64">
+      <c r="M79" s="63">
         <f>$F79*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N79" s="64">
+      <c r="N79" s="63">
         <f>$F79*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O79" s="64">
+      <c r="O79" s="63">
         <f>$F79*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P79" s="64">
+      <c r="P79" s="63">
         <f>$F79*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q79" s="64">
+      <c r="Q79" s="63">
         <f>$F79*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S79" s="64">
+      <c r="S79" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T79" s="64">
+      <c r="T79" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U79" s="64">
+      <c r="U79" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V79" s="64">
+      <c r="V79" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W79" s="64">
+      <c r="W79" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B80" s="61">
+      <c r="B80" s="60">
         <f t="shared" si="6"/>
         <v>45261</v>
       </c>
-      <c r="D80" s="65">
+      <c r="D80" s="64">
         <f>D79*IF(AND(MONTH(B80)=1,YEAR(B80)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
-      <c r="E80" s="65">
+      <c r="E80" s="64">
         <f>IF(B80=Inputs!$C$1,D80,E79)</f>
         <v>1</v>
       </c>
-      <c r="F80" s="65">
+      <c r="F80" s="64">
         <f>IF(AND(B80&gt;=Inputs!$C$1,B80&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E80,0)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="64">
+      <c r="H80" s="63">
         <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D80</f>
         <v>0</v>
       </c>
-      <c r="I80" s="64">
+      <c r="I80" s="63">
         <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="64">
+      <c r="J80" s="63">
         <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D80</f>
         <v>0</v>
       </c>
-      <c r="K80" s="64">
+      <c r="K80" s="63">
         <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D80</f>
         <v>0</v>
       </c>
-      <c r="M80" s="64">
+      <c r="M80" s="63">
         <f>$F80*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N80" s="64">
+      <c r="N80" s="63">
         <f>$F80*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O80" s="64">
+      <c r="O80" s="63">
         <f>$F80*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P80" s="64">
+      <c r="P80" s="63">
         <f>$F80*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="64">
+      <c r="Q80" s="63">
         <f>$F80*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S80" s="64">
+      <c r="S80" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T80" s="64">
+      <c r="T80" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U80" s="64">
+      <c r="U80" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V80" s="64">
+      <c r="V80" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W80" s="64">
+      <c r="W80" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B81" s="61">
+      <c r="B81" s="60">
         <f t="shared" si="6"/>
         <v>45292</v>
       </c>
-      <c r="D81" s="65">
+      <c r="D81" s="64">
         <f>D80*IF(AND(MONTH(B81)=1,YEAR(B81)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E81" s="65">
+      <c r="E81" s="64">
         <f>IF(B81=Inputs!$C$1,D81,E80)</f>
         <v>1</v>
       </c>
-      <c r="F81" s="65">
+      <c r="F81" s="64">
         <f>IF(AND(B81&gt;=Inputs!$C$1,B81&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E81,0)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="64">
+      <c r="H81" s="63">
         <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D81</f>
         <v>0</v>
       </c>
-      <c r="I81" s="64">
+      <c r="I81" s="63">
         <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D81</f>
         <v>0</v>
       </c>
-      <c r="J81" s="64">
+      <c r="J81" s="63">
         <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D81</f>
         <v>0</v>
       </c>
-      <c r="K81" s="64">
+      <c r="K81" s="63">
         <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D81</f>
         <v>0</v>
       </c>
-      <c r="M81" s="64">
+      <c r="M81" s="63">
         <f>$F81*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N81" s="64">
+      <c r="N81" s="63">
         <f>$F81*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O81" s="64">
+      <c r="O81" s="63">
         <f>$F81*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P81" s="64">
+      <c r="P81" s="63">
         <f>$F81*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q81" s="64">
+      <c r="Q81" s="63">
         <f>$F81*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S81" s="64">
+      <c r="S81" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T81" s="64">
+      <c r="T81" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U81" s="64">
+      <c r="U81" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V81" s="64">
+      <c r="V81" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W81" s="64">
+      <c r="W81" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B82" s="61">
+      <c r="B82" s="60">
         <f t="shared" si="6"/>
         <v>45323</v>
       </c>
-      <c r="D82" s="65">
+      <c r="D82" s="64">
         <f>D81*IF(AND(MONTH(B82)=1,YEAR(B82)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E82" s="65">
+      <c r="E82" s="64">
         <f>IF(B82=Inputs!$C$1,D82,E81)</f>
         <v>1</v>
       </c>
-      <c r="F82" s="65">
+      <c r="F82" s="64">
         <f>IF(AND(B82&gt;=Inputs!$C$1,B82&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E82,0)</f>
         <v>0</v>
       </c>
-      <c r="H82" s="64">
+      <c r="H82" s="63">
         <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D82</f>
         <v>0</v>
       </c>
-      <c r="I82" s="64">
+      <c r="I82" s="63">
         <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D82</f>
         <v>0</v>
       </c>
-      <c r="J82" s="64">
+      <c r="J82" s="63">
         <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D82</f>
         <v>0</v>
       </c>
-      <c r="K82" s="64">
+      <c r="K82" s="63">
         <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D82</f>
         <v>0</v>
       </c>
-      <c r="M82" s="64">
+      <c r="M82" s="63">
         <f>$F82*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N82" s="64">
+      <c r="N82" s="63">
         <f>$F82*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O82" s="64">
+      <c r="O82" s="63">
         <f>$F82*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P82" s="64">
+      <c r="P82" s="63">
         <f>$F82*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q82" s="64">
+      <c r="Q82" s="63">
         <f>$F82*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S82" s="64">
+      <c r="S82" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T82" s="64">
+      <c r="T82" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U82" s="64">
+      <c r="U82" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V82" s="64">
+      <c r="V82" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W82" s="64">
+      <c r="W82" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B83" s="61">
+      <c r="B83" s="60">
         <f t="shared" si="6"/>
         <v>45352</v>
       </c>
-      <c r="D83" s="65">
+      <c r="D83" s="64">
         <f>D82*IF(AND(MONTH(B83)=1,YEAR(B83)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E83" s="65">
+      <c r="E83" s="64">
         <f>IF(B83=Inputs!$C$1,D83,E82)</f>
         <v>1</v>
       </c>
-      <c r="F83" s="65">
+      <c r="F83" s="64">
         <f>IF(AND(B83&gt;=Inputs!$C$1,B83&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E83,0)</f>
         <v>0</v>
       </c>
-      <c r="H83" s="64">
+      <c r="H83" s="63">
         <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D83</f>
         <v>0</v>
       </c>
-      <c r="I83" s="64">
+      <c r="I83" s="63">
         <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="64">
+      <c r="J83" s="63">
         <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D83</f>
         <v>0</v>
       </c>
-      <c r="K83" s="64">
+      <c r="K83" s="63">
         <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D83</f>
         <v>0</v>
       </c>
-      <c r="M83" s="64">
+      <c r="M83" s="63">
         <f>$F83*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N83" s="64">
+      <c r="N83" s="63">
         <f>$F83*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O83" s="64">
+      <c r="O83" s="63">
         <f>$F83*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P83" s="64">
+      <c r="P83" s="63">
         <f>$F83*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q83" s="64">
+      <c r="Q83" s="63">
         <f>$F83*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S83" s="64">
+      <c r="S83" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T83" s="64">
+      <c r="T83" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U83" s="64">
+      <c r="U83" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V83" s="64">
+      <c r="V83" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W83" s="64">
+      <c r="W83" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B84" s="61">
+      <c r="B84" s="60">
         <f t="shared" si="6"/>
         <v>45383</v>
       </c>
-      <c r="D84" s="65">
+      <c r="D84" s="64">
         <f>D83*IF(AND(MONTH(B84)=1,YEAR(B84)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E84" s="65">
+      <c r="E84" s="64">
         <f>IF(B84=Inputs!$C$1,D84,E83)</f>
         <v>1</v>
       </c>
-      <c r="F84" s="65">
+      <c r="F84" s="64">
         <f>IF(AND(B84&gt;=Inputs!$C$1,B84&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E84,0)</f>
         <v>0</v>
       </c>
-      <c r="H84" s="64">
+      <c r="H84" s="63">
         <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D84</f>
         <v>0</v>
       </c>
-      <c r="I84" s="64">
+      <c r="I84" s="63">
         <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D84</f>
         <v>0</v>
       </c>
-      <c r="J84" s="64">
+      <c r="J84" s="63">
         <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D84</f>
         <v>0</v>
       </c>
-      <c r="K84" s="64">
+      <c r="K84" s="63">
         <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D84</f>
         <v>0</v>
       </c>
-      <c r="M84" s="64">
+      <c r="M84" s="63">
         <f>$F84*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N84" s="64">
+      <c r="N84" s="63">
         <f>$F84*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O84" s="64">
+      <c r="O84" s="63">
         <f>$F84*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P84" s="64">
+      <c r="P84" s="63">
         <f>$F84*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q84" s="64">
+      <c r="Q84" s="63">
         <f>$F84*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S84" s="64">
+      <c r="S84" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T84" s="64">
+      <c r="T84" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U84" s="64">
+      <c r="U84" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V84" s="64">
+      <c r="V84" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W84" s="64">
+      <c r="W84" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B85" s="61">
+      <c r="B85" s="60">
         <f t="shared" si="6"/>
         <v>45413</v>
       </c>
-      <c r="D85" s="65">
+      <c r="D85" s="64">
         <f>D84*IF(AND(MONTH(B85)=1,YEAR(B85)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E85" s="65">
+      <c r="E85" s="64">
         <f>IF(B85=Inputs!$C$1,D85,E84)</f>
         <v>1</v>
       </c>
-      <c r="F85" s="65">
+      <c r="F85" s="64">
         <f>IF(AND(B85&gt;=Inputs!$C$1,B85&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E85,0)</f>
         <v>0</v>
       </c>
-      <c r="H85" s="64">
+      <c r="H85" s="63">
         <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D85</f>
         <v>0</v>
       </c>
-      <c r="I85" s="64">
+      <c r="I85" s="63">
         <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D85</f>
         <v>0</v>
       </c>
-      <c r="J85" s="64">
+      <c r="J85" s="63">
         <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D85</f>
         <v>0</v>
       </c>
-      <c r="K85" s="64">
+      <c r="K85" s="63">
         <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D85</f>
         <v>0</v>
       </c>
-      <c r="M85" s="64">
+      <c r="M85" s="63">
         <f>$F85*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N85" s="64">
+      <c r="N85" s="63">
         <f>$F85*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O85" s="64">
+      <c r="O85" s="63">
         <f>$F85*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P85" s="64">
+      <c r="P85" s="63">
         <f>$F85*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q85" s="64">
+      <c r="Q85" s="63">
         <f>$F85*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S85" s="64">
+      <c r="S85" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T85" s="64">
+      <c r="T85" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U85" s="64">
+      <c r="U85" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V85" s="64">
+      <c r="V85" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W85" s="64">
+      <c r="W85" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B86" s="61">
+      <c r="B86" s="60">
         <f t="shared" si="6"/>
         <v>45444</v>
       </c>
-      <c r="D86" s="65">
+      <c r="D86" s="64">
         <f>D85*IF(AND(MONTH(B86)=1,YEAR(B86)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E86" s="65">
+      <c r="E86" s="64">
         <f>IF(B86=Inputs!$C$1,D86,E85)</f>
         <v>1</v>
       </c>
-      <c r="F86" s="65">
+      <c r="F86" s="64">
         <f>IF(AND(B86&gt;=Inputs!$C$1,B86&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E86,0)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="64">
+      <c r="H86" s="63">
         <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D86</f>
         <v>0</v>
       </c>
-      <c r="I86" s="64">
+      <c r="I86" s="63">
         <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D86</f>
         <v>0</v>
       </c>
-      <c r="J86" s="64">
+      <c r="J86" s="63">
         <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D86</f>
         <v>0</v>
       </c>
-      <c r="K86" s="64">
+      <c r="K86" s="63">
         <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D86</f>
         <v>0</v>
       </c>
-      <c r="M86" s="64">
+      <c r="M86" s="63">
         <f>$F86*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N86" s="64">
+      <c r="N86" s="63">
         <f>$F86*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O86" s="64">
+      <c r="O86" s="63">
         <f>$F86*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P86" s="64">
+      <c r="P86" s="63">
         <f>$F86*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q86" s="64">
+      <c r="Q86" s="63">
         <f>$F86*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S86" s="64">
+      <c r="S86" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T86" s="64">
+      <c r="T86" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U86" s="64">
+      <c r="U86" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V86" s="64">
+      <c r="V86" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W86" s="64">
+      <c r="W86" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B87" s="61">
+      <c r="B87" s="60">
         <f t="shared" si="6"/>
         <v>45474</v>
       </c>
-      <c r="D87" s="65">
+      <c r="D87" s="64">
         <f>D86*IF(AND(MONTH(B87)=1,YEAR(B87)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E87" s="65">
+      <c r="E87" s="64">
         <f>IF(B87=Inputs!$C$1,D87,E86)</f>
         <v>1</v>
       </c>
-      <c r="F87" s="65">
+      <c r="F87" s="64">
         <f>IF(AND(B87&gt;=Inputs!$C$1,B87&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E87,0)</f>
         <v>0</v>
       </c>
-      <c r="H87" s="64">
+      <c r="H87" s="63">
         <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D87</f>
         <v>0</v>
       </c>
-      <c r="I87" s="64">
+      <c r="I87" s="63">
         <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D87</f>
         <v>0</v>
       </c>
-      <c r="J87" s="64">
+      <c r="J87" s="63">
         <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D87</f>
         <v>0</v>
       </c>
-      <c r="K87" s="64">
+      <c r="K87" s="63">
         <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D87</f>
         <v>0</v>
       </c>
-      <c r="M87" s="64">
+      <c r="M87" s="63">
         <f>$F87*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N87" s="64">
+      <c r="N87" s="63">
         <f>$F87*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O87" s="64">
+      <c r="O87" s="63">
         <f>$F87*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P87" s="64">
+      <c r="P87" s="63">
         <f>$F87*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q87" s="64">
+      <c r="Q87" s="63">
         <f>$F87*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S87" s="64">
+      <c r="S87" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T87" s="64">
+      <c r="T87" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U87" s="64">
+      <c r="U87" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V87" s="64">
+      <c r="V87" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W87" s="64">
+      <c r="W87" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B88" s="61">
+      <c r="B88" s="60">
         <f t="shared" si="6"/>
         <v>45505</v>
       </c>
-      <c r="D88" s="65">
+      <c r="D88" s="64">
         <f>D87*IF(AND(MONTH(B88)=1,YEAR(B88)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E88" s="65">
+      <c r="E88" s="64">
         <f>IF(B88=Inputs!$C$1,D88,E87)</f>
         <v>1</v>
       </c>
-      <c r="F88" s="65">
+      <c r="F88" s="64">
         <f>IF(AND(B88&gt;=Inputs!$C$1,B88&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E88,0)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="64">
+      <c r="H88" s="63">
         <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D88</f>
         <v>0</v>
       </c>
-      <c r="I88" s="64">
+      <c r="I88" s="63">
         <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D88</f>
         <v>0</v>
       </c>
-      <c r="J88" s="64">
+      <c r="J88" s="63">
         <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D88</f>
         <v>0</v>
       </c>
-      <c r="K88" s="64">
+      <c r="K88" s="63">
         <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D88</f>
         <v>0</v>
       </c>
-      <c r="M88" s="64">
+      <c r="M88" s="63">
         <f>$F88*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N88" s="64">
+      <c r="N88" s="63">
         <f>$F88*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O88" s="64">
+      <c r="O88" s="63">
         <f>$F88*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P88" s="64">
+      <c r="P88" s="63">
         <f>$F88*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q88" s="64">
+      <c r="Q88" s="63">
         <f>$F88*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S88" s="64">
+      <c r="S88" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T88" s="64">
+      <c r="T88" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U88" s="64">
+      <c r="U88" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V88" s="64">
+      <c r="V88" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W88" s="64">
+      <c r="W88" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B89" s="61">
+      <c r="B89" s="60">
         <f t="shared" si="6"/>
         <v>45536</v>
       </c>
-      <c r="D89" s="65">
+      <c r="D89" s="64">
         <f>D88*IF(AND(MONTH(B89)=1,YEAR(B89)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E89" s="65">
+      <c r="E89" s="64">
         <f>IF(B89=Inputs!$C$1,D89,E88)</f>
         <v>1</v>
       </c>
-      <c r="F89" s="65">
+      <c r="F89" s="64">
         <f>IF(AND(B89&gt;=Inputs!$C$1,B89&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E89,0)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="64">
+      <c r="H89" s="63">
         <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D89</f>
         <v>0</v>
       </c>
-      <c r="I89" s="64">
+      <c r="I89" s="63">
         <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D89</f>
         <v>0</v>
       </c>
-      <c r="J89" s="64">
+      <c r="J89" s="63">
         <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D89</f>
         <v>0</v>
       </c>
-      <c r="K89" s="64">
+      <c r="K89" s="63">
         <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D89</f>
         <v>0</v>
       </c>
-      <c r="M89" s="64">
+      <c r="M89" s="63">
         <f>$F89*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N89" s="64">
+      <c r="N89" s="63">
         <f>$F89*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O89" s="64">
+      <c r="O89" s="63">
         <f>$F89*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P89" s="64">
+      <c r="P89" s="63">
         <f>$F89*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q89" s="64">
+      <c r="Q89" s="63">
         <f>$F89*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S89" s="64">
+      <c r="S89" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T89" s="64">
+      <c r="T89" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U89" s="64">
+      <c r="U89" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V89" s="64">
+      <c r="V89" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W89" s="64">
+      <c r="W89" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B90" s="61">
+      <c r="B90" s="60">
         <f t="shared" si="6"/>
         <v>45566</v>
       </c>
-      <c r="D90" s="65">
+      <c r="D90" s="64">
         <f>D89*IF(AND(MONTH(B90)=1,YEAR(B90)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E90" s="65">
+      <c r="E90" s="64">
         <f>IF(B90=Inputs!$C$1,D90,E89)</f>
         <v>1</v>
       </c>
-      <c r="F90" s="65">
+      <c r="F90" s="64">
         <f>IF(AND(B90&gt;=Inputs!$C$1,B90&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E90,0)</f>
         <v>0</v>
       </c>
-      <c r="H90" s="64">
+      <c r="H90" s="63">
         <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D90</f>
         <v>0</v>
       </c>
-      <c r="I90" s="64">
+      <c r="I90" s="63">
         <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D90</f>
         <v>0</v>
       </c>
-      <c r="J90" s="64">
+      <c r="J90" s="63">
         <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D90</f>
         <v>0</v>
       </c>
-      <c r="K90" s="64">
+      <c r="K90" s="63">
         <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D90</f>
         <v>0</v>
       </c>
-      <c r="M90" s="64">
+      <c r="M90" s="63">
         <f>$F90*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N90" s="64">
+      <c r="N90" s="63">
         <f>$F90*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O90" s="64">
+      <c r="O90" s="63">
         <f>$F90*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P90" s="64">
+      <c r="P90" s="63">
         <f>$F90*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q90" s="64">
+      <c r="Q90" s="63">
         <f>$F90*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S90" s="64">
+      <c r="S90" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T90" s="64">
+      <c r="T90" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U90" s="64">
+      <c r="U90" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V90" s="64">
+      <c r="V90" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W90" s="64">
+      <c r="W90" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B91" s="61">
+      <c r="B91" s="60">
         <f t="shared" si="6"/>
         <v>45597</v>
       </c>
-      <c r="D91" s="65">
+      <c r="D91" s="64">
         <f>D90*IF(AND(MONTH(B91)=1,YEAR(B91)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E91" s="65">
+      <c r="E91" s="64">
         <f>IF(B91=Inputs!$C$1,D91,E90)</f>
         <v>1</v>
       </c>
-      <c r="F91" s="65">
+      <c r="F91" s="64">
         <f>IF(AND(B91&gt;=Inputs!$C$1,B91&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E91,0)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="64">
+      <c r="H91" s="63">
         <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D91</f>
         <v>0</v>
       </c>
-      <c r="I91" s="64">
+      <c r="I91" s="63">
         <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D91</f>
         <v>0</v>
       </c>
-      <c r="J91" s="64">
+      <c r="J91" s="63">
         <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D91</f>
         <v>0</v>
       </c>
-      <c r="K91" s="64">
+      <c r="K91" s="63">
         <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D91</f>
         <v>0</v>
       </c>
-      <c r="M91" s="64">
+      <c r="M91" s="63">
         <f>$F91*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N91" s="64">
+      <c r="N91" s="63">
         <f>$F91*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O91" s="64">
+      <c r="O91" s="63">
         <f>$F91*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P91" s="64">
+      <c r="P91" s="63">
         <f>$F91*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q91" s="64">
+      <c r="Q91" s="63">
         <f>$F91*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S91" s="64">
+      <c r="S91" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T91" s="64">
+      <c r="T91" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U91" s="64">
+      <c r="U91" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V91" s="64">
+      <c r="V91" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W91" s="64">
+      <c r="W91" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B92" s="61">
+      <c r="B92" s="60">
         <f t="shared" si="6"/>
         <v>45627</v>
       </c>
-      <c r="D92" s="65">
+      <c r="D92" s="64">
         <f>D91*IF(AND(MONTH(B92)=1,YEAR(B92)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
-      <c r="E92" s="65">
+      <c r="E92" s="64">
         <f>IF(B92=Inputs!$C$1,D92,E91)</f>
         <v>1</v>
       </c>
-      <c r="F92" s="65">
+      <c r="F92" s="64">
         <f>IF(AND(B92&gt;=Inputs!$C$1,B92&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E92,0)</f>
         <v>0</v>
       </c>
-      <c r="H92" s="64">
+      <c r="H92" s="63">
         <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D92</f>
         <v>0</v>
       </c>
-      <c r="I92" s="64">
+      <c r="I92" s="63">
         <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="64">
+      <c r="J92" s="63">
         <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D92</f>
         <v>0</v>
       </c>
-      <c r="K92" s="64">
+      <c r="K92" s="63">
         <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D92</f>
         <v>0</v>
       </c>
-      <c r="M92" s="64">
+      <c r="M92" s="63">
         <f>$F92*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N92" s="64">
+      <c r="N92" s="63">
         <f>$F92*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O92" s="64">
+      <c r="O92" s="63">
         <f>$F92*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P92" s="64">
+      <c r="P92" s="63">
         <f>$F92*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q92" s="64">
+      <c r="Q92" s="63">
         <f>$F92*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S92" s="64">
+      <c r="S92" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T92" s="64">
+      <c r="T92" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U92" s="64">
+      <c r="U92" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V92" s="64">
+      <c r="V92" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W92" s="64">
+      <c r="W92" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B93" s="61">
+      <c r="B93" s="60">
         <f t="shared" si="6"/>
         <v>45658</v>
       </c>
-      <c r="D93" s="65">
+      <c r="D93" s="64">
         <f>D92*IF(AND(MONTH(B93)=1,YEAR(B93)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0908504703026289</v>
       </c>
-      <c r="E93" s="65">
+      <c r="E93" s="64">
         <f>IF(B93=Inputs!$C$1,D93,E92)</f>
         <v>1</v>
       </c>
-      <c r="F93" s="65">
+      <c r="F93" s="64">
         <f>IF(AND(B93&gt;=Inputs!$C$1,B93&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E93,0)</f>
         <v>0</v>
       </c>
-      <c r="H93" s="64">
+      <c r="H93" s="63">
         <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D93</f>
         <v>0</v>
       </c>
-      <c r="I93" s="64">
+      <c r="I93" s="63">
         <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D93</f>
         <v>0</v>
       </c>
-      <c r="J93" s="64">
+      <c r="J93" s="63">
         <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D93</f>
         <v>0</v>
       </c>
-      <c r="K93" s="64">
+      <c r="K93" s="63">
         <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D93</f>
         <v>0</v>
       </c>
-      <c r="M93" s="64">
+      <c r="M93" s="63">
         <f>$F93*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N93" s="64">
+      <c r="N93" s="63">
         <f>$F93*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O93" s="64">
+      <c r="O93" s="63">
         <f>$F93*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P93" s="64">
+      <c r="P93" s="63">
         <f>$F93*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q93" s="64">
+      <c r="Q93" s="63">
         <f>$F93*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S93" s="64">
+      <c r="S93" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T93" s="64">
+      <c r="T93" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U93" s="64">
+      <c r="U93" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V93" s="64">
+      <c r="V93" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W93" s="64">
+      <c r="W93" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B94" s="61">
+      <c r="B94" s="60">
         <f t="shared" si="6"/>
         <v>45689</v>
       </c>
-      <c r="D94" s="65">
+      <c r="D94" s="64">
         <f>D93*IF(AND(MONTH(B94)=1,YEAR(B94)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0908504703026289</v>
       </c>
-      <c r="E94" s="65">
+      <c r="E94" s="64">
         <f>IF(B94=Inputs!$C$1,D94,E93)</f>
         <v>1</v>
       </c>
-      <c r="F94" s="65">
+      <c r="F94" s="64">
         <f>IF(AND(B94&gt;=Inputs!$C$1,B94&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E94,0)</f>
         <v>0</v>
       </c>
-      <c r="H94" s="64">
+      <c r="H94" s="63">
         <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D94</f>
         <v>0</v>
       </c>
-      <c r="I94" s="64">
+      <c r="I94" s="63">
         <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D94</f>
         <v>0</v>
       </c>
-      <c r="J94" s="64">
+      <c r="J94" s="63">
         <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D94</f>
         <v>0</v>
       </c>
-      <c r="K94" s="64">
+      <c r="K94" s="63">
         <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D94</f>
         <v>0</v>
       </c>
-      <c r="M94" s="64">
+      <c r="M94" s="63">
         <f>$F94*Outputs_Internal!$D$56/12</f>
         <v>0</v>
       </c>
-      <c r="N94" s="64">
+      <c r="N94" s="63">
         <f>$F94*Outputs_Internal!K$56/12</f>
         <v>0</v>
       </c>
-      <c r="O94" s="64">
+      <c r="O94" s="63">
         <f>$F94*Outputs_Internal!L$56/12</f>
         <v>0</v>
       </c>
-      <c r="P94" s="64">
+      <c r="P94" s="63">
         <f>$F94*Outputs_Internal!M$56/12</f>
         <v>0</v>
       </c>
-      <c r="Q94" s="64">
+      <c r="Q94" s="63">
         <f>$F94*Outputs_Internal!N$56/12</f>
         <v>0</v>
       </c>
-      <c r="S94" s="64">
+      <c r="S94" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T94" s="64">
+      <c r="T94" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U94" s="64">
+      <c r="U94" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V94" s="64">
+      <c r="V94" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W94" s="64">
+      <c r="W94" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -11620,13 +11660,13 @@
         <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="65">
         <v>25000</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="65">
         <v>50000</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="77">
         <v>1</v>
       </c>
     </row>
@@ -11654,10 +11694,10 @@
         <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="65">
         <v>50000</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="65">
         <v>100000</v>
       </c>
       <c r="M7" s="24">
@@ -11689,10 +11729,10 @@
         <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="65">
         <v>100000</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="65">
         <v>250000</v>
       </c>
       <c r="M8" s="24">
@@ -11724,10 +11764,10 @@
         <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="65">
         <v>250000</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="65">
         <v>1000000000</v>
       </c>
       <c r="M9" s="24">
@@ -11736,51 +11776,51 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="79">
         <f>IFERROR(SUMPRODUCT(D6:D9,$M$6:$M$9)/SUM(D6:D9),0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="79">
         <f t="shared" ref="E10:H10" si="0">IFERROR(SUMPRODUCT(E6:E9,$M$6:$M$9)/SUM(E6:E9),0)</f>
         <v>0.40444444444444444</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="80">
         <f>SUM(D6:D9)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="80">
         <f t="shared" ref="E11:H11" si="1">SUM(E6:E9)</f>
         <v>225000</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12965,26 +13005,26 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="85">
+      <c r="D68" s="84">
         <f>IF(Inputs!D8="Y", Prices!$C26, 0)</f>
         <v>6750</v>
       </c>
-      <c r="E68" s="85">
+      <c r="E68" s="84">
         <f>IF(Inputs!E8="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
-      <c r="F68" s="85">
+      <c r="F68" s="84">
         <f>IF(Inputs!F8="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
-      <c r="G68" s="85">
+      <c r="G68" s="84">
         <f>IF(Inputs!G8="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="85">
+      <c r="H68" s="84">
         <f>IF(Inputs!H8="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
@@ -12993,7 +13033,7 @@
       <c r="B70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J70" s="90" t="s">
+      <c r="J70" s="89" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13016,7 +13056,7 @@
       <c r="H71" s="29">
         <v>0</v>
       </c>
-      <c r="J71" s="91">
+      <c r="J71" s="90">
         <v>1E-3</v>
       </c>
       <c r="K71" s="23">
@@ -13064,7 +13104,7 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H19 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J72" s="91">
+      <c r="J72" s="90">
         <f>J71+0.0001</f>
         <v>1.1000000000000001E-3</v>
       </c>
@@ -13113,7 +13153,7 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H20 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J73" s="91">
+      <c r="J73" s="90">
         <f t="shared" ref="J73:J77" si="4">J72+0.0001</f>
         <v>1.2000000000000001E-3</v>
       </c>
@@ -13162,7 +13202,7 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J74" s="91">
+      <c r="J74" s="90">
         <f t="shared" si="4"/>
         <v>1.3000000000000002E-3</v>
       </c>
@@ -13211,7 +13251,7 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E24 * IF(Inputs!H21="Y",1-Prices!$L$20,1), 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J75" s="91">
+      <c r="J75" s="90">
         <f t="shared" si="4"/>
         <v>1.4000000000000002E-3</v>
       </c>
@@ -13260,7 +13300,7 @@
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E25, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J76" s="91">
+      <c r="J76" s="90">
         <f t="shared" si="4"/>
         <v>1.5000000000000002E-3</v>
       </c>
@@ -13286,30 +13326,30 @@
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C77" s="82" t="s">
+      <c r="C77" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="85">
+      <c r="D77" s="84">
         <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D8 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
         <v>0</v>
       </c>
-      <c r="E77" s="85">
+      <c r="E77" s="84">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E8 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
         <v>0</v>
       </c>
-      <c r="F77" s="85">
+      <c r="F77" s="84">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F8 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
         <v>0</v>
       </c>
-      <c r="G77" s="85">
+      <c r="G77" s="84">
         <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G8 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
         <v>0</v>
       </c>
-      <c r="H77" s="85">
+      <c r="H77" s="84">
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H8 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J77" s="91">
+      <c r="J77" s="90">
         <f t="shared" si="4"/>
         <v>1.6000000000000003E-3</v>
       </c>
@@ -13617,26 +13657,26 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C86" s="82" t="s">
+      <c r="C86" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="85">
+      <c r="D86" s="84">
         <f t="shared" ref="D86:H86" si="19">D68</f>
         <v>6750</v>
       </c>
-      <c r="E86" s="85">
+      <c r="E86" s="84">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F86" s="85">
+      <c r="F86" s="84">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G86" s="85">
+      <c r="G86" s="84">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H86" s="85">
+      <c r="H86" s="84">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -13812,26 +13852,26 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C95" s="82" t="s">
+      <c r="C95" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="85">
+      <c r="D95" s="84">
         <f t="shared" ref="D95:H95" si="23">D77</f>
         <v>0</v>
       </c>
-      <c r="E95" s="85">
+      <c r="E95" s="84">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F95" s="85">
+      <c r="F95" s="84">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G95" s="85">
+      <c r="G95" s="84">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H95" s="85">
+      <c r="H95" s="84">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -13842,7 +13882,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="89">
+      <c r="A98" s="88">
         <v>2</v>
       </c>
       <c r="C98" t="s">
@@ -13870,7 +13910,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="89">
+      <c r="A99" s="88">
         <v>3</v>
       </c>
       <c r="C99" t="s">
@@ -13898,7 +13938,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="89">
+      <c r="A100" s="88">
         <v>4</v>
       </c>
       <c r="C100" t="s">
@@ -13926,7 +13966,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="89">
+      <c r="A101" s="88">
         <v>5</v>
       </c>
       <c r="C101" t="s">
@@ -13954,7 +13994,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="89">
+      <c r="A102" s="88">
         <v>6</v>
       </c>
       <c r="C102" t="s">
@@ -14295,13 +14335,13 @@
       <c r="E4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="76">
         <v>0.6</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="76">
         <v>0.24</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="76">
         <v>0.2</v>
       </c>
       <c r="K4" t="s">
@@ -14512,10 +14552,10 @@
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="57">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -14777,24 +14817,24 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="83">
+      <c r="C26" s="82">
         <v>6750</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="83">
         <v>0.42</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="83">
         <f t="shared" si="3"/>
         <v>0.252</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="83">
         <f t="shared" si="3"/>
         <v>0.10079999999999999</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="83">
         <f t="shared" si="3"/>
         <v>8.4000000000000005E-2</v>
       </c>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -1176,7 +1176,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1291,7 @@
         <v>116</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>39</v>
@@ -1305,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>39</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>39</v>
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E19" s="55" t="s">
         <v>39</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
@@ -1502,10 +1502,10 @@
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="94" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E23" s="94" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F23" s="94"/>
       <c r="G23" s="94"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="D20" s="1">
         <f>SUM(Calcs!D63, Calcs!D72)</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <f>SUM(Calcs!E63, Calcs!E72)</f>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E22" s="1">
         <f>SUM(Calcs!E65, Calcs!E74)</f>
-        <v>44380</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <f>SUM(Calcs!F65, Calcs!F74)</f>
@@ -2129,11 +2129,11 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D66, Calcs!D75)</f>
-        <v>28000</v>
+        <v>23520</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(Calcs!E66, Calcs!E75)</f>
-        <v>44380</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <f>SUM(Calcs!F66, Calcs!F75)</f>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(Calcs!D67, Calcs!D76)</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(Calcs!E67, Calcs!E76)</f>
-        <v>32740</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <f>SUM(Calcs!F67, Calcs!F76)</f>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="D25" s="1">
         <f>SUM(Calcs!D68, Calcs!D77)</f>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <f>SUM(Calcs!E68, Calcs!E77)</f>
@@ -2239,11 +2239,11 @@
       </c>
       <c r="D28" s="1">
         <f>SUM(Calcs!D98:D102)</f>
-        <v>-33037.5</v>
+        <v>-7056</v>
       </c>
       <c r="E28" s="1">
         <f>SUM(Calcs!E98:E102)</f>
-        <v>-28047</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <f>SUM(Calcs!F98:F102)</f>
@@ -2274,11 +2274,11 @@
       </c>
       <c r="D29" s="1">
         <f>Calcs!D106</f>
-        <v>-43970.625</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <f>Calcs!E106</f>
-        <v>0</v>
+        <v>-24556.5</v>
       </c>
       <c r="F29" s="1">
         <f>Calcs!F106</f>
@@ -2340,11 +2340,11 @@
       </c>
       <c r="D32" s="7">
         <f>SUM(D7:D16, D19:D25, D28:D30)</f>
-        <v>53741.875</v>
+        <v>59464</v>
       </c>
       <c r="E32" s="7">
         <f>SUM(E7:E16, E19:E25, E28:E29)</f>
-        <v>148023</v>
+        <v>30013.5</v>
       </c>
       <c r="F32" s="7">
         <f>SUM(F7:F16, F19:F25, F28:F29)</f>
@@ -2412,11 +2412,11 @@
       </c>
       <c r="D37" s="7">
         <f>(D32/12*Inputs!$C$2+D4)*$C$35</f>
-        <v>171225.625</v>
+        <v>188392</v>
       </c>
       <c r="E37" s="7">
         <f>(E32/12*Inputs!$C$2+E4)*$C$35</f>
-        <v>476819</v>
+        <v>122790.5</v>
       </c>
       <c r="F37" s="7">
         <f>(F32/12*Inputs!$C$2+F4)*$C$35</f>
@@ -2461,13 +2461,13 @@
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>648044.625</v>
+        <v>311182.5</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C42" s="52">
         <f>SUM(D37:H37)</f>
-        <v>648044.625</v>
+        <v>311182.5</v>
       </c>
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D15:H15)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="32">
@@ -2728,11 +2728,11 @@
       </c>
       <c r="K9" s="18">
         <f t="shared" ref="K9:K17" si="3">F9*$D9</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" ref="L9:L16" si="4">G9*$D9</f>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" si="2"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D16:H16)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="74">
@@ -2766,11 +2766,11 @@
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" si="2"/>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="N10" s="18">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D17:H17)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="32">
         <v>0.9</v>
@@ -2804,11 +2804,11 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" si="2"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D18:H18)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="32">
         <v>0.1</v>
@@ -2842,11 +2842,11 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" si="2"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D19:H19)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="32">
         <v>0.1</v>
@@ -2879,15 +2879,15 @@
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="N13" s="18">
         <f>I13*$D13</f>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D20:H20)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="74">
         <v>0.6</v>
@@ -2917,11 +2917,11 @@
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" si="2"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D35" s="18">
         <f>SUM(Calcs!D81:H81)</f>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="F35" s="32">
         <v>0.9</v>
@@ -3583,11 +3583,11 @@
       </c>
       <c r="K35" s="18">
         <f t="shared" si="12"/>
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="12"/>
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="M35" s="18">
         <f t="shared" si="12"/>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D37" s="20">
         <f>SUM(Calcs!D83:H83)</f>
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="F37" s="33">
         <v>0.1</v>
@@ -3659,11 +3659,11 @@
       </c>
       <c r="K37" s="20">
         <f t="shared" ref="K37" si="15">F37*$D37</f>
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="L37" s="20">
         <f t="shared" ref="L37" si="16">G37*$D37</f>
-        <v>50400</v>
+        <v>25200</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ref="M37" si="17">H37*$D37</f>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D84:H84)</f>
-        <v>56000</v>
+        <v>23520</v>
       </c>
       <c r="F38" s="33">
         <v>0.1</v>
@@ -3697,11 +3697,11 @@
       </c>
       <c r="K38" s="20">
         <f t="shared" ref="K38:K39" si="20">F38*$D38</f>
-        <v>5600</v>
+        <v>2352</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" ref="L38:L39" si="21">G38*$D38</f>
-        <v>50400</v>
+        <v>21168</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" ref="M38:M39" si="22">H38*$D38</f>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D85:H85)</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F39" s="33">
         <v>0.1</v>
@@ -3735,11 +3735,11 @@
       </c>
       <c r="K39" s="20">
         <f t="shared" si="20"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" si="21"/>
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" si="22"/>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="D40" s="84">
         <f>SUM(Calcs!D86:H86)</f>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="F40" s="85">
         <v>0.2</v>
@@ -3773,11 +3773,11 @@
       </c>
       <c r="K40" s="84">
         <f t="shared" si="12"/>
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="L40" s="84">
         <f t="shared" si="12"/>
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="M40" s="84">
         <f t="shared" si="12"/>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D46" s="20">
         <f>SUM(Calcs!D92:H92)</f>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="F46" s="31">
         <f>IFERROR((1-G46)*F37/SUM(F37,H37),0)</f>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="L46" s="20">
         <f t="shared" si="24"/>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="M46" s="20">
         <f t="shared" si="25"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D47" s="20">
         <f>SUM(Calcs!D93:H93)</f>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="F47" s="31">
         <f t="shared" ref="F47:F48" si="27">IFERROR((1-G47)*F38/SUM(F38,H38),0)</f>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="L47" s="20">
         <f t="shared" ref="L47:L48" si="31">G47*$D47</f>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="M47" s="20">
         <f t="shared" ref="M47:M48" si="32">H47*$D47</f>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D48" s="20">
         <f>SUM(Calcs!D94:H94)</f>
-        <v>12740.000000000002</v>
+        <v>0</v>
       </c>
       <c r="F48" s="31">
         <f t="shared" si="27"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="L48" s="20">
         <f t="shared" si="31"/>
-        <v>12740.000000000002</v>
+        <v>0</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" si="32"/>
@@ -4104,39 +4104,39 @@
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D28:'Outputs_External'!H28)</f>
-        <v>-61084.5</v>
+        <v>-7056</v>
       </c>
       <c r="F52" s="8">
         <f>IFERROR(SUM(K64:K70)/SUM($K$64:$N$70), 0)</f>
-        <v>0.15194942044257112</v>
+        <v>0.1</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" ref="G52:I52" si="41">IFERROR(SUM(L64:L70)/SUM($K$64:$N$70), 0)</f>
-        <v>0.8261327713382508</v>
+        <v>0.9</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="41"/>
-        <v>2.0231822971548998E-2</v>
+        <v>0</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="41"/>
-        <v>1.6859852476290833E-3</v>
+        <v>0</v>
       </c>
       <c r="K52" s="12">
         <f>F52*$D$52</f>
-        <v>-9281.754373024236</v>
+        <v>-705.6</v>
       </c>
       <c r="L52" s="12">
         <f>G52*$D$52</f>
-        <v>-50463.907270811382</v>
+        <v>-6350.4000000000005</v>
       </c>
       <c r="M52" s="12">
         <f>H52*$D$52</f>
-        <v>-1235.8507903055847</v>
+        <v>0</v>
       </c>
       <c r="N52" s="12">
         <f>I52*$D$52</f>
-        <v>-102.98756585879875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -4145,39 +4145,39 @@
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>-43970.625</v>
+        <v>-24556.5</v>
       </c>
       <c r="F53" s="3">
         <f>IFERROR(SUM(K8:K52)/SUM($K8:$N52), 0)</f>
-        <v>0.21217628558745383</v>
+        <v>0.26147815563779225</v>
       </c>
       <c r="G53" s="3">
         <f>IFERROR(SUM(L8:L52)/SUM($K8:$N52), 0)</f>
-        <v>0.77211104105507178</v>
+        <v>0.7385218443622078</v>
       </c>
       <c r="H53" s="3">
         <f>IFERROR(SUM(M8:M52)/SUM($K8:$N52), 0)</f>
-        <v>1.4504006176130086E-2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="3">
         <f>1-F53-G53-H53</f>
-        <v>1.2086671813443077E-3</v>
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="K53" s="12">
         <f>F53*$D$53</f>
-        <v>-9329.5238874588376</v>
+        <v>-6420.9883289194458</v>
       </c>
       <c r="L53" s="12">
         <f>G53*$D$53</f>
-        <v>-33950.205044592163</v>
+        <v>-18135.511671080556</v>
       </c>
       <c r="M53" s="12">
         <f>H53*$D$53</f>
-        <v>-637.75021656829995</v>
+        <v>0</v>
       </c>
       <c r="N53" s="12">
         <f>I53*$D$53</f>
-        <v>-53.14585138069755</v>
+        <v>2.7263191704207657E-12</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -4229,23 +4229,23 @@
       </c>
       <c r="D56" s="1">
         <f>SUM(Outputs_External!D32:'Outputs_External'!H32)</f>
-        <v>201764.875</v>
+        <v>89477.5</v>
       </c>
       <c r="K56" s="12">
         <f>SUM(K52:K54, K34:K40, K8:K17,K22:K31,K43:K49)</f>
-        <v>42809.721739516928</v>
+        <v>23396.411671080554</v>
       </c>
       <c r="L56" s="12">
         <f t="shared" ref="L56:N56" si="43">SUM(L52:L54, L34:L40, L8:L17,L22:L31,L43:L49)</f>
-        <v>155784.88768459647</v>
+        <v>66081.088328919446</v>
       </c>
       <c r="M56" s="12">
         <f t="shared" si="43"/>
-        <v>2926.3989931261153</v>
+        <v>0</v>
       </c>
       <c r="N56" s="12">
         <f t="shared" si="43"/>
-        <v>243.86658276050372</v>
+        <v>2.7263191704207657E-12</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="D57" s="23">
         <f>SUM(K56:N56)</f>
-        <v>201764.87500000003</v>
+        <v>89477.5</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
@@ -4271,42 +4271,42 @@
       </c>
       <c r="D59" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>648044.625</v>
+        <v>311182.5</v>
       </c>
       <c r="K59" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>136704.1652185508</v>
+        <v>78464.23501324169</v>
       </c>
       <c r="L59" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>501829.66305378941</v>
+        <v>232718.26498675838</v>
       </c>
       <c r="M59" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
-        <v>8779.1969793783483</v>
+        <v>0</v>
       </c>
       <c r="N59" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>731.5997482815111</v>
+        <v>8.178957511262297E-12</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="K60" s="53">
         <f>IFERROR(K59/$D$59, 0)</f>
-        <v>0.21094869079201267</v>
+        <v>0.25214861058459809</v>
       </c>
       <c r="L60" s="53">
         <f>IFERROR(L59/$D$59, 0)</f>
-        <v>0.77437516444764809</v>
+        <v>0.74785138941540219</v>
       </c>
       <c r="M60" s="53">
         <f>IFERROR(M59/$D$59, 0)</f>
-        <v>1.3547210548005622E-2</v>
+        <v>0</v>
       </c>
       <c r="N60" s="53">
         <f>IFERROR(N59/$D$59, 0)</f>
-        <v>1.1289342123337743E-3</v>
+        <v>2.6283475167344877E-17</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -4381,41 +4381,41 @@
       </c>
       <c r="D65" s="23">
         <f>SUM(Calcs!D63:H63)+SUM(Calcs!D72:H72)</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="24">
         <f>IFERROR(SUM(K$35,K$9:K$14,K$44,K$23:K$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>0.59090909090909094</v>
+        <v>0</v>
       </c>
       <c r="G65" s="24">
         <f t="shared" ref="G65" si="45">IFERROR(SUM(L$35,L$9:L$14,L$44,L$23:L$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>0.25151515151515152</v>
+        <v>0</v>
       </c>
       <c r="H65" s="24">
         <f>IFERROR(SUM(M$35,M$9:M$14,M$44,M$23:M$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>0.14545454545454545</v>
+        <v>0</v>
       </c>
       <c r="I65" s="24">
         <f>IFERROR(SUM(N$35,N$9:N$14,N$44,N$23:N$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>1.2121212121212121E-2</v>
+        <v>0</v>
       </c>
       <c r="J65" s="21"/>
       <c r="K65" s="25">
         <f t="shared" si="44"/>
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="L65" s="25">
         <f t="shared" si="44"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="M65" s="25">
         <f t="shared" si="44"/>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="N65" s="25">
         <f t="shared" si="44"/>
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
@@ -4469,16 +4469,16 @@
       </c>
       <c r="D67" s="23">
         <f>SUM(Calcs!D65:H65)+SUM(Calcs!D74:H74)</f>
-        <v>72380</v>
+        <v>28000</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="24">
         <f>IFERROR(SUM(K37,K46)/SUM($K37:$N37,$K46:$N46),0)</f>
-        <v>7.7369439071566737E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G67" s="24">
         <f t="shared" ref="G67:I67" si="47">IFERROR(SUM(L37,L46)/SUM($K37:$N37,$K46:$N46),0)</f>
-        <v>0.92263056092843332</v>
+        <v>0.9</v>
       </c>
       <c r="H67" s="24">
         <f t="shared" si="47"/>
@@ -4491,11 +4491,11 @@
       <c r="J67" s="21"/>
       <c r="K67" s="25">
         <f t="shared" ref="K67:K70" si="48">F67*$D67</f>
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="L67" s="25">
         <f t="shared" ref="L67:L70" si="49">G67*$D67</f>
-        <v>66780</v>
+        <v>25200</v>
       </c>
       <c r="M67" s="25">
         <f t="shared" ref="M67:M70" si="50">H67*$D67</f>
@@ -4513,16 +4513,16 @@
       </c>
       <c r="D68" s="23">
         <f>SUM(Calcs!D66:H66)+SUM(Calcs!D75:H75)</f>
-        <v>72380</v>
+        <v>23520</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="24">
         <f t="shared" ref="F68:F69" si="52">IFERROR(SUM(K38,K47)/SUM($K38:$N38,$K47:$N47),0)</f>
-        <v>7.7369439071566737E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G68" s="24">
         <f t="shared" ref="G68:G69" si="53">IFERROR(SUM(L38,L47)/SUM($K38:$N38,$K47:$N47),0)</f>
-        <v>0.92263056092843332</v>
+        <v>0.9</v>
       </c>
       <c r="H68" s="24">
         <f t="shared" ref="H68:H69" si="54">IFERROR(SUM(M38,M47)/SUM($K38:$N38,$K47:$N47),0)</f>
@@ -4535,11 +4535,11 @@
       <c r="J68" s="21"/>
       <c r="K68" s="25">
         <f t="shared" ref="K68:K69" si="56">F68*$D68</f>
-        <v>5600</v>
+        <v>2352</v>
       </c>
       <c r="L68" s="25">
         <f t="shared" ref="L68:L69" si="57">G68*$D68</f>
-        <v>66780</v>
+        <v>21168</v>
       </c>
       <c r="M68" s="25">
         <f t="shared" ref="M68:M69" si="58">H68*$D68</f>
@@ -4557,16 +4557,16 @@
       </c>
       <c r="D69" s="23">
         <f>SUM(Calcs!D67:H67)+SUM(Calcs!D76:H76)</f>
-        <v>52740</v>
+        <v>0</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="24">
         <f t="shared" si="52"/>
-        <v>7.584376185058779E-2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="24">
         <f t="shared" si="53"/>
-        <v>0.92415623814941217</v>
+        <v>0</v>
       </c>
       <c r="H69" s="24">
         <f t="shared" si="54"/>
@@ -4579,11 +4579,11 @@
       <c r="J69" s="21"/>
       <c r="K69" s="25">
         <f t="shared" si="56"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L69" s="25">
         <f t="shared" si="57"/>
-        <v>48740</v>
+        <v>0</v>
       </c>
       <c r="M69" s="25">
         <f t="shared" si="58"/>
@@ -4601,16 +4601,16 @@
       </c>
       <c r="D70" s="23">
         <f>SUM(Calcs!D68:H68)+SUM(Calcs!D77:H77)</f>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="24">
         <f t="shared" ref="F70" si="60">IFERROR(SUM(K40,K49)/SUM($K40:$N40,$K49:$N49),0)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G70" s="24">
         <f t="shared" ref="G70" si="61">IFERROR(SUM(L40,L49)/SUM($K40:$N40,$K49:$N49),0)</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H70" s="24">
         <f t="shared" ref="H70" si="62">IFERROR(SUM(M40,M49)/SUM($K40:$N40,$K49:$N49),0)</f>
@@ -4623,11 +4623,11 @@
       <c r="J70" s="21"/>
       <c r="K70" s="25">
         <f t="shared" si="48"/>
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="L70" s="25">
         <f t="shared" si="49"/>
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="M70" s="25">
         <f t="shared" si="50"/>
@@ -5199,23 +5199,23 @@
       </c>
       <c r="M9" s="63">
         <f>$F9*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N9" s="63">
         <f>$F9*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O9" s="63">
         <f>$F9*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P9" s="63">
         <f>$F9*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="63">
         <f>$F9*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S9" s="63">
         <f t="shared" si="1"/>
@@ -5273,23 +5273,23 @@
       </c>
       <c r="M10" s="63">
         <f>$F10*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N10" s="63">
         <f>$F10*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O10" s="63">
         <f>$F10*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P10" s="63">
         <f>$F10*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="63">
         <f>$F10*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S10" s="63">
         <f t="shared" si="1"/>
@@ -5347,43 +5347,43 @@
       </c>
       <c r="M11" s="63">
         <f>$F11*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N11" s="63">
         <f>$F11*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O11" s="63">
         <f>$F11*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P11" s="63">
         <f>$F11*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="63">
         <f>$F11*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S11" s="63">
         <f t="shared" si="1"/>
-        <v>93191.218749999985</v>
+        <v>65119.375000000007</v>
       </c>
       <c r="T11" s="63">
         <f t="shared" si="2"/>
-        <v>18977.430434879232</v>
+        <v>14124.102917770138</v>
       </c>
       <c r="U11" s="63">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>73421.221921149117</v>
+        <v>50995.272082229858</v>
       </c>
       <c r="V11" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W11" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -5421,23 +5421,23 @@
       </c>
       <c r="M12" s="63">
         <f>$F12*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N12" s="63">
         <f>$F12*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O12" s="63">
         <f>$F12*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P12" s="63">
         <f>$F12*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="63">
         <f>$F12*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S12" s="63">
         <f t="shared" si="1"/>
@@ -5495,23 +5495,23 @@
       </c>
       <c r="M13" s="63">
         <f>$F13*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N13" s="63">
         <f>$F13*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O13" s="63">
         <f>$F13*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P13" s="63">
         <f>$F13*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="63">
         <f>$F13*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S13" s="63">
         <f t="shared" si="1"/>
@@ -5569,43 +5569,43 @@
       </c>
       <c r="M14" s="63">
         <f>$F14*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N14" s="63">
         <f>$F14*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O14" s="63">
         <f>$F14*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P14" s="63">
         <f>$F14*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="63">
         <f>$F14*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S14" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T14" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U14" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V14" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W14" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -5643,23 +5643,23 @@
       </c>
       <c r="M15" s="63">
         <f>$F15*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N15" s="63">
         <f>$F15*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O15" s="63">
         <f>$F15*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P15" s="63">
         <f>$F15*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="63">
         <f>$F15*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S15" s="63">
         <f t="shared" si="1"/>
@@ -5717,23 +5717,23 @@
       </c>
       <c r="M16" s="63">
         <f>$F16*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N16" s="63">
         <f>$F16*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O16" s="63">
         <f>$F16*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P16" s="63">
         <f>$F16*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="63">
         <f>$F16*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S16" s="63">
         <f t="shared" si="1"/>
@@ -5791,43 +5791,43 @@
       </c>
       <c r="M17" s="63">
         <f>$F17*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N17" s="63">
         <f>$F17*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O17" s="63">
         <f>$F17*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P17" s="63">
         <f>$F17*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="63">
         <f>$F17*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S17" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T17" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U17" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V17" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W17" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -5865,23 +5865,23 @@
       </c>
       <c r="M18" s="63">
         <f>$F18*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N18" s="63">
         <f>$F18*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O18" s="63">
         <f>$F18*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P18" s="63">
         <f>$F18*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="63">
         <f>$F18*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S18" s="63">
         <f t="shared" si="1"/>
@@ -5939,23 +5939,23 @@
       </c>
       <c r="M19" s="63">
         <f>$F19*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N19" s="63">
         <f>$F19*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O19" s="63">
         <f>$F19*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P19" s="63">
         <f>$F19*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="63">
         <f>$F19*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S19" s="63">
         <f t="shared" si="1"/>
@@ -6013,43 +6013,43 @@
       </c>
       <c r="M20" s="63">
         <f>$F20*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N20" s="63">
         <f>$F20*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O20" s="63">
         <f>$F20*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P20" s="63">
         <f>$F20*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="63">
         <f>$F20*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S20" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T20" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U20" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V20" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W20" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -6087,23 +6087,23 @@
       </c>
       <c r="M21" s="63">
         <f>$F21*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N21" s="63">
         <f>$F21*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O21" s="63">
         <f>$F21*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P21" s="63">
         <f>$F21*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="63">
         <f>$F21*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S21" s="63">
         <f t="shared" si="1"/>
@@ -6161,23 +6161,23 @@
       </c>
       <c r="M22" s="63">
         <f>$F22*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N22" s="63">
         <f>$F22*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O22" s="63">
         <f>$F22*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P22" s="63">
         <f>$F22*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="63">
         <f>$F22*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S22" s="63">
         <f t="shared" si="1"/>
@@ -6235,43 +6235,43 @@
       </c>
       <c r="M23" s="63">
         <f>$F23*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N23" s="63">
         <f>$F23*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O23" s="63">
         <f>$F23*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P23" s="63">
         <f>$F23*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="63">
         <f>$F23*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S23" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T23" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U23" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V23" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W23" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -6309,23 +6309,23 @@
       </c>
       <c r="M24" s="63">
         <f>$F24*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N24" s="63">
         <f>$F24*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O24" s="63">
         <f>$F24*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P24" s="63">
         <f>$F24*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="63">
         <f>$F24*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S24" s="63">
         <f t="shared" si="1"/>
@@ -6383,23 +6383,23 @@
       </c>
       <c r="M25" s="63">
         <f>$F25*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N25" s="63">
         <f>$F25*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O25" s="63">
         <f>$F25*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P25" s="63">
         <f>$F25*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="63">
         <f>$F25*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S25" s="63">
         <f t="shared" si="1"/>
@@ -6457,43 +6457,43 @@
       </c>
       <c r="M26" s="63">
         <f>$F26*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N26" s="63">
         <f>$F26*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O26" s="63">
         <f>$F26*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P26" s="63">
         <f>$F26*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="63">
         <f>$F26*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S26" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T26" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U26" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V26" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W26" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -6531,23 +6531,23 @@
       </c>
       <c r="M27" s="63">
         <f>$F27*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N27" s="63">
         <f>$F27*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O27" s="63">
         <f>$F27*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S27" s="63">
         <f t="shared" si="1"/>
@@ -6605,23 +6605,23 @@
       </c>
       <c r="M28" s="63">
         <f>$F28*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N28" s="63">
         <f>$F28*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O28" s="63">
         <f>$F28*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S28" s="63">
         <f t="shared" si="1"/>
@@ -6679,43 +6679,43 @@
       </c>
       <c r="M29" s="63">
         <f>$F29*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N29" s="63">
         <f>$F29*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O29" s="63">
         <f>$F29*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S29" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T29" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U29" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V29" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W29" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -6753,23 +6753,23 @@
       </c>
       <c r="M30" s="63">
         <f>$F30*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N30" s="63">
         <f>$F30*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O30" s="63">
         <f>$F30*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S30" s="63">
         <f t="shared" si="1"/>
@@ -6827,23 +6827,23 @@
       </c>
       <c r="M31" s="63">
         <f>$F31*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N31" s="63">
         <f>$F31*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O31" s="63">
         <f>$F31*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S31" s="63">
         <f t="shared" si="1"/>
@@ -6901,43 +6901,43 @@
       </c>
       <c r="M32" s="63">
         <f>$F32*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N32" s="63">
         <f>$F32*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O32" s="63">
         <f>$F32*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S32" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T32" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U32" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V32" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W32" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -6975,23 +6975,23 @@
       </c>
       <c r="M33" s="63">
         <f>$F33*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N33" s="63">
         <f>$F33*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O33" s="63">
         <f>$F33*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S33" s="63">
         <f t="shared" si="1"/>
@@ -7049,23 +7049,23 @@
       </c>
       <c r="M34" s="63">
         <f>$F34*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N34" s="63">
         <f>$F34*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O34" s="63">
         <f>$F34*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S34" s="63">
         <f t="shared" si="1"/>
@@ -7123,43 +7123,43 @@
       </c>
       <c r="M35" s="63">
         <f>$F35*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N35" s="63">
         <f>$F35*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O35" s="63">
         <f>$F35*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S35" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T35" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U35" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V35" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W35" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -7197,23 +7197,23 @@
       </c>
       <c r="M36" s="63">
         <f>$F36*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N36" s="63">
         <f>$F36*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O36" s="63">
         <f>$F36*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S36" s="63">
         <f t="shared" si="1"/>
@@ -7271,23 +7271,23 @@
       </c>
       <c r="M37" s="63">
         <f>$F37*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N37" s="63">
         <f>$F37*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O37" s="63">
         <f>$F37*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S37" s="63">
         <f t="shared" si="1"/>
@@ -7345,43 +7345,43 @@
       </c>
       <c r="M38" s="63">
         <f>$F38*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N38" s="63">
         <f>$F38*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O38" s="63">
         <f>$F38*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S38" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T38" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U38" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V38" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W38" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -7419,23 +7419,23 @@
       </c>
       <c r="M39" s="63">
         <f>$F39*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N39" s="63">
         <f>$F39*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O39" s="63">
         <f>$F39*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S39" s="63">
         <f t="shared" si="1"/>
@@ -7493,23 +7493,23 @@
       </c>
       <c r="M40" s="63">
         <f>$F40*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N40" s="63">
         <f>$F40*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O40" s="63">
         <f>$F40*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S40" s="63">
         <f t="shared" si="1"/>
@@ -7567,43 +7567,43 @@
       </c>
       <c r="M41" s="63">
         <f>$F41*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N41" s="63">
         <f>$F41*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O41" s="63">
         <f>$F41*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S41" s="63">
         <f t="shared" si="1"/>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T41" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U41" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V41" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W41" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -7641,23 +7641,23 @@
       </c>
       <c r="M42" s="63">
         <f>$F42*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N42" s="63">
         <f>$F42*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O42" s="63">
         <f>$F42*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S42" s="63">
         <f t="shared" si="1"/>
@@ -7715,23 +7715,23 @@
       </c>
       <c r="M43" s="63">
         <f>$F43*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N43" s="63">
         <f>$F43*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O43" s="63">
         <f>$F43*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S43" s="63">
         <f t="shared" si="1"/>
@@ -7789,43 +7789,43 @@
       </c>
       <c r="M44" s="63">
         <f>$F44*Outputs_Internal!$D$56/12</f>
-        <v>16813.739583333332</v>
+        <v>7456.458333333333</v>
       </c>
       <c r="N44" s="63">
         <f>$F44*Outputs_Internal!K$56/12</f>
-        <v>3567.4768116264108</v>
+        <v>1949.7009725900461</v>
       </c>
       <c r="O44" s="63">
         <f>$F44*Outputs_Internal!L$56/12</f>
-        <v>12982.073973716373</v>
+        <v>5506.7573607432869</v>
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!M$56/12</f>
-        <v>243.8665827605096</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!N$56/12</f>
-        <v>20.322215230041976</v>
+        <v>2.2719326420173047E-13</v>
       </c>
       <c r="S44" s="63">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>50441.21875</v>
+        <v>22369.375</v>
       </c>
       <c r="T44" s="63">
         <f t="shared" si="2"/>
-        <v>10702.430434879232</v>
+        <v>5849.1029177701384</v>
       </c>
       <c r="U44" s="63">
         <f t="shared" si="3"/>
-        <v>38946.221921149117</v>
+        <v>16520.272082229862</v>
       </c>
       <c r="V44" s="63">
         <f t="shared" si="4"/>
-        <v>731.59974828152883</v>
+        <v>0</v>
       </c>
       <c r="W44" s="63">
         <f t="shared" si="5"/>
-        <v>60.966645690125929</v>
+        <v>6.8157979260519141E-13</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -11546,7 +11546,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M91" sqref="M91"/>
+      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="D15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E9="Y",Inputs!E$19="Y"), Prices!$C10, 0)</f>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="D16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$19="Y"), Prices!$C11, 0)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E10="Y",Inputs!E$19="Y"), Prices!$C11, 0)</f>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="D17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$19="Y"), Prices!$C12, 0)</f>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="D18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$19="Y"), Prices!$C13, 0)</f>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="D19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$19="Y"), Prices!$C14, 0)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$19="Y"), Prices!$C14, 0)</f>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="D20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$19="Y"), Prices!$C15, 0)</f>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="D63" s="18">
         <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E63" s="18">
         <f>IF(Inputs!E19="Y", Prices!$C21, 0)</f>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="E65" s="20">
         <f>IF(Inputs!E21="Y", Prices!$C23, 0)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="F65" s="20">
         <f>IF(Inputs!F21="Y", Prices!$C23, 0)</f>
@@ -12960,11 +12960,11 @@
       </c>
       <c r="D66" s="20">
         <f>IF(Inputs!D22="Y", Prices!$C24 * IF(Inputs!D21="Y",1-Prices!$L$20,1), 0)</f>
-        <v>28000</v>
+        <v>23520</v>
       </c>
       <c r="E66" s="20">
         <f>IF(Inputs!E22="Y", Prices!$C24 * IF(Inputs!E21="Y",1-Prices!$L$20,1), 0)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="F66" s="20">
         <f>IF(Inputs!F22="Y", Prices!$C24 * IF(Inputs!F21="Y",1-Prices!$L$20,1), 0)</f>
@@ -12985,11 +12985,11 @@
       </c>
       <c r="D67" s="20">
         <f>IF(Inputs!D23="Y", Prices!$C25, 0)</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E67" s="20">
         <f>IF(Inputs!E23="Y", Prices!$C25, 0)</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F67" s="20">
         <f>IF(Inputs!F23="Y", Prices!$C25, 0)</f>
@@ -13010,7 +13010,7 @@
       </c>
       <c r="D68" s="84">
         <f>IF(Inputs!D8="Y", Prices!$C26, 0)</f>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="E68" s="84">
         <f>IF(Inputs!E8="Y", Prices!$C26, 0)</f>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="K72" s="23">
         <f t="shared" ref="K72:O72" si="3">D63+D72+$J72</f>
-        <v>33000.001100000001</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="L72" s="23">
         <f t="shared" si="3"/>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="E74" s="20">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="F74" s="20">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="L74" s="23">
         <f t="shared" si="6"/>
-        <v>44380.001300000004</v>
+        <v>1.3000000000000002E-3</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="6"/>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="E75" s="20">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E24 * IF(Inputs!E21="Y",1-Prices!$L$20,1), 0)))*E$10</f>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="F75" s="20">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E24 * IF(Inputs!F21="Y",1-Prices!$L$20,1), 0)))*F$10</f>
@@ -13257,11 +13257,11 @@
       </c>
       <c r="K75" s="23">
         <f t="shared" ref="K75:O75" si="7">D66+D75+$J75</f>
-        <v>28000.001400000001</v>
+        <v>23520.001400000001</v>
       </c>
       <c r="L75" s="23">
         <f t="shared" si="7"/>
-        <v>44380.001400000001</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="M75" s="23">
         <f t="shared" si="7"/>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="E76" s="20">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E25, 0)))*E$10</f>
-        <v>12740.000000000002</v>
+        <v>0</v>
       </c>
       <c r="F76" s="20">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E25, 0)))*F$10</f>
@@ -13306,11 +13306,11 @@
       </c>
       <c r="K76" s="23">
         <f t="shared" ref="K76:O76" si="8">D67+D76+$J76</f>
-        <v>20000.001499999998</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="L76" s="23">
         <f t="shared" si="8"/>
-        <v>32740.001499999998</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="M76" s="23">
         <f t="shared" si="8"/>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="K77" s="23">
         <f t="shared" ref="K77:O77" si="9">D68+D77+$J77</f>
-        <v>6750.0015999999996</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="9"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="D81" s="18">
         <f>IF(D63=0,0,D63-SUM(D15:D20))</f>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="E81" s="18">
         <f>IF(E63=0,0,E63-SUM(E15:E20))</f>
@@ -13457,7 +13457,7 @@
       </c>
       <c r="K81" s="21">
         <f t="shared" ref="K81:O81" si="12">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K72,K$71:K$77),5))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L81" s="21">
         <f t="shared" si="12"/>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="K82" s="21">
         <f t="shared" ref="K82:O82" si="13">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K73,K$71:K$77),5))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L82" s="21">
         <f t="shared" si="13"/>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="E83" s="20">
         <f>E65</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="F83" s="20">
         <f>F65</f>
@@ -13547,11 +13547,11 @@
       </c>
       <c r="K83" s="21">
         <f t="shared" ref="K83:O83" si="14">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K74,K$71:K$77),5))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83" s="21">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M83" s="21">
         <f t="shared" si="14"/>
@@ -13572,11 +13572,11 @@
       </c>
       <c r="D84" s="20">
         <f t="shared" ref="D84:H84" si="15">D66</f>
-        <v>28000</v>
+        <v>23520</v>
       </c>
       <c r="E84" s="20">
         <f t="shared" si="15"/>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="F84" s="20">
         <f t="shared" si="15"/>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="L84" s="21">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84" s="21">
         <f t="shared" si="16"/>
@@ -13617,11 +13617,11 @@
       </c>
       <c r="D85" s="20">
         <f t="shared" ref="D85:H85" si="17">D67</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E85" s="20">
         <f t="shared" si="17"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F85" s="20">
         <f t="shared" si="17"/>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="L85" s="21">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M85" s="21">
         <f t="shared" si="18"/>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="D86" s="84">
         <f t="shared" ref="D86:H86" si="19">D68</f>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="E86" s="84">
         <f t="shared" si="19"/>
@@ -13682,11 +13682,11 @@
       </c>
       <c r="K86" s="21">
         <f t="shared" ref="K86:O86" si="20">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K77,K$71:K$77),5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L86" s="21">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M86" s="21">
         <f t="shared" si="20"/>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="E92" s="20">
         <f>E74</f>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="F92" s="20">
         <f>F74</f>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="E93" s="20">
         <f t="shared" si="21"/>
-        <v>16380</v>
+        <v>0</v>
       </c>
       <c r="F93" s="20">
         <f t="shared" si="21"/>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="E94" s="20">
         <f t="shared" si="22"/>
-        <v>12740.000000000002</v>
+        <v>0</v>
       </c>
       <c r="F94" s="20">
         <f t="shared" si="22"/>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="D98" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A98, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A98, K$80:K$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-8400</v>
+        <v>-7056</v>
       </c>
       <c r="E98" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A98, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A98, L$80:L$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-13314</v>
+        <v>0</v>
       </c>
       <c r="F98" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A98, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A98, M$80:M$86, 0)))*Prices!$L$5*-1, 0)</f>
@@ -13918,11 +13918,11 @@
       </c>
       <c r="D99" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A99, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A99, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-12600</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A99, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A99, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-14733</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A99, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A99, M$80:M$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="D100" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A100, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A100, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A100, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A100, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="D101" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A101, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A101, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-3037.5</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A101, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A101, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -14027,11 +14027,11 @@
       </c>
       <c r="D104" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D68, D71:D77, D98:D102)</f>
-        <v>97712.5</v>
+        <v>59464</v>
       </c>
       <c r="E104" s="7">
         <f t="shared" ref="E104:H104" si="24">SUM(E38:E47, E50:E59, E62:E68, E71:E77, E98:E102)</f>
-        <v>148023</v>
+        <v>54570</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="24"/>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="D106" s="1">
         <f>IF(D116=1, 0, IF(D116=2, $E$119, IF(D116=3, $E$120, IF(D116=4, $E$121, IF(D116=5, $E$122, "")))))</f>
-        <v>-43970.625</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" ref="E106:H106" si="25">IF(E116=1, 0, IF(E116=2, $E$119, IF(E116=3, $E$120, IF(E116=4, $E$121, IF(E116=5, $E$122, "")))))</f>
-        <v>0</v>
+        <v>-24556.5</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="25"/>
@@ -14108,11 +14108,11 @@
       </c>
       <c r="D110" s="7">
         <f>SUM(D104, D106)</f>
-        <v>53741.875</v>
+        <v>59464</v>
       </c>
       <c r="E110" s="7">
         <f>SUM(E104, E106)</f>
-        <v>148023</v>
+        <v>30013.5</v>
       </c>
       <c r="F110" s="7">
         <f>SUM(F104, F106)</f>
@@ -14134,11 +14134,11 @@
       </c>
       <c r="D113" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D104,$D$104:$H$104),5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113" s="21">
         <f t="shared" ref="E113:H113" si="26">IFERROR(_xlfn.RANK.EQ(E104,$D$104:$H$104),5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" s="21">
         <f t="shared" si="26"/>
@@ -14175,11 +14175,11 @@
       <c r="B115" s="27"/>
       <c r="D115" s="21">
         <f>SUM(D113:D114)</f>
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E115" s="21">
         <f t="shared" ref="E115:H115" si="27">SUM(E113:E114)</f>
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F115" s="21">
         <f t="shared" si="27"/>
@@ -14198,11 +14198,11 @@
       <c r="B116" s="27"/>
       <c r="D116" s="21">
         <f>_xlfn.RANK.EQ(D115, $D$115:$H$115, 5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="21">
         <f t="shared" ref="E116:H116" si="28">_xlfn.RANK.EQ(E115, $D$115:$H$115, 5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" s="21">
         <f t="shared" si="28"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="E119" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(2, $D$116:$H$116, 0))*Prices!$L$10*-1</f>
-        <v>-43970.625</v>
+        <v>-24556.5</v>
       </c>
     </row>
     <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -14279,9 +14279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14698,7 +14696,7 @@
         <v>122</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -14775,22 +14773,22 @@
         <v>118</v>
       </c>
       <c r="C24" s="45">
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E24" s="41">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F24" s="41">
         <f t="shared" ref="F24:H26" si="3">$E24*F$4</f>
-        <v>0.108</v>
+        <v>0.15</v>
       </c>
       <c r="G24" s="41">
         <f t="shared" si="3"/>
-        <v>4.3199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H24" s="41">
         <f t="shared" si="3"/>
-        <v>3.5999999999999997E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Prices" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ACOInsight1">Inputs!$D$18:$D$19</definedName>
+    <definedName name="ACOInsight1">Inputs!$D$19:$D$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="125">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -123,24 +123,6 @@
     <t>PRM Physician Risk and Credibility Adjusted Report</t>
   </si>
   <si>
-    <t>Data Feed #1</t>
-  </si>
-  <si>
-    <t>Data Feed #2</t>
-  </si>
-  <si>
-    <t>Data Feed #3</t>
-  </si>
-  <si>
-    <t>Data Feed #4</t>
-  </si>
-  <si>
-    <t>Data Feed #5</t>
-  </si>
-  <si>
-    <t>Implementation Fees</t>
-  </si>
-  <si>
     <t>Non-CCLF</t>
   </si>
   <si>
@@ -171,18 +153,6 @@
     <t>3rd Most Expensive Product</t>
   </si>
   <si>
-    <t>Most Expensive Datafeed</t>
-  </si>
-  <si>
-    <t>Multi-Datafeed Discounts</t>
-  </si>
-  <si>
-    <t>2nd Most Expensive Datafeed</t>
-  </si>
-  <si>
-    <t>3rd Most Expensive Datafeed</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -190,9 +160,6 @@
   </si>
   <si>
     <t>Multi-Product Discount</t>
-  </si>
-  <si>
-    <t>Datafeed Total</t>
   </si>
   <si>
     <t>Product Ranking #1</t>
@@ -208,18 +175,6 @@
   </si>
   <si>
     <t>Product Ranking #5</t>
-  </si>
-  <si>
-    <t>Datafeed Discounts</t>
-  </si>
-  <si>
-    <t>4th Most Expensive Datafeed</t>
-  </si>
-  <si>
-    <t>5th Most Expensive Datafeed</t>
-  </si>
-  <si>
-    <t>Discounted Datafeed Total</t>
   </si>
   <si>
     <t>Annual Data Fees:</t>
@@ -244,9 +199,6 @@
   </si>
   <si>
     <t>Datamart Discounts</t>
-  </si>
-  <si>
-    <t>Datafeed Rank</t>
   </si>
   <si>
     <t>Totals</t>
@@ -439,6 +391,57 @@
   </si>
   <si>
     <t>Noise</t>
+  </si>
+  <si>
+    <t>Population #1</t>
+  </si>
+  <si>
+    <t>Population #2</t>
+  </si>
+  <si>
+    <t>Population #3</t>
+  </si>
+  <si>
+    <t>Population #4</t>
+  </si>
+  <si>
+    <t>Population #5</t>
+  </si>
+  <si>
+    <t>Number of Datafeeds</t>
+  </si>
+  <si>
+    <t>Implementation Fees (Per Datafeed)</t>
+  </si>
+  <si>
+    <t>Population Totoal</t>
+  </si>
+  <si>
+    <t>Discounted Population Total</t>
+  </si>
+  <si>
+    <t>Population Rank</t>
+  </si>
+  <si>
+    <t>Population Discounts</t>
+  </si>
+  <si>
+    <t>2nd Most Expensive Population</t>
+  </si>
+  <si>
+    <t>3rd Most Expensive Population</t>
+  </si>
+  <si>
+    <t>4th Most Expensive Population</t>
+  </si>
+  <si>
+    <t>5th Most Expensive Population</t>
+  </si>
+  <si>
+    <t>Most Expensive Population</t>
+  </si>
+  <si>
+    <t>Multi-Population Discounts</t>
   </si>
 </sst>
 </file>
@@ -1170,13 +1173,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L23"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1194,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C1" s="70">
         <v>43101</v>
@@ -1199,7 +1202,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C2" s="71">
         <v>36</v>
@@ -1209,19 +1212,19 @@
       <c r="B3" s="68"/>
       <c r="C3" s="72"/>
       <c r="D3" s="13" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -1243,19 +1246,19 @@
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
@@ -1288,13 +1291,13 @@
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>39</v>
+        <v>113</v>
+      </c>
+      <c r="D8" s="55">
+        <v>1</v>
+      </c>
+      <c r="E8" s="55">
+        <v>3</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
@@ -1302,13 +1305,13 @@
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
@@ -1316,13 +1319,13 @@
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
@@ -1330,13 +1333,13 @@
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
@@ -1344,13 +1347,13 @@
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
@@ -1358,13 +1361,13 @@
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
@@ -1372,13 +1375,13 @@
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
@@ -1386,13 +1389,13 @@
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
@@ -1400,13 +1403,13 @@
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -1414,13 +1417,13 @@
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -1428,13 +1431,13 @@
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
@@ -1442,13 +1445,13 @@
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
@@ -1456,13 +1459,13 @@
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
@@ -1470,13 +1473,13 @@
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
@@ -1484,43 +1487,54 @@
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="56"/>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="95"/>
+      <c r="B23" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:G6 D8:H21 D22:D23">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:H22 D23:D24 D4:H6">
       <formula1>$L$4:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:H7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:H8">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H6">
-      <formula1>$L$4:$L$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,10 +1547,10 @@
   <dimension ref="B2:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,19 +1568,19 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -1584,7 +1598,7 @@
       </c>
       <c r="E4" s="1">
         <f>MAX(Calcs!E4, 0)</f>
-        <v>32750</v>
+        <v>60000</v>
       </c>
       <c r="F4" s="1">
         <f>MAX(Calcs!F4, 0)</f>
@@ -1622,7 +1636,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1663,7 +1677,7 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" s="18">
         <f>SUM(Calcs!D39, Calcs!D51)</f>
@@ -1735,7 +1749,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D41, Calcs!D53)</f>
@@ -1840,7 +1854,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D44, Calcs!D56)</f>
@@ -1945,7 +1959,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D47, Calcs!D59)</f>
@@ -1980,7 +1994,7 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -2125,7 +2139,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D66, Calcs!D75)</f>
@@ -2160,7 +2174,7 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D24" s="1">
         <f>SUM(Calcs!D67, Calcs!D76)</f>
@@ -2195,7 +2209,7 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1">
         <f>SUM(Calcs!D68, Calcs!D77)</f>
@@ -2230,12 +2244,12 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1">
         <f>SUM(Calcs!D98:D102)</f>
@@ -2270,7 +2284,7 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1">
         <f>Calcs!D106</f>
@@ -2305,7 +2319,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1">
         <f>Calcs!D108</f>
@@ -2336,7 +2350,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D32" s="7">
         <f>SUM(D7:D16, D19:D25, D28:D30)</f>
@@ -2382,7 +2396,7 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2408,7 +2422,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7">
         <f>(D32/12*Inputs!$C$2+D4)*$C$35</f>
@@ -2416,7 +2430,7 @@
       </c>
       <c r="E37" s="7">
         <f>(E32/12*Inputs!$C$2+E4)*$C$35</f>
-        <v>122790.5</v>
+        <v>150040.5</v>
       </c>
       <c r="F37" s="7">
         <f>(F32/12*Inputs!$C$2+F4)*$C$35</f>
@@ -2455,19 +2469,19 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>311182.5</v>
+        <v>338432.5</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C42" s="52">
         <f>SUM(D37:H37)</f>
-        <v>311182.5</v>
+        <v>338432.5</v>
       </c>
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
@@ -2500,10 +2514,10 @@
   <dimension ref="B1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" s="50" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
@@ -2533,32 +2547,32 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2568,7 +2582,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2607,11 +2621,11 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>32750</v>
+        <v>60000</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10">
@@ -2629,11 +2643,11 @@
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>3275</v>
+        <v>6000</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>29475</v>
+        <v>54000</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
@@ -2655,7 +2669,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2706,7 +2720,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D15:H15)</f>
@@ -2783,7 +2797,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D17:H17)</f>
@@ -2896,7 +2910,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D20:H20)</f>
@@ -3010,7 +3024,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D23:H23)</f>
@@ -3057,7 +3071,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G19" s="48" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H19" s="10">
         <v>0.1</v>
@@ -3078,7 +3092,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -3132,7 +3146,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C23" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D23" s="18">
         <f>SUM(Calcs!D27:H27)</f>
@@ -3216,7 +3230,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D29:H29)</f>
@@ -3339,7 +3353,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D32:H32)</f>
@@ -3462,7 +3476,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D31" s="29">
         <f>SUM(Calcs!D35:H35)</f>
@@ -3512,7 +3526,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -3676,7 +3690,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D84:H84)</f>
@@ -3714,7 +3728,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D85:H85)</f>
@@ -3752,7 +3766,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="81" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D40" s="84">
         <f>SUM(Calcs!D86:H86)</f>
@@ -3795,7 +3809,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -3967,7 +3981,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D47" s="20">
         <f>SUM(Calcs!D93:H93)</f>
@@ -4007,7 +4021,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D48" s="20">
         <f>SUM(Calcs!D94:H94)</f>
@@ -4047,7 +4061,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" s="81" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D49" s="84">
         <f>SUM(Calcs!D95:H95)</f>
@@ -4092,7 +4106,7 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4100,7 +4114,7 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D28:'Outputs_External'!H28)</f>
@@ -4141,7 +4155,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
@@ -4182,7 +4196,7 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1">
         <f>Outputs_External!D30</f>
@@ -4225,7 +4239,7 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1">
         <f>SUM(Outputs_External!D32:'Outputs_External'!H32)</f>
@@ -4250,7 +4264,7 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" s="21" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D57" s="23">
         <f>SUM(K56:N56)</f>
@@ -4267,19 +4281,19 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D59" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>311182.5</v>
+        <v>338432.5</v>
       </c>
       <c r="K59" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>78464.23501324169</v>
+        <v>81189.23501324169</v>
       </c>
       <c r="L59" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>232718.26498675838</v>
+        <v>257243.26498675841</v>
       </c>
       <c r="M59" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
@@ -4294,11 +4308,11 @@
       <c r="D60" s="1"/>
       <c r="K60" s="53">
         <f>IFERROR(K59/$D$59, 0)</f>
-        <v>0.25214861058459809</v>
+        <v>0.23989786741297509</v>
       </c>
       <c r="L60" s="53">
         <f>IFERROR(L59/$D$59, 0)</f>
-        <v>0.74785138941540219</v>
+        <v>0.76010213258702519</v>
       </c>
       <c r="M60" s="53">
         <f>IFERROR(M59/$D$59, 0)</f>
@@ -4306,7 +4320,7 @@
       </c>
       <c r="N60" s="53">
         <f>IFERROR(N59/$D$59, 0)</f>
-        <v>2.6283475167344877E-17</v>
+        <v>2.4167175171599351E-17</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -4316,7 +4330,7 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="27" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
@@ -4509,7 +4523,7 @@
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="27"/>
       <c r="C68" s="21" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D68" s="23">
         <f>SUM(Calcs!D66:H66)+SUM(Calcs!D75:H75)</f>
@@ -4553,7 +4567,7 @@
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="27"/>
       <c r="C69" s="21" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D69" s="23">
         <f>SUM(Calcs!D67:H67)+SUM(Calcs!D76:H76)</f>
@@ -4597,7 +4611,7 @@
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="27"/>
       <c r="C70" s="21" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D70" s="23">
         <f>SUM(Calcs!D68:H68)+SUM(Calcs!D77:H77)</f>
@@ -4649,7 +4663,7 @@
   <dimension ref="B1:W94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
@@ -4680,20 +4694,20 @@
         <v>36</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
       <c r="M1" s="61" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
       <c r="P1" s="61"/>
       <c r="Q1" s="61"/>
       <c r="S1" s="61" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="T1" s="61"/>
       <c r="U1" s="61"/>
@@ -4701,60 +4715,60 @@
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="G2" s="59"/>
       <c r="H2" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="62" t="s">
+      <c r="Q2" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q2" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="62" t="s">
-        <v>97</v>
-      </c>
       <c r="W2" s="62" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -5183,15 +5197,15 @@
       </c>
       <c r="H9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
-        <v>42750</v>
+        <v>70000</v>
       </c>
       <c r="I9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
-        <v>8275</v>
+        <v>11000</v>
       </c>
       <c r="J9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D9</f>
-        <v>34475</v>
+        <v>59000</v>
       </c>
       <c r="K9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D9</f>
@@ -5367,15 +5381,15 @@
       </c>
       <c r="S11" s="63">
         <f t="shared" si="1"/>
-        <v>65119.375000000007</v>
+        <v>92369.374999999985</v>
       </c>
       <c r="T11" s="63">
         <f t="shared" si="2"/>
-        <v>14124.102917770138</v>
+        <v>16849.102917770138</v>
       </c>
       <c r="U11" s="63">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>50995.272082229858</v>
+        <v>75520.272082229858</v>
       </c>
       <c r="V11" s="63">
         <f t="shared" si="4"/>
@@ -11543,10 +11557,10 @@
   <dimension ref="A2:O126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
+      <selection pane="bottomRight" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11560,34 +11574,34 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -11600,23 +11614,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))</f>
+        <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))*Inputs!D8</f>
         <v>10000</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))</f>
-        <v>32750</v>
+        <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))*Inputs!E8</f>
+        <v>60000</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(AND(Inputs!F5="Y",Inputs!F4="Y"), 0, IF(Inputs!F4="Y", SUM(Prices!$C$3, IF(Inputs!F$6 ="Y", Prices!$C$4, 0)), IF(Inputs!F4="N", Prices!$D$3, 0)))</f>
+        <f>IF(AND(Inputs!F5="Y",Inputs!F4="Y"), 0, IF(Inputs!F4="Y", SUM(Prices!$C$3, IF(Inputs!F$6 ="Y", Prices!$C$4, 0)), IF(Inputs!F4="N", Prices!$D$3, 0)))*Inputs!F8</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>IF(AND(Inputs!G5="Y",Inputs!G4="Y"), 0, IF(Inputs!G4="Y", SUM(Prices!$C$3, IF(Inputs!G$6 ="Y", Prices!$C$4, 0)), IF(Inputs!G4="N", Prices!$D$3, 0)))</f>
+        <f>IF(AND(Inputs!G5="Y",Inputs!G4="Y"), 0, IF(Inputs!G4="Y", SUM(Prices!$C$3, IF(Inputs!G$6 ="Y", Prices!$C$4, 0)), IF(Inputs!G4="N", Prices!$D$3, 0)))*Inputs!G8</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(AND(Inputs!H5="Y",Inputs!H4="Y"), 0, IF(Inputs!H4="Y", SUM(Prices!$C$3, IF(Inputs!H$6 ="Y", Prices!$C$4, 0)), IF(Inputs!H4="N", Prices!$D$3, 0)))</f>
+        <f>IF(AND(Inputs!H5="Y",Inputs!H4="Y"), 0, IF(Inputs!H4="Y", SUM(Prices!$C$3, IF(Inputs!H$6 ="Y", Prices!$C$4, 0)), IF(Inputs!H4="N", Prices!$D$3, 0)))*Inputs!H8</f>
         <v>0</v>
       </c>
     </row>
@@ -11627,18 +11641,18 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="K5" s="22" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5">
         <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K6,0),$L6-$K6),0)</f>
@@ -11672,7 +11686,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5">
         <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K7,0),$L7-$K7),0)</f>
@@ -11707,7 +11721,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5">
         <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K8,0),$L8-$K8),0)</f>
@@ -11742,7 +11756,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D9" s="5">
         <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K9,0),$L9-$K9),0)</f>
@@ -11777,7 +11791,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="78" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D10" s="79">
         <f>IFERROR(SUMPRODUCT(D6:D9,$M$6:$M$9)/SUM(D6:D9),0)</f>
@@ -11802,7 +11816,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="78" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D11" s="80">
         <f>SUM(D6:D9)</f>
@@ -11834,7 +11848,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -11864,26 +11878,26 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$20="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E9="Y",Inputs!E$19="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E10="Y",Inputs!E$20="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F9="Y",Inputs!F$19="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F10="Y",Inputs!F$20="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G9="Y",Inputs!G$19="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G10="Y",Inputs!G$20="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H9="Y",Inputs!H$19="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H10="Y",Inputs!H$20="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11892,48 +11906,48 @@
         <v>8</v>
       </c>
       <c r="D16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$19="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$20="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E10="Y",Inputs!E$19="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$20="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F10="Y",Inputs!F$19="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$20="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G10="Y",Inputs!G$19="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$20="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H10="Y",Inputs!H$19="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H11="Y",Inputs!H$20="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$20="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$19="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$20="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$19="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$20="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$19="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$20="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H11="Y",Inputs!H$19="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$20="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11942,23 +11956,23 @@
         <v>9</v>
       </c>
       <c r="D18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$20="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$19="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$20="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$19="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$20="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$19="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$20="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$19="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H13="Y",Inputs!H$20="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11967,48 +11981,48 @@
         <v>10</v>
       </c>
       <c r="D19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$19="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$20="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$19="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$20="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$19="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$20="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$19="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$20="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H13="Y",Inputs!H$19="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H14="Y",Inputs!H$20="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$19="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$20="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$19="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$20="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$19="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$20="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H14="Y",Inputs!H$19="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$20="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12017,23 +12031,23 @@
         <v>11</v>
       </c>
       <c r="D21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$21="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$20="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$21="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$20="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$21="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$20="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$21="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$20="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$21="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12042,54 +12056,54 @@
         <v>12</v>
       </c>
       <c r="D22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$20="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$21="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="E22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$20="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$21="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$20="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$21="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$20="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$21="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$20="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$21="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$20="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$21="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$20="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$21="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$20="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$21="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="G23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$20="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$21="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$20="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H18="Y",Inputs!H$21="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -12119,26 +12133,26 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D27" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E27" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E9="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F9="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F10="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G9="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G10="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H27" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H9="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H10="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12147,48 +12161,48 @@
         <v>8</v>
       </c>
       <c r="D28" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E28" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F10="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G10="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H28" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H10="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D29" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E29" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G29" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H29" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12197,23 +12211,23 @@
         <v>9</v>
       </c>
       <c r="D30" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E30" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G30" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H30" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12222,48 +12236,48 @@
         <v>10</v>
       </c>
       <c r="D31" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E31" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F31" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G31" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H31" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E14),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E14),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D32" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E32" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G32" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H32" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E15),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E15),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12272,23 +12286,23 @@
         <v>11</v>
       </c>
       <c r="D33" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E33" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F33" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G33" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H33" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12297,29 +12311,29 @@
         <v>12</v>
       </c>
       <c r="D34" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D17="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E34" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E17="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F34" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G34" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H34" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H17="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D35" s="29">
         <v>0</v>
@@ -12346,7 +12360,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -12376,26 +12390,26 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D39" s="18">
-        <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!D10="Y",Inputs!D$20="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="E39" s="18">
-        <f>IF(AND(Inputs!E9="Y",Inputs!E$19="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!E10="Y",Inputs!E$20="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="18">
-        <f>IF(AND(Inputs!F9="Y",Inputs!F$19="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!F10="Y",Inputs!F$20="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="18">
-        <f>IF(AND(Inputs!G9="Y",Inputs!G$19="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!G10="Y",Inputs!G$20="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="H39" s="18">
-        <f>IF(AND(Inputs!H9="Y",Inputs!H$19="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!H10="Y",Inputs!H$20="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12404,48 +12418,48 @@
         <v>8</v>
       </c>
       <c r="D40" s="18">
-        <f>IF(AND(Inputs!D10="Y",Inputs!D$19="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!D11="Y",Inputs!D$20="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="E40" s="18">
-        <f>IF(AND(Inputs!E10="Y",Inputs!E$19="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!E11="Y",Inputs!E$20="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="F40" s="18">
-        <f>IF(AND(Inputs!F10="Y",Inputs!F$19="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!F11="Y",Inputs!F$20="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="18">
-        <f>IF(AND(Inputs!G10="Y",Inputs!G$19="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!G11="Y",Inputs!G$20="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="18">
-        <f>IF(AND(Inputs!H10="Y",Inputs!H$19="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!H11="Y",Inputs!H$20="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D41" s="18">
-        <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!D12="Y",Inputs!D$20="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="E41" s="18">
-        <f>IF(AND(Inputs!E11="Y",Inputs!E$19="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!E12="Y",Inputs!E$20="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="F41" s="18">
-        <f>IF(AND(Inputs!F11="Y",Inputs!F$19="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!F12="Y",Inputs!F$20="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="G41" s="18">
-        <f>IF(AND(Inputs!G11="Y",Inputs!G$19="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!G12="Y",Inputs!G$20="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="18">
-        <f>IF(AND(Inputs!H11="Y",Inputs!H$19="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!H12="Y",Inputs!H$20="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12454,23 +12468,23 @@
         <v>9</v>
       </c>
       <c r="D42" s="18">
-        <f>IF(AND(Inputs!D12="Y",Inputs!D$19="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!D13="Y",Inputs!D$20="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="18">
-        <f>IF(AND(Inputs!E12="Y",Inputs!E$19="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!E13="Y",Inputs!E$20="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="F42" s="18">
-        <f>IF(AND(Inputs!F12="Y",Inputs!F$19="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!F13="Y",Inputs!F$20="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="18">
-        <f>IF(AND(Inputs!G12="Y",Inputs!G$19="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!G13="Y",Inputs!G$20="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="18">
-        <f>IF(AND(Inputs!H12="Y",Inputs!H$19="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!H13="Y",Inputs!H$20="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12479,48 +12493,48 @@
         <v>10</v>
       </c>
       <c r="D43" s="18">
-        <f>IF(AND(Inputs!D13="Y",Inputs!D$19="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!D14="Y",Inputs!D$20="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="E43" s="18">
-        <f>IF(AND(Inputs!E13="Y",Inputs!E$19="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!E14="Y",Inputs!E$20="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="F43" s="18">
-        <f>IF(AND(Inputs!F13="Y",Inputs!F$19="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!F14="Y",Inputs!F$20="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="18">
-        <f>IF(AND(Inputs!G13="Y",Inputs!G$19="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!G14="Y",Inputs!G$20="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="18">
-        <f>IF(AND(Inputs!H13="Y",Inputs!H$19="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!H14="Y",Inputs!H$20="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D44" s="18">
-        <f>IF(AND(Inputs!D14="Y",Inputs!D$19="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="E44" s="18">
-        <f>IF(AND(Inputs!E14="Y",Inputs!E$19="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!E15="Y",Inputs!E$20="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="F44" s="18">
-        <f>IF(AND(Inputs!F14="Y",Inputs!F$19="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!F15="Y",Inputs!F$20="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="18">
-        <f>IF(AND(Inputs!G14="Y",Inputs!G$19="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!G15="Y",Inputs!G$20="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="18">
-        <f>IF(AND(Inputs!H14="Y",Inputs!H$19="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!H15="Y",Inputs!H$20="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12529,23 +12543,23 @@
         <v>11</v>
       </c>
       <c r="D45" s="20">
-        <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!D16="Y",Inputs!D$21="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="E45" s="20">
-        <f>IF(AND(Inputs!E15="Y",Inputs!E$20="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!E16="Y",Inputs!E$21="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="F45" s="20">
-        <f>IF(AND(Inputs!F15="Y",Inputs!F$20="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!F16="Y",Inputs!F$21="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="20">
-        <f>IF(AND(Inputs!G15="Y",Inputs!G$20="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!G16="Y",Inputs!G$21="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="H45" s="20">
-        <f>IF(AND(Inputs!H15="Y",Inputs!H$20="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!H16="Y",Inputs!H$21="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12554,54 +12568,54 @@
         <v>12</v>
       </c>
       <c r="D46" s="20">
-        <f>IF(AND(Inputs!D16="Y",Inputs!D$20="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!D17="Y",Inputs!D$21="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="E46" s="20">
-        <f>IF(AND(Inputs!E16="Y",Inputs!E$20="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!E17="Y",Inputs!E$21="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="F46" s="20">
-        <f>IF(AND(Inputs!F16="Y",Inputs!F$20="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!F17="Y",Inputs!F$21="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="20">
-        <f>IF(AND(Inputs!G16="Y",Inputs!G$20="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!G17="Y",Inputs!G$21="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="20">
-        <f>IF(AND(Inputs!H16="Y",Inputs!H$20="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!H17="Y",Inputs!H$21="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D47" s="20">
-        <f>IF(AND(Inputs!D17="Y",Inputs!D$20="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!D18="Y",Inputs!D$21="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="E47" s="20">
-        <f>IF(AND(Inputs!E17="Y",Inputs!E$20="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!E18="Y",Inputs!E$21="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="F47" s="20">
-        <f>IF(AND(Inputs!F17="Y",Inputs!F$20="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!F18="Y",Inputs!F$21="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="G47" s="20">
-        <f>IF(AND(Inputs!G17="Y",Inputs!G$20="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!G18="Y",Inputs!G$21="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="H47" s="20">
-        <f>IF(AND(Inputs!H17="Y",Inputs!H$20="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!H18="Y",Inputs!H$21="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -12631,26 +12645,26 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D51" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E10)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E10)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E51" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E9="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F9="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G51" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G9="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G10="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H51" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H9="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H10="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12659,48 +12673,48 @@
         <v>8</v>
       </c>
       <c r="D52" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E11)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E11)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E52" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F52" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G52" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G10="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H52" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H10="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D53" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E12)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E12)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E53" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F53" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G53" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H53" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12709,23 +12723,23 @@
         <v>9</v>
       </c>
       <c r="D54" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E13)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E13)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E54" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F54" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G54" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H54" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12734,48 +12748,48 @@
         <v>10</v>
       </c>
       <c r="D55" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E14)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E14)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E55" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E14)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E14)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F55" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E14)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E14)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G55" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E14)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E14)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H55" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E14)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E14)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D56" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E56" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E15)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E15)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F56" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E15)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E15)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G56" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E15)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E15)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H56" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E15)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E15)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12784,23 +12798,23 @@
         <v>11</v>
       </c>
       <c r="D57" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E57" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F57" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G57" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H57" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12809,29 +12823,29 @@
         <v>12</v>
       </c>
       <c r="D58" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D17="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E58" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E17="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F58" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F17="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G58" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G17="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H58" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H17="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D59" s="29">
         <v>0</v>
@@ -12851,7 +12865,7 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -12859,23 +12873,23 @@
         <v>14</v>
       </c>
       <c r="D62" s="18">
-        <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!D$20 = "Y", 0, IF(Inputs!D19="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="E62" s="18">
-        <f>IF(Inputs!E$19 = "Y", 0, IF(Inputs!E18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!E$20 = "Y", 0, IF(Inputs!E19="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="F62" s="18">
-        <f>IF(Inputs!F$19 = "Y", 0, IF(Inputs!F18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!F$20 = "Y", 0, IF(Inputs!F19="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="G62" s="18">
-        <f>IF(Inputs!G$19 = "Y", 0, IF(Inputs!G18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!G$20 = "Y", 0, IF(Inputs!G19="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="H62" s="18">
-        <f>IF(Inputs!H$19 = "Y", 0, IF(Inputs!H18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!H$20 = "Y", 0, IF(Inputs!H19="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12884,23 +12898,23 @@
         <v>15</v>
       </c>
       <c r="D63" s="18">
-        <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!D20="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="E63" s="18">
-        <f>IF(Inputs!E19="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!E20="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="F63" s="18">
-        <f>IF(Inputs!F19="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!F20="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="G63" s="18">
-        <f>IF(Inputs!G19="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!G20="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="18">
-        <f>IF(Inputs!H19="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!H20="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12909,23 +12923,23 @@
         <v>16</v>
       </c>
       <c r="D64" s="20">
-        <f>IF(Inputs!D20="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!D21="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="E64" s="20">
-        <f>IF(Inputs!E20="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!E21="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="F64" s="20">
-        <f>IF(Inputs!F20="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!F21="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="G64" s="20">
-        <f>IF(Inputs!G20="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!G21="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="20">
-        <f>IF(Inputs!H20="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!H21="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12934,107 +12948,107 @@
         <v>17</v>
       </c>
       <c r="D65" s="20">
-        <f>IF(Inputs!D21="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!D22="Y", Prices!$C23, 0)</f>
         <v>28000</v>
       </c>
       <c r="E65" s="20">
-        <f>IF(Inputs!E21="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!E22="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="F65" s="20">
-        <f>IF(Inputs!F21="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!F22="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="20">
-        <f>IF(Inputs!G21="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!G22="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="20">
-        <f>IF(Inputs!H21="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!H22="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C66" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D66" s="20">
-        <f>IF(Inputs!D22="Y", Prices!$C24 * IF(Inputs!D21="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!D23="Y", Prices!$C24 * IF(Inputs!D22="Y",1-Prices!$L$20,1), 0)</f>
         <v>23520</v>
       </c>
       <c r="E66" s="20">
-        <f>IF(Inputs!E22="Y", Prices!$C24 * IF(Inputs!E21="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!E23="Y", Prices!$C24 * IF(Inputs!E22="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="F66" s="20">
-        <f>IF(Inputs!F22="Y", Prices!$C24 * IF(Inputs!F21="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!F23="Y", Prices!$C24 * IF(Inputs!F22="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="20">
-        <f>IF(Inputs!G22="Y", Prices!$C24 * IF(Inputs!G21="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!G23="Y", Prices!$C24 * IF(Inputs!G22="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="20">
-        <f>IF(Inputs!H22="Y", Prices!$C24 * IF(Inputs!H21="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!H23="Y", Prices!$C24 * IF(Inputs!H22="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D67" s="20">
-        <f>IF(Inputs!D23="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!D24="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="E67" s="20">
-        <f>IF(Inputs!E23="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!E24="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="F67" s="20">
-        <f>IF(Inputs!F23="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!F24="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="G67" s="20">
-        <f>IF(Inputs!G23="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!G24="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="20">
-        <f>IF(Inputs!H23="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!H24="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="81" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D68" s="84">
-        <f>IF(Inputs!D8="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!D9="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="E68" s="84">
-        <f>IF(Inputs!E8="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!E9="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="F68" s="84">
-        <f>IF(Inputs!F8="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!F9="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="G68" s="84">
-        <f>IF(Inputs!G8="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!G9="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="84">
-        <f>IF(Inputs!H8="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!H9="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J70" s="89" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
@@ -13085,23 +13099,23 @@
         <v>15</v>
       </c>
       <c r="D72" s="18">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D19 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D20 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E72" s="18">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E19 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E20 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F72" s="18">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F19 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F20 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G72" s="18">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G19 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G20 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H72" s="18">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H19 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H20 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J72" s="90">
@@ -13134,23 +13148,23 @@
         <v>16</v>
       </c>
       <c r="D73" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D20 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D21 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E73" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E20 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F73" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F20 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G73" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G20 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H73" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H20 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J73" s="90">
@@ -13183,23 +13197,23 @@
         <v>17</v>
       </c>
       <c r="D74" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D21 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E74" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F74" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G74" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H74" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J74" s="90">
@@ -13229,26 +13243,26 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D75" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E24 * IF(Inputs!D21="Y",1-Prices!$L$20,1), 0)))*D$10</f>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D23 = "Y", D$11*Prices!$E24 * IF(Inputs!D22="Y",1-Prices!$L$20,1), 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E75" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E24 * IF(Inputs!E21="Y",1-Prices!$L$20,1), 0)))*E$10</f>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E24 * IF(Inputs!E22="Y",1-Prices!$L$20,1), 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F75" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E24 * IF(Inputs!F21="Y",1-Prices!$L$20,1), 0)))*F$10</f>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E24 * IF(Inputs!F22="Y",1-Prices!$L$20,1), 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G75" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E24 * IF(Inputs!G21="Y",1-Prices!$L$20,1), 0)))*G$10</f>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E24 * IF(Inputs!G22="Y",1-Prices!$L$20,1), 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H75" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E24 * IF(Inputs!H21="Y",1-Prices!$L$20,1), 0)))*H$10</f>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E24 * IF(Inputs!H22="Y",1-Prices!$L$20,1), 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J75" s="90">
@@ -13278,26 +13292,26 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D76" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D23 = "Y", D$11*Prices!$E25, 0)))*D$10</f>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E25, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E76" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E25, 0)))*E$10</f>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E25, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F76" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E25, 0)))*F$10</f>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E25, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G76" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E25, 0)))*G$10</f>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G24 = "Y", G$11*Prices!$E25, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H76" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E25, 0)))*H$10</f>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H24 = "Y", H$11*Prices!$E25, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J76" s="90">
@@ -13327,26 +13341,26 @@
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C77" s="81" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D77" s="84">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D8 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D9 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E77" s="84">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E8 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E9 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F77" s="84">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F8 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F9 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G77" s="84">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G8 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G9 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H77" s="84">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H8 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H9 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J77" s="90">
@@ -13383,7 +13397,7 @@
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
@@ -13568,7 +13582,7 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C84" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D84" s="20">
         <f t="shared" ref="D84:H84" si="15">D66</f>
@@ -13613,7 +13627,7 @@
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C85" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D85" s="20">
         <f t="shared" ref="D85:H85" si="17">D67</f>
@@ -13658,7 +13672,7 @@
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C86" s="81" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D86" s="84">
         <f t="shared" ref="D86:H86" si="19">D68</f>
@@ -13703,7 +13717,7 @@
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
@@ -13803,7 +13817,7 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C93" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D93" s="20">
         <f t="shared" ref="D93:H93" si="21">D75</f>
@@ -13828,7 +13842,7 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C94" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D94" s="20">
         <f t="shared" ref="D94:H94" si="22">D76</f>
@@ -13853,7 +13867,7 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C95" s="81" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D95" s="84">
         <f t="shared" ref="D95:H95" si="23">D77</f>
@@ -13878,7 +13892,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -13886,7 +13900,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D98" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A98, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A98, K$80:K$86, 0)))*Prices!$L$5*-1, 0)</f>
@@ -13914,7 +13928,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D99" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A99, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A99, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13942,7 +13956,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D100" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A100, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A100, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13970,7 +13984,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D101" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A101, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A101, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13998,7 +14012,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A102, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A102, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -14023,7 +14037,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="D104" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D68, D71:D77, D98:D102)</f>
@@ -14051,7 +14065,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D106" s="1">
         <f>IF(D116=1, 0, IF(D116=2, $E$119, IF(D116=3, $E$120, IF(D116=4, $E$121, IF(D116=5, $E$122, "")))))</f>
@@ -14083,7 +14097,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D108" s="1">
         <f>IF(Inputs!$D$5 = "Y", Prices!$L$18, 0)*-1</f>
@@ -14104,7 +14118,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="D110" s="7">
         <f>SUM(D104, D106)</f>
@@ -14130,7 +14144,7 @@
     <row r="113" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="27"/>
       <c r="C113" s="21" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D113" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D104,$D$104:$H$104),5)</f>
@@ -14223,13 +14237,13 @@
     <row r="118" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27"/>
       <c r="C118" s="21" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="27"/>
       <c r="D119" s="21" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="E119" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(2, $D$116:$H$116, 0))*Prices!$L$10*-1</f>
@@ -14239,7 +14253,7 @@
     <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="27"/>
       <c r="D120" s="21" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E120" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(3, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
@@ -14249,7 +14263,7 @@
     <row r="121" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="27"/>
       <c r="D121" s="21" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="E121" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(4, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
@@ -14259,7 +14273,7 @@
     <row r="122" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="27"/>
       <c r="D122" s="21" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E122" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(5, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
@@ -14279,7 +14293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14299,30 +14315,30 @@
         <v>5</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
       </c>
       <c r="D3" s="1">
-        <v>32750</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -14331,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F4" s="76">
         <v>0.6</v>
@@ -14343,7 +14359,7 @@
         <v>0.2</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -14351,19 +14367,19 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E5" s="48" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L5" s="3">
         <v>0.3</v>
@@ -14371,7 +14387,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="42">
         <v>15000</v>
@@ -14395,7 +14411,7 @@
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3">
         <v>0.45</v>
@@ -14405,19 +14421,19 @@
       <c r="C8" s="43"/>
       <c r="D8" s="39"/>
       <c r="K8" s="6" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -14425,7 +14441,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="44">
         <v>1000</v>
@@ -14446,7 +14462,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="L10" s="3">
         <v>0.45</v>
@@ -14475,7 +14491,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="L11" s="3">
         <v>0.5</v>
@@ -14483,7 +14499,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="44">
         <v>2000</v>
@@ -14551,7 +14567,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L14" s="57">
         <v>1.2500000000000001E-2</v>
@@ -14559,7 +14575,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C15" s="44">
         <v>4000</v>
@@ -14580,7 +14596,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="L15" s="54">
         <v>43466</v>
@@ -14636,7 +14652,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="45">
         <v>5000</v>
@@ -14657,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="L18" s="1">
         <v>3525</v>
@@ -14693,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L20" s="3">
         <v>0.3</v>
@@ -14770,7 +14786,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C24" s="45">
         <v>33600</v>
@@ -14793,7 +14809,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C25" s="45">
         <v>20000</v>
@@ -14816,7 +14832,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="81" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C26" s="82">
         <v>6750</v>

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Prices" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ACOInsight1">Inputs!$D$19:$D$20</definedName>
+    <definedName name="ACOInsight1">Inputs!$D$20:$D$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="129">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -443,6 +443,18 @@
   <si>
     <t>Multi-Population Discounts</t>
   </si>
+  <si>
+    <t>Monthly or Quarterly?</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Monthly Multiplier</t>
+  </si>
 </sst>
 </file>
 
@@ -714,7 +726,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -879,6 +891,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1173,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L24"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1201,7 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" style="66" customWidth="1"/>
     <col min="4" max="8" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1209,47 +1222,38 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="68"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="68"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="L4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>29</v>
@@ -1258,15 +1262,15 @@
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>29</v>
@@ -1274,16 +1278,19 @@
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="56"/>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="55">
-        <v>250000</v>
-      </c>
-      <c r="E7" s="55">
-        <v>250000</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
@@ -1291,35 +1298,41 @@
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D8" s="55">
-        <v>1</v>
+        <v>250000</v>
       </c>
       <c r="E8" s="55">
-        <v>3</v>
+        <v>250000</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
       <c r="H8" s="56"/>
+      <c r="L8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>29</v>
+        <v>113</v>
+      </c>
+      <c r="D9" s="55">
+        <v>1</v>
+      </c>
+      <c r="E9" s="55">
+        <v>3</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
       <c r="H9" s="56"/>
+      <c r="L9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>29</v>
@@ -1333,7 +1346,7 @@
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>29</v>
@@ -1347,7 +1360,7 @@
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>29</v>
@@ -1361,7 +1374,7 @@
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>29</v>
@@ -1375,7 +1388,7 @@
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>29</v>
@@ -1389,7 +1402,7 @@
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>29</v>
@@ -1403,7 +1416,7 @@
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>29</v>
@@ -1417,7 +1430,7 @@
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>29</v>
@@ -1431,7 +1444,7 @@
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>29</v>
@@ -1445,7 +1458,7 @@
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>29</v>
@@ -1459,7 +1472,7 @@
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>29</v>
@@ -1473,7 +1486,7 @@
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>29</v>
@@ -1487,10 +1500,10 @@
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E22" s="55" t="s">
         <v>29</v>
@@ -1501,7 +1514,7 @@
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="69" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>3</v>
@@ -1514,27 +1527,44 @@
       <c r="H23" s="56"/>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94" t="s">
+      <c r="C25" s="93"/>
+      <c r="D25" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E25" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="95"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:H22 D23:D24 D4:H6">
-      <formula1>$L$4:$L$5</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:H23 D5:H7 D24:D25">
+      <formula1>$L$5:$L$6</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:H8">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:H9">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>$L$8:$L$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2585,7 +2615,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
+        <f>SUMIF(Inputs!$D$5:$H$5, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
         <v>10000</v>
       </c>
       <c r="E4" s="3"/>
@@ -2624,7 +2654,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
+        <f>SUMIF(Inputs!$D$5:$H$5, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
         <v>60000</v>
       </c>
       <c r="E5" s="3"/>
@@ -11614,23 +11644,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))*Inputs!D8</f>
+        <f>IF(AND(Inputs!D6="Y",Inputs!D5="Y"), 0, IF(Inputs!D5="Y", SUM(Prices!$C$3, IF(Inputs!D$7 ="Y", Prices!$C$4, 0)), IF(Inputs!D5="N", Prices!$D$3, 0)))*Inputs!D9</f>
         <v>10000</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))*Inputs!E8</f>
+        <f>IF(AND(Inputs!E6="Y",Inputs!E5="Y"), 0, IF(Inputs!E5="Y", SUM(Prices!$C$3, IF(Inputs!E$7 ="Y", Prices!$C$4, 0)), IF(Inputs!E5="N", Prices!$D$3, 0)))*Inputs!E9</f>
         <v>60000</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(AND(Inputs!F5="Y",Inputs!F4="Y"), 0, IF(Inputs!F4="Y", SUM(Prices!$C$3, IF(Inputs!F$6 ="Y", Prices!$C$4, 0)), IF(Inputs!F4="N", Prices!$D$3, 0)))*Inputs!F8</f>
+        <f>IF(AND(Inputs!F6="Y",Inputs!F5="Y"), 0, IF(Inputs!F5="Y", SUM(Prices!$C$3, IF(Inputs!F$7 ="Y", Prices!$C$4, 0)), IF(Inputs!F5="N", Prices!$D$3, 0)))*Inputs!F9</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>IF(AND(Inputs!G5="Y",Inputs!G4="Y"), 0, IF(Inputs!G4="Y", SUM(Prices!$C$3, IF(Inputs!G$6 ="Y", Prices!$C$4, 0)), IF(Inputs!G4="N", Prices!$D$3, 0)))*Inputs!G8</f>
+        <f>IF(AND(Inputs!G6="Y",Inputs!G5="Y"), 0, IF(Inputs!G5="Y", SUM(Prices!$C$3, IF(Inputs!G$7 ="Y", Prices!$C$4, 0)), IF(Inputs!G5="N", Prices!$D$3, 0)))*Inputs!G9</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(AND(Inputs!H5="Y",Inputs!H4="Y"), 0, IF(Inputs!H4="Y", SUM(Prices!$C$3, IF(Inputs!H$6 ="Y", Prices!$C$4, 0)), IF(Inputs!H4="N", Prices!$D$3, 0)))*Inputs!H8</f>
+        <f>IF(AND(Inputs!H6="Y",Inputs!H5="Y"), 0, IF(Inputs!H5="Y", SUM(Prices!$C$3, IF(Inputs!H$7 ="Y", Prices!$C$4, 0)), IF(Inputs!H5="N", Prices!$D$3, 0)))*Inputs!H9</f>
         <v>0</v>
       </c>
     </row>
@@ -11655,23 +11685,23 @@
         <v>89</v>
       </c>
       <c r="D6" s="5">
-        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K6,0),$L6-$K6),0)</f>
         <v>25000</v>
       </c>
       <c r="F6" s="5">
-        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="65">
@@ -11689,23 +11719,23 @@
         <v>90</v>
       </c>
       <c r="D7" s="5">
-        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K7,0),$L7-$K7),0)</f>
         <v>50000</v>
       </c>
       <c r="F7" s="5">
-        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="65">
@@ -11724,23 +11754,23 @@
         <v>91</v>
       </c>
       <c r="D8" s="5">
-        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K8,0),$L8-$K8),0)</f>
         <v>150000</v>
       </c>
       <c r="F8" s="5">
-        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="65">
@@ -11759,23 +11789,23 @@
         <v>93</v>
       </c>
       <c r="D9" s="5">
-        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="65">
@@ -11856,23 +11886,23 @@
         <v>2</v>
       </c>
       <c r="D14" s="16">
-        <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!D5="Y", Prices!$C$6, IF(Inputs!D5="N", Prices!$D$6, 0))</f>
         <v>15000</v>
       </c>
       <c r="E14" s="16">
-        <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!E5="Y", Prices!$C$6, IF(Inputs!E5="N", Prices!$D$6, 0))</f>
         <v>30000</v>
       </c>
       <c r="F14" s="16">
-        <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!F5="Y", Prices!$C$6, IF(Inputs!F5="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!G5="Y", Prices!$C$6, IF(Inputs!G5="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <f>IF(Inputs!H4="Y", Prices!$C$6, IF(Inputs!H4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!H5="Y", Prices!$C$6, IF(Inputs!H5="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -11881,23 +11911,23 @@
         <v>21</v>
       </c>
       <c r="D15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$20="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$21="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E10="Y",Inputs!E$20="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$21="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F10="Y",Inputs!F$20="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$21="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G10="Y",Inputs!G$20="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$21="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H10="Y",Inputs!H$20="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H11="Y",Inputs!H$21="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11906,23 +11936,23 @@
         <v>8</v>
       </c>
       <c r="D16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$20="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$21="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$20="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$21="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$20="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$21="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$20="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$21="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H11="Y",Inputs!H$20="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$21="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11931,23 +11961,23 @@
         <v>22</v>
       </c>
       <c r="D17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$20="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$21="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$20="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$21="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$20="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$21="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$20="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$21="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$20="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H13="Y",Inputs!H$21="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11956,23 +11986,23 @@
         <v>9</v>
       </c>
       <c r="D18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$20="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$21="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$20="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$21="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$20="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$21="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$20="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$21="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H13="Y",Inputs!H$20="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H14="Y",Inputs!H$21="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11981,23 +12011,23 @@
         <v>10</v>
       </c>
       <c r="D19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$20="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$21="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$20="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$21="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$20="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$21="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$20="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$21="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H14="Y",Inputs!H$20="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$21="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12006,23 +12036,23 @@
         <v>79</v>
       </c>
       <c r="D20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$21="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$20="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$21="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$20="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$21="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$20="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$21="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$20="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$21="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12031,23 +12061,23 @@
         <v>11</v>
       </c>
       <c r="D21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$21="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$22="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$21="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$22="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$21="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$22="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$21="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$22="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$21="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$22="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12056,23 +12086,23 @@
         <v>12</v>
       </c>
       <c r="D22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$21="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$22="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="E22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$21="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$22="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$21="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$22="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$21="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$22="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$21="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H18="Y",Inputs!H$22="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12081,23 +12111,23 @@
         <v>23</v>
       </c>
       <c r="D23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$21="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D19="Y",Inputs!D$22="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$21="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E19="Y",Inputs!E$22="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$21="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F19="Y",Inputs!F$22="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="G23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$21="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G19="Y",Inputs!G$22="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H18="Y",Inputs!H$21="Y"), Prices!$C18, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H19="Y",Inputs!H$22="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12111,23 +12141,23 @@
         <v>2</v>
       </c>
       <c r="D26" s="16">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)))*D$10</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E26" s="16">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
         <v>24570.000000000004</v>
       </c>
       <c r="F26" s="16">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G26" s="16">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)))*G$10</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H26" s="16">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)))*H$10</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12136,23 +12166,23 @@
         <v>21</v>
       </c>
       <c r="D27" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E27" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F10="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G10="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H27" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H10="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12161,23 +12191,23 @@
         <v>8</v>
       </c>
       <c r="D28" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E28" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H28" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12186,23 +12216,23 @@
         <v>22</v>
       </c>
       <c r="D29" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E29" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G29" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H29" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12211,23 +12241,23 @@
         <v>9</v>
       </c>
       <c r="D30" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E30" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G30" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H30" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12236,23 +12266,23 @@
         <v>10</v>
       </c>
       <c r="D31" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E31" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F31" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G31" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H31" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E14),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E14),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12261,23 +12291,23 @@
         <v>79</v>
       </c>
       <c r="D32" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E32" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G32" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H32" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E15),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E15),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12286,23 +12316,23 @@
         <v>11</v>
       </c>
       <c r="D33" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D17="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E33" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E17="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F33" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G33" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H33" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H17="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12311,23 +12341,23 @@
         <v>12</v>
       </c>
       <c r="D34" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D17="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D18="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E34" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E17="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E18="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F34" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F18="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G34" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G18="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H34" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H17="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H18="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12368,23 +12398,23 @@
         <v>2</v>
       </c>
       <c r="D38" s="16">
-        <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!D5="Y", Prices!$C$6, IF(Inputs!D5="N", Prices!$D$6, 0))</f>
         <v>15000</v>
       </c>
       <c r="E38" s="16">
-        <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!E5="Y", Prices!$C$6, IF(Inputs!E5="N", Prices!$D$6, 0))</f>
         <v>30000</v>
       </c>
       <c r="F38" s="16">
-        <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!F5="Y", Prices!$C$6, IF(Inputs!F5="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="G38" s="16">
-        <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!G5="Y", Prices!$C$6, IF(Inputs!G5="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="H38" s="16">
-        <f>IF(Inputs!H4="Y", Prices!$C$6, IF(Inputs!H4="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!H5="Y", Prices!$C$6, IF(Inputs!H5="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12393,23 +12423,23 @@
         <v>21</v>
       </c>
       <c r="D39" s="18">
-        <f>IF(AND(Inputs!D10="Y",Inputs!D$20="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!D11="Y",Inputs!D$21="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="E39" s="18">
-        <f>IF(AND(Inputs!E10="Y",Inputs!E$20="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!E11="Y",Inputs!E$21="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="18">
-        <f>IF(AND(Inputs!F10="Y",Inputs!F$20="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!F11="Y",Inputs!F$21="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="18">
-        <f>IF(AND(Inputs!G10="Y",Inputs!G$20="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!G11="Y",Inputs!G$21="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="H39" s="18">
-        <f>IF(AND(Inputs!H10="Y",Inputs!H$20="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!H11="Y",Inputs!H$21="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12418,23 +12448,23 @@
         <v>8</v>
       </c>
       <c r="D40" s="18">
-        <f>IF(AND(Inputs!D11="Y",Inputs!D$20="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!D12="Y",Inputs!D$21="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="E40" s="18">
-        <f>IF(AND(Inputs!E11="Y",Inputs!E$20="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!E12="Y",Inputs!E$21="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="F40" s="18">
-        <f>IF(AND(Inputs!F11="Y",Inputs!F$20="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!F12="Y",Inputs!F$21="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="18">
-        <f>IF(AND(Inputs!G11="Y",Inputs!G$20="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!G12="Y",Inputs!G$21="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="18">
-        <f>IF(AND(Inputs!H11="Y",Inputs!H$20="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!H12="Y",Inputs!H$21="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12443,23 +12473,23 @@
         <v>22</v>
       </c>
       <c r="D41" s="18">
-        <f>IF(AND(Inputs!D12="Y",Inputs!D$20="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!D13="Y",Inputs!D$21="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="E41" s="18">
-        <f>IF(AND(Inputs!E12="Y",Inputs!E$20="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!E13="Y",Inputs!E$21="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="F41" s="18">
-        <f>IF(AND(Inputs!F12="Y",Inputs!F$20="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!F13="Y",Inputs!F$21="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="G41" s="18">
-        <f>IF(AND(Inputs!G12="Y",Inputs!G$20="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!G13="Y",Inputs!G$21="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="18">
-        <f>IF(AND(Inputs!H12="Y",Inputs!H$20="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!H13="Y",Inputs!H$21="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12468,23 +12498,23 @@
         <v>9</v>
       </c>
       <c r="D42" s="18">
-        <f>IF(AND(Inputs!D13="Y",Inputs!D$20="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!D14="Y",Inputs!D$21="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="18">
-        <f>IF(AND(Inputs!E13="Y",Inputs!E$20="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!E14="Y",Inputs!E$21="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="F42" s="18">
-        <f>IF(AND(Inputs!F13="Y",Inputs!F$20="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!F14="Y",Inputs!F$21="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="18">
-        <f>IF(AND(Inputs!G13="Y",Inputs!G$20="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!G14="Y",Inputs!G$21="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="18">
-        <f>IF(AND(Inputs!H13="Y",Inputs!H$20="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!H14="Y",Inputs!H$21="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12493,23 +12523,23 @@
         <v>10</v>
       </c>
       <c r="D43" s="18">
-        <f>IF(AND(Inputs!D14="Y",Inputs!D$20="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!D15="Y",Inputs!D$21="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="E43" s="18">
-        <f>IF(AND(Inputs!E14="Y",Inputs!E$20="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!E15="Y",Inputs!E$21="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="F43" s="18">
-        <f>IF(AND(Inputs!F14="Y",Inputs!F$20="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!F15="Y",Inputs!F$21="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="18">
-        <f>IF(AND(Inputs!G14="Y",Inputs!G$20="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!G15="Y",Inputs!G$21="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="18">
-        <f>IF(AND(Inputs!H14="Y",Inputs!H$20="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!H15="Y",Inputs!H$21="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12518,23 +12548,23 @@
         <v>79</v>
       </c>
       <c r="D44" s="18">
-        <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!D16="Y",Inputs!D$21="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="E44" s="18">
-        <f>IF(AND(Inputs!E15="Y",Inputs!E$20="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!E16="Y",Inputs!E$21="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="F44" s="18">
-        <f>IF(AND(Inputs!F15="Y",Inputs!F$20="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!F16="Y",Inputs!F$21="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="18">
-        <f>IF(AND(Inputs!G15="Y",Inputs!G$20="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!G16="Y",Inputs!G$21="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="18">
-        <f>IF(AND(Inputs!H15="Y",Inputs!H$20="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!H16="Y",Inputs!H$21="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12543,23 +12573,23 @@
         <v>11</v>
       </c>
       <c r="D45" s="20">
-        <f>IF(AND(Inputs!D16="Y",Inputs!D$21="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!D17="Y",Inputs!D$22="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="E45" s="20">
-        <f>IF(AND(Inputs!E16="Y",Inputs!E$21="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!E17="Y",Inputs!E$22="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="F45" s="20">
-        <f>IF(AND(Inputs!F16="Y",Inputs!F$21="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!F17="Y",Inputs!F$22="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="20">
-        <f>IF(AND(Inputs!G16="Y",Inputs!G$21="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!G17="Y",Inputs!G$22="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="H45" s="20">
-        <f>IF(AND(Inputs!H16="Y",Inputs!H$21="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!H17="Y",Inputs!H$22="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12568,23 +12598,23 @@
         <v>12</v>
       </c>
       <c r="D46" s="20">
-        <f>IF(AND(Inputs!D17="Y",Inputs!D$21="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!D18="Y",Inputs!D$22="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="E46" s="20">
-        <f>IF(AND(Inputs!E17="Y",Inputs!E$21="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!E18="Y",Inputs!E$22="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="F46" s="20">
-        <f>IF(AND(Inputs!F17="Y",Inputs!F$21="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!F18="Y",Inputs!F$22="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="20">
-        <f>IF(AND(Inputs!G17="Y",Inputs!G$21="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!G18="Y",Inputs!G$22="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="20">
-        <f>IF(AND(Inputs!H17="Y",Inputs!H$21="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!H18="Y",Inputs!H$22="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12593,23 +12623,23 @@
         <v>23</v>
       </c>
       <c r="D47" s="20">
-        <f>IF(AND(Inputs!D18="Y",Inputs!D$21="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!D19="Y",Inputs!D$22="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="E47" s="20">
-        <f>IF(AND(Inputs!E18="Y",Inputs!E$21="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!E19="Y",Inputs!E$22="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="F47" s="20">
-        <f>IF(AND(Inputs!F18="Y",Inputs!F$21="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!F19="Y",Inputs!F$22="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="G47" s="20">
-        <f>IF(AND(Inputs!G18="Y",Inputs!G$21="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!G19="Y",Inputs!G$22="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
       <c r="H47" s="20">
-        <f>IF(AND(Inputs!H18="Y",Inputs!H$21="N"),Prices!$C18,0)</f>
+        <f>IF(AND(Inputs!H19="Y",Inputs!H$22="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12623,23 +12653,23 @@
         <v>2</v>
       </c>
       <c r="D50" s="16">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)*D$10))</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)*D$10))</f>
         <v>0</v>
       </c>
       <c r="E50" s="16">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
         <v>24570.000000000004</v>
       </c>
       <c r="F50" s="16">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
         <v>0</v>
       </c>
       <c r="G50" s="16">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)*G$10))</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)*G$10))</f>
         <v>0</v>
       </c>
       <c r="H50" s="16">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)*H$10))</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)*H$10))</f>
         <v>0</v>
       </c>
     </row>
@@ -12648,23 +12678,23 @@
         <v>21</v>
       </c>
       <c r="D51" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E10)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E10)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E51" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G51" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G10="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H51" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H10="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12673,23 +12703,23 @@
         <v>8</v>
       </c>
       <c r="D52" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E11)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E11)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E52" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F52" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G52" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H52" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12698,23 +12728,23 @@
         <v>22</v>
       </c>
       <c r="D53" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E12)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E12)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E53" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F53" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G53" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H53" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12723,23 +12753,23 @@
         <v>9</v>
       </c>
       <c r="D54" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E13)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E13)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E54" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F54" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G54" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H54" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12748,23 +12778,23 @@
         <v>10</v>
       </c>
       <c r="D55" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E14)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E14)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E55" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E14)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E14)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F55" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E14)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E14)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G55" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E14)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E14)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H55" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E14)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E14)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12773,23 +12803,23 @@
         <v>79</v>
       </c>
       <c r="D56" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E56" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E15)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E15)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F56" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E15)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E15)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G56" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E15)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E15)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H56" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E15)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E15)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12798,23 +12828,23 @@
         <v>11</v>
       </c>
       <c r="D57" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D17="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E57" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E17="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F57" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F17="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G57" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G17="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H57" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H17="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12823,23 +12853,23 @@
         <v>12</v>
       </c>
       <c r="D58" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D17="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D18="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E58" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E17="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E18="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F58" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F17="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F18="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G58" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G17="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G18="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H58" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H17="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H18="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12873,23 +12903,23 @@
         <v>14</v>
       </c>
       <c r="D62" s="18">
-        <f>IF(Inputs!D$20 = "Y", 0, IF(Inputs!D19="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!D$21 = "Y", 0, IF(Inputs!D20="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="E62" s="18">
-        <f>IF(Inputs!E$20 = "Y", 0, IF(Inputs!E19="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!E$21 = "Y", 0, IF(Inputs!E20="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="F62" s="18">
-        <f>IF(Inputs!F$20 = "Y", 0, IF(Inputs!F19="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!F$21 = "Y", 0, IF(Inputs!F20="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="G62" s="18">
-        <f>IF(Inputs!G$20 = "Y", 0, IF(Inputs!G19="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!G$21 = "Y", 0, IF(Inputs!G20="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="H62" s="18">
-        <f>IF(Inputs!H$20 = "Y", 0, IF(Inputs!H19="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!H$21 = "Y", 0, IF(Inputs!H20="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12898,23 +12928,23 @@
         <v>15</v>
       </c>
       <c r="D63" s="18">
-        <f>IF(Inputs!D20="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!D21="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="E63" s="18">
-        <f>IF(Inputs!E20="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!E21="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="F63" s="18">
-        <f>IF(Inputs!F20="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!F21="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="G63" s="18">
-        <f>IF(Inputs!G20="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!G21="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="18">
-        <f>IF(Inputs!H20="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!H21="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12923,23 +12953,23 @@
         <v>16</v>
       </c>
       <c r="D64" s="20">
-        <f>IF(Inputs!D21="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!D22="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="E64" s="20">
-        <f>IF(Inputs!E21="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!E22="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="F64" s="20">
-        <f>IF(Inputs!F21="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!F22="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="G64" s="20">
-        <f>IF(Inputs!G21="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!G22="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="20">
-        <f>IF(Inputs!H21="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!H22="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12948,23 +12978,23 @@
         <v>17</v>
       </c>
       <c r="D65" s="20">
-        <f>IF(Inputs!D22="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!D23="Y", Prices!$C23, 0)</f>
         <v>28000</v>
       </c>
       <c r="E65" s="20">
-        <f>IF(Inputs!E22="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!E23="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="F65" s="20">
-        <f>IF(Inputs!F22="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!F23="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="20">
-        <f>IF(Inputs!G22="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!G23="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="20">
-        <f>IF(Inputs!H22="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!H23="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12973,23 +13003,23 @@
         <v>102</v>
       </c>
       <c r="D66" s="20">
-        <f>IF(Inputs!D23="Y", Prices!$C24 * IF(Inputs!D22="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!D24="Y", Prices!$C24 * IF(Inputs!D23="Y",1-Prices!$L$20,1), 0)</f>
         <v>23520</v>
       </c>
       <c r="E66" s="20">
-        <f>IF(Inputs!E23="Y", Prices!$C24 * IF(Inputs!E22="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!E24="Y", Prices!$C24 * IF(Inputs!E23="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="F66" s="20">
-        <f>IF(Inputs!F23="Y", Prices!$C24 * IF(Inputs!F22="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!F24="Y", Prices!$C24 * IF(Inputs!F23="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="20">
-        <f>IF(Inputs!G23="Y", Prices!$C24 * IF(Inputs!G22="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!G24="Y", Prices!$C24 * IF(Inputs!G23="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="20">
-        <f>IF(Inputs!H23="Y", Prices!$C24 * IF(Inputs!H22="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!H24="Y", Prices!$C24 * IF(Inputs!H23="Y",1-Prices!$L$20,1), 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12998,23 +13028,23 @@
         <v>101</v>
       </c>
       <c r="D67" s="20">
-        <f>IF(Inputs!D24="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!D25="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="E67" s="20">
-        <f>IF(Inputs!E24="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!E25="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="F67" s="20">
-        <f>IF(Inputs!F24="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!F25="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="G67" s="20">
-        <f>IF(Inputs!G24="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!G25="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="20">
-        <f>IF(Inputs!H24="Y", Prices!$C25, 0)</f>
+        <f>IF(Inputs!H25="Y", Prices!$C25, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13023,23 +13053,23 @@
         <v>99</v>
       </c>
       <c r="D68" s="84">
-        <f>IF(Inputs!D9="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!D10="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="E68" s="84">
-        <f>IF(Inputs!E9="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!E10="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="F68" s="84">
-        <f>IF(Inputs!F9="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!F10="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="G68" s="84">
-        <f>IF(Inputs!G9="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!G10="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="84">
-        <f>IF(Inputs!H9="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!H10="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13099,23 +13129,23 @@
         <v>15</v>
       </c>
       <c r="D72" s="18">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D20 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D21 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E72" s="18">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E20 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F72" s="18">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F20 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G72" s="18">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G20 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H72" s="18">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H20 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J72" s="90">
@@ -13148,23 +13178,23 @@
         <v>16</v>
       </c>
       <c r="D73" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D21 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E73" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F73" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G73" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H73" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J73" s="90">
@@ -13197,23 +13227,23 @@
         <v>17</v>
       </c>
       <c r="D74" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D23 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E74" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F74" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G74" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H74" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J74" s="90">
@@ -13246,23 +13276,23 @@
         <v>102</v>
       </c>
       <c r="D75" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D23 = "Y", D$11*Prices!$E24 * IF(Inputs!D22="Y",1-Prices!$L$20,1), 0)))*D$10</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E24 * IF(Inputs!D23="Y",1-Prices!$L$20,1), 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E75" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E24 * IF(Inputs!E22="Y",1-Prices!$L$20,1), 0)))*E$10</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E24 * IF(Inputs!E23="Y",1-Prices!$L$20,1), 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F75" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E24 * IF(Inputs!F22="Y",1-Prices!$L$20,1), 0)))*F$10</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E24 * IF(Inputs!F23="Y",1-Prices!$L$20,1), 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G75" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E24 * IF(Inputs!G22="Y",1-Prices!$L$20,1), 0)))*G$10</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G24 = "Y", G$11*Prices!$E24 * IF(Inputs!G23="Y",1-Prices!$L$20,1), 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H75" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E24 * IF(Inputs!H22="Y",1-Prices!$L$20,1), 0)))*H$10</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H24 = "Y", H$11*Prices!$E24 * IF(Inputs!H23="Y",1-Prices!$L$20,1), 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J75" s="90">
@@ -13295,23 +13325,23 @@
         <v>101</v>
       </c>
       <c r="D76" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E25, 0)))*D$10</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D25 = "Y", D$11*Prices!$E25, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E76" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E25, 0)))*E$10</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E25 = "Y", E$11*Prices!$E25, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F76" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E25, 0)))*F$10</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F25 = "Y", F$11*Prices!$E25, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G76" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G24 = "Y", G$11*Prices!$E25, 0)))*G$10</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G25 = "Y", G$11*Prices!$E25, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H76" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H24 = "Y", H$11*Prices!$E25, 0)))*H$10</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H25 = "Y", H$11*Prices!$E25, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J76" s="90">
@@ -13344,23 +13374,23 @@
         <v>99</v>
       </c>
       <c r="D77" s="84">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D9 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D10 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E77" s="84">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E9 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E10 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F77" s="84">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F9 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F10 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G77" s="84">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G9 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G10 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H77" s="84">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H9 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H10 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J77" s="90">
@@ -14100,7 +14130,7 @@
         <v>84</v>
       </c>
       <c r="D108" s="1">
-        <f>IF(Inputs!$D$5 = "Y", Prices!$L$18, 0)*-1</f>
+        <f>IF(Inputs!$D$6 = "Y", Prices!$L$18, 0)*-1</f>
         <v>0</v>
       </c>
       <c r="E108" s="1">
@@ -14293,8 +14323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14783,6 +14813,13 @@
         <f t="shared" si="2"/>
         <v>3.5999999999999997E-2</v>
       </c>
+      <c r="K23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="96">
+        <f>18000/15000</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">

--- a/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Quarterly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="130">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -455,6 +455,9 @@
   <si>
     <t>Monthly Multiplier</t>
   </si>
+  <si>
+    <t>Frequency Multiplier</t>
+  </si>
 </sst>
 </file>
 
@@ -726,7 +729,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -892,6 +895,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1188,11 +1192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,11 +1679,11 @@
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D38, Calcs!D50)</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E38, Calcs!E50)</f>
-        <v>54570</v>
+        <v>69400</v>
       </c>
       <c r="F7" s="16">
         <f>SUM(Calcs!F38, Calcs!F50)</f>
@@ -2138,7 +2142,7 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(Calcs!D65, Calcs!D74)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(Calcs!E65, Calcs!E74)</f>
@@ -2318,11 +2322,11 @@
       </c>
       <c r="D29" s="1">
         <f>Calcs!D106</f>
-        <v>0</v>
+        <v>-30628.799999999999</v>
       </c>
       <c r="E29" s="1">
         <f>Calcs!E106</f>
-        <v>-24556.5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <f>Calcs!F106</f>
@@ -2384,11 +2388,11 @@
       </c>
       <c r="D32" s="7">
         <f>SUM(D7:D16, D19:D25, D28:D30)</f>
-        <v>59464</v>
+        <v>37435.199999999997</v>
       </c>
       <c r="E32" s="7">
         <f>SUM(E7:E16, E19:E25, E28:E29)</f>
-        <v>30013.5</v>
+        <v>69400</v>
       </c>
       <c r="F32" s="7">
         <f>SUM(F7:F16, F19:F25, F28:F29)</f>
@@ -2456,11 +2460,11 @@
       </c>
       <c r="D37" s="7">
         <f>(D32/12*Inputs!$C$2+D4)*$C$35</f>
-        <v>188392</v>
+        <v>122305.59999999999</v>
       </c>
       <c r="E37" s="7">
         <f>(E32/12*Inputs!$C$2+E4)*$C$35</f>
-        <v>150040.5</v>
+        <v>268200</v>
       </c>
       <c r="F37" s="7">
         <f>(F32/12*Inputs!$C$2+F4)*$C$35</f>
@@ -2505,13 +2509,13 @@
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>338432.5</v>
+        <v>390505.59999999992</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C42" s="52">
         <f>SUM(D37:H37)</f>
-        <v>338432.5</v>
+        <v>390505.6</v>
       </c>
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
@@ -2715,7 +2719,7 @@
       </c>
       <c r="D8" s="16">
         <f>SUM(Calcs!D14:H14)</f>
-        <v>45000</v>
+        <v>51000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="75">
@@ -2733,11 +2737,11 @@
       </c>
       <c r="K8" s="16">
         <f>F8*$D8</f>
-        <v>18000</v>
+        <v>20400</v>
       </c>
       <c r="L8" s="16">
         <f>G8*$D8</f>
-        <v>27000</v>
+        <v>30600</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:N17" si="2">H8*$D8</f>
@@ -3138,7 +3142,7 @@
       </c>
       <c r="D22" s="16">
         <f>SUM(Calcs!D26:H26)</f>
-        <v>24570.000000000004</v>
+        <v>36400</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="34">
@@ -3159,11 +3163,11 @@
       </c>
       <c r="K22" s="16">
         <f>F22*$D22</f>
-        <v>7371.0000000000018</v>
+        <v>10920.000000000002</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" ref="L22:L31" si="8">G22*$D22</f>
-        <v>17199</v>
+        <v>25480</v>
       </c>
       <c r="M22" s="16">
         <f>H22*$D22</f>
@@ -3686,7 +3690,7 @@
       </c>
       <c r="D37" s="20">
         <f>SUM(Calcs!D83:H83)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="F37" s="33">
         <v>0.1</v>
@@ -3703,11 +3707,11 @@
       </c>
       <c r="K37" s="20">
         <f t="shared" ref="K37" si="15">F37*$D37</f>
-        <v>2800</v>
+        <v>3360</v>
       </c>
       <c r="L37" s="20">
         <f t="shared" ref="L37" si="16">G37*$D37</f>
-        <v>25200</v>
+        <v>30240</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ref="M37" si="17">H37*$D37</f>
@@ -4189,15 +4193,15 @@
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>-24556.5</v>
+        <v>-30628.799999999999</v>
       </c>
       <c r="F53" s="3">
         <f>IFERROR(SUM(K8:K52)/SUM($K8:$N52), 0)</f>
-        <v>0.26147815563779225</v>
+        <v>0.26426118838386781</v>
       </c>
       <c r="G53" s="3">
         <f>IFERROR(SUM(L8:L52)/SUM($K8:$N52), 0)</f>
-        <v>0.7385218443622078</v>
+        <v>0.7357388116161323</v>
       </c>
       <c r="H53" s="3">
         <f>IFERROR(SUM(M8:M52)/SUM($K8:$N52), 0)</f>
@@ -4209,11 +4213,11 @@
       </c>
       <c r="K53" s="12">
         <f>F53*$D$53</f>
-        <v>-6420.9883289194458</v>
+        <v>-8094.0030867718096</v>
       </c>
       <c r="L53" s="12">
         <f>G53*$D$53</f>
-        <v>-18135.511671080556</v>
+        <v>-22534.796913228194</v>
       </c>
       <c r="M53" s="12">
         <f>H53*$D$53</f>
@@ -4221,7 +4225,7 @@
       </c>
       <c r="N53" s="12">
         <f>I53*$D$53</f>
-        <v>2.7263191704207657E-12</v>
+        <v>3.4004798976638994E-12</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -4273,15 +4277,15 @@
       </c>
       <c r="D56" s="1">
         <f>SUM(Outputs_External!D32:'Outputs_External'!H32)</f>
-        <v>89477.5</v>
+        <v>106835.2</v>
       </c>
       <c r="K56" s="12">
         <f>SUM(K52:K54, K34:K40, K8:K17,K22:K31,K43:K49)</f>
-        <v>23396.411671080554</v>
+        <v>28232.396913228193</v>
       </c>
       <c r="L56" s="12">
         <f t="shared" ref="L56:N56" si="43">SUM(L52:L54, L34:L40, L8:L17,L22:L31,L43:L49)</f>
-        <v>66081.088328919446</v>
+        <v>78602.803086771804</v>
       </c>
       <c r="M56" s="12">
         <f t="shared" si="43"/>
@@ -4289,7 +4293,7 @@
       </c>
       <c r="N56" s="12">
         <f t="shared" si="43"/>
-        <v>2.7263191704207657E-12</v>
+        <v>3.4004798976638994E-12</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
@@ -4298,7 +4302,7 @@
       </c>
       <c r="D57" s="23">
         <f>SUM(K56:N56)</f>
-        <v>89477.5</v>
+        <v>106835.2</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
@@ -4315,15 +4319,15 @@
       </c>
       <c r="D59" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>338432.5</v>
+        <v>390505.59999999992</v>
       </c>
       <c r="K59" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>81189.23501324169</v>
+        <v>95697.190739684607</v>
       </c>
       <c r="L59" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>257243.26498675841</v>
+        <v>294808.40926031553</v>
       </c>
       <c r="M59" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
@@ -4331,18 +4335,18 @@
       </c>
       <c r="N59" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>8.178957511262297E-12</v>
+        <v>1.0201439692991696E-11</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="K60" s="53">
         <f>IFERROR(K59/$D$59, 0)</f>
-        <v>0.23989786741297509</v>
+        <v>0.24505971422608186</v>
       </c>
       <c r="L60" s="53">
         <f>IFERROR(L59/$D$59, 0)</f>
-        <v>0.76010213258702519</v>
+        <v>0.7549402857739187</v>
       </c>
       <c r="M60" s="53">
         <f>IFERROR(M59/$D$59, 0)</f>
@@ -4350,7 +4354,7 @@
       </c>
       <c r="N60" s="53">
         <f>IFERROR(N59/$D$59, 0)</f>
-        <v>2.4167175171599351E-17</v>
+        <v>2.6123670679733399E-17</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -4513,7 +4517,7 @@
       </c>
       <c r="D67" s="23">
         <f>SUM(Calcs!D65:H65)+SUM(Calcs!D74:H74)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="24">
@@ -4535,11 +4539,11 @@
       <c r="J67" s="21"/>
       <c r="K67" s="25">
         <f t="shared" ref="K67:K70" si="48">F67*$D67</f>
-        <v>2800</v>
+        <v>3360</v>
       </c>
       <c r="L67" s="25">
         <f t="shared" ref="L67:L70" si="49">G67*$D67</f>
-        <v>25200</v>
+        <v>30240</v>
       </c>
       <c r="M67" s="25">
         <f t="shared" ref="M67:M70" si="50">H67*$D67</f>
@@ -5243,15 +5247,15 @@
       </c>
       <c r="M9" s="63">
         <f>$F9*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N9" s="63">
         <f>$F9*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O9" s="63">
         <f>$F9*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P9" s="63">
         <f>$F9*Outputs_Internal!M$56/12</f>
@@ -5259,7 +5263,7 @@
       </c>
       <c r="Q9" s="63">
         <f>$F9*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S9" s="63">
         <f t="shared" si="1"/>
@@ -5317,15 +5321,15 @@
       </c>
       <c r="M10" s="63">
         <f>$F10*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N10" s="63">
         <f>$F10*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O10" s="63">
         <f>$F10*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P10" s="63">
         <f>$F10*Outputs_Internal!M$56/12</f>
@@ -5333,7 +5337,7 @@
       </c>
       <c r="Q10" s="63">
         <f>$F10*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S10" s="63">
         <f t="shared" si="1"/>
@@ -5391,15 +5395,15 @@
       </c>
       <c r="M11" s="63">
         <f>$F11*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N11" s="63">
         <f>$F11*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O11" s="63">
         <f>$F11*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P11" s="63">
         <f>$F11*Outputs_Internal!M$56/12</f>
@@ -5407,19 +5411,19 @@
       </c>
       <c r="Q11" s="63">
         <f>$F11*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S11" s="63">
         <f t="shared" si="1"/>
-        <v>92369.374999999985</v>
+        <v>96708.800000000003</v>
       </c>
       <c r="T11" s="63">
         <f t="shared" si="2"/>
-        <v>16849.102917770138</v>
+        <v>18058.099228307048</v>
       </c>
       <c r="U11" s="63">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>75520.272082229858</v>
+        <v>78650.700771692937</v>
       </c>
       <c r="V11" s="63">
         <f t="shared" si="4"/>
@@ -5427,7 +5431,7 @@
       </c>
       <c r="W11" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -5465,15 +5469,15 @@
       </c>
       <c r="M12" s="63">
         <f>$F12*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N12" s="63">
         <f>$F12*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O12" s="63">
         <f>$F12*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P12" s="63">
         <f>$F12*Outputs_Internal!M$56/12</f>
@@ -5481,7 +5485,7 @@
       </c>
       <c r="Q12" s="63">
         <f>$F12*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S12" s="63">
         <f t="shared" si="1"/>
@@ -5539,15 +5543,15 @@
       </c>
       <c r="M13" s="63">
         <f>$F13*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N13" s="63">
         <f>$F13*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O13" s="63">
         <f>$F13*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P13" s="63">
         <f>$F13*Outputs_Internal!M$56/12</f>
@@ -5555,7 +5559,7 @@
       </c>
       <c r="Q13" s="63">
         <f>$F13*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S13" s="63">
         <f t="shared" si="1"/>
@@ -5613,15 +5617,15 @@
       </c>
       <c r="M14" s="63">
         <f>$F14*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N14" s="63">
         <f>$F14*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O14" s="63">
         <f>$F14*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P14" s="63">
         <f>$F14*Outputs_Internal!M$56/12</f>
@@ -5629,19 +5633,19 @@
       </c>
       <c r="Q14" s="63">
         <f>$F14*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S14" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T14" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U14" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V14" s="63">
         <f t="shared" si="4"/>
@@ -5649,7 +5653,7 @@
       </c>
       <c r="W14" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -5687,15 +5691,15 @@
       </c>
       <c r="M15" s="63">
         <f>$F15*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N15" s="63">
         <f>$F15*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O15" s="63">
         <f>$F15*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P15" s="63">
         <f>$F15*Outputs_Internal!M$56/12</f>
@@ -5703,7 +5707,7 @@
       </c>
       <c r="Q15" s="63">
         <f>$F15*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S15" s="63">
         <f t="shared" si="1"/>
@@ -5761,15 +5765,15 @@
       </c>
       <c r="M16" s="63">
         <f>$F16*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N16" s="63">
         <f>$F16*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O16" s="63">
         <f>$F16*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P16" s="63">
         <f>$F16*Outputs_Internal!M$56/12</f>
@@ -5777,7 +5781,7 @@
       </c>
       <c r="Q16" s="63">
         <f>$F16*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S16" s="63">
         <f t="shared" si="1"/>
@@ -5835,15 +5839,15 @@
       </c>
       <c r="M17" s="63">
         <f>$F17*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N17" s="63">
         <f>$F17*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O17" s="63">
         <f>$F17*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P17" s="63">
         <f>$F17*Outputs_Internal!M$56/12</f>
@@ -5851,19 +5855,19 @@
       </c>
       <c r="Q17" s="63">
         <f>$F17*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S17" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T17" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U17" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V17" s="63">
         <f t="shared" si="4"/>
@@ -5871,7 +5875,7 @@
       </c>
       <c r="W17" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -5909,15 +5913,15 @@
       </c>
       <c r="M18" s="63">
         <f>$F18*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N18" s="63">
         <f>$F18*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O18" s="63">
         <f>$F18*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P18" s="63">
         <f>$F18*Outputs_Internal!M$56/12</f>
@@ -5925,7 +5929,7 @@
       </c>
       <c r="Q18" s="63">
         <f>$F18*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S18" s="63">
         <f t="shared" si="1"/>
@@ -5983,15 +5987,15 @@
       </c>
       <c r="M19" s="63">
         <f>$F19*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N19" s="63">
         <f>$F19*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O19" s="63">
         <f>$F19*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P19" s="63">
         <f>$F19*Outputs_Internal!M$56/12</f>
@@ -5999,7 +6003,7 @@
       </c>
       <c r="Q19" s="63">
         <f>$F19*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S19" s="63">
         <f t="shared" si="1"/>
@@ -6057,15 +6061,15 @@
       </c>
       <c r="M20" s="63">
         <f>$F20*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N20" s="63">
         <f>$F20*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O20" s="63">
         <f>$F20*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P20" s="63">
         <f>$F20*Outputs_Internal!M$56/12</f>
@@ -6073,19 +6077,19 @@
       </c>
       <c r="Q20" s="63">
         <f>$F20*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S20" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T20" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U20" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V20" s="63">
         <f t="shared" si="4"/>
@@ -6093,7 +6097,7 @@
       </c>
       <c r="W20" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -6131,15 +6135,15 @@
       </c>
       <c r="M21" s="63">
         <f>$F21*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N21" s="63">
         <f>$F21*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O21" s="63">
         <f>$F21*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P21" s="63">
         <f>$F21*Outputs_Internal!M$56/12</f>
@@ -6147,7 +6151,7 @@
       </c>
       <c r="Q21" s="63">
         <f>$F21*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S21" s="63">
         <f t="shared" si="1"/>
@@ -6205,15 +6209,15 @@
       </c>
       <c r="M22" s="63">
         <f>$F22*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N22" s="63">
         <f>$F22*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O22" s="63">
         <f>$F22*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P22" s="63">
         <f>$F22*Outputs_Internal!M$56/12</f>
@@ -6221,7 +6225,7 @@
       </c>
       <c r="Q22" s="63">
         <f>$F22*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S22" s="63">
         <f t="shared" si="1"/>
@@ -6279,15 +6283,15 @@
       </c>
       <c r="M23" s="63">
         <f>$F23*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N23" s="63">
         <f>$F23*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O23" s="63">
         <f>$F23*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P23" s="63">
         <f>$F23*Outputs_Internal!M$56/12</f>
@@ -6295,19 +6299,19 @@
       </c>
       <c r="Q23" s="63">
         <f>$F23*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S23" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T23" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U23" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V23" s="63">
         <f t="shared" si="4"/>
@@ -6315,7 +6319,7 @@
       </c>
       <c r="W23" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -6353,15 +6357,15 @@
       </c>
       <c r="M24" s="63">
         <f>$F24*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N24" s="63">
         <f>$F24*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O24" s="63">
         <f>$F24*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P24" s="63">
         <f>$F24*Outputs_Internal!M$56/12</f>
@@ -6369,7 +6373,7 @@
       </c>
       <c r="Q24" s="63">
         <f>$F24*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S24" s="63">
         <f t="shared" si="1"/>
@@ -6427,15 +6431,15 @@
       </c>
       <c r="M25" s="63">
         <f>$F25*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N25" s="63">
         <f>$F25*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O25" s="63">
         <f>$F25*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P25" s="63">
         <f>$F25*Outputs_Internal!M$56/12</f>
@@ -6443,7 +6447,7 @@
       </c>
       <c r="Q25" s="63">
         <f>$F25*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S25" s="63">
         <f t="shared" si="1"/>
@@ -6501,15 +6505,15 @@
       </c>
       <c r="M26" s="63">
         <f>$F26*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N26" s="63">
         <f>$F26*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O26" s="63">
         <f>$F26*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P26" s="63">
         <f>$F26*Outputs_Internal!M$56/12</f>
@@ -6517,19 +6521,19 @@
       </c>
       <c r="Q26" s="63">
         <f>$F26*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S26" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T26" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U26" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V26" s="63">
         <f t="shared" si="4"/>
@@ -6537,7 +6541,7 @@
       </c>
       <c r="W26" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -6575,15 +6579,15 @@
       </c>
       <c r="M27" s="63">
         <f>$F27*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N27" s="63">
         <f>$F27*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O27" s="63">
         <f>$F27*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!M$56/12</f>
@@ -6591,7 +6595,7 @@
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S27" s="63">
         <f t="shared" si="1"/>
@@ -6649,15 +6653,15 @@
       </c>
       <c r="M28" s="63">
         <f>$F28*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N28" s="63">
         <f>$F28*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O28" s="63">
         <f>$F28*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!M$56/12</f>
@@ -6665,7 +6669,7 @@
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S28" s="63">
         <f t="shared" si="1"/>
@@ -6723,15 +6727,15 @@
       </c>
       <c r="M29" s="63">
         <f>$F29*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N29" s="63">
         <f>$F29*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O29" s="63">
         <f>$F29*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!M$56/12</f>
@@ -6739,19 +6743,19 @@
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S29" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T29" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U29" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V29" s="63">
         <f t="shared" si="4"/>
@@ -6759,7 +6763,7 @@
       </c>
       <c r="W29" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -6797,15 +6801,15 @@
       </c>
       <c r="M30" s="63">
         <f>$F30*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N30" s="63">
         <f>$F30*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O30" s="63">
         <f>$F30*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!M$56/12</f>
@@ -6813,7 +6817,7 @@
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S30" s="63">
         <f t="shared" si="1"/>
@@ -6871,15 +6875,15 @@
       </c>
       <c r="M31" s="63">
         <f>$F31*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N31" s="63">
         <f>$F31*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O31" s="63">
         <f>$F31*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!M$56/12</f>
@@ -6887,7 +6891,7 @@
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S31" s="63">
         <f t="shared" si="1"/>
@@ -6945,15 +6949,15 @@
       </c>
       <c r="M32" s="63">
         <f>$F32*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N32" s="63">
         <f>$F32*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O32" s="63">
         <f>$F32*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!M$56/12</f>
@@ -6961,19 +6965,19 @@
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S32" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T32" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U32" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V32" s="63">
         <f t="shared" si="4"/>
@@ -6981,7 +6985,7 @@
       </c>
       <c r="W32" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -7019,15 +7023,15 @@
       </c>
       <c r="M33" s="63">
         <f>$F33*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N33" s="63">
         <f>$F33*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O33" s="63">
         <f>$F33*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!M$56/12</f>
@@ -7035,7 +7039,7 @@
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S33" s="63">
         <f t="shared" si="1"/>
@@ -7093,15 +7097,15 @@
       </c>
       <c r="M34" s="63">
         <f>$F34*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N34" s="63">
         <f>$F34*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O34" s="63">
         <f>$F34*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!M$56/12</f>
@@ -7109,7 +7113,7 @@
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S34" s="63">
         <f t="shared" si="1"/>
@@ -7167,15 +7171,15 @@
       </c>
       <c r="M35" s="63">
         <f>$F35*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N35" s="63">
         <f>$F35*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O35" s="63">
         <f>$F35*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!M$56/12</f>
@@ -7183,19 +7187,19 @@
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S35" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T35" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U35" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V35" s="63">
         <f t="shared" si="4"/>
@@ -7203,7 +7207,7 @@
       </c>
       <c r="W35" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -7241,15 +7245,15 @@
       </c>
       <c r="M36" s="63">
         <f>$F36*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N36" s="63">
         <f>$F36*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O36" s="63">
         <f>$F36*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!M$56/12</f>
@@ -7257,7 +7261,7 @@
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S36" s="63">
         <f t="shared" si="1"/>
@@ -7315,15 +7319,15 @@
       </c>
       <c r="M37" s="63">
         <f>$F37*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N37" s="63">
         <f>$F37*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O37" s="63">
         <f>$F37*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!M$56/12</f>
@@ -7331,7 +7335,7 @@
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S37" s="63">
         <f t="shared" si="1"/>
@@ -7389,15 +7393,15 @@
       </c>
       <c r="M38" s="63">
         <f>$F38*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N38" s="63">
         <f>$F38*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O38" s="63">
         <f>$F38*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!M$56/12</f>
@@ -7405,19 +7409,19 @@
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S38" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T38" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U38" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V38" s="63">
         <f t="shared" si="4"/>
@@ -7425,7 +7429,7 @@
       </c>
       <c r="W38" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -7463,15 +7467,15 @@
       </c>
       <c r="M39" s="63">
         <f>$F39*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N39" s="63">
         <f>$F39*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O39" s="63">
         <f>$F39*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!M$56/12</f>
@@ -7479,7 +7483,7 @@
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S39" s="63">
         <f t="shared" si="1"/>
@@ -7537,15 +7541,15 @@
       </c>
       <c r="M40" s="63">
         <f>$F40*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N40" s="63">
         <f>$F40*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O40" s="63">
         <f>$F40*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!M$56/12</f>
@@ -7553,7 +7557,7 @@
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S40" s="63">
         <f t="shared" si="1"/>
@@ -7611,15 +7615,15 @@
       </c>
       <c r="M41" s="63">
         <f>$F41*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N41" s="63">
         <f>$F41*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O41" s="63">
         <f>$F41*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!M$56/12</f>
@@ -7627,19 +7631,19 @@
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S41" s="63">
         <f t="shared" si="1"/>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T41" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U41" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V41" s="63">
         <f t="shared" si="4"/>
@@ -7647,7 +7651,7 @@
       </c>
       <c r="W41" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -7685,15 +7689,15 @@
       </c>
       <c r="M42" s="63">
         <f>$F42*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N42" s="63">
         <f>$F42*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O42" s="63">
         <f>$F42*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!M$56/12</f>
@@ -7701,7 +7705,7 @@
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S42" s="63">
         <f t="shared" si="1"/>
@@ -7759,15 +7763,15 @@
       </c>
       <c r="M43" s="63">
         <f>$F43*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N43" s="63">
         <f>$F43*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O43" s="63">
         <f>$F43*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!M$56/12</f>
@@ -7775,7 +7779,7 @@
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S43" s="63">
         <f t="shared" si="1"/>
@@ -7833,15 +7837,15 @@
       </c>
       <c r="M44" s="63">
         <f>$F44*Outputs_Internal!$D$56/12</f>
-        <v>7456.458333333333</v>
+        <v>8902.9333333333325</v>
       </c>
       <c r="N44" s="63">
         <f>$F44*Outputs_Internal!K$56/12</f>
-        <v>1949.7009725900461</v>
+        <v>2352.6997427690162</v>
       </c>
       <c r="O44" s="63">
         <f>$F44*Outputs_Internal!L$56/12</f>
-        <v>5506.7573607432869</v>
+        <v>6550.2335905643167</v>
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!M$56/12</f>
@@ -7849,19 +7853,19 @@
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!N$56/12</f>
-        <v>2.2719326420173047E-13</v>
+        <v>2.8337332480532497E-13</v>
       </c>
       <c r="S44" s="63">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>22369.375</v>
+        <v>26708.799999999996</v>
       </c>
       <c r="T44" s="63">
         <f t="shared" si="2"/>
-        <v>5849.1029177701384</v>
+        <v>7058.0992283070482</v>
       </c>
       <c r="U44" s="63">
         <f t="shared" si="3"/>
-        <v>16520.272082229862</v>
+        <v>19650.700771692951</v>
       </c>
       <c r="V44" s="63">
         <f t="shared" si="4"/>
@@ -7869,7 +7873,7 @@
       </c>
       <c r="W44" s="63">
         <f t="shared" si="5"/>
-        <v>6.8157979260519141E-13</v>
+        <v>8.5011997441597495E-13</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -11887,11 +11891,11 @@
       </c>
       <c r="D14" s="16">
         <f>IF(Inputs!D5="Y", Prices!$C$6, IF(Inputs!D5="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="16">
         <f>IF(Inputs!E5="Y", Prices!$C$6, IF(Inputs!E5="N", Prices!$D$6, 0))</f>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="F14" s="16">
         <f>IF(Inputs!F5="Y", Prices!$C$6, IF(Inputs!F5="N", Prices!$D$6, 0))</f>
@@ -12146,7 +12150,7 @@
       </c>
       <c r="E26" s="16">
         <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
-        <v>24570.000000000004</v>
+        <v>36400</v>
       </c>
       <c r="F26" s="16">
         <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
@@ -12399,11 +12403,11 @@
       </c>
       <c r="D38" s="16">
         <f>IF(Inputs!D5="Y", Prices!$C$6, IF(Inputs!D5="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E38" s="16">
         <f>IF(Inputs!E5="Y", Prices!$C$6, IF(Inputs!E5="N", Prices!$D$6, 0))</f>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="F38" s="16">
         <f>IF(Inputs!F5="Y", Prices!$C$6, IF(Inputs!F5="N", Prices!$D$6, 0))</f>
@@ -12658,7 +12662,7 @@
       </c>
       <c r="E50" s="16">
         <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
-        <v>24570.000000000004</v>
+        <v>36400</v>
       </c>
       <c r="F50" s="16">
         <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
@@ -12979,7 +12983,7 @@
       </c>
       <c r="D65" s="20">
         <f>IF(Inputs!D23="Y", Prices!$C23, 0)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E65" s="20">
         <f>IF(Inputs!E23="Y", Prices!$C23, 0)</f>
@@ -13252,7 +13256,7 @@
       </c>
       <c r="K74" s="23">
         <f t="shared" ref="K74:O74" si="6">D65+D74+$J74</f>
-        <v>28000.0013</v>
+        <v>33600.001300000004</v>
       </c>
       <c r="L74" s="23">
         <f t="shared" si="6"/>
@@ -13571,7 +13575,7 @@
       </c>
       <c r="D83" s="20">
         <f>D65</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E83" s="20">
         <f>E65</f>
@@ -14071,11 +14075,11 @@
       </c>
       <c r="D104" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D68, D71:D77, D98:D102)</f>
-        <v>59464</v>
+        <v>68064</v>
       </c>
       <c r="E104" s="7">
         <f t="shared" ref="E104:H104" si="24">SUM(E38:E47, E50:E59, E62:E68, E71:E77, E98:E102)</f>
-        <v>54570</v>
+        <v>69400</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="24"/>
@@ -14099,11 +14103,11 @@
       </c>
       <c r="D106" s="1">
         <f>IF(D116=1, 0, IF(D116=2, $E$119, IF(D116=3, $E$120, IF(D116=4, $E$121, IF(D116=5, $E$122, "")))))</f>
-        <v>0</v>
+        <v>-30628.799999999999</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" ref="E106:H106" si="25">IF(E116=1, 0, IF(E116=2, $E$119, IF(E116=3, $E$120, IF(E116=4, $E$121, IF(E116=5, $E$122, "")))))</f>
-        <v>-24556.5</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="25"/>
@@ -14152,11 +14156,11 @@
       </c>
       <c r="D110" s="7">
         <f>SUM(D104, D106)</f>
-        <v>59464</v>
+        <v>37435.199999999997</v>
       </c>
       <c r="E110" s="7">
         <f>SUM(E104, E106)</f>
-        <v>30013.5</v>
+        <v>69400</v>
       </c>
       <c r="F110" s="7">
         <f>SUM(F104, F106)</f>
@@ -14178,11 +14182,11 @@
       </c>
       <c r="D113" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D104,$D$104:$H$104),5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" s="21">
         <f t="shared" ref="E113:H113" si="26">IFERROR(_xlfn.RANK.EQ(E104,$D$104:$H$104),5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="21">
         <f t="shared" si="26"/>
@@ -14219,11 +14223,11 @@
       <c r="B115" s="27"/>
       <c r="D115" s="21">
         <f>SUM(D113:D114)</f>
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="E115" s="21">
         <f t="shared" ref="E115:H115" si="27">SUM(E113:E114)</f>
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="F115" s="21">
         <f t="shared" si="27"/>
@@ -14242,11 +14246,11 @@
       <c r="B116" s="27"/>
       <c r="D116" s="21">
         <f>_xlfn.RANK.EQ(D115, $D$115:$H$115, 5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="21">
         <f t="shared" ref="E116:H116" si="28">_xlfn.RANK.EQ(E115, $D$115:$H$115, 5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="21">
         <f t="shared" si="28"/>
@@ -14277,7 +14281,7 @@
       </c>
       <c r="E119" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(2, $D$116:$H$116, 0))*Prices!$L$10*-1</f>
-        <v>-24556.5</v>
+        <v>-30628.799999999999</v>
       </c>
     </row>
     <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -14323,9 +14327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14420,25 +14422,28 @@
         <v>20</v>
       </c>
       <c r="C6" s="42">
-        <v>15000</v>
+        <f>$L$25*15000</f>
+        <v>18000</v>
       </c>
       <c r="D6" s="42">
-        <v>30000</v>
+        <f>IF(Inputs!$C$3="Monthly",33000,30000)</f>
+        <v>33000</v>
       </c>
       <c r="E6" s="38">
-        <v>0.27</v>
+        <f>IF(Inputs!$C$3="Monthly",0.4,0.27)</f>
+        <v>0.4</v>
       </c>
       <c r="F6" s="38">
         <f>$E6*F$4</f>
-        <v>0.16200000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ref="G6:H6" si="0">$E6*G$4</f>
-        <v>6.4799999999999996E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H6" s="38">
         <f t="shared" si="0"/>
-        <v>5.4000000000000006E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
@@ -14474,22 +14479,24 @@
         <v>21</v>
       </c>
       <c r="C10" s="44">
-        <v>1000</v>
+        <f>$L$25*1000</f>
+        <v>1200</v>
       </c>
       <c r="E10" s="40">
-        <v>0.04</v>
+        <f>$L$25*0.04</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F10" s="40">
         <f t="shared" ref="F10:H18" si="1">$E10*F$4</f>
-        <v>2.4E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="G10" s="40">
         <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
+        <v>1.1519999999999999E-2</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>9.6000000000000009E-3</v>
       </c>
       <c r="K10" t="s">
         <v>119</v>
@@ -14503,22 +14510,24 @@
         <v>8</v>
       </c>
       <c r="C11" s="44">
-        <v>4000</v>
+        <f>$L$25*4000</f>
+        <v>4800</v>
       </c>
       <c r="E11" s="40">
-        <v>0.05</v>
+        <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="40">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G11" s="40">
         <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <v>1.6800000000000002E-2</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="K11" t="s">
         <v>120</v>
@@ -14532,22 +14541,24 @@
         <v>22</v>
       </c>
       <c r="C12" s="44">
-        <v>2000</v>
+        <f>$L$25*2000</f>
+        <v>2400</v>
       </c>
       <c r="E12" s="40">
-        <v>0.04</v>
+        <f>$L$25*0.04</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F12" s="40">
         <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="G12" s="40">
         <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
+        <v>1.1519999999999999E-2</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>9.6000000000000009E-3</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -14555,22 +14566,24 @@
         <v>9</v>
       </c>
       <c r="C13" s="44">
-        <v>2000</v>
+        <f>$L$25*2000</f>
+        <v>2400</v>
       </c>
       <c r="E13" s="40">
-        <v>0.04</v>
+        <f>$L$25*0.04</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F13" s="40">
         <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="G13" s="40">
         <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
+        <v>1.1519999999999999E-2</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>9.6000000000000009E-3</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -14579,22 +14592,24 @@
         <v>10</v>
       </c>
       <c r="C14" s="44">
-        <v>6000</v>
+        <f>$L$25*6000</f>
+        <v>7200</v>
       </c>
       <c r="E14" s="40">
-        <v>0.05</v>
+        <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14" s="40">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G14" s="40">
         <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <v>1.6800000000000002E-2</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="K14" s="58" t="s">
         <v>61</v>
@@ -14608,22 +14623,24 @@
         <v>79</v>
       </c>
       <c r="C15" s="44">
-        <v>4000</v>
+        <f>$L$25*4000</f>
+        <v>4800</v>
       </c>
       <c r="E15" s="40">
-        <v>0.05</v>
+        <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G15" s="40">
         <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <v>1.6800000000000002E-2</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>62</v>
@@ -14637,22 +14654,24 @@
         <v>11</v>
       </c>
       <c r="C16" s="45">
-        <v>10000</v>
+        <f>$L$25*10000</f>
+        <v>12000</v>
       </c>
       <c r="E16" s="41">
-        <v>0.18</v>
+        <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
+        <v>0.25</v>
       </c>
       <c r="F16" s="41">
         <f t="shared" si="1"/>
-        <v>0.108</v>
+        <v>0.15</v>
       </c>
       <c r="G16" s="41">
         <f t="shared" si="1"/>
-        <v>4.3199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H16" s="41">
         <f t="shared" si="1"/>
-        <v>3.5999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
@@ -14662,22 +14681,24 @@
         <v>12</v>
       </c>
       <c r="C17" s="45">
-        <v>5000</v>
+        <f>$L$25*5000</f>
+        <v>6000</v>
       </c>
       <c r="E17" s="41">
-        <v>7.0000000000000007E-2</v>
+        <f>IF(Inputs!$C$3="Monthly",0.1,0.07)</f>
+        <v>0.1</v>
       </c>
       <c r="F17" s="41">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G17" s="41">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H17" s="41">
         <f t="shared" si="1"/>
-        <v>1.4000000000000002E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -14685,9 +14706,11 @@
         <v>23</v>
       </c>
       <c r="C18" s="45">
-        <v>5000</v>
+        <f>$L$25*5000</f>
+        <v>6000</v>
       </c>
       <c r="E18" s="41">
+        <f>$L$25*0</f>
         <v>0</v>
       </c>
       <c r="F18" s="41">
@@ -14721,9 +14744,11 @@
         <v>14</v>
       </c>
       <c r="C20" s="44">
-        <v>8500</v>
+        <f>$L$25*8500</f>
+        <v>10200</v>
       </c>
       <c r="E20" s="40">
+        <f>$L$25*0</f>
         <v>0</v>
       </c>
       <c r="F20" s="40">
@@ -14750,22 +14775,24 @@
         <v>15</v>
       </c>
       <c r="C21" s="44">
-        <v>33000</v>
+        <f>$L$25*33000</f>
+        <v>39600</v>
       </c>
       <c r="E21" s="40">
-        <v>0.28000000000000003</v>
+        <f>IF(Inputs!$C$3="Monthly",0.4,0.28)</f>
+        <v>0.4</v>
       </c>
       <c r="F21" s="40">
         <f t="shared" si="2"/>
-        <v>0.16800000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="G21" s="40">
         <f t="shared" si="2"/>
-        <v>6.720000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
-        <v>5.6000000000000008E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -14773,22 +14800,24 @@
         <v>16</v>
       </c>
       <c r="C22" s="45">
-        <v>35000</v>
+        <f>$L$25*35000</f>
+        <v>42000</v>
       </c>
       <c r="E22" s="41">
-        <v>0.28999999999999998</v>
+        <f>IF(Inputs!$C$3="Monthly",0.42,0.29)</f>
+        <v>0.42</v>
       </c>
       <c r="F22" s="41">
         <f t="shared" si="2"/>
-        <v>0.17399999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="G22" s="41">
         <f t="shared" si="2"/>
-        <v>6.9599999999999995E-2</v>
+        <v>0.10079999999999999</v>
       </c>
       <c r="H22" s="41">
         <f t="shared" si="2"/>
-        <v>5.7999999999999996E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -14796,22 +14825,24 @@
         <v>17</v>
       </c>
       <c r="C23" s="45">
-        <v>28000</v>
+        <f>$L$25*28000</f>
+        <v>33600</v>
       </c>
       <c r="E23" s="41">
-        <v>0.18</v>
+        <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
+        <v>0.25</v>
       </c>
       <c r="F23" s="41">
         <f t="shared" si="2"/>
-        <v>0.108</v>
+        <v>0.15</v>
       </c>
       <c r="G23" s="41">
         <f t="shared" si="2"/>
-        <v>4.3199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H23" s="41">
         <f t="shared" si="2"/>
-        <v>3.5999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>128</v>
@@ -14849,22 +14880,31 @@
         <v>101</v>
       </c>
       <c r="C25" s="45">
-        <v>20000</v>
+        <f>$L$25*20000</f>
+        <v>24000</v>
       </c>
       <c r="E25" s="41">
-        <v>0.14000000000000001</v>
+        <f>$L$25*0.14</f>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F25" s="41">
         <f t="shared" si="3"/>
-        <v>8.4000000000000005E-2</v>
+        <v>0.1008</v>
       </c>
       <c r="G25" s="41">
         <f t="shared" si="3"/>
-        <v>3.3600000000000005E-2</v>
+        <v>4.0320000000000002E-2</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="3"/>
-        <v>2.8000000000000004E-2</v>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="97">
+        <f>IF(Inputs!$C$3="Monthly",Prices!$L$23,1)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -14872,22 +14912,24 @@
         <v>99</v>
       </c>
       <c r="C26" s="82">
-        <v>6750</v>
+        <f>$L$25*6750</f>
+        <v>8100</v>
       </c>
       <c r="E26" s="83">
-        <v>0.42</v>
+        <f>IF(Inputs!$C$3="Monthly",0.6,0.42)</f>
+        <v>0.6</v>
       </c>
       <c r="F26" s="83">
         <f t="shared" si="3"/>
-        <v>0.252</v>
+        <v>0.36</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="3"/>
-        <v>0.10079999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H26" s="83">
         <f t="shared" si="3"/>
-        <v>8.4000000000000005E-2</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
